--- a/Input.xlsx
+++ b/Input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\NTTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88C25C4-C244-4A88-B4ED-02BFEB706C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE9EF28-CA35-4957-A845-9B087FFF5834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>name</t>
     <phoneticPr fontId="2"/>
@@ -56,9 +56,6 @@
     <t>Redmi Note 11 Pro 5G</t>
   </si>
   <si>
-    <t>選択する</t>
-  </si>
-  <si>
     <t>ds_phone_color</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -75,35 +72,20 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>男性</t>
-  </si>
-  <si>
     <t>性別</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メールマガジンを受け取らない</t>
-  </si>
-  <si>
-    <t>検証</t>
-  </si>
-  <si>
     <t>性</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タロウ</t>
-  </si>
-  <si>
     <t>名</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>セイ</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ケンショウ</t>
   </si>
   <si>
     <t>生年月日の年</t>
@@ -136,23 +118,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1990</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1000004</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>郵便番号</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>東京都千代田区大手町１丁目</t>
   </si>
   <si>
     <t>プルダウンの住所</t>
@@ -162,10 +129,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>５－１</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>番地</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -178,21 +141,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>passw0rd1</t>
-  </si>
-  <si>
     <t>gooIDパスワード</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>クレジットカード名義</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TARO KENSHO</t>
-  </si>
-  <si>
-    <t>4111111111111111</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -214,22 +167,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2034</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>セキュリティコード</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>123</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メイ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -311,10 +252,6 @@
   </si>
   <si>
     <t>ds_birth_date</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>080-6182-6303</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -333,26 +270,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ナイトタイムブルー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Redmi Note 10T</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ebisumart No</t>
-  </si>
-  <si>
-    <t>NTTR_2ND</t>
-  </si>
-  <si>
-    <t>hoa.dao</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>abcd1234</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ds_mail_password</t>
@@ -413,9 +331,6 @@
   </si>
   <si>
     <t>お申し込み情報_お支払方法の選択</t>
-  </si>
-  <si>
-    <t>クレジットカード</t>
   </si>
   <si>
     <t>ds_ebisu_client_id</t>
@@ -486,21 +401,6 @@
   </si>
   <si>
     <t>お申し込み情報_クーポンコード入力（任意）</t>
-  </si>
-  <si>
-    <t>太郎</t>
-    <rPh sb="0" eb="2">
-      <t>タロウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ファーストスクエア　イーストタワー１２Ｆ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>分割払い(24回)</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -901,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA711085-9CB6-40E5-A86E-5A7BBC745BFD}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -927,9 +827,7 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -939,337 +837,281 @@
     </row>
     <row r="3" spans="1:4" ht="56.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="56.25">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>93</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="4" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="37.5">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="4" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="37.5">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="4" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="10" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B30" s="8"/>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>72</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="9" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="4" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE9EF28-CA35-4957-A845-9B087FFF5834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1419CA14-7C75-4434-B386-21E6D18C46C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>name</t>
     <phoneticPr fontId="2"/>
@@ -39,368 +39,274 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ds_phone_name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>購入するスマートフォンの名</t>
+    <t>ds_master_no</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>価格マスタNo</t>
     <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Redmi Note 11 Pro 5G</t>
-  </si>
-  <si>
-    <t>ds_phone_color</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_payment_times</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_other_option</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>その他オプション選択</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>性別</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>性</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>名</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>セイ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>生年月日の年</t>
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通貨区分</t>
     <rPh sb="0" eb="4">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>トシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>生年月日の月</t>
+      <t>ツウカクブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>円建て</t>
+    <rPh sb="0" eb="1">
+      <t>エンダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_currency</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表題</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_title</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決裁分類</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部課</t>
+    <rPh sb="0" eb="2">
+      <t>ブカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>営業担当</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>起案者</t>
+    <rPh sb="0" eb="3">
+      <t>キアンシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決定者</t>
+    <rPh sb="0" eb="3">
+      <t>ケッテイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>運用開始日</t>
     <rPh sb="0" eb="4">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>生年月日の日</t>
-    <rPh sb="0" eb="4">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
+      <t>ウンヨウカイシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>郵便番号</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プルダウンの住所</t>
-    <rPh sb="6" eb="8">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>番地</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>建物名</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>電話番号</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>gooIDパスワード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クレジットカード名義</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クレジットカード番号</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>有効期限の月</t>
-    <rPh sb="5" eb="6">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>有効期限の年</t>
-    <rPh sb="5" eb="6">
-      <t>トシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>セキュリティコード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メイ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_gender</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_last_name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_first_name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_last_kana_name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_first_kana_name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_birth_year</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_birth_month</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_zip_code</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_address1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_address2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_address3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_tel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_gooID_password</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_mail_magazine</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_card_name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_card_number</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_credit_limit_month</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_credit_limit_year</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_security_code</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_birth_date</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>お支払回数：
-分割払い(24回)
-一括払い</t>
-    <rPh sb="17" eb="20">
-      <t>イッカツバラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>端末カラー:
-ナイトタイムブルー
-グラファイトグレー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ebisumart No</t>
-  </si>
-  <si>
-    <t>ds_mail_password</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>注文内容の確認用メールのパスワード</t>
+    <t>特殊キー</t>
     <rPh sb="0" eb="2">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_email</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_gooID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>gooID
-※連絡先と同じ</t>
-    <rPh sb="7" eb="10">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>連絡先メールアドレス
-※csvファイルのメール一覧から取得</t>
-    <rPh sb="0" eb="3">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_payment_method</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>お申し込み情報_お支払方法の選択</t>
-  </si>
-  <si>
-    <t>ds_ebisu_client_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_ebisu_login_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_ebisu_password</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>ebisumart</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
+      <t>トクシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_approval</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_department</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_creator</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_saler</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_drafter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_decider</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_apply_date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_special_key</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
         <charset val="128"/>
-      </rPr>
-      <t>管理画面の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p 1 l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
         <charset val="128"/>
-      </rPr>
-      <t>利用者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1D1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <rPh sb="9" eb="13">
-      <t>カンリガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ebisumart管理画面のパスワード</t>
-    <rPh sb="9" eb="13">
-      <t>カンリガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_coupon_code</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>お申し込み情報_クーポンコード入力（任意）</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n sai, h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n 100 kí t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t xml:space="preserve">ự + 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n sai khi ko nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST Test yyyymmdd</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -453,22 +359,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF1D1C1D"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -514,7 +420,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -802,7 +708,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B34"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -831,288 +737,192 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="56.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="56.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="37.5">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="B19" s="2"/>
-      <c r="C19" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="37.5">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="B20" s="2"/>
-      <c r="C20" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="A31" s="3"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="A32" s="3"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="A33" s="3"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="C33" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1419CA14-7C75-4434-B386-21E6D18C46C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A8D3BF-5DB0-4C1B-8450-8E8AE2443594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SC-03" sheetId="27" r:id="rId1"/>
+    <sheet name="SC-01" sheetId="27" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>name</t>
     <phoneticPr fontId="2"/>
@@ -40,13 +40,6 @@
   </si>
   <si>
     <t>ds_master_no</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>価格マスタNo</t>
-    <rPh sb="0" eb="2">
-      <t>カカク</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -127,185 +120,113 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>運用開始日</t>
-    <rPh sb="0" eb="4">
-      <t>ウンヨウカイシ</t>
-    </rPh>
+    <t>ds_approval</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_department</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_creator</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_saler</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_drafter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_decider</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3A1A-001435-001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部長決裁</t>
+    <rPh sb="0" eb="1">
+      <t>ブチョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dummy-naoto.suzuki.g3@mail.toray</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dummy-takahiro.aoki.v8@mail.toray</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dummy-michihiro.akaki.t7@mail.toray</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dummy-shinichi.imai.c2@mail.toray</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_username</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_password</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>passpass</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン用のユーザ名</t>
     <rPh sb="4" eb="5">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特殊キー</t>
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン用のパスワード</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索用の価格マスタNo</t>
     <rPh sb="0" eb="2">
-      <t>トクシュ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_approval</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_department</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_creator</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_saler</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_drafter</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_decider</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_apply_date</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_special_key</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>Nh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ậ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p 1 l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ầ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n sai, h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>ơ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n 100 kí t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t xml:space="preserve">ự + 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ầ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>n sai khi ko nh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ậ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AGEST Test yyyymmdd</t>
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規デモ</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -313,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,18 +284,12 @@
       <family val="3"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -400,13 +315,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
@@ -424,8 +340,10 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{20E3AA4E-F896-496A-A0B0-1F40A8D693A9}"/>
   </cellStyles>
@@ -708,7 +626,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -731,109 +649,125 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>9</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -926,7 +860,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{FD9A9C86-F5F2-463C-9816-6E4E35FE99A0}"/>
+    <hyperlink ref="B10" r:id="rId2" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{AFE861EA-7DA5-4FDA-B683-9A6FCEA23EB6}"/>
+    <hyperlink ref="B11" r:id="rId3" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{9D196FB0-10CF-4AC3-B83F-7FDA952E12E9}"/>
+    <hyperlink ref="B12" r:id="rId4" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{64241611-540A-462E-AFC2-D6190440BE41}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A8D3BF-5DB0-4C1B-8450-8E8AE2443594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EC85D6-4A16-4AEB-912A-6746FBD94B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>3A1A-001435-001</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>部長決裁</t>
     <rPh sb="0" eb="1">
       <t>ブチョウ</t>
@@ -227,6 +223,10 @@
     <rPh sb="12" eb="14">
       <t>シンキ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3A1A-001435-0001</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -626,7 +626,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -649,25 +649,25 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -676,10 +676,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -688,7 +688,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -700,7 +700,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -731,7 +731,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
@@ -742,7 +742,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -753,7 +753,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -764,7 +764,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EC85D6-4A16-4AEB-912A-6746FBD94B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F655D5B-0D3C-449C-B5FF-472A20FDD1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SC-01" sheetId="27" r:id="rId1"/>
+    <sheet name="SC-12" sheetId="28" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>name</t>
     <phoneticPr fontId="2"/>
@@ -227,6 +228,80 @@
   </si>
   <si>
     <t>3A1A-001435-0001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_description</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_pattern</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部長決裁</t>
+  </si>
+  <si>
+    <t>ds_discuss</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_copy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dummy-naoto.suzuki.g3@mail.toray,dummy-naoto.suzuki.g3@mail.toray
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dummy-takahiro.aoki.v8@mail.toray,dummy-takahiro.aoki.v8@mail.toray
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dummy-shinichi.imai.c2@mail.toray,dummy-shinichi.imai.c2@mail.toray
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest2
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dummy-naoto.suzuki.g3@mail.toray,dummy-takahiro.aoki.v8@mail.toray
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dummy-michihiro.akaki.t7@mail.toray
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dummy-naoto.suzuki.g3@mail.toray
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dummy-shinichi.imai.c2@mail.toray
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dummy-takahiro.aoki.v8@mail.toray
+</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -292,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +377,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +403,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
@@ -341,6 +422,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -625,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA711085-9CB6-40E5-A86E-5A7BBC745BFD}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -869,4 +957,294 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF17EDD-8CC1-44DD-A9F0-61FEDC3783C6}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="22.875" customWidth="1"/>
+    <col min="9" max="9" width="23.875" customWidth="1"/>
+    <col min="10" max="10" width="24.875" customWidth="1"/>
+    <col min="11" max="11" width="30.75" customWidth="1"/>
+    <col min="12" max="12" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="116.25" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="108" customHeight="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" ht="135" customHeight="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>9999</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="142.5" customHeight="1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="180" customHeight="1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" ht="147.75" customHeight="1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="180.75" customHeight="1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="162.75" customHeight="1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="133.5" customHeight="1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="139.5" customHeight="1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="141" customHeight="1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="121.5" customHeight="1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{C04DAC65-BEFA-419A-86BF-A69D4762BCDC}"/>
+    <hyperlink ref="L2" r:id="rId2" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{309F15AD-52A3-4BE5-8EF4-34BA35D4B095}"/>
+    <hyperlink ref="K2" r:id="rId3" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{26A50205-BF5B-404B-B100-1D1637D20C9C}"/>
+    <hyperlink ref="G3" r:id="rId4" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{277C3B73-A213-4310-8D6D-4AD751F57D0A}"/>
+    <hyperlink ref="H3" r:id="rId5" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{461EF8DE-6257-492C-AA10-F3F6C4B7D0D3}"/>
+    <hyperlink ref="J4" r:id="rId6" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{E0F6462A-823C-426C-B374-9880394197D0}"/>
+    <hyperlink ref="K4" r:id="rId7" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{33BF89B5-7D28-4569-828D-E8C3FBB631F3}"/>
+    <hyperlink ref="G5" r:id="rId8" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{E8DBBDE1-B8FB-4114-ACEB-0ED884124140}"/>
+    <hyperlink ref="H5" r:id="rId9" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{5FC12360-1AFC-44CE-AF52-22C8BF75F6C9}"/>
+    <hyperlink ref="I5" r:id="rId10" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{C3A76C87-C620-4C5C-BD25-59AF5104937F}"/>
+    <hyperlink ref="K5" r:id="rId11" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{DE46C1FA-51BF-46E2-A408-767EE617B187}"/>
+    <hyperlink ref="G6" r:id="rId12" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{E34350ED-B5B5-4AD4-9C93-32FB34FB3A22}"/>
+    <hyperlink ref="I6" r:id="rId13" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{D599547C-BE9D-41C6-B88C-4C9E9FA0298C}"/>
+    <hyperlink ref="J6" r:id="rId14" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{F6C4EA90-7E8F-46AC-8BE1-065FC98A96E7}"/>
+    <hyperlink ref="G7" r:id="rId15" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{FB53E039-28EF-4E4A-8404-BA785B239582}"/>
+    <hyperlink ref="H7" r:id="rId16" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{C061606D-4ED4-433C-B912-2EA3A939AF17}"/>
+    <hyperlink ref="J5" r:id="rId17" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{E3D96F27-45D9-4636-8482-77D8B4FA36BE}"/>
+    <hyperlink ref="H6" r:id="rId18" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{B98EB87E-70F4-4C5A-AA9C-FA2A1FF6B5F8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+</worksheet>
 </file>
--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F655D5B-0D3C-449C-B5FF-472A20FDD1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D64D62-5519-4B3B-A822-0F35E7AA8B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SC-01" sheetId="27" r:id="rId1"/>
-    <sheet name="SC-12" sheetId="28" r:id="rId2"/>
+    <sheet name="Login" sheetId="29" r:id="rId1"/>
+    <sheet name="SC-01" sheetId="27" r:id="rId2"/>
+    <sheet name="SC-12" sheetId="28" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>name</t>
     <phoneticPr fontId="2"/>
@@ -710,11 +711,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA711085-9CB6-40E5-A86E-5A7BBC745BFD}">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8B86D2-5692-4B0D-9DC1-9754181218C9}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA711085-9CB6-40E5-A86E-5A7BBC745BFD}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -737,126 +795,110 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="2"/>
@@ -876,23 +918,23 @@
     </row>
     <row r="17" spans="1:4">
       <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="2"/>
@@ -900,7 +942,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="2"/>
-      <c r="C23" s="10"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="2"/>
@@ -919,52 +961,44 @@
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="B28" s="2"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="B30" s="8"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="8"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{FD9A9C86-F5F2-463C-9816-6E4E35FE99A0}"/>
-    <hyperlink ref="B10" r:id="rId2" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{AFE861EA-7DA5-4FDA-B683-9A6FCEA23EB6}"/>
-    <hyperlink ref="B11" r:id="rId3" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{9D196FB0-10CF-4AC3-B83F-7FDA952E12E9}"/>
-    <hyperlink ref="B12" r:id="rId4" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{64241611-540A-462E-AFC2-D6190440BE41}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{FD9A9C86-F5F2-463C-9816-6E4E35FE99A0}"/>
+    <hyperlink ref="B8" r:id="rId2" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{AFE861EA-7DA5-4FDA-B683-9A6FCEA23EB6}"/>
+    <hyperlink ref="B9" r:id="rId3" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{9D196FB0-10CF-4AC3-B83F-7FDA952E12E9}"/>
+    <hyperlink ref="B10" r:id="rId4" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{64241611-540A-462E-AFC2-D6190440BE41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF17EDD-8CC1-44DD-A9F0-61FEDC3783C6}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D64D62-5519-4B3B-A822-0F35E7AA8B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C386267-F319-408B-9777-DF0F6CBCF9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="29" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>name</t>
     <phoneticPr fontId="2"/>
@@ -232,23 +232,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ds_description</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_pattern</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>部長決裁</t>
-  </si>
-  <si>
-    <t>ds_discuss</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ds_copy</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve">testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1
@@ -303,6 +287,50 @@
   <si>
     <t xml:space="preserve">dummy-takahiro.aoki.v8@mail.toray
 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>approval</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pattern</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>currency</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>creator</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>saler</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>drafter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>discuss</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>decider</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>copy</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -771,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA711085-9CB6-40E5-A86E-5A7BBC745BFD}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -997,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF17EDD-8CC1-44DD-A9F0-61FEDC3783C6}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1019,40 +1047,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="L1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="116.25" customHeight="1">
@@ -1060,22 +1088,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="K2" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="108" customHeight="1">
@@ -1083,17 +1111,17 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -1108,22 +1136,22 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>9999</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="142.5" customHeight="1">
@@ -1134,26 +1162,26 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="180" customHeight="1">
@@ -1164,23 +1192,23 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="J6" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K6" s="14"/>
     </row>
@@ -1192,17 +1220,17 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="180.75" customHeight="1">
@@ -1210,10 +1238,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="162.75" customHeight="1">
@@ -1221,7 +1249,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="133.5" customHeight="1">
@@ -1229,7 +1257,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="139.5" customHeight="1">
@@ -1237,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="141" customHeight="1">
@@ -1245,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="121.5" customHeight="1">
@@ -1253,7 +1281,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C386267-F319-408B-9777-DF0F6CBCF9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8C821C-B3C9-43AA-B96A-4DA6E843D26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="29" r:id="rId1"/>
     <sheet name="SC-01" sheetId="27" r:id="rId2"/>
-    <sheet name="SC-12" sheetId="28" r:id="rId3"/>
+    <sheet name="SC-02" sheetId="30" r:id="rId3"/>
+    <sheet name="SC-12" sheetId="28" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="110">
   <si>
     <t>name</t>
     <phoneticPr fontId="2"/>
@@ -331,6 +332,328 @@
   </si>
   <si>
     <t>copy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3A1A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_torihikikeitai</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_yunaikubun</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_yoto</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_apply_date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_apply_amount</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_product_code</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_user1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_yakujosaki</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_shukkasaki</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_commition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_decimal_point</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_unit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_approval_tanka</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_genka_tanka</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_hireihi_tanka</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_koteihi_tanka</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_expected_amount</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取引形態</t>
+    <rPh sb="0" eb="2">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸内区分</t>
+    <rPh sb="0" eb="4">
+      <t>ユナイクブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>適用開始日</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カイシニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>適用数量</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>品名</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_product_type</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>品種</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>約定先</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出荷先</t>
+    <rPh sb="0" eb="3">
+      <t>シュッカサキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>口銭方式</t>
+    <rPh sb="0" eb="2">
+      <t>コウセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小数桁丸め</t>
+    <rPh sb="0" eb="1">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単位</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決済単価</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原価単価</t>
+    <rPh sb="0" eb="4">
+      <t>ゲンカタンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>比例費単価</t>
+    <rPh sb="0" eb="2">
+      <t>ヒレイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>固定費単価</t>
+    <rPh sb="0" eb="3">
+      <t>コテイヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>期待数量</t>
+    <rPh sb="0" eb="4">
+      <t>キタイスウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>市販</t>
+    <rPh sb="0" eb="1">
+      <t>シハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>国内</t>
+    <rPh sb="0" eb="1">
+      <t>コクナイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 107 -322-*- -CR613-***</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C526A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z99CY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*****</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内口銭(口銭率を減算し乗算)</t>
+    <rPh sb="0" eb="2">
+      <t>コウセン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウセン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゲンザン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウザン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>整数丸め</t>
+    <rPh sb="0" eb="2">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>662</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>372.161</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4531</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -797,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA711085-9CB6-40E5-A86E-5A7BBC745BFD}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -871,7 +1194,9 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,92 +1246,220 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="B21" s="2"/>
-      <c r="C21" s="10"/>
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="B28" s="8"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="8"/>
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="3"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1022,10 +1475,145 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA44F80-F8BF-4D18-BDEA-E72A07F1B3D1}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{0330917E-15DD-4C31-B449-BFF8ECB6D2F3}"/>
+    <hyperlink ref="B8" r:id="rId2" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{C77BB920-F75A-4FDE-BDF5-80F4CF32134A}"/>
+    <hyperlink ref="B9" r:id="rId3" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{D6372140-7094-45C3-A4B4-A3A02E877DCF}"/>
+    <hyperlink ref="B10" r:id="rId4" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{9F31D0CB-0F56-48FB-B558-FAE262C81F65}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF17EDD-8CC1-44DD-A9F0-61FEDC3783C6}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8C821C-B3C9-43AA-B96A-4DA6E843D26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51489417-F3A1-463A-9EC9-D9D6E2145511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="112">
   <si>
     <t>name</t>
     <phoneticPr fontId="2"/>
@@ -654,6 +654,17 @@
   </si>
   <si>
     <t>4531</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_description</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1120,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA711085-9CB6-40E5-A86E-5A7BBC745BFD}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1203,271 +1214,280 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>85</v>
+        <v>99</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="8"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="8"/>
-    </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="3"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{FD9A9C86-F5F2-463C-9816-6E4E35FE99A0}"/>
-    <hyperlink ref="B8" r:id="rId2" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{AFE861EA-7DA5-4FDA-B683-9A6FCEA23EB6}"/>
-    <hyperlink ref="B9" r:id="rId3" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{9D196FB0-10CF-4AC3-B83F-7FDA952E12E9}"/>
-    <hyperlink ref="B10" r:id="rId4" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{64241611-540A-462E-AFC2-D6190440BE41}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{FD9A9C86-F5F2-463C-9816-6E4E35FE99A0}"/>
+    <hyperlink ref="B9" r:id="rId2" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{AFE861EA-7DA5-4FDA-B683-9A6FCEA23EB6}"/>
+    <hyperlink ref="B10" r:id="rId3" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{9D196FB0-10CF-4AC3-B83F-7FDA952E12E9}"/>
+    <hyperlink ref="B11" r:id="rId4" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{64241611-540A-462E-AFC2-D6190440BE41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -1479,7 +1499,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1600,10 +1620,10 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{0330917E-15DD-4C31-B449-BFF8ECB6D2F3}"/>
-    <hyperlink ref="B8" r:id="rId2" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{C77BB920-F75A-4FDE-BDF5-80F4CF32134A}"/>
-    <hyperlink ref="B9" r:id="rId3" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{D6372140-7094-45C3-A4B4-A3A02E877DCF}"/>
-    <hyperlink ref="B10" r:id="rId4" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{9F31D0CB-0F56-48FB-B558-FAE262C81F65}"/>
+    <hyperlink ref="B10" r:id="rId1" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{9F31D0CB-0F56-48FB-B558-FAE262C81F65}"/>
+    <hyperlink ref="B9" r:id="rId2" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{D6372140-7094-45C3-A4B4-A3A02E877DCF}"/>
+    <hyperlink ref="B8" r:id="rId3" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{C77BB920-F75A-4FDE-BDF5-80F4CF32134A}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{0330917E-15DD-4C31-B449-BFF8ECB6D2F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51489417-F3A1-463A-9EC9-D9D6E2145511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9334DC93-B6C4-4D81-926F-44998CA800D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="115">
   <si>
     <t>name</t>
     <phoneticPr fontId="2"/>
@@ -665,6 +665,24 @@
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ds_end_tanka</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>端末単価</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>675</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1131,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA711085-9CB6-40E5-A86E-5A7BBC745BFD}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1386,100 +1404,111 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>88</v>
+        <v>114</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="8"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="8"/>
-    </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9334DC93-B6C4-4D81-926F-44998CA800D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F6FA66-0BB0-48B6-A48B-4238B8F4F7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="29" r:id="rId1"/>
     <sheet name="SC-01" sheetId="27" r:id="rId2"/>
-    <sheet name="SC-02" sheetId="30" r:id="rId3"/>
-    <sheet name="SC-12" sheetId="28" r:id="rId4"/>
+    <sheet name="新規" sheetId="31" r:id="rId3"/>
+    <sheet name="SC-02" sheetId="30" r:id="rId4"/>
+    <sheet name="SC-12" sheetId="28" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="179">
   <si>
     <t>name</t>
     <phoneticPr fontId="2"/>
@@ -683,6 +684,477 @@
   </si>
   <si>
     <t>675</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パターンNo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン01_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン02_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン03_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン04_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン05_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン06_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン07_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン08_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン09_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン10_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン11_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン12_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン13_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン14_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン15_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン16_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン17_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン18_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン19_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン20_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン21_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン22_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン23_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_新規_パターン24_事前準備</t>
+    <rPh sb="5" eb="8">
+      <t>ジドウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>453*</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100 -322-*- -CL474-***</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C103</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10R14</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外口銭(口銭率を順番に乗算)</t>
+    <rPh sb="0" eb="1">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウセン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウセン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウザン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>690</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>384</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 459Y-X10-*- -*****-***</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>口銭なし</t>
+    <rPh sb="0" eb="2">
+      <t>コウセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>564</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>416</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>354</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>62</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>475</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -784,7 +1256,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
@@ -810,6 +1282,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1101,7 +1576,7 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1151,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA711085-9CB6-40E5-A86E-5A7BBC745BFD}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1183,7 +1658,6 @@
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -1524,11 +1998,1073 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902B56DA-79FB-4BA2-8FC0-5CC1462E0D87}">
+  <dimension ref="A1:AC25"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y4" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z4" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA4" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB4" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC4" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{4663C91F-1A89-4F2B-AA36-A0FF5C5B1186}"/>
+    <hyperlink ref="H2" r:id="rId2" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{17C90532-D01B-46A6-804F-E7D701D53AF5}"/>
+    <hyperlink ref="I2" r:id="rId3" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{A91CFD49-0820-40ED-9D72-21E9D9F767E3}"/>
+    <hyperlink ref="J2" r:id="rId4" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{FD435730-7CF7-4F1D-9E2A-5FD424D7852B}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{4A0BDB2B-5268-4C8D-921C-A7C50BF4DB00}"/>
+    <hyperlink ref="H3" r:id="rId6" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{4E8D974D-0067-4218-A8CC-079CE58C94FC}"/>
+    <hyperlink ref="I3" r:id="rId7" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{1226FDBC-CF7C-4FAD-B693-94BC6C0FA6E5}"/>
+    <hyperlink ref="J3" r:id="rId8" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{1A91B12B-5A11-4149-9930-6A2E4E6D09DE}"/>
+    <hyperlink ref="G4" r:id="rId9" xr:uid="{F4AF4801-77A7-494C-BB1B-91DB78D6A204}"/>
+    <hyperlink ref="H4" r:id="rId10" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{E69A43C3-7A63-4862-AB7C-3DE2CAD12BA2}"/>
+    <hyperlink ref="I4" r:id="rId11" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{8839FD6D-E1D1-48C2-BE3C-7728809F521B}"/>
+    <hyperlink ref="J4" r:id="rId12" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{77F7FA9A-27FA-49C2-B129-7D42193D9514}"/>
+    <hyperlink ref="G5" r:id="rId13" xr:uid="{75F52894-C8F3-4F7E-94C1-E3129370ECFF}"/>
+    <hyperlink ref="H5" r:id="rId14" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{E8FB2B19-54BF-40DB-81CF-1EE08E3949CD}"/>
+    <hyperlink ref="I5" r:id="rId15" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{73E1B91D-C3F1-4E22-B285-46459830246F}"/>
+    <hyperlink ref="J5" r:id="rId16" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{7C79A064-9F98-4C22-9DAA-920B852BD666}"/>
+    <hyperlink ref="G6" r:id="rId17" xr:uid="{7FDC77BC-0EA8-4149-8CB4-2F1E3181EA65}"/>
+    <hyperlink ref="H6" r:id="rId18" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{7C935684-12CA-4D14-83AF-F491E46EFB03}"/>
+    <hyperlink ref="I6" r:id="rId19" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{0F187040-0535-4365-9151-6D7B4A6B7755}"/>
+    <hyperlink ref="J6" r:id="rId20" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{B06AA22C-9904-451D-A524-1C723810FCE3}"/>
+    <hyperlink ref="G7" r:id="rId21" xr:uid="{0A1E5F1A-450D-49D5-A67A-92D83312304A}"/>
+    <hyperlink ref="H7" r:id="rId22" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{91EEB0E1-75AA-40BA-B820-D9CB71859574}"/>
+    <hyperlink ref="I7" r:id="rId23" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{1F3FEBB4-3980-4D7D-A1B1-4C9DDA3779AE}"/>
+    <hyperlink ref="J7" r:id="rId24" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{BB10D75B-968C-4518-A5AD-D10C7D31AE7E}"/>
+    <hyperlink ref="G8" r:id="rId25" xr:uid="{DFAC43DB-DC18-4371-8E68-1068CE8F03FF}"/>
+    <hyperlink ref="H8" r:id="rId26" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{437B7934-16A9-4B02-9356-8BCD0DC08DA0}"/>
+    <hyperlink ref="I8" r:id="rId27" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{A18F1EBF-8BFA-44AA-BFA9-E3163FB1F4F1}"/>
+    <hyperlink ref="J8" r:id="rId28" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{46764C12-E1FC-4D07-A461-00D1D02AED3E}"/>
+    <hyperlink ref="G9" r:id="rId29" xr:uid="{65BFC8A2-51C9-413B-A88E-AE170CCA022B}"/>
+    <hyperlink ref="H9" r:id="rId30" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{F56F9920-82E1-48A7-8FF0-C1D7C2A7516D}"/>
+    <hyperlink ref="I9" r:id="rId31" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{EE0D8452-E16E-42CF-A91B-3ED5131DEC28}"/>
+    <hyperlink ref="J9" r:id="rId32" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{92B6A540-BA99-43C5-95BC-7ACA37E473D5}"/>
+    <hyperlink ref="G10" r:id="rId33" xr:uid="{59302C1D-21CE-4504-A5AE-63503A33F4AD}"/>
+    <hyperlink ref="H10" r:id="rId34" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{EDE2AE6D-315E-4DC8-AED3-FEB580D8AD28}"/>
+    <hyperlink ref="I10" r:id="rId35" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{3BF30886-94F8-4F6A-8657-E529528F369B}"/>
+    <hyperlink ref="J10" r:id="rId36" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{22315DFC-F06F-4BEA-9F8B-B71A1A7AF3A5}"/>
+    <hyperlink ref="G11" r:id="rId37" xr:uid="{1D1721B8-3C20-46B4-9EFD-C2426818E6FA}"/>
+    <hyperlink ref="H11" r:id="rId38" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{393876AB-E08E-457A-AB6C-F501D1E94D48}"/>
+    <hyperlink ref="I11" r:id="rId39" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{C5DFC081-8C40-44D5-BF20-180824D85ACD}"/>
+    <hyperlink ref="J11" r:id="rId40" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{A3B81E82-E580-4B62-9DEA-01DB3F7D62D4}"/>
+    <hyperlink ref="G12" r:id="rId41" xr:uid="{8834C92F-DECE-4E79-8F6A-3BB023C5DE97}"/>
+    <hyperlink ref="H12" r:id="rId42" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{0D0EAF3B-08D2-4272-A7B2-05765EBD3F50}"/>
+    <hyperlink ref="I12" r:id="rId43" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{CF6094D9-BBBB-41A3-9869-2FC5619C1083}"/>
+    <hyperlink ref="J12" r:id="rId44" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{C78E6FF5-E286-4880-9E83-CF1814469CFD}"/>
+    <hyperlink ref="G13" r:id="rId45" xr:uid="{6D42D6F1-05E5-4CB4-A10D-19F145C9BAD9}"/>
+    <hyperlink ref="H13" r:id="rId46" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{D3C4ED97-A0BF-45AE-8FE9-C4D7C2B9F828}"/>
+    <hyperlink ref="I13" r:id="rId47" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{A528D82D-5DE5-421A-A464-0489D9BAA46D}"/>
+    <hyperlink ref="J13" r:id="rId48" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{AA0DDE1A-0060-4D5B-945A-0DCF29F24B78}"/>
+    <hyperlink ref="G14" r:id="rId49" xr:uid="{0C5E4FAB-1FE6-4F10-A392-246D7C5D06F0}"/>
+    <hyperlink ref="H14" r:id="rId50" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{833617C7-7425-4C96-9454-D01D15E380F9}"/>
+    <hyperlink ref="I14" r:id="rId51" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{D0460A51-84AF-495C-BC73-7042E879F368}"/>
+    <hyperlink ref="J14" r:id="rId52" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{31A4C017-69A6-48D4-BEA5-1B3541885E58}"/>
+    <hyperlink ref="G15" r:id="rId53" xr:uid="{2103C105-2963-4D34-AF69-BB4F806FDD4F}"/>
+    <hyperlink ref="H15" r:id="rId54" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{B8D5BA21-FA78-45DC-9E6C-6F5BA6659BB8}"/>
+    <hyperlink ref="I15" r:id="rId55" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{7BABCC06-F244-47F7-ACB6-EF56EA9BEB86}"/>
+    <hyperlink ref="J15" r:id="rId56" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{C23173A3-8D80-4FD6-A68A-261BA042A7F2}"/>
+    <hyperlink ref="G16" r:id="rId57" xr:uid="{86BB1291-B09C-4D8E-9950-7D5BC6AF655C}"/>
+    <hyperlink ref="H16" r:id="rId58" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{2F3ADEA1-2124-45E4-AD33-A79765DF4B67}"/>
+    <hyperlink ref="I16" r:id="rId59" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{E3C53B59-5539-4521-956E-E435BF883B8D}"/>
+    <hyperlink ref="J16" r:id="rId60" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{7C48DEBE-2AF0-48EF-BD56-59A5F1215655}"/>
+    <hyperlink ref="G17" r:id="rId61" xr:uid="{32F3CA6F-D537-42FB-BDB3-498A31E0E420}"/>
+    <hyperlink ref="H17" r:id="rId62" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{790F3E92-2A8A-4554-BE1B-DDC1A689825E}"/>
+    <hyperlink ref="I17" r:id="rId63" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{0C2713E6-6591-42B9-81DD-85F23CA7D75A}"/>
+    <hyperlink ref="J17" r:id="rId64" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{6CC97B0F-B6FD-4713-951D-1FDB690E20BD}"/>
+    <hyperlink ref="G18" r:id="rId65" xr:uid="{F5E64C99-32FF-470A-A9BD-5234B45C467C}"/>
+    <hyperlink ref="H18" r:id="rId66" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{E74C84EC-D802-435B-B6B9-FCACAADBF9EB}"/>
+    <hyperlink ref="I18" r:id="rId67" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{8FC61359-FDDA-4F34-BD9F-9F65053828B2}"/>
+    <hyperlink ref="J18" r:id="rId68" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{A719DAC5-E194-44C3-8ACE-CC41ED2CD275}"/>
+    <hyperlink ref="G19" r:id="rId69" xr:uid="{A5F2FAB9-5ECC-44EE-BFBA-0B794B125197}"/>
+    <hyperlink ref="H19" r:id="rId70" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{2EC56C15-5819-420F-A7F2-7FDD5AEBF070}"/>
+    <hyperlink ref="I19" r:id="rId71" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{A49A5294-87C4-4541-895E-E972ED2FB817}"/>
+    <hyperlink ref="J19" r:id="rId72" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{55F0C389-A993-4C3B-9210-3E7D21ACB0DD}"/>
+    <hyperlink ref="G20" r:id="rId73" xr:uid="{EC4C00F8-0A3B-4227-9B98-C3B597F0A36D}"/>
+    <hyperlink ref="H20" r:id="rId74" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{8B8A59A1-6613-497A-B3D4-F06A00FCE81B}"/>
+    <hyperlink ref="I20" r:id="rId75" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{1B4398DB-24B5-4870-B6F2-A71C078C0888}"/>
+    <hyperlink ref="J20" r:id="rId76" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{0F94045C-F435-4177-8CBF-3F87A8038EF9}"/>
+    <hyperlink ref="G21" r:id="rId77" xr:uid="{F7FF80B9-7F6C-447F-BF7B-53EA7C5D9C9C}"/>
+    <hyperlink ref="H21" r:id="rId78" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{F6BCC99A-7D9E-481A-A607-508A504B2DA5}"/>
+    <hyperlink ref="I21" r:id="rId79" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{C72A22A5-30ED-49D0-865D-5D312078DB07}"/>
+    <hyperlink ref="J21" r:id="rId80" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{D27BF0DE-0CAE-44F4-9DF9-1113DA4BCB3E}"/>
+    <hyperlink ref="G22" r:id="rId81" xr:uid="{0C17F606-4BAC-4CCE-9C47-4785AE579242}"/>
+    <hyperlink ref="H22" r:id="rId82" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{1387D7A9-046D-4451-B1B6-EEE2356E861D}"/>
+    <hyperlink ref="I22" r:id="rId83" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{470F0332-1003-4155-A664-7EFC6DC54529}"/>
+    <hyperlink ref="J22" r:id="rId84" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{1EF55BC2-8A42-4A49-BA7D-77A6CE26AA97}"/>
+    <hyperlink ref="G23" r:id="rId85" xr:uid="{50D53A14-16AF-4327-A9FD-C09044053ACC}"/>
+    <hyperlink ref="H23" r:id="rId86" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{21EDFD8F-1AFA-404A-8EED-530919A1EDE1}"/>
+    <hyperlink ref="I23" r:id="rId87" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{00DC6D4C-DD82-4FF5-ABD3-5EC7E3C2031D}"/>
+    <hyperlink ref="J23" r:id="rId88" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{7444B6F1-D517-4722-B4C6-069D5DFC131A}"/>
+    <hyperlink ref="G24" r:id="rId89" xr:uid="{2EE20CE9-8580-45F0-810D-D484E3920983}"/>
+    <hyperlink ref="H24" r:id="rId90" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{7D99B8C0-8EEF-43F3-AA32-A94C65D5E338}"/>
+    <hyperlink ref="I24" r:id="rId91" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{A8608646-6D33-4DC3-A081-1C0FD246A251}"/>
+    <hyperlink ref="J24" r:id="rId92" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{0164564B-4157-4BEC-94A6-18FA7EBA2158}"/>
+    <hyperlink ref="G25" r:id="rId93" xr:uid="{F793EDE4-DB53-4C3F-B7AA-C3E179E3DD96}"/>
+    <hyperlink ref="H25" r:id="rId94" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{ED8EA1E4-AD47-4F1C-A074-AED1755DAE9E}"/>
+    <hyperlink ref="I25" r:id="rId95" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{B478D98A-22F2-4747-944E-3E673E1385C9}"/>
+    <hyperlink ref="J25" r:id="rId96" display="dummy-naoto.suzuki.g3@mail.toray" xr:uid="{3E939062-3B25-4B71-BF9C-F790DA7EBEBF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA44F80-F8BF-4D18-BDEA-E72A07F1B3D1}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1658,7 +3194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF17EDD-8CC1-44DD-A9F0-61FEDC3783C6}">
   <dimension ref="A1:L13"/>
   <sheetViews>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoa.dao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77699326-6A7E-4328-B1AA-CA32B7F46EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EEAA60-E8BB-462E-8232-87D7EFFDBE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="303">
   <si>
     <t>name</t>
   </si>
@@ -323,9 +323,6 @@
     <t>AGEST自動化テスト_新規_パターン02_事前準備</t>
   </si>
   <si>
-    <t>453*</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 100 -322-*- -CL474-***</t>
   </si>
   <si>
@@ -525,9 +522,6 @@
   </si>
   <si>
     <t>D65</t>
-  </si>
-  <si>
-    <t>65**</t>
   </si>
   <si>
     <t>3B-Q273-****X****-*****</t>
@@ -916,6 +910,65 @@
   </si>
   <si>
     <t>testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttestte</t>
+  </si>
+  <si>
+    <t>453*</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>品名</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>5100</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>4032</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>5410</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>4091</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>4154</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>4051</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>5461</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>65**</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>7725</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>7745</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>77**</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>387</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -1079,7 +1132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1103,9 +1156,6 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1118,6 +1168,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1653,7 +1705,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>23</v>
@@ -1673,7 +1725,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>28</v>
@@ -1684,7 +1736,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>31</v>
@@ -1695,7 +1747,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>34</v>
@@ -1706,7 +1758,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>37</v>
@@ -1955,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2025,7 +2077,7 @@
         <v>51</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>54</v>
+        <v>290</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>57</v>
@@ -2049,10 +2101,10 @@
         <v>75</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Z1" s="11" t="s">
         <v>78</v>
@@ -2090,16 +2142,16 @@
         <v>22</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>39</v>
@@ -2175,16 +2227,16 @@
         <v>22</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>39</v>
@@ -2199,25 +2251,25 @@
         <v>50</v>
       </c>
       <c r="P3" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>65</v>
       </c>
       <c r="U3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="W3" s="4" t="s">
         <v>74</v>
@@ -2228,27 +2280,27 @@
         <v>77</v>
       </c>
       <c r="AA3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AB3" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="AC3" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD3" s="4" t="s">
         <v>50</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
@@ -2260,16 +2312,16 @@
         <v>22</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>39</v>
@@ -2284,25 +2336,25 @@
         <v>50</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>97</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>65</v>
       </c>
       <c r="U4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>74</v>
@@ -2313,27 +2365,27 @@
         <v>77</v>
       </c>
       <c r="AA4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB4" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>16</v>
@@ -2342,51 +2394,51 @@
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" s="4">
+        <v>100</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="O5">
+      <c r="R5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="P5">
-        <v>5100</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>118</v>
-      </c>
-      <c r="R5" t="s">
-        <v>119</v>
-      </c>
-      <c r="S5" t="s">
-        <v>100</v>
-      </c>
-      <c r="T5" t="s">
-        <v>65</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="V5">
+      <c r="V5" s="4">
         <v>487</v>
       </c>
       <c r="W5" s="4" t="s">
@@ -2394,31 +2446,31 @@
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" t="s">
+      <c r="Z5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AA5">
-        <v>387</v>
-      </c>
-      <c r="AB5">
+      <c r="AA5" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB5" s="4">
         <v>426</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="4">
         <v>384</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="4">
         <v>42</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="4">
         <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
@@ -2427,83 +2479,83 @@
         <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>4032</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="R6" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S6" t="s">
-        <v>128</v>
-      </c>
-      <c r="T6" t="s">
-        <v>127</v>
+      <c r="T6" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="V6" t="s">
-        <v>129</v>
+      <c r="V6" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="W6" s="4" t="s">
         <v>74</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" t="s">
+      <c r="Z6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AA6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB6">
+      <c r="AA6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB6" s="4">
         <v>401</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="4">
         <v>532</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="4">
         <v>49</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
@@ -2512,80 +2564,81 @@
         <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="K7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L7" t="s">
-        <v>124</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>5410</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="R7" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="S7" t="s">
-        <v>137</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="T7" s="4" t="s">
         <v>65</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>101</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="V7" s="4"/>
       <c r="W7" s="4" t="s">
         <v>74</v>
       </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" t="s">
+      <c r="Z7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AA7" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB7">
+      <c r="AA7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB7" s="4">
         <v>514</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="4">
         <v>478</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="4">
         <v>36</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>16</v>
@@ -2594,75 +2647,79 @@
         <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="K8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L8" t="s">
-        <v>124</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="L8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="O8">
+      <c r="R8" s="4"/>
+      <c r="S8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>563</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>563</v>
+      </c>
+      <c r="AD8" s="4">
         <v>0</v>
       </c>
-      <c r="P8">
-        <v>4091</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>142</v>
-      </c>
-      <c r="S8" t="s">
-        <v>143</v>
-      </c>
-      <c r="T8" t="s">
-        <v>65</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="V8" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB8">
-        <v>563</v>
-      </c>
-      <c r="AC8">
-        <v>563</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
+      <c r="AE8" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:31">
       <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>16</v>
@@ -2671,80 +2728,81 @@
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="K9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" s="4">
+        <v>100</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="O9">
+      <c r="R9" s="4"/>
+      <c r="S9" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="P9">
-        <v>4154</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>148</v>
-      </c>
-      <c r="S9" t="s">
-        <v>149</v>
-      </c>
-      <c r="T9" t="s">
-        <v>65</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="V9" t="s">
-        <v>130</v>
+      <c r="V9" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="W9" s="4" t="s">
         <v>74</v>
       </c>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
-      <c r="Z9" t="s">
+      <c r="Z9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AA9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB9">
+      <c r="AA9" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB9" s="4">
         <v>708</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="4">
         <v>708</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="4">
         <v>0</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -2753,72 +2811,77 @@
         <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="K10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L10" t="s">
-        <v>124</v>
-      </c>
-      <c r="N10" t="s">
-        <v>141</v>
-      </c>
-      <c r="O10">
+      <c r="N10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O10" s="4">
         <v>0</v>
       </c>
-      <c r="P10">
-        <v>4051</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="P10" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="R10" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="S10" t="s">
-        <v>155</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="T10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="4">
         <v>1175.32</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="4">
         <v>318</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="4">
         <v>265</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="4">
         <v>53</v>
       </c>
-      <c r="AE10" s="13">
+      <c r="AE10" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:31">
       <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>16</v>
@@ -2827,43 +2890,43 @@
         <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
         <v>123</v>
       </c>
-      <c r="L11" t="s">
-        <v>124</v>
-      </c>
       <c r="N11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11">
-        <v>5461</v>
+      <c r="P11" s="22" t="s">
+        <v>297</v>
       </c>
       <c r="Q11" t="s">
+        <v>158</v>
+      </c>
+      <c r="R11" t="s">
         <v>159</v>
       </c>
-      <c r="R11" t="s">
-        <v>160</v>
-      </c>
       <c r="S11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T11" t="s">
         <v>65</v>
@@ -2889,10 +2952,10 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>16</v>
@@ -2901,43 +2964,43 @@
         <v>19</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" t="s">
         <v>163</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="K12" t="s">
-        <v>123</v>
-      </c>
-      <c r="L12" t="s">
-        <v>124</v>
-      </c>
-      <c r="N12" t="s">
-        <v>164</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>164</v>
+      </c>
+      <c r="R12" t="s">
         <v>165</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>166</v>
-      </c>
-      <c r="R12" t="s">
-        <v>167</v>
-      </c>
-      <c r="S12" t="s">
-        <v>168</v>
       </c>
       <c r="T12" t="s">
         <v>65</v>
@@ -2963,10 +3026,10 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -2975,43 +3038,43 @@
         <v>19</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" t="s">
         <v>163</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="K13" t="s">
-        <v>123</v>
-      </c>
-      <c r="L13" t="s">
-        <v>124</v>
-      </c>
-      <c r="N13" t="s">
-        <v>164</v>
       </c>
       <c r="O13">
         <v>100</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>169</v>
+      </c>
+      <c r="R13" t="s">
         <v>165</v>
       </c>
-      <c r="Q13" t="s">
-        <v>171</v>
-      </c>
-      <c r="R13" t="s">
-        <v>167</v>
-      </c>
       <c r="S13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="T13" t="s">
         <v>65</v>
@@ -3037,10 +3100,10 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
@@ -3049,19 +3112,19 @@
         <v>19</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="K14" t="s">
         <v>39</v>
@@ -3070,22 +3133,22 @@
         <v>42</v>
       </c>
       <c r="N14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14">
-        <v>7725</v>
+      <c r="P14" s="22" t="s">
+        <v>299</v>
       </c>
       <c r="Q14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="T14" t="s">
         <v>65</v>
@@ -3102,7 +3165,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AA14">
         <v>70</v>
@@ -3122,10 +3185,10 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>16</v>
@@ -3134,19 +3197,19 @@
         <v>19</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="K15" t="s">
         <v>39</v>
@@ -3155,28 +3218,28 @@
         <v>42</v>
       </c>
       <c r="N15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15">
-        <v>7745</v>
+      <c r="P15" s="22" t="s">
+        <v>300</v>
       </c>
       <c r="Q15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="T15" t="s">
         <v>65</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V15">
         <v>50</v>
@@ -3187,7 +3250,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AA15">
         <v>50</v>
@@ -3207,10 +3270,10 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -3219,19 +3282,19 @@
         <v>19</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="K16" t="s">
         <v>39</v>
@@ -3240,31 +3303,31 @@
         <v>42</v>
       </c>
       <c r="N16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>183</v>
+      </c>
+      <c r="R16" t="s">
         <v>184</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>185</v>
-      </c>
-      <c r="R16" t="s">
-        <v>186</v>
-      </c>
-      <c r="S16" t="s">
-        <v>187</v>
       </c>
       <c r="T16" t="s">
         <v>65</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AA16">
         <v>110.999</v>
@@ -3284,10 +3347,10 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -3296,19 +3359,19 @@
         <v>19</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="K17" t="s">
         <v>39</v>
@@ -3317,28 +3380,28 @@
         <v>42</v>
       </c>
       <c r="N17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>188</v>
+      </c>
+      <c r="R17" t="s">
         <v>184</v>
       </c>
-      <c r="Q17" t="s">
-        <v>190</v>
-      </c>
-      <c r="R17" t="s">
-        <v>186</v>
-      </c>
       <c r="S17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="T17" t="s">
         <v>65</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W17" s="4" t="s">
         <v>74</v>
@@ -3346,7 +3409,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AA17">
         <v>111.03</v>
@@ -3366,10 +3429,10 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>16</v>
@@ -3378,19 +3441,19 @@
         <v>19</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="K18" t="s">
         <v>39</v>
@@ -3399,7 +3462,7 @@
         <v>42</v>
       </c>
       <c r="N18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -3408,22 +3471,22 @@
         <v>7791</v>
       </c>
       <c r="Q18" t="s">
+        <v>191</v>
+      </c>
+      <c r="R18" t="s">
+        <v>192</v>
+      </c>
+      <c r="S18" t="s">
         <v>193</v>
       </c>
-      <c r="R18" t="s">
-        <v>194</v>
-      </c>
-      <c r="S18" t="s">
-        <v>195</v>
-      </c>
       <c r="T18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U18" s="4" t="s">
         <v>68</v>
       </c>
       <c r="V18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W18" s="4" t="s">
         <v>74</v>
@@ -3431,10 +3494,10 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AA18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AB18">
         <v>20407.406999999999</v>
@@ -3451,10 +3514,10 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>16</v>
@@ -3463,19 +3526,19 @@
         <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="K19" t="s">
         <v>39</v>
@@ -3484,28 +3547,28 @@
         <v>42</v>
       </c>
       <c r="N19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q19" t="s">
+        <v>198</v>
+      </c>
+      <c r="R19" t="s">
+        <v>199</v>
+      </c>
+      <c r="S19" t="s">
         <v>200</v>
-      </c>
-      <c r="R19" t="s">
-        <v>201</v>
-      </c>
-      <c r="S19" t="s">
-        <v>202</v>
       </c>
       <c r="T19" t="s">
         <v>65</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W19" s="4" t="s">
         <v>74</v>
@@ -3513,10 +3576,10 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AA19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AB19">
         <v>89.9</v>
@@ -3533,10 +3596,10 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>16</v>
@@ -3545,28 +3608,28 @@
         <v>19</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G20" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="K20" t="s">
+        <v>122</v>
+      </c>
+      <c r="L20" t="s">
         <v>123</v>
       </c>
-      <c r="L20" t="s">
-        <v>124</v>
-      </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -3575,25 +3638,25 @@
         <v>7715</v>
       </c>
       <c r="Q20" t="s">
+        <v>204</v>
+      </c>
+      <c r="R20" t="s">
+        <v>205</v>
+      </c>
+      <c r="S20" t="s">
         <v>206</v>
-      </c>
-      <c r="R20" t="s">
-        <v>207</v>
-      </c>
-      <c r="S20" t="s">
-        <v>208</v>
       </c>
       <c r="T20" t="s">
         <v>65</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V20">
         <v>100000</v>
       </c>
       <c r="Z20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AA20">
         <v>100000</v>
@@ -3613,10 +3676,10 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
@@ -3625,49 +3688,49 @@
         <v>19</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G21" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="K21" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21" t="s">
         <v>123</v>
       </c>
-      <c r="L21" t="s">
-        <v>124</v>
-      </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="R21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="T21" t="s">
         <v>65</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W21" s="4" t="s">
         <v>74</v>
@@ -3675,10 +3738,10 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AA21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AB21">
         <v>114</v>
@@ -3695,10 +3758,10 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>16</v>
@@ -3707,49 +3770,49 @@
         <v>19</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="K22" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" t="s">
         <v>123</v>
       </c>
-      <c r="L22" t="s">
-        <v>124</v>
-      </c>
       <c r="N22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q22" t="s">
+        <v>214</v>
+      </c>
+      <c r="R22" t="s">
+        <v>215</v>
+      </c>
+      <c r="S22" t="s">
         <v>216</v>
-      </c>
-      <c r="R22" t="s">
-        <v>217</v>
-      </c>
-      <c r="S22" t="s">
-        <v>218</v>
       </c>
       <c r="T22" t="s">
         <v>65</v>
       </c>
       <c r="Z22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AA22">
         <v>131.30000000000001</v>
@@ -3769,10 +3832,10 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>16</v>
@@ -3781,49 +3844,49 @@
         <v>19</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G23" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="K23" t="s">
+        <v>122</v>
+      </c>
+      <c r="L23" t="s">
         <v>123</v>
       </c>
-      <c r="L23" t="s">
-        <v>124</v>
-      </c>
       <c r="N23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O23">
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="T23" t="s">
         <v>65</v>
       </c>
       <c r="Z23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AA23">
         <v>131.30000000000001</v>
@@ -3843,10 +3906,10 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>16</v>
@@ -3855,49 +3918,49 @@
         <v>19</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G24" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="K24" t="s">
+        <v>122</v>
+      </c>
+      <c r="L24" t="s">
         <v>123</v>
       </c>
-      <c r="L24" t="s">
-        <v>124</v>
-      </c>
       <c r="N24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="S24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="T24" t="s">
         <v>65</v>
       </c>
       <c r="Z24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AA24">
         <v>133.9</v>
@@ -3917,10 +3980,10 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>16</v>
@@ -3929,49 +3992,49 @@
         <v>19</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G25" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="K25" t="s">
+        <v>122</v>
+      </c>
+      <c r="L25" t="s">
         <v>123</v>
       </c>
-      <c r="L25" t="s">
-        <v>124</v>
-      </c>
       <c r="N25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O25">
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q25" t="s">
+        <v>226</v>
+      </c>
+      <c r="R25" t="s">
+        <v>227</v>
+      </c>
+      <c r="S25" t="s">
         <v>228</v>
-      </c>
-      <c r="R25" t="s">
-        <v>229</v>
-      </c>
-      <c r="S25" t="s">
-        <v>230</v>
       </c>
       <c r="T25" t="s">
         <v>65</v>
       </c>
       <c r="Z25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AA25">
         <v>63.44</v>
@@ -4292,7 +4355,7 @@
         <v>51</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>54</v>
@@ -4313,16 +4376,16 @@
         <v>69</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="X1" s="12" t="s">
         <v>75</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AA1" s="11" t="s">
         <v>78</v>
@@ -4343,10 +4406,10 @@
         <v>91</v>
       </c>
       <c r="AG1" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AH1" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:34">
@@ -4354,7 +4417,7 @@
         <v>93</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>16</v>
@@ -4363,7 +4426,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>27</v>
@@ -4384,29 +4447,29 @@
         <v>42</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>50</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>65</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W2" s="4">
         <v>983</v>
@@ -4417,7 +4480,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AB2" s="4">
         <v>7090</v>
@@ -4435,7 +4498,7 @@
         <v>8000</v>
       </c>
       <c r="AG2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AH2">
         <v>9.1</v>
@@ -4446,7 +4509,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
@@ -4476,7 +4539,7 @@
         <v>42</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>50</v>
@@ -4486,25 +4549,25 @@
         <v>6713</v>
       </c>
       <c r="R3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="U3" t="s">
         <v>65</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AA3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AB3">
         <v>379</v>
@@ -4522,7 +4585,7 @@
         <v>10</v>
       </c>
       <c r="AG3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AH3">
         <v>4.8099999999999997E-2</v>
@@ -4530,10 +4593,10 @@
     </row>
     <row r="4" spans="1:34">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
@@ -4542,7 +4605,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>27</v>
@@ -4563,7 +4626,7 @@
         <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -4572,25 +4635,25 @@
         <v>6713</v>
       </c>
       <c r="R4" t="s">
+        <v>251</v>
+      </c>
+      <c r="S4" t="s">
+        <v>252</v>
+      </c>
+      <c r="T4" t="s">
+        <v>252</v>
+      </c>
+      <c r="U4" t="s">
         <v>253</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="X4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA4" t="s">
         <v>254</v>
-      </c>
-      <c r="T4" t="s">
-        <v>254</v>
-      </c>
-      <c r="U4" t="s">
-        <v>255</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="X4" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>256</v>
       </c>
       <c r="AB4">
         <v>152</v>
@@ -4608,7 +4671,7 @@
         <v>10</v>
       </c>
       <c r="AG4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AH4">
         <v>2</v>
@@ -4616,10 +4679,10 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>16</v>
@@ -4628,7 +4691,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>27</v>
@@ -4649,7 +4712,7 @@
         <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -4658,19 +4721,19 @@
         <v>6785</v>
       </c>
       <c r="R5" t="s">
+        <v>258</v>
+      </c>
+      <c r="S5" t="s">
+        <v>259</v>
+      </c>
+      <c r="T5" t="s">
         <v>260</v>
-      </c>
-      <c r="S5" t="s">
-        <v>261</v>
-      </c>
-      <c r="T5" t="s">
-        <v>262</v>
       </c>
       <c r="U5" t="s">
         <v>65</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>74</v>
@@ -4678,7 +4741,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AB5">
         <v>194.88</v>
@@ -4696,7 +4759,7 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AH5">
         <v>0.13</v>
@@ -4704,10 +4767,10 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
@@ -4716,7 +4779,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>27</v>
@@ -4737,7 +4800,7 @@
         <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -4746,19 +4809,19 @@
         <v>6780</v>
       </c>
       <c r="R6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="S6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="T6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="U6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X6" s="4" t="s">
         <v>74</v>
@@ -4766,7 +4829,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AB6">
         <v>193.28</v>
@@ -4784,7 +4847,7 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AH6">
         <v>0.378</v>
@@ -4792,10 +4855,10 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
@@ -4804,7 +4867,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>27</v>
@@ -4825,7 +4888,7 @@
         <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -4834,19 +4897,19 @@
         <v>6798</v>
       </c>
       <c r="R7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="S7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="T7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="U7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X7" s="4" t="s">
         <v>74</v>
@@ -4854,7 +4917,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AB7">
         <v>241.15</v>
@@ -4872,7 +4935,7 @@
         <v>500</v>
       </c>
       <c r="AG7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -4880,10 +4943,10 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>16</v>
@@ -4892,7 +4955,7 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>27</v>
@@ -4913,28 +4976,28 @@
         <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="T8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="U8" t="s">
         <v>65</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X8" s="4" t="s">
         <v>74</v>
@@ -4943,10 +5006,10 @@
         <v>32.19</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AA8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AB8">
         <v>111</v>
@@ -4964,7 +5027,7 @@
         <v>1900</v>
       </c>
       <c r="AG8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AH8">
         <v>3.4483000000000001</v>
@@ -4972,10 +5035,10 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>16</v>
@@ -4984,7 +5047,7 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>27</v>
@@ -4999,28 +5062,28 @@
         <v>36</v>
       </c>
       <c r="K9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" t="s">
         <v>123</v>
       </c>
-      <c r="L9" t="s">
-        <v>124</v>
-      </c>
       <c r="N9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R9" t="s">
+        <v>269</v>
+      </c>
+      <c r="S9" t="s">
+        <v>270</v>
+      </c>
+      <c r="T9" t="s">
         <v>271</v>
-      </c>
-      <c r="S9" t="s">
-        <v>272</v>
-      </c>
-      <c r="T9" t="s">
-        <v>273</v>
       </c>
       <c r="U9" t="s">
         <v>65</v>
@@ -5029,10 +5092,10 @@
         <v>271.39999999999998</v>
       </c>
       <c r="Z9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AA9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AB9">
         <v>441.02499999999998</v>
@@ -5050,7 +5113,7 @@
         <v>16</v>
       </c>
       <c r="AG9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AH9">
         <v>1.2500000000000001E-2</v>
@@ -5105,7 +5168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5129,7 +5192,7 @@
       <c r="C1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="11" t="s">
@@ -5140,115 +5203,115 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="204" customHeight="1">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="204" customHeight="1">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="204" customHeight="1" thickBot="1">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="18" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="204" customHeight="1">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="14" t="s">
+      <c r="E4" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="204" customHeight="1" thickBot="1">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="F5" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="204" customHeight="1" thickBot="1">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="204" customHeight="1" thickBot="1">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="D6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="204" customHeight="1">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="204" customHeight="1" thickBot="1">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="204" customHeight="1" thickBot="1">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="204" customHeight="1">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>277</v>
+      <c r="E7" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EEAA60-E8BB-462E-8232-87D7EFFDBE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C0635C-59F7-495A-81FA-377A473975F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="294">
   <si>
     <t>name</t>
   </si>
@@ -335,15 +335,6 @@
     <t>外口銭(口銭率を順番に乗算)</t>
   </si>
   <si>
-    <t>690</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>03</t>
   </si>
   <si>
@@ -354,21 +345,6 @@
   </si>
   <si>
     <t>口銭なし</t>
-  </si>
-  <si>
-    <t>564</t>
-  </si>
-  <si>
-    <t>416</t>
-  </si>
-  <si>
-    <t>354</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>475</t>
   </si>
   <si>
     <t>04</t>
@@ -964,10 +940,6 @@
   </si>
   <si>
     <t>77**</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>387</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1705,7 +1677,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>23</v>
@@ -1725,7 +1697,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>28</v>
@@ -1736,7 +1708,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>31</v>
@@ -1747,7 +1719,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>34</v>
@@ -1758,7 +1730,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>37</v>
@@ -2007,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI9" sqref="AI9"/>
+    <sheetView tabSelected="1" topLeftCell="L8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2077,7 +2049,7 @@
         <v>51</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>57</v>
@@ -2101,10 +2073,10 @@
         <v>75</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Z1" s="11" t="s">
         <v>78</v>
@@ -2142,16 +2114,16 @@
         <v>22</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>39</v>
@@ -2162,8 +2134,8 @@
       <c r="N2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>50</v>
+      <c r="O2" s="4">
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>53</v>
@@ -2183,8 +2155,8 @@
       <c r="U2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>71</v>
+      <c r="V2" s="4">
+        <v>675</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>74</v>
@@ -2194,20 +2166,20 @@
       <c r="Z2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>90</v>
+      <c r="AA2" s="4">
+        <v>662</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>372.161</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>372.161</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -2227,16 +2199,16 @@
         <v>22</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>39</v>
@@ -2247,11 +2219,11 @@
       <c r="N3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>50</v>
+      <c r="O3" s="4">
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>97</v>
@@ -2268,8 +2240,8 @@
       <c r="U3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="V3" s="4" t="s">
-        <v>101</v>
+      <c r="V3" s="4">
+        <v>690</v>
       </c>
       <c r="W3" s="4" t="s">
         <v>74</v>
@@ -2279,28 +2251,28 @@
       <c r="Z3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AA3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>103</v>
+      <c r="AA3" s="4">
+        <v>690</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>384</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>384</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
@@ -2312,16 +2284,16 @@
         <v>22</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>39</v>
@@ -2332,14 +2304,14 @@
       <c r="N4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>50</v>
+      <c r="O4" s="4">
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>98</v>
@@ -2351,10 +2323,10 @@
         <v>65</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="V4" s="4">
+        <v>564</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>74</v>
@@ -2364,28 +2336,28 @@
       <c r="Z4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AA4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>112</v>
+      <c r="AA4" s="4">
+        <v>564</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>416</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>354</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>62</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>16</v>
@@ -2394,19 +2366,19 @@
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>39</v>
@@ -2415,19 +2387,19 @@
         <v>42</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="O5" s="4">
         <v>100</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>99</v>
@@ -2449,8 +2421,8 @@
       <c r="Z5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AA5" s="21" t="s">
-        <v>302</v>
+      <c r="AA5" s="21">
+        <v>387</v>
       </c>
       <c r="AB5" s="4">
         <v>426</v>
@@ -2467,10 +2439,10 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
@@ -2479,52 +2451,52 @@
         <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>68</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="W6" s="4" t="s">
         <v>74</v>
@@ -2535,7 +2507,7 @@
         <v>77</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AB6" s="4">
         <v>401</v>
@@ -2552,10 +2524,10 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
@@ -2564,43 +2536,43 @@
         <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="O7" s="4">
         <v>0</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>65</v>
@@ -2618,7 +2590,7 @@
         <v>77</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="AB7" s="4">
         <v>514</v>
@@ -2635,10 +2607,10 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>16</v>
@@ -2647,50 +2619,50 @@
         <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O8" s="4">
         <v>0</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>65</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
@@ -2699,7 +2671,7 @@
         <v>77</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AB8" s="4">
         <v>563</v>
@@ -2716,10 +2688,10 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>16</v>
@@ -2728,19 +2700,19 @@
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>39</v>
@@ -2749,20 +2721,20 @@
         <v>42</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O9" s="4">
         <v>100</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>65</v>
@@ -2771,7 +2743,7 @@
         <v>100</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="W9" s="4" t="s">
         <v>74</v>
@@ -2782,7 +2754,7 @@
         <v>77</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AB9" s="4">
         <v>708</v>
@@ -2799,10 +2771,10 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -2811,43 +2783,43 @@
         <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="N10" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O10" s="4">
         <v>0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>65</v>
@@ -2878,10 +2850,10 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>16</v>
@@ -2890,43 +2862,43 @@
         <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="Q11" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="R11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="S11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="T11" t="s">
         <v>65</v>
@@ -2952,10 +2924,10 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>16</v>
@@ -2964,43 +2936,43 @@
         <v>19</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N12" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="Q12" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="R12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="S12" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="T12" t="s">
         <v>65</v>
@@ -3026,10 +2998,10 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -3038,43 +3010,43 @@
         <v>19</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N13" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="O13">
         <v>100</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="Q13" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="R13" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="S13" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="T13" t="s">
         <v>65</v>
@@ -3100,10 +3072,10 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
@@ -3112,19 +3084,19 @@
         <v>19</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K14" t="s">
         <v>39</v>
@@ -3133,22 +3105,22 @@
         <v>42</v>
       </c>
       <c r="N14" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="Q14" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="R14" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="S14" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="T14" t="s">
         <v>65</v>
@@ -3165,7 +3137,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AA14">
         <v>70</v>
@@ -3185,10 +3157,10 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>16</v>
@@ -3197,19 +3169,19 @@
         <v>19</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K15" t="s">
         <v>39</v>
@@ -3218,22 +3190,22 @@
         <v>42</v>
       </c>
       <c r="N15" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="Q15" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="R15" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="S15" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="T15" t="s">
         <v>65</v>
@@ -3250,7 +3222,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AA15">
         <v>50</v>
@@ -3270,10 +3242,10 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
@@ -3282,19 +3254,19 @@
         <v>19</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K16" t="s">
         <v>39</v>
@@ -3303,31 +3275,31 @@
         <v>42</v>
       </c>
       <c r="N16" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="Q16" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="R16" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="S16" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="T16" t="s">
         <v>65</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Z16" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AA16">
         <v>110.999</v>
@@ -3347,10 +3319,10 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>16</v>
@@ -3359,19 +3331,19 @@
         <v>19</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K17" t="s">
         <v>39</v>
@@ -3380,22 +3352,22 @@
         <v>42</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="Q17" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="R17" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="S17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="T17" t="s">
         <v>65</v>
@@ -3409,7 +3381,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AA17">
         <v>111.03</v>
@@ -3429,10 +3401,10 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>16</v>
@@ -3441,19 +3413,19 @@
         <v>19</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K18" t="s">
         <v>39</v>
@@ -3462,7 +3434,7 @@
         <v>42</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -3471,22 +3443,22 @@
         <v>7791</v>
       </c>
       <c r="Q18" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="R18" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="S18" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="T18" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="U18" s="4" t="s">
         <v>68</v>
       </c>
       <c r="V18" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="W18" s="4" t="s">
         <v>74</v>
@@ -3494,10 +3466,10 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AA18" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="AB18">
         <v>20407.406999999999</v>
@@ -3514,10 +3486,10 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>16</v>
@@ -3526,19 +3498,19 @@
         <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K19" t="s">
         <v>39</v>
@@ -3547,22 +3519,22 @@
         <v>42</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Q19" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="R19" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="S19" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="T19" t="s">
         <v>65</v>
@@ -3576,10 +3548,10 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AA19" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AB19">
         <v>89.9</v>
@@ -3596,10 +3568,10 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>16</v>
@@ -3608,28 +3580,28 @@
         <v>19</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -3638,25 +3610,25 @@
         <v>7715</v>
       </c>
       <c r="Q20" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="R20" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="S20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="T20" t="s">
         <v>65</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="V20">
         <v>100000</v>
       </c>
       <c r="Z20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AA20">
         <v>100000</v>
@@ -3676,10 +3648,10 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>16</v>
@@ -3688,43 +3660,43 @@
         <v>19</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L21" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N21" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Q21" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="R21" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="S21" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="T21" t="s">
         <v>65</v>
@@ -3738,10 +3710,10 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AA21" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="AB21">
         <v>114</v>
@@ -3758,10 +3730,10 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>16</v>
@@ -3770,49 +3742,49 @@
         <v>19</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L22" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N22" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Q22" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="R22" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="S22" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="T22" t="s">
         <v>65</v>
       </c>
       <c r="Z22" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AA22">
         <v>131.30000000000001</v>
@@ -3832,10 +3804,10 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>16</v>
@@ -3844,49 +3816,49 @@
         <v>19</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L23" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N23" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O23">
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Q23" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="R23" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="S23" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="T23" t="s">
         <v>65</v>
       </c>
       <c r="Z23" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AA23">
         <v>131.30000000000001</v>
@@ -3906,10 +3878,10 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>16</v>
@@ -3918,49 +3890,49 @@
         <v>19</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K24" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L24" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N24" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Q24" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R24" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="S24" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="T24" t="s">
         <v>65</v>
       </c>
       <c r="Z24" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AA24">
         <v>133.9</v>
@@ -3980,10 +3952,10 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>16</v>
@@ -3992,49 +3964,49 @@
         <v>19</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K25" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L25" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N25" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O25">
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="Q25" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="R25" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="S25" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="T25" t="s">
         <v>65</v>
       </c>
       <c r="Z25" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AA25">
         <v>63.44</v>
@@ -4355,7 +4327,7 @@
         <v>51</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>54</v>
@@ -4376,16 +4348,16 @@
         <v>69</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="X1" s="12" t="s">
         <v>75</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AA1" s="11" t="s">
         <v>78</v>
@@ -4406,10 +4378,10 @@
         <v>91</v>
       </c>
       <c r="AG1" s="11" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AH1" s="11" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:34">
@@ -4417,7 +4389,7 @@
         <v>93</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>16</v>
@@ -4426,7 +4398,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>27</v>
@@ -4447,23 +4419,23 @@
         <v>42</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>50</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>65</v>
@@ -4480,7 +4452,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AB2" s="4">
         <v>7090</v>
@@ -4498,7 +4470,7 @@
         <v>8000</v>
       </c>
       <c r="AG2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AH2">
         <v>9.1</v>
@@ -4509,7 +4481,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
@@ -4539,7 +4511,7 @@
         <v>42</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>50</v>
@@ -4549,13 +4521,13 @@
         <v>6713</v>
       </c>
       <c r="R3" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="U3" t="s">
         <v>65</v>
@@ -4564,10 +4536,10 @@
         <v>100</v>
       </c>
       <c r="X3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AA3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AB3">
         <v>379</v>
@@ -4585,7 +4557,7 @@
         <v>10</v>
       </c>
       <c r="AG3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AH3">
         <v>4.8099999999999997E-2</v>
@@ -4593,10 +4565,10 @@
     </row>
     <row r="4" spans="1:34">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
@@ -4605,7 +4577,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>27</v>
@@ -4626,7 +4598,7 @@
         <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -4635,25 +4607,25 @@
         <v>6713</v>
       </c>
       <c r="R4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="S4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="T4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="U4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>100</v>
       </c>
       <c r="X4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA4" t="s">
         <v>246</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>254</v>
       </c>
       <c r="AB4">
         <v>152</v>
@@ -4671,7 +4643,7 @@
         <v>10</v>
       </c>
       <c r="AG4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AH4">
         <v>2</v>
@@ -4679,10 +4651,10 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>16</v>
@@ -4691,7 +4663,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>27</v>
@@ -4712,7 +4684,7 @@
         <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -4721,13 +4693,13 @@
         <v>6785</v>
       </c>
       <c r="R5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="S5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="T5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="U5" t="s">
         <v>65</v>
@@ -4741,7 +4713,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AB5">
         <v>194.88</v>
@@ -4759,7 +4731,7 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AH5">
         <v>0.13</v>
@@ -4767,10 +4739,10 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
@@ -4779,7 +4751,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>27</v>
@@ -4800,7 +4772,7 @@
         <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -4809,16 +4781,16 @@
         <v>6780</v>
       </c>
       <c r="R6" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="S6" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="T6" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="U6" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>100</v>
@@ -4829,7 +4801,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AB6">
         <v>193.28</v>
@@ -4847,7 +4819,7 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AH6">
         <v>0.378</v>
@@ -4855,10 +4827,10 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
@@ -4867,7 +4839,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>27</v>
@@ -4888,7 +4860,7 @@
         <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -4897,16 +4869,16 @@
         <v>6798</v>
       </c>
       <c r="R7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="S7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="T7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="U7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>100</v>
@@ -4917,7 +4889,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AB7">
         <v>241.15</v>
@@ -4935,7 +4907,7 @@
         <v>500</v>
       </c>
       <c r="AG7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -4943,10 +4915,10 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>16</v>
@@ -4955,7 +4927,7 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>27</v>
@@ -4976,22 +4948,22 @@
         <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="R8" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="S8" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="T8" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="U8" t="s">
         <v>65</v>
@@ -5006,10 +4978,10 @@
         <v>32.19</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AA8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AB8">
         <v>111</v>
@@ -5027,7 +4999,7 @@
         <v>1900</v>
       </c>
       <c r="AG8" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AH8">
         <v>3.4483000000000001</v>
@@ -5035,10 +5007,10 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>16</v>
@@ -5047,7 +5019,7 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>27</v>
@@ -5062,28 +5034,28 @@
         <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="R9" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="S9" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="T9" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="U9" t="s">
         <v>65</v>
@@ -5092,10 +5064,10 @@
         <v>271.39999999999998</v>
       </c>
       <c r="Z9" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AA9" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AB9">
         <v>441.02499999999998</v>
@@ -5113,7 +5085,7 @@
         <v>16</v>
       </c>
       <c r="AG9" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AH9">
         <v>1.2500000000000001E-2</v>
@@ -5207,17 +5179,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="17" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="204" customHeight="1">
@@ -5226,16 +5198,16 @@
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="13" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="204" customHeight="1" thickBot="1">
@@ -5243,17 +5215,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="204" customHeight="1" thickBot="1">
@@ -5261,17 +5233,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="204" customHeight="1" thickBot="1">
@@ -5279,19 +5251,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="204" customHeight="1">
@@ -5299,19 +5271,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C0635C-59F7-495A-81FA-377A473975F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797A6F1-F290-4B82-A1D7-F663BA5E7DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="297">
   <si>
     <t>name</t>
   </si>
@@ -734,12 +734,6 @@
     <t>H2679</t>
   </si>
   <si>
-    <t>S連</t>
-  </si>
-  <si>
-    <t>K:KG</t>
-  </si>
-  <si>
     <t>AGEST自動化テスト_換算_パターン02_事前準備</t>
   </si>
   <si>
@@ -770,9 +764,6 @@
     <t>DD75C</t>
   </si>
   <si>
-    <t>B:枚</t>
-  </si>
-  <si>
     <t>AGEST自動化テスト_換算_パターン04_事前準備</t>
   </si>
   <si>
@@ -825,9 +816,6 @@
   </si>
   <si>
     <t>USD/A:km</t>
-  </si>
-  <si>
-    <t>A:km</t>
   </si>
   <si>
     <t xml:space="preserve">testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest2
@@ -940,6 +928,33 @@
   </si>
   <si>
     <t>77**</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>整数丸め</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>円建て(単価幅)</t>
+  </si>
+  <si>
+    <t>連</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>KG</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>枚</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>km</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1677,7 +1692,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>23</v>
@@ -1697,7 +1712,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>28</v>
@@ -1708,7 +1723,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>31</v>
@@ -1719,7 +1734,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>34</v>
@@ -1730,7 +1745,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>37</v>
@@ -1979,14 +1994,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="34.875" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="6" max="6" width="6.875" customWidth="1"/>
     <col min="7" max="7" width="34.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.25" bestFit="1" customWidth="1"/>
@@ -2049,7 +2065,7 @@
         <v>51</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>57</v>
@@ -2114,16 +2130,16 @@
         <v>22</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>39</v>
@@ -2159,7 +2175,7 @@
         <v>675</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -2199,16 +2215,16 @@
         <v>22</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>39</v>
@@ -2223,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>97</v>
@@ -2284,16 +2300,16 @@
         <v>22</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>39</v>
@@ -2308,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>103</v>
@@ -2369,16 +2385,16 @@
         <v>107</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>39</v>
@@ -2390,10 +2406,10 @@
         <v>108</v>
       </c>
       <c r="O5" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>109</v>
@@ -2448,22 +2464,22 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>113</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>114</v>
@@ -2478,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>117</v>
@@ -2533,22 +2549,22 @@
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>114</v>
@@ -2563,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>126</v>
@@ -2616,22 +2632,22 @@
         <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>39</v>
@@ -2646,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>133</v>
@@ -2697,22 +2713,22 @@
         <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>137</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>39</v>
@@ -2727,7 +2743,7 @@
         <v>100</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>139</v>
@@ -2786,16 +2802,16 @@
         <v>107</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>114</v>
@@ -2810,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>144</v>
@@ -2865,16 +2881,16 @@
         <v>137</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K11" t="s">
         <v>114</v>
@@ -2889,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q11" t="s">
         <v>150</v>
@@ -2939,16 +2955,16 @@
         <v>154</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K12" t="s">
         <v>114</v>
@@ -2963,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q12" t="s">
         <v>156</v>
@@ -3013,16 +3029,16 @@
         <v>154</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K13" t="s">
         <v>114</v>
@@ -3037,7 +3053,7 @@
         <v>100</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q13" t="s">
         <v>161</v>
@@ -3087,16 +3103,16 @@
         <v>164</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K14" t="s">
         <v>39</v>
@@ -3111,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q14" t="s">
         <v>166</v>
@@ -3172,16 +3188,16 @@
         <v>164</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K15" t="s">
         <v>39</v>
@@ -3196,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q15" t="s">
         <v>171</v>
@@ -3257,16 +3273,16 @@
         <v>164</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K16" t="s">
         <v>39</v>
@@ -3281,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q16" t="s">
         <v>175</v>
@@ -3334,16 +3350,16 @@
         <v>164</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K17" t="s">
         <v>39</v>
@@ -3358,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q17" t="s">
         <v>180</v>
@@ -3416,16 +3432,16 @@
         <v>164</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K18" t="s">
         <v>39</v>
@@ -3501,16 +3517,16 @@
         <v>164</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K19" t="s">
         <v>39</v>
@@ -3583,16 +3599,16 @@
         <v>164</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K20" t="s">
         <v>114</v>
@@ -3663,16 +3679,16 @@
         <v>164</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K21" t="s">
         <v>114</v>
@@ -3745,16 +3761,16 @@
         <v>164</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K22" t="s">
         <v>114</v>
@@ -3819,16 +3835,16 @@
         <v>164</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K23" t="s">
         <v>114</v>
@@ -3893,16 +3909,16 @@
         <v>164</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K24" t="s">
         <v>114</v>
@@ -3967,16 +3983,16 @@
         <v>164</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K25" t="s">
         <v>114</v>
@@ -4269,8 +4285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="18.75"/>
@@ -4452,7 +4468,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="AB2" s="4">
         <v>7090</v>
@@ -4470,7 +4486,7 @@
         <v>8000</v>
       </c>
       <c r="AG2" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="AH2">
         <v>9.1</v>
@@ -4481,7 +4497,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
@@ -4521,7 +4537,7 @@
         <v>6713</v>
       </c>
       <c r="R3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>232</v>
@@ -4536,10 +4552,10 @@
         <v>100</v>
       </c>
       <c r="X3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AA3" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="AB3">
         <v>379</v>
@@ -4557,7 +4573,7 @@
         <v>10</v>
       </c>
       <c r="AG3" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="AH3">
         <v>4.8099999999999997E-2</v>
@@ -4568,7 +4584,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
@@ -4577,7 +4593,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>27</v>
@@ -4598,7 +4614,7 @@
         <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -4607,25 +4623,25 @@
         <v>6713</v>
       </c>
       <c r="R4" t="s">
+        <v>241</v>
+      </c>
+      <c r="S4" t="s">
+        <v>242</v>
+      </c>
+      <c r="T4" t="s">
+        <v>242</v>
+      </c>
+      <c r="U4" t="s">
         <v>243</v>
-      </c>
-      <c r="S4" t="s">
-        <v>244</v>
-      </c>
-      <c r="T4" t="s">
-        <v>244</v>
-      </c>
-      <c r="U4" t="s">
-        <v>245</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>100</v>
       </c>
       <c r="X4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AA4" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="AB4">
         <v>152</v>
@@ -4643,7 +4659,7 @@
         <v>10</v>
       </c>
       <c r="AG4" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="AH4">
         <v>2</v>
@@ -4654,7 +4670,7 @@
         <v>105</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>16</v>
@@ -4663,7 +4679,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>27</v>
@@ -4684,7 +4700,7 @@
         <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -4693,13 +4709,13 @@
         <v>6785</v>
       </c>
       <c r="R5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="S5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="T5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="U5" t="s">
         <v>65</v>
@@ -4713,7 +4729,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="AB5">
         <v>194.88</v>
@@ -4731,7 +4747,7 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="AH5">
         <v>0.13</v>
@@ -4742,7 +4758,7 @@
         <v>111</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
@@ -4751,7 +4767,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>27</v>
@@ -4772,7 +4788,7 @@
         <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -4781,16 +4797,16 @@
         <v>6780</v>
       </c>
       <c r="R6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="T6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="U6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>100</v>
@@ -4801,7 +4817,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="AB6">
         <v>193.28</v>
@@ -4819,7 +4835,7 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="AH6">
         <v>0.378</v>
@@ -4830,7 +4846,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>16</v>
@@ -4839,7 +4855,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>27</v>
@@ -4860,7 +4876,7 @@
         <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -4869,16 +4885,16 @@
         <v>6798</v>
       </c>
       <c r="R7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="S7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="T7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="U7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>100</v>
@@ -4889,7 +4905,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="AB7">
         <v>241.15</v>
@@ -4907,7 +4923,7 @@
         <v>500</v>
       </c>
       <c r="AG7" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -4918,7 +4934,7 @@
         <v>130</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>16</v>
@@ -4957,13 +4973,13 @@
         <v>174</v>
       </c>
       <c r="R8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="S8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="T8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="U8" t="s">
         <v>65</v>
@@ -4978,7 +4994,7 @@
         <v>32.19</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AA8" t="s">
         <v>168</v>
@@ -4999,7 +5015,7 @@
         <v>1900</v>
       </c>
       <c r="AG8" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="AH8">
         <v>3.4483000000000001</v>
@@ -5010,7 +5026,7 @@
         <v>135</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>16</v>
@@ -5049,13 +5065,13 @@
         <v>174</v>
       </c>
       <c r="R9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="S9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="T9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U9" t="s">
         <v>65</v>
@@ -5064,7 +5080,7 @@
         <v>271.39999999999998</v>
       </c>
       <c r="Z9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AA9" t="s">
         <v>168</v>
@@ -5085,7 +5101,7 @@
         <v>16</v>
       </c>
       <c r="AG9" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="AH9">
         <v>1.2500000000000001E-2</v>
@@ -5140,8 +5156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -5179,17 +5195,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="204" customHeight="1">
@@ -5198,16 +5214,16 @@
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="13" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="204" customHeight="1" thickBot="1">
@@ -5215,17 +5231,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="204" customHeight="1" thickBot="1">
@@ -5233,17 +5249,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="204" customHeight="1" thickBot="1">
@@ -5251,19 +5267,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="204" customHeight="1">
@@ -5271,19 +5287,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797A6F1-F290-4B82-A1D7-F663BA5E7DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B72CF9-96E7-4D3C-A6DD-B89D358E4D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -870,12 +870,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>AGEST自動化テスト_入力チェック_testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttestte</t>
-  </si>
-  <si>
-    <t>testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttestte</t>
-  </si>
-  <si>
     <t>453*</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -955,6 +949,14 @@
   </si>
   <si>
     <t>km</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>AGEST自動化テスト_入力チェック_testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -2065,7 +2067,7 @@
         <v>51</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>57</v>
@@ -2175,7 +2177,7 @@
         <v>675</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>97</v>
@@ -2324,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>103</v>
@@ -2409,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>109</v>
@@ -2464,7 +2466,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>113</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>117</v>
@@ -2549,7 +2551,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>124</v>
@@ -2579,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>126</v>
@@ -2632,7 +2634,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>124</v>
@@ -2662,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>133</v>
@@ -2713,7 +2715,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>137</v>
@@ -2743,7 +2745,7 @@
         <v>100</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>139</v>
@@ -2826,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>144</v>
@@ -2905,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q11" t="s">
         <v>150</v>
@@ -2979,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q12" t="s">
         <v>156</v>
@@ -3053,7 +3055,7 @@
         <v>100</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q13" t="s">
         <v>161</v>
@@ -3127,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q14" t="s">
         <v>166</v>
@@ -3212,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q15" t="s">
         <v>171</v>
@@ -3297,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q16" t="s">
         <v>175</v>
@@ -3374,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q17" t="s">
         <v>180</v>
@@ -4285,7 +4287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
@@ -4468,7 +4470,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AB2" s="4">
         <v>7090</v>
@@ -4486,7 +4488,7 @@
         <v>8000</v>
       </c>
       <c r="AG2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AH2">
         <v>9.1</v>
@@ -4555,7 +4557,7 @@
         <v>236</v>
       </c>
       <c r="AA3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AB3">
         <v>379</v>
@@ -4573,7 +4575,7 @@
         <v>10</v>
       </c>
       <c r="AG3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AH3">
         <v>4.8099999999999997E-2</v>
@@ -4641,7 +4643,7 @@
         <v>236</v>
       </c>
       <c r="AA4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AB4">
         <v>152</v>
@@ -4659,7 +4661,7 @@
         <v>10</v>
       </c>
       <c r="AG4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AH4">
         <v>2</v>
@@ -4729,7 +4731,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AB5">
         <v>194.88</v>
@@ -4747,7 +4749,7 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AH5">
         <v>0.13</v>
@@ -4817,7 +4819,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AB6">
         <v>193.28</v>
@@ -4835,7 +4837,7 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AH6">
         <v>0.378</v>
@@ -4905,7 +4907,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AB7">
         <v>241.15</v>
@@ -4923,7 +4925,7 @@
         <v>500</v>
       </c>
       <c r="AG7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -5015,7 +5017,7 @@
         <v>1900</v>
       </c>
       <c r="AG8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AH8">
         <v>3.4483000000000001</v>
@@ -5101,7 +5103,7 @@
         <v>16</v>
       </c>
       <c r="AG9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AH9">
         <v>1.2500000000000001E-2</v>
@@ -5156,8 +5158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -5195,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>16</v>
@@ -5231,7 +5233,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="14" t="s">
@@ -5249,7 +5251,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>265</v>
@@ -5267,7 +5269,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>265</v>
@@ -5287,7 +5289,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>265</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B72CF9-96E7-4D3C-A6DD-B89D358E4D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E84BAC0-ADC2-46C2-B547-C2E921C8FABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="296">
   <si>
     <t>name</t>
   </si>
@@ -850,10 +850,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>３Ａ１Ａ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>9999</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -863,10 +859,6 @@
   </si>
   <si>
     <t>輸出(除EXGO)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>輸出(除EXGO)(単価幅)</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -957,6 +949,10 @@
   </si>
   <si>
     <t>AGEST自動化テスト_入力チェック_testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>３Ａ１</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -2067,7 +2063,7 @@
         <v>51</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>57</v>
@@ -2177,7 +2173,7 @@
         <v>675</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -2241,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>97</v>
@@ -2326,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>103</v>
@@ -2411,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>109</v>
@@ -2466,7 +2462,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>113</v>
@@ -2496,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>117</v>
@@ -2551,7 +2547,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>124</v>
@@ -2581,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>126</v>
@@ -2634,7 +2630,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>124</v>
@@ -2664,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>133</v>
@@ -2715,7 +2711,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>137</v>
@@ -2745,7 +2741,7 @@
         <v>100</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>139</v>
@@ -2828,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>144</v>
@@ -2907,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q11" t="s">
         <v>150</v>
@@ -2981,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q12" t="s">
         <v>156</v>
@@ -3055,7 +3051,7 @@
         <v>100</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q13" t="s">
         <v>161</v>
@@ -3129,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q14" t="s">
         <v>166</v>
@@ -3214,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q15" t="s">
         <v>171</v>
@@ -3299,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q16" t="s">
         <v>175</v>
@@ -3376,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q17" t="s">
         <v>180</v>
@@ -4470,7 +4466,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AB2" s="4">
         <v>7090</v>
@@ -4488,7 +4484,7 @@
         <v>8000</v>
       </c>
       <c r="AG2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AH2">
         <v>9.1</v>
@@ -4557,7 +4553,7 @@
         <v>236</v>
       </c>
       <c r="AA3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AB3">
         <v>379</v>
@@ -4575,7 +4571,7 @@
         <v>10</v>
       </c>
       <c r="AG3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AH3">
         <v>4.8099999999999997E-2</v>
@@ -4643,7 +4639,7 @@
         <v>236</v>
       </c>
       <c r="AA4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AB4">
         <v>152</v>
@@ -4661,7 +4657,7 @@
         <v>10</v>
       </c>
       <c r="AG4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AH4">
         <v>2</v>
@@ -4731,7 +4727,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AB5">
         <v>194.88</v>
@@ -4749,7 +4745,7 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AH5">
         <v>0.13</v>
@@ -4819,7 +4815,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AB6">
         <v>193.28</v>
@@ -4837,7 +4833,7 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AH6">
         <v>0.378</v>
@@ -4907,7 +4903,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AB7">
         <v>241.15</v>
@@ -4925,7 +4921,7 @@
         <v>500</v>
       </c>
       <c r="AG7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -5017,7 +5013,7 @@
         <v>1900</v>
       </c>
       <c r="AG8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AH8">
         <v>3.4483000000000001</v>
@@ -5103,7 +5099,7 @@
         <v>16</v>
       </c>
       <c r="AG9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AH9">
         <v>1.2500000000000001E-2</v>
@@ -5156,23 +5152,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="43.375" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
     <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="70" customWidth="1"/>
+    <col min="6" max="6" width="128.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="19.5" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -5192,115 +5188,135 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="204" customHeight="1">
+    <row r="2" spans="1:6" ht="115.5">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="E2" s="15"/>
+        <v>294</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>266</v>
+      </c>
       <c r="F2" s="17" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="204" customHeight="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="132">
       <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>270</v>
+      <c r="B3" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>266</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="204" customHeight="1" thickBot="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="115.5">
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" s="15"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="13" t="s">
+        <v>264</v>
+      </c>
       <c r="D4" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>271</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="E4" s="20"/>
       <c r="F4" s="17" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="204" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" ht="115.5">
       <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
-        <v>266</v>
+        <v>294</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>295</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="204" customHeight="1" thickBot="1">
+    <row r="6" spans="1:6" ht="116.25" thickBot="1">
       <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>266</v>
+        <v>294</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="20" t="s">
+        <v>270</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="204" customHeight="1">
+    <row r="7" spans="1:6" ht="116.25" thickBot="1">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>19</v>
+      <c r="D7" s="15" t="s">
+        <v>271</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>266</v>
       </c>
       <c r="F7" s="17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="115.5">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>263</v>
       </c>
     </row>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E84BAC0-ADC2-46C2-B547-C2E921C8FABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFD1830-A846-4B6E-8523-D41F26C52AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,11 +818,6 @@
     <t>USD/A:km</t>
   </si>
   <si>
-    <t xml:space="preserve">testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest2
-</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t xml:space="preserve">testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest1testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttest
 </t>
     <phoneticPr fontId="6"/>
@@ -953,6 +948,10 @@
   </si>
   <si>
     <t>３Ａ１</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1001testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttestt</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1690,7 +1689,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>23</v>
@@ -1710,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>28</v>
@@ -1721,7 +1720,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>31</v>
@@ -1732,7 +1731,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>34</v>
@@ -1743,7 +1742,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>37</v>
@@ -2063,7 +2062,7 @@
         <v>51</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>57</v>
@@ -2128,16 +2127,16 @@
         <v>22</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>39</v>
@@ -2173,7 +2172,7 @@
         <v>675</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -2213,16 +2212,16 @@
         <v>22</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>39</v>
@@ -2237,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>97</v>
@@ -2298,16 +2297,16 @@
         <v>22</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>39</v>
@@ -2322,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>103</v>
@@ -2383,16 +2382,16 @@
         <v>107</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>39</v>
@@ -2407,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>109</v>
@@ -2462,22 +2461,22 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>113</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>114</v>
@@ -2492,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>117</v>
@@ -2547,22 +2546,22 @@
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>114</v>
@@ -2577,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>126</v>
@@ -2630,22 +2629,22 @@
         <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>39</v>
@@ -2660,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>133</v>
@@ -2711,22 +2710,22 @@
         <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>137</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>39</v>
@@ -2741,7 +2740,7 @@
         <v>100</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>139</v>
@@ -2800,16 +2799,16 @@
         <v>107</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>114</v>
@@ -2824,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>144</v>
@@ -2879,16 +2878,16 @@
         <v>137</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K11" t="s">
         <v>114</v>
@@ -2903,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q11" t="s">
         <v>150</v>
@@ -2953,16 +2952,16 @@
         <v>154</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K12" t="s">
         <v>114</v>
@@ -2977,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q12" t="s">
         <v>156</v>
@@ -3027,16 +3026,16 @@
         <v>154</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K13" t="s">
         <v>114</v>
@@ -3051,7 +3050,7 @@
         <v>100</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q13" t="s">
         <v>161</v>
@@ -3101,16 +3100,16 @@
         <v>164</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K14" t="s">
         <v>39</v>
@@ -3125,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q14" t="s">
         <v>166</v>
@@ -3186,16 +3185,16 @@
         <v>164</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K15" t="s">
         <v>39</v>
@@ -3210,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q15" t="s">
         <v>171</v>
@@ -3271,16 +3270,16 @@
         <v>164</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K16" t="s">
         <v>39</v>
@@ -3295,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q16" t="s">
         <v>175</v>
@@ -3348,16 +3347,16 @@
         <v>164</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="I17" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K17" t="s">
         <v>39</v>
@@ -3372,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q17" t="s">
         <v>180</v>
@@ -3430,16 +3429,16 @@
         <v>164</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K18" t="s">
         <v>39</v>
@@ -3515,16 +3514,16 @@
         <v>164</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="I19" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K19" t="s">
         <v>39</v>
@@ -3597,16 +3596,16 @@
         <v>164</v>
       </c>
       <c r="G20" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K20" t="s">
         <v>114</v>
@@ -3677,16 +3676,16 @@
         <v>164</v>
       </c>
       <c r="G21" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="I21" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K21" t="s">
         <v>114</v>
@@ -3759,16 +3758,16 @@
         <v>164</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="I22" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K22" t="s">
         <v>114</v>
@@ -3833,16 +3832,16 @@
         <v>164</v>
       </c>
       <c r="G23" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="I23" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K23" t="s">
         <v>114</v>
@@ -3907,16 +3906,16 @@
         <v>164</v>
       </c>
       <c r="G24" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K24" t="s">
         <v>114</v>
@@ -3981,16 +3980,16 @@
         <v>164</v>
       </c>
       <c r="G25" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K25" t="s">
         <v>114</v>
@@ -4466,7 +4465,7 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AB2" s="4">
         <v>7090</v>
@@ -4484,7 +4483,7 @@
         <v>8000</v>
       </c>
       <c r="AG2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AH2">
         <v>9.1</v>
@@ -4553,7 +4552,7 @@
         <v>236</v>
       </c>
       <c r="AA3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AB3">
         <v>379</v>
@@ -4571,7 +4570,7 @@
         <v>10</v>
       </c>
       <c r="AG3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH3">
         <v>4.8099999999999997E-2</v>
@@ -4639,7 +4638,7 @@
         <v>236</v>
       </c>
       <c r="AA4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB4">
         <v>152</v>
@@ -4657,7 +4656,7 @@
         <v>10</v>
       </c>
       <c r="AG4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH4">
         <v>2</v>
@@ -4727,7 +4726,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AB5">
         <v>194.88</v>
@@ -4745,7 +4744,7 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AH5">
         <v>0.13</v>
@@ -4815,7 +4814,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AB6">
         <v>193.28</v>
@@ -4833,7 +4832,7 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AH6">
         <v>0.378</v>
@@ -4903,7 +4902,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AB7">
         <v>241.15</v>
@@ -4921,7 +4920,7 @@
         <v>500</v>
       </c>
       <c r="AG7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -5013,7 +5012,7 @@
         <v>1900</v>
       </c>
       <c r="AG8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AH8">
         <v>3.4483000000000001</v>
@@ -5099,7 +5098,7 @@
         <v>16</v>
       </c>
       <c r="AG9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AH9">
         <v>1.2500000000000001E-2</v>
@@ -5155,7 +5154,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -5193,39 +5192,39 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="132">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="99">
       <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="115.5">
@@ -5234,14 +5233,14 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="115.5">
@@ -5249,17 +5248,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="116.25" thickBot="1">
@@ -5267,17 +5266,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="116.25" thickBot="1">
@@ -5285,19 +5284,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>266</v>
-      </c>
       <c r="F7" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="115.5">
@@ -5305,19 +5304,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFD1830-A846-4B6E-8523-D41F26C52AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447A6C7C-35C8-4BFF-827A-303F5B8B4A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="297">
   <si>
     <t>name</t>
   </si>
@@ -698,9 +698,6 @@
     <t>担当者</t>
   </si>
   <si>
-    <t>末端単価</t>
-  </si>
-  <si>
     <t>BSF決裁単価</t>
   </si>
   <si>
@@ -710,9 +707,6 @@
     <t>期待数量単位</t>
   </si>
   <si>
-    <t>換算係数</t>
-  </si>
-  <si>
     <t>AGEST自動化テスト_換算_パターン01_事前準備</t>
   </si>
   <si>
@@ -720,12 +714,6 @@
   </si>
   <si>
     <t>C52</t>
-  </si>
-  <si>
-    <t>6***</t>
-  </si>
-  <si>
-    <t>20-2500-1340X****-****E**</t>
   </si>
   <si>
     <t>H267B</t>
@@ -952,6 +940,38 @@
   </si>
   <si>
     <t>1001testtesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttesttestt</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 -P02L-820XH123- J1G</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>新の決済No</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>旧の決済No</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>N-2023-3G2A-0067</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>N-2023-3G2A-0066</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1689,7 +1709,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>23</v>
@@ -1709,7 +1729,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>28</v>
@@ -1720,7 +1740,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>31</v>
@@ -1731,7 +1751,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>34</v>
@@ -1742,7 +1762,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>37</v>
@@ -1992,7 +2012,7 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2062,7 +2082,7 @@
         <v>51</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>57</v>
@@ -2086,10 +2106,10 @@
         <v>75</v>
       </c>
       <c r="X1" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y1" s="12" t="s">
         <v>223</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>224</v>
       </c>
       <c r="Z1" s="11" t="s">
         <v>78</v>
@@ -2127,16 +2147,16 @@
         <v>22</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>39</v>
@@ -2172,7 +2192,7 @@
         <v>675</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -2212,16 +2232,16 @@
         <v>22</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>39</v>
@@ -2236,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>97</v>
@@ -2297,16 +2317,16 @@
         <v>22</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>39</v>
@@ -2321,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>103</v>
@@ -2382,16 +2402,16 @@
         <v>107</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>39</v>
@@ -2406,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>109</v>
@@ -2461,22 +2481,22 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>113</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>114</v>
@@ -2491,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>117</v>
@@ -2546,22 +2566,22 @@
         <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>114</v>
@@ -2576,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>126</v>
@@ -2629,22 +2649,22 @@
         <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>124</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>39</v>
@@ -2659,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>133</v>
@@ -2710,22 +2730,22 @@
         <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>137</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>39</v>
@@ -2740,7 +2760,7 @@
         <v>100</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>139</v>
@@ -2799,16 +2819,16 @@
         <v>107</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>114</v>
@@ -2823,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>144</v>
@@ -2878,16 +2898,16 @@
         <v>137</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K11" t="s">
         <v>114</v>
@@ -2902,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q11" t="s">
         <v>150</v>
@@ -2952,16 +2972,16 @@
         <v>154</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K12" t="s">
         <v>114</v>
@@ -2976,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q12" t="s">
         <v>156</v>
@@ -3026,16 +3046,16 @@
         <v>154</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K13" t="s">
         <v>114</v>
@@ -3050,7 +3070,7 @@
         <v>100</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q13" t="s">
         <v>161</v>
@@ -3100,16 +3120,16 @@
         <v>164</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K14" t="s">
         <v>39</v>
@@ -3124,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q14" t="s">
         <v>166</v>
@@ -3185,16 +3205,16 @@
         <v>164</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K15" t="s">
         <v>39</v>
@@ -3209,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q15" t="s">
         <v>171</v>
@@ -3270,16 +3290,16 @@
         <v>164</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K16" t="s">
         <v>39</v>
@@ -3294,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q16" t="s">
         <v>175</v>
@@ -3347,16 +3367,16 @@
         <v>164</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K17" t="s">
         <v>39</v>
@@ -3371,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q17" t="s">
         <v>180</v>
@@ -3429,16 +3449,16 @@
         <v>164</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K18" t="s">
         <v>39</v>
@@ -3514,16 +3534,16 @@
         <v>164</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K19" t="s">
         <v>39</v>
@@ -3596,16 +3616,16 @@
         <v>164</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K20" t="s">
         <v>114</v>
@@ -3676,16 +3696,16 @@
         <v>164</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K21" t="s">
         <v>114</v>
@@ -3758,16 +3778,16 @@
         <v>164</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K22" t="s">
         <v>114</v>
@@ -3832,16 +3852,16 @@
         <v>164</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K23" t="s">
         <v>114</v>
@@ -3906,16 +3926,16 @@
         <v>164</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K24" t="s">
         <v>114</v>
@@ -3980,16 +4000,16 @@
         <v>164</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K25" t="s">
         <v>114</v>
@@ -4280,865 +4300,893 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="41.375" customWidth="1"/>
-    <col min="25" max="26" width="12.125" customWidth="1"/>
-    <col min="33" max="33" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="24" max="24" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="12.125" customWidth="1"/>
+    <col min="35" max="35" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="Q1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="T1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="X1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AC1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI1" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="AA1" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF1" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG1" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="AH1" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4">
+        <v>6200</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="U2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="W2" s="4">
+      <c r="Y2" s="4">
         <v>983</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB2" s="4">
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD2" s="4">
         <v>7090</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AE2" s="4">
         <v>528</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AF2" s="4">
         <v>319</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AG2" s="4">
         <v>209</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AH2" s="4">
         <v>8000</v>
       </c>
-      <c r="AG2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AH2">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
+      <c r="AI2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I3" s="6" t="s">
-        <v>33</v>
+        <v>262</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="P3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3">
+        <v>6713</v>
+      </c>
+      <c r="T3" t="s">
+        <v>231</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3">
-        <v>6713</v>
-      </c>
-      <c r="R3" t="s">
-        <v>235</v>
-      </c>
-      <c r="S3" s="4" t="s">
+      <c r="W3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z3" t="s">
         <v>232</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="U3" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="X3" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>288</v>
-      </c>
-      <c r="AB3">
+      <c r="AC3" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD3">
         <v>379</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>152.16999999999999</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>152.16999999999999</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>0</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>10</v>
       </c>
-      <c r="AG3" t="s">
-        <v>290</v>
-      </c>
-      <c r="AH3">
-        <v>4.8099999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
+      <c r="AI3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>6713</v>
+      </c>
+      <c r="T4" t="s">
+        <v>237</v>
+      </c>
+      <c r="U4" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="V4" t="s">
+        <v>238</v>
+      </c>
+      <c r="W4" t="s">
         <v>239</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s">
-        <v>240</v>
-      </c>
-      <c r="O4">
+      <c r="X4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD4">
+        <v>152</v>
+      </c>
+      <c r="AE4">
+        <v>152.16999999999999</v>
+      </c>
+      <c r="AF4">
+        <v>152.16999999999999</v>
+      </c>
+      <c r="AG4">
         <v>0</v>
       </c>
-      <c r="Q4">
-        <v>6713</v>
-      </c>
-      <c r="R4" t="s">
-        <v>241</v>
-      </c>
-      <c r="S4" t="s">
-        <v>242</v>
-      </c>
-      <c r="T4" t="s">
-        <v>242</v>
-      </c>
-      <c r="U4" t="s">
-        <v>243</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="X4" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB4">
-        <v>152</v>
-      </c>
-      <c r="AC4">
-        <v>152.16999999999999</v>
-      </c>
-      <c r="AD4">
-        <v>152.16999999999999</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>10</v>
       </c>
-      <c r="AG4" t="s">
-        <v>290</v>
-      </c>
-      <c r="AH4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
+      <c r="AI4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>6785</v>
+      </c>
+      <c r="T5" t="s">
+        <v>243</v>
+      </c>
+      <c r="U5" t="s">
         <v>244</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="V5" t="s">
         <v>245</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" t="s">
-        <v>246</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>6785</v>
-      </c>
-      <c r="R5" t="s">
-        <v>247</v>
-      </c>
-      <c r="S5" t="s">
-        <v>248</v>
-      </c>
-      <c r="T5" t="s">
-        <v>249</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>65</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" t="s">
-        <v>290</v>
-      </c>
-      <c r="AB5">
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD5">
         <v>194.88</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>1200</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>800</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>400</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>1000</v>
       </c>
-      <c r="AG5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AH5">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
+      <c r="AI5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>6780</v>
+      </c>
+      <c r="T6" t="s">
+        <v>247</v>
+      </c>
+      <c r="U6" t="s">
+        <v>244</v>
+      </c>
+      <c r="V6" t="s">
         <v>245</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" t="s">
-        <v>246</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>6780</v>
-      </c>
-      <c r="R6" t="s">
-        <v>251</v>
-      </c>
-      <c r="S6" t="s">
-        <v>248</v>
-      </c>
-      <c r="T6" t="s">
-        <v>249</v>
-      </c>
-      <c r="U6" t="s">
-        <v>248</v>
-      </c>
-      <c r="V6" s="4" t="s">
+      <c r="W6" t="s">
+        <v>244</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Z6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" t="s">
-        <v>290</v>
-      </c>
-      <c r="AB6">
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD6">
         <v>193.28</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <v>1067</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>603</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>464</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>1000</v>
       </c>
-      <c r="AG6" t="s">
-        <v>288</v>
-      </c>
-      <c r="AH6">
-        <v>0.378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
+      <c r="AI6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>30</v>
+      <c r="G7" t="s">
+        <v>241</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>33</v>
+        <v>262</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M7" t="s">
         <v>39</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>42</v>
       </c>
-      <c r="N7" t="s">
-        <v>246</v>
-      </c>
-      <c r="O7">
+      <c r="P7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q7">
         <v>0</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>6798</v>
-      </c>
-      <c r="R7" t="s">
-        <v>253</v>
-      </c>
-      <c r="S7" t="s">
-        <v>248</v>
       </c>
       <c r="T7" t="s">
         <v>249</v>
       </c>
       <c r="U7" t="s">
-        <v>248</v>
-      </c>
-      <c r="V7" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="V7" t="s">
+        <v>245</v>
+      </c>
+      <c r="W7" t="s">
+        <v>244</v>
+      </c>
+      <c r="X7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="Z7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" t="s">
-        <v>290</v>
-      </c>
-      <c r="AB7">
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD7">
         <v>241.15</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>1143</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>645</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>498</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>500</v>
       </c>
-      <c r="AG7" t="s">
-        <v>288</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
+      <c r="AI7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" s="6" t="s">
-        <v>33</v>
+        <v>262</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M8" t="s">
         <v>39</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>42</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>165</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>0</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>174</v>
       </c>
-      <c r="R8" t="s">
-        <v>255</v>
-      </c>
-      <c r="S8" t="s">
-        <v>256</v>
-      </c>
       <c r="T8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="U8" t="s">
+        <v>252</v>
+      </c>
+      <c r="V8" t="s">
+        <v>252</v>
+      </c>
+      <c r="W8" t="s">
         <v>65</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="AA8" s="4">
         <v>32.19</v>
       </c>
-      <c r="Z8" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="AB8" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC8" t="s">
         <v>168</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>111</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>102.12</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>102.12</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>0</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>1900</v>
       </c>
-      <c r="AG8" t="s">
-        <v>290</v>
-      </c>
-      <c r="AH8">
-        <v>3.4483000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
+      <c r="AI8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>174</v>
+      </c>
+      <c r="T9" t="s">
+        <v>254</v>
+      </c>
+      <c r="U9" t="s">
+        <v>255</v>
+      </c>
+      <c r="V9" t="s">
+        <v>256</v>
+      </c>
+      <c r="W9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA9">
+        <v>271.39999999999998</v>
+      </c>
+      <c r="AB9" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" t="s">
-        <v>114</v>
-      </c>
-      <c r="L9" t="s">
-        <v>115</v>
-      </c>
-      <c r="N9" t="s">
-        <v>165</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>174</v>
-      </c>
-      <c r="R9" t="s">
-        <v>258</v>
-      </c>
-      <c r="S9" t="s">
-        <v>259</v>
-      </c>
-      <c r="T9" t="s">
-        <v>260</v>
-      </c>
-      <c r="U9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y9">
-        <v>271.39999999999998</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
         <v>168</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>441.02499999999998</v>
-      </c>
-      <c r="AC9">
-        <v>264.27999999999997</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
       </c>
       <c r="AE9">
         <v>264.27999999999997</v>
       </c>
       <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>264.27999999999997</v>
+      </c>
+      <c r="AH9">
         <v>16</v>
       </c>
-      <c r="AG9" t="s">
-        <v>291</v>
-      </c>
-      <c r="AH9">
-        <v>1.2500000000000001E-2</v>
+      <c r="AI9" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="I2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="J2" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="G3" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="H3" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="I3" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="J3" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="G4" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="H4" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="I4" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="J4" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
-    <hyperlink ref="G5" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
-    <hyperlink ref="H5" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
-    <hyperlink ref="I5" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
-    <hyperlink ref="J5" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
-    <hyperlink ref="G6" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
-    <hyperlink ref="H6" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
-    <hyperlink ref="I6" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
-    <hyperlink ref="J6" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
-    <hyperlink ref="G7" r:id="rId21" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
-    <hyperlink ref="H7" r:id="rId22" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
-    <hyperlink ref="I7" r:id="rId23" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
-    <hyperlink ref="J7" r:id="rId24" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
-    <hyperlink ref="G8" r:id="rId25" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
-    <hyperlink ref="H8" r:id="rId26" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
-    <hyperlink ref="I8" r:id="rId27" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
-    <hyperlink ref="J8" r:id="rId28" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
-    <hyperlink ref="G9" r:id="rId29" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
-    <hyperlink ref="H9" r:id="rId30" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
-    <hyperlink ref="I9" r:id="rId31" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
-    <hyperlink ref="J9" r:id="rId32" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{C22AF901-ED07-446E-925E-5D430C3868D6}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{1A2D93D0-E74F-4B14-ADC8-9AA0478AEB34}"/>
+    <hyperlink ref="J2" r:id="rId3" xr:uid="{BAFA3B45-2991-499D-A575-718A7C84BBD4}"/>
+    <hyperlink ref="L2" r:id="rId4" xr:uid="{7F6BAF21-A510-4FDC-879D-6A09DF633D1B}"/>
+    <hyperlink ref="I3" r:id="rId5" xr:uid="{1D5F6029-C4C2-4E52-A6D8-73AE7FCD2625}"/>
+    <hyperlink ref="K3" r:id="rId6" xr:uid="{1F2DB785-4315-43E0-89A6-2AE05E627616}"/>
+    <hyperlink ref="J3" r:id="rId7" xr:uid="{EDC77D42-94A8-4845-82B9-AA4780930987}"/>
+    <hyperlink ref="L3" r:id="rId8" xr:uid="{5AF91DA7-A971-45AF-BE58-71598AEA33DE}"/>
+    <hyperlink ref="I4" r:id="rId9" xr:uid="{65F8B1E4-410D-4898-A7D0-75EA71A8E318}"/>
+    <hyperlink ref="K4" r:id="rId10" xr:uid="{FAFD16C9-4197-4143-9FA5-B8D8A58F97C3}"/>
+    <hyperlink ref="J4" r:id="rId11" xr:uid="{7A23F213-EEA9-4841-AC55-D0F13C478A7A}"/>
+    <hyperlink ref="L4" r:id="rId12" xr:uid="{4333D844-CD8C-438A-B9BE-AFE2B3FA6ECA}"/>
+    <hyperlink ref="I5" r:id="rId13" xr:uid="{DD455AB8-4F3C-4235-9949-C8059C52008B}"/>
+    <hyperlink ref="K5" r:id="rId14" xr:uid="{C7ECA4B4-37FA-4906-9323-62ED428B4E3A}"/>
+    <hyperlink ref="J5" r:id="rId15" xr:uid="{0BDD0E48-2006-4982-A376-C6248BE7FD82}"/>
+    <hyperlink ref="L5" r:id="rId16" xr:uid="{E5B15BA9-3D5D-4F3A-95DB-278BB3EAF0D0}"/>
+    <hyperlink ref="I6" r:id="rId17" xr:uid="{92CEFE3E-2C07-4FE7-8233-0E7CE39C3AE2}"/>
+    <hyperlink ref="K6" r:id="rId18" xr:uid="{BFC0E3AE-9480-414D-BF21-9AF4F38C9A2B}"/>
+    <hyperlink ref="J6" r:id="rId19" xr:uid="{FEE751B6-6788-400E-B04E-1CAC9D3C7482}"/>
+    <hyperlink ref="L6" r:id="rId20" xr:uid="{164B1C21-3664-4BB1-BED7-17AA5064B139}"/>
+    <hyperlink ref="I7" r:id="rId21" xr:uid="{875BE2CB-904F-45C4-A143-D120DF8511E0}"/>
+    <hyperlink ref="K7" r:id="rId22" xr:uid="{FE903C0A-DC90-486F-9D02-4C49DC60352B}"/>
+    <hyperlink ref="J7" r:id="rId23" xr:uid="{E9C9E91B-3D1F-4B8E-909D-4BF943E6D7E6}"/>
+    <hyperlink ref="L7" r:id="rId24" xr:uid="{20B2F069-21B6-41BA-A347-E08062C81CFD}"/>
+    <hyperlink ref="I8" r:id="rId25" xr:uid="{9D9FA012-D68E-4436-A14B-9F25C3938538}"/>
+    <hyperlink ref="K8" r:id="rId26" xr:uid="{2EF1B7F8-96D0-47C5-9E31-2CDA838FD9C0}"/>
+    <hyperlink ref="J8" r:id="rId27" xr:uid="{AC08D90F-78AF-4D4B-89C6-0C97C6EA5CA7}"/>
+    <hyperlink ref="L8" r:id="rId28" xr:uid="{B8B5A471-BEC6-4ED1-8296-A5EEA634F835}"/>
+    <hyperlink ref="I9" r:id="rId29" xr:uid="{ABFDB110-73E9-44F1-A1F5-7558B18D90E1}"/>
+    <hyperlink ref="K9" r:id="rId30" xr:uid="{A193BBCC-C8AA-4288-94F4-19672ED56716}"/>
+    <hyperlink ref="J9" r:id="rId31" xr:uid="{3DD9C036-23A3-484D-853E-96FFA30851BC}"/>
+    <hyperlink ref="L9" r:id="rId32" xr:uid="{2931CEAD-E39E-485C-9E03-4AA99F4C1230}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5153,7 +5201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -5192,19 +5240,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="99">
@@ -5212,19 +5260,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="115.5">
@@ -5233,14 +5281,14 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="13" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="115.5">
@@ -5248,17 +5296,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="14" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="116.25" thickBot="1">
@@ -5266,17 +5314,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="116.25" thickBot="1">
@@ -5284,19 +5332,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="115.5">
@@ -5304,19 +5352,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447A6C7C-35C8-4BFF-827A-303F5B8B4A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F97C30-ED47-43EC-99ED-194634AD9D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="298">
   <si>
     <t>name</t>
   </si>
@@ -972,6 +972,10 @@
   </si>
   <si>
     <t>N-2023-3G2A-0066</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>用途</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -2012,7 +2016,7 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -4302,8 +4306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="18.75"/>
@@ -4318,10 +4322,10 @@
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>294</v>
       </c>
       <c r="D1" s="10" t="s">
@@ -4330,7 +4334,7 @@
       <c r="E1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="11" t="s">
@@ -4361,7 +4365,7 @@
         <v>45</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>48</v>
+        <v>297</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>51</v>
@@ -4369,7 +4373,7 @@
       <c r="R1" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="10" t="s">
         <v>269</v>
       </c>
       <c r="T1" s="11" t="s">
@@ -4378,25 +4382,25 @@
       <c r="U1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="11" t="s">
         <v>223</v>
       </c>
       <c r="AC1" s="11" t="s">

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F97C30-ED47-43EC-99ED-194634AD9D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFA1A90-F955-4F9A-ADF0-414D44B3E9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="新規" sheetId="3" r:id="rId3"/>
     <sheet name="SC-02" sheetId="4" r:id="rId4"/>
     <sheet name="SC-03" sheetId="5" r:id="rId5"/>
-    <sheet name="SC-12" sheetId="6" r:id="rId6"/>
+    <sheet name="SC-03_換算" sheetId="7" r:id="rId6"/>
+    <sheet name="SC-12" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="300">
   <si>
     <t>name</t>
   </si>
@@ -976,6 +977,26 @@
   </si>
   <si>
     <t>用途</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>新の決裁No</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>旧の決裁No</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッサイ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -4304,10 +4325,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AI59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG13" sqref="AG13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="18.75"/>
@@ -5156,6 +5177,49 @@
         <v>287</v>
       </c>
     </row>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+    <row r="32" customFormat="1"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" customFormat="1"/>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
+    <row r="42" customFormat="1"/>
+    <row r="43" customFormat="1"/>
+    <row r="44" customFormat="1"/>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
+    <row r="47" customFormat="1"/>
+    <row r="48" customFormat="1"/>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
+    <row r="51" customFormat="1"/>
+    <row r="52" customFormat="1"/>
+    <row r="53" customFormat="1"/>
+    <row r="54" customFormat="1"/>
+    <row r="55" customFormat="1"/>
+    <row r="56" customFormat="1"/>
+    <row r="57" customFormat="1"/>
+    <row r="58" customFormat="1"/>
+    <row r="59" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="6"/>
   <hyperlinks>
@@ -5202,6 +5266,931 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
+  <dimension ref="A1:AI50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="3" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="37.5">
+      <c r="A1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4">
+        <v>6200</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>983</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>7090</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>528</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>319</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>209</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>8000</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3">
+        <v>6713</v>
+      </c>
+      <c r="T3" t="s">
+        <v>231</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="W3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD3">
+        <v>379</v>
+      </c>
+      <c r="AE3">
+        <v>152.16999999999999</v>
+      </c>
+      <c r="AF3">
+        <v>152.16999999999999</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>10</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>6713</v>
+      </c>
+      <c r="T4" t="s">
+        <v>237</v>
+      </c>
+      <c r="U4" t="s">
+        <v>238</v>
+      </c>
+      <c r="V4" t="s">
+        <v>238</v>
+      </c>
+      <c r="W4" t="s">
+        <v>239</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD4">
+        <v>152</v>
+      </c>
+      <c r="AE4">
+        <v>152.16999999999999</v>
+      </c>
+      <c r="AF4">
+        <v>152.16999999999999</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>6785</v>
+      </c>
+      <c r="T5" t="s">
+        <v>243</v>
+      </c>
+      <c r="U5" t="s">
+        <v>244</v>
+      </c>
+      <c r="V5" t="s">
+        <v>245</v>
+      </c>
+      <c r="W5" t="s">
+        <v>65</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD5">
+        <v>194.88</v>
+      </c>
+      <c r="AE5">
+        <v>1200</v>
+      </c>
+      <c r="AF5">
+        <v>800</v>
+      </c>
+      <c r="AG5">
+        <v>400</v>
+      </c>
+      <c r="AH5">
+        <v>1000</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>6780</v>
+      </c>
+      <c r="T6" t="s">
+        <v>247</v>
+      </c>
+      <c r="U6" t="s">
+        <v>244</v>
+      </c>
+      <c r="V6" t="s">
+        <v>245</v>
+      </c>
+      <c r="W6" t="s">
+        <v>244</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD6">
+        <v>193.28</v>
+      </c>
+      <c r="AE6">
+        <v>1067</v>
+      </c>
+      <c r="AF6">
+        <v>603</v>
+      </c>
+      <c r="AG6">
+        <v>464</v>
+      </c>
+      <c r="AH6">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>6798</v>
+      </c>
+      <c r="T7" t="s">
+        <v>249</v>
+      </c>
+      <c r="U7" t="s">
+        <v>244</v>
+      </c>
+      <c r="V7" t="s">
+        <v>245</v>
+      </c>
+      <c r="W7" t="s">
+        <v>244</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD7">
+        <v>241.15</v>
+      </c>
+      <c r="AE7">
+        <v>1143</v>
+      </c>
+      <c r="AF7">
+        <v>645</v>
+      </c>
+      <c r="AG7">
+        <v>498</v>
+      </c>
+      <c r="AH7">
+        <v>500</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>174</v>
+      </c>
+      <c r="T8" t="s">
+        <v>251</v>
+      </c>
+      <c r="U8" t="s">
+        <v>252</v>
+      </c>
+      <c r="V8" t="s">
+        <v>252</v>
+      </c>
+      <c r="W8" t="s">
+        <v>65</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>32.19</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD8">
+        <v>111</v>
+      </c>
+      <c r="AE8">
+        <v>102.12</v>
+      </c>
+      <c r="AF8">
+        <v>102.12</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>1900</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>174</v>
+      </c>
+      <c r="T9" t="s">
+        <v>254</v>
+      </c>
+      <c r="U9" t="s">
+        <v>255</v>
+      </c>
+      <c r="V9" t="s">
+        <v>256</v>
+      </c>
+      <c r="W9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA9">
+        <v>271.39999999999998</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD9">
+        <v>441.02499999999998</v>
+      </c>
+      <c r="AE9">
+        <v>264.27999999999997</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>264.27999999999997</v>
+      </c>
+      <c r="AH9">
+        <v>16</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+    <row r="32" customFormat="1"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" customFormat="1"/>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
+    <row r="42" customFormat="1"/>
+    <row r="43" customFormat="1"/>
+    <row r="44" customFormat="1"/>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
+    <row r="47" customFormat="1"/>
+    <row r="48" customFormat="1"/>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
+  </sheetData>
+  <phoneticPr fontId="6"/>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{DE334DD5-2BBB-4C97-A68B-1E406CBA61C6}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{A8FB9A3E-3E52-41A6-BBE2-BFDA7BF66C03}"/>
+    <hyperlink ref="J2" r:id="rId3" xr:uid="{81A699D2-0F9F-4175-99F8-1A6BD88EED02}"/>
+    <hyperlink ref="L2" r:id="rId4" xr:uid="{65649292-118F-4194-8B6F-7DBD0797BF7B}"/>
+    <hyperlink ref="I3" r:id="rId5" xr:uid="{A9BBAEC7-E361-4232-8617-F9B6CAF856CD}"/>
+    <hyperlink ref="K3" r:id="rId6" xr:uid="{B1F307B8-F3E9-45CB-89C5-373AEBC4BF15}"/>
+    <hyperlink ref="J3" r:id="rId7" xr:uid="{0D1248AA-399F-47F3-B36D-D43064A1D81F}"/>
+    <hyperlink ref="L3" r:id="rId8" xr:uid="{89D5F231-AE30-4326-BB0E-8B1D5DF033E6}"/>
+    <hyperlink ref="I4" r:id="rId9" xr:uid="{347C68FE-E551-469A-A778-519DCC0E22CB}"/>
+    <hyperlink ref="K4" r:id="rId10" xr:uid="{64306736-416F-457E-92FE-7B7CFAC980CE}"/>
+    <hyperlink ref="J4" r:id="rId11" xr:uid="{F062A991-E411-47EF-87C7-02229FCC4883}"/>
+    <hyperlink ref="L4" r:id="rId12" xr:uid="{5F41AB6C-D68F-4A72-8E1A-3125259F1AA8}"/>
+    <hyperlink ref="I5" r:id="rId13" xr:uid="{28AA4890-DE1E-4B1A-90CC-05B0FBFC0002}"/>
+    <hyperlink ref="K5" r:id="rId14" xr:uid="{EEA5AEB2-7419-4FD6-AEC7-6B04D920B0BD}"/>
+    <hyperlink ref="J5" r:id="rId15" xr:uid="{2AA73A65-3733-43DB-A862-1C5E19C64D44}"/>
+    <hyperlink ref="L5" r:id="rId16" xr:uid="{BCBE1382-BDB0-462D-94CF-78D03EAA736C}"/>
+    <hyperlink ref="I6" r:id="rId17" xr:uid="{C1B2B284-F40F-4DB0-878B-10FC01369903}"/>
+    <hyperlink ref="K6" r:id="rId18" xr:uid="{D2EC5C1B-9132-4CE0-8387-5D6AAFF7AF0A}"/>
+    <hyperlink ref="J6" r:id="rId19" xr:uid="{F711B310-7817-482E-B2A6-2C21030A0BF9}"/>
+    <hyperlink ref="L6" r:id="rId20" xr:uid="{8EFFFB82-EF2D-4651-82B0-32E8D4DEA328}"/>
+    <hyperlink ref="I7" r:id="rId21" xr:uid="{1C429C56-287A-4389-AB85-88EDF1ABC02F}"/>
+    <hyperlink ref="K7" r:id="rId22" xr:uid="{89065BCB-E83E-481E-95CE-CB6AE82105EA}"/>
+    <hyperlink ref="J7" r:id="rId23" xr:uid="{640F09D7-275B-44EC-9E94-CDF311A7B1B6}"/>
+    <hyperlink ref="L7" r:id="rId24" xr:uid="{9E3742B9-7874-48DA-B8C2-17B5E9C62543}"/>
+    <hyperlink ref="I8" r:id="rId25" xr:uid="{CFCF5FD8-D26F-4BED-847F-8679E400DC49}"/>
+    <hyperlink ref="K8" r:id="rId26" xr:uid="{9AEA9314-ED1D-458F-9BBF-9D9E3E953EBC}"/>
+    <hyperlink ref="J8" r:id="rId27" xr:uid="{B0465067-414F-4836-8295-5041726581A4}"/>
+    <hyperlink ref="L8" r:id="rId28" xr:uid="{F4C53FF5-21B4-4FB8-B27C-4F07809B116A}"/>
+    <hyperlink ref="I9" r:id="rId29" xr:uid="{DFD3FD48-9CA5-4894-841D-936CAFC13EF2}"/>
+    <hyperlink ref="K9" r:id="rId30" xr:uid="{0F964305-20F4-46F9-A3A5-0C825A2844B6}"/>
+    <hyperlink ref="J9" r:id="rId31" xr:uid="{87029CA2-0B38-485C-BACC-9B08B8C77C6D}"/>
+    <hyperlink ref="L9" r:id="rId32" xr:uid="{BAF729AF-9361-423E-9BF0-972B674946CD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFA1A90-F955-4F9A-ADF0-414D44B3E9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC63027-ADA2-4838-A13F-93466E787995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5270,7 +5270,7 @@
   <dimension ref="A1:AI50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5278,7 +5278,7 @@
     <col min="2" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="37.5">
+    <row r="1" spans="1:35">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC63027-ADA2-4838-A13F-93466E787995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C65497F-8BF7-442F-A459-51FA24899452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="307">
   <si>
     <t>name</t>
   </si>
@@ -945,26 +945,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 12 -P02L-820XH123- J1G</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>新の決済No</t>
-    <rPh sb="0" eb="1">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッサイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>旧の決済No</t>
-    <rPh sb="0" eb="1">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッサイ</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -997,6 +977,42 @@
     <rPh sb="2" eb="4">
       <t>ケッサイ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>N-2023-3A1A-0023</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>N-2023-3HYA-0149</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>N-2023-3HWA-0077</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>N-2023-3HWA-0078</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>N-2023-3B6A-0082</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dummy-naoto.suzuki.g3@mail.toray</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dummy-takahiro.aoki.v8@mail.toray</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dummy-michihiro.akaki.t7@mail.toray</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dummy-shinichi.imai.c2@mail.toray</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -2036,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -4328,7 +4344,7 @@
   <dimension ref="A1:AI59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="18.75"/>
@@ -4344,10 +4360,10 @@
         <v>92</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>14</v>
@@ -4386,7 +4402,7 @@
         <v>45</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>51</v>
@@ -4451,10 +4467,10 @@
         <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>225</v>
@@ -4469,16 +4485,16 @@
         <v>226</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>39</v>
@@ -4546,10 +4562,10 @@
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>230</v>
@@ -4564,16 +4580,16 @@
         <v>22</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>39</v>
@@ -4636,10 +4652,10 @@
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>234</v>
@@ -4654,16 +4670,16 @@
         <v>235</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>39</v>
@@ -4725,10 +4741,10 @@
         <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>240</v>
@@ -4743,16 +4759,16 @@
         <v>241</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>39</v>
@@ -4816,10 +4832,10 @@
         <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>246</v>
@@ -4834,16 +4850,16 @@
         <v>241</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="M6" t="s">
         <v>39</v>
@@ -4907,10 +4923,10 @@
         <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>248</v>
@@ -4925,16 +4941,16 @@
         <v>241</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="M7" t="s">
         <v>39</v>
@@ -4998,10 +5014,10 @@
         <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>250</v>
@@ -5016,16 +5032,16 @@
         <v>164</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="M8" t="s">
         <v>39</v>
@@ -5093,10 +5109,10 @@
         <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>253</v>
@@ -5111,16 +5127,16 @@
         <v>164</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="M9" t="s">
         <v>114</v>
@@ -5227,34 +5243,34 @@
     <hyperlink ref="K2" r:id="rId2" xr:uid="{1A2D93D0-E74F-4B14-ADC8-9AA0478AEB34}"/>
     <hyperlink ref="J2" r:id="rId3" xr:uid="{BAFA3B45-2991-499D-A575-718A7C84BBD4}"/>
     <hyperlink ref="L2" r:id="rId4" xr:uid="{7F6BAF21-A510-4FDC-879D-6A09DF633D1B}"/>
-    <hyperlink ref="I3" r:id="rId5" xr:uid="{1D5F6029-C4C2-4E52-A6D8-73AE7FCD2625}"/>
-    <hyperlink ref="K3" r:id="rId6" xr:uid="{1F2DB785-4315-43E0-89A6-2AE05E627616}"/>
-    <hyperlink ref="J3" r:id="rId7" xr:uid="{EDC77D42-94A8-4845-82B9-AA4780930987}"/>
-    <hyperlink ref="L3" r:id="rId8" xr:uid="{5AF91DA7-A971-45AF-BE58-71598AEA33DE}"/>
-    <hyperlink ref="I4" r:id="rId9" xr:uid="{65F8B1E4-410D-4898-A7D0-75EA71A8E318}"/>
-    <hyperlink ref="K4" r:id="rId10" xr:uid="{FAFD16C9-4197-4143-9FA5-B8D8A58F97C3}"/>
-    <hyperlink ref="J4" r:id="rId11" xr:uid="{7A23F213-EEA9-4841-AC55-D0F13C478A7A}"/>
-    <hyperlink ref="L4" r:id="rId12" xr:uid="{4333D844-CD8C-438A-B9BE-AFE2B3FA6ECA}"/>
-    <hyperlink ref="I5" r:id="rId13" xr:uid="{DD455AB8-4F3C-4235-9949-C8059C52008B}"/>
-    <hyperlink ref="K5" r:id="rId14" xr:uid="{C7ECA4B4-37FA-4906-9323-62ED428B4E3A}"/>
-    <hyperlink ref="J5" r:id="rId15" xr:uid="{0BDD0E48-2006-4982-A376-C6248BE7FD82}"/>
-    <hyperlink ref="L5" r:id="rId16" xr:uid="{E5B15BA9-3D5D-4F3A-95DB-278BB3EAF0D0}"/>
-    <hyperlink ref="I6" r:id="rId17" xr:uid="{92CEFE3E-2C07-4FE7-8233-0E7CE39C3AE2}"/>
-    <hyperlink ref="K6" r:id="rId18" xr:uid="{BFC0E3AE-9480-414D-BF21-9AF4F38C9A2B}"/>
-    <hyperlink ref="J6" r:id="rId19" xr:uid="{FEE751B6-6788-400E-B04E-1CAC9D3C7482}"/>
-    <hyperlink ref="L6" r:id="rId20" xr:uid="{164B1C21-3664-4BB1-BED7-17AA5064B139}"/>
-    <hyperlink ref="I7" r:id="rId21" xr:uid="{875BE2CB-904F-45C4-A143-D120DF8511E0}"/>
-    <hyperlink ref="K7" r:id="rId22" xr:uid="{FE903C0A-DC90-486F-9D02-4C49DC60352B}"/>
-    <hyperlink ref="J7" r:id="rId23" xr:uid="{E9C9E91B-3D1F-4B8E-909D-4BF943E6D7E6}"/>
-    <hyperlink ref="L7" r:id="rId24" xr:uid="{20B2F069-21B6-41BA-A347-E08062C81CFD}"/>
-    <hyperlink ref="I8" r:id="rId25" xr:uid="{9D9FA012-D68E-4436-A14B-9F25C3938538}"/>
-    <hyperlink ref="K8" r:id="rId26" xr:uid="{2EF1B7F8-96D0-47C5-9E31-2CDA838FD9C0}"/>
-    <hyperlink ref="J8" r:id="rId27" xr:uid="{AC08D90F-78AF-4D4B-89C6-0C97C6EA5CA7}"/>
-    <hyperlink ref="L8" r:id="rId28" xr:uid="{B8B5A471-BEC6-4ED1-8296-A5EEA634F835}"/>
-    <hyperlink ref="I9" r:id="rId29" xr:uid="{ABFDB110-73E9-44F1-A1F5-7558B18D90E1}"/>
-    <hyperlink ref="K9" r:id="rId30" xr:uid="{A193BBCC-C8AA-4288-94F4-19672ED56716}"/>
-    <hyperlink ref="J9" r:id="rId31" xr:uid="{3DD9C036-23A3-484D-853E-96FFA30851BC}"/>
-    <hyperlink ref="L9" r:id="rId32" xr:uid="{2931CEAD-E39E-485C-9E03-4AA99F4C1230}"/>
+    <hyperlink ref="I3" r:id="rId5" xr:uid="{B166C662-5C54-47CD-A7D1-B04716E8B353}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{B03CD10E-85A3-4ED9-BBC6-37E55AE97C45}"/>
+    <hyperlink ref="I5" r:id="rId7" xr:uid="{69960BAD-8E9D-43EB-BCD4-D7FEEDDC8306}"/>
+    <hyperlink ref="I6" r:id="rId8" xr:uid="{CB08262A-C109-4F22-9F09-36BC62C0C17C}"/>
+    <hyperlink ref="I7" r:id="rId9" xr:uid="{3EA689EC-9E6B-4C10-8C3F-53AED3B34D89}"/>
+    <hyperlink ref="I8" r:id="rId10" xr:uid="{11B40CF8-4BCC-4281-AF7E-C11D87194977}"/>
+    <hyperlink ref="I9" r:id="rId11" xr:uid="{E7B6BD90-F8F9-4DC3-BDA0-0A186A2E67C5}"/>
+    <hyperlink ref="J3" r:id="rId12" xr:uid="{DEDB3FF2-195C-4B37-B265-89B9FFCE0B3B}"/>
+    <hyperlink ref="J4" r:id="rId13" xr:uid="{5C5458F9-FEAB-430B-B7AE-A5A9AEF932C5}"/>
+    <hyperlink ref="J5" r:id="rId14" xr:uid="{B8FBE80E-AFEE-4591-A276-2C9EF704F9A2}"/>
+    <hyperlink ref="J6" r:id="rId15" xr:uid="{02F3B7D0-8207-48F1-B578-0DB6BB908A23}"/>
+    <hyperlink ref="J7" r:id="rId16" xr:uid="{33FD9B89-CC43-4A8F-98AC-738202E2E79A}"/>
+    <hyperlink ref="J8" r:id="rId17" xr:uid="{1715C440-8ECD-401A-B5BB-40A103E74EC6}"/>
+    <hyperlink ref="J9" r:id="rId18" xr:uid="{D64C1748-B6E6-4D7E-B997-02582C4FD1C5}"/>
+    <hyperlink ref="K3" r:id="rId19" xr:uid="{3C92C361-CCBE-456C-8832-EA12A51756BB}"/>
+    <hyperlink ref="K4" r:id="rId20" xr:uid="{AC83A94C-9261-469A-9E88-9B08A12CADD7}"/>
+    <hyperlink ref="K5" r:id="rId21" xr:uid="{56EEF8A2-D226-4798-8EFC-74A649298EC6}"/>
+    <hyperlink ref="K6" r:id="rId22" xr:uid="{1A8CC8F0-F799-4C61-A906-C236B1D8C60D}"/>
+    <hyperlink ref="K7" r:id="rId23" xr:uid="{8A4EE258-0E5D-4FFC-8B17-B32233CBEDC1}"/>
+    <hyperlink ref="K8" r:id="rId24" xr:uid="{C8E2B2C2-539D-457C-A043-94EF5A761F65}"/>
+    <hyperlink ref="K9" r:id="rId25" xr:uid="{DDB5A6E2-9877-49A5-9413-B207D1A9BD8A}"/>
+    <hyperlink ref="L3" r:id="rId26" xr:uid="{ABBC347B-7F32-47DB-9379-4A019400C167}"/>
+    <hyperlink ref="L4" r:id="rId27" xr:uid="{2810A6BF-7D0E-4103-866C-A26E3369EA0D}"/>
+    <hyperlink ref="L5" r:id="rId28" xr:uid="{7EAD9F2A-9ED6-4E93-B127-22F44FE4491C}"/>
+    <hyperlink ref="L6" r:id="rId29" xr:uid="{C3D68150-84AD-4A2B-A2C2-6D515B38523D}"/>
+    <hyperlink ref="L7" r:id="rId30" xr:uid="{EF0629A7-8162-4DFE-A567-AF75D7564DC9}"/>
+    <hyperlink ref="L8" r:id="rId31" xr:uid="{EEBED20B-8406-4D98-B01A-EE0D1A91BAEC}"/>
+    <hyperlink ref="L9" r:id="rId32" xr:uid="{BD89BD91-9822-4161-9A09-D101E64A54EB}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5267,925 +5283,531 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
-  <dimension ref="A1:AI50"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:22">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>14</v>
+        <v>297</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>31</v>
+        <v>221</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>297</v>
+        <v>63</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>269</v>
+        <v>222</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG1" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH1" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI1" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>264</v>
+        <v>227</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
+        <v>6200</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="4">
+        <v>983</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="R2" s="4"/>
-      <c r="S2" s="4">
-        <v>6200</v>
-      </c>
+      <c r="S2" s="4"/>
       <c r="T2" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>983</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AD2" s="4">
-        <v>7090</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>528</v>
-      </c>
-      <c r="AF2" s="4">
-        <v>319</v>
-      </c>
-      <c r="AG2" s="4">
-        <v>209</v>
-      </c>
-      <c r="AH2" s="4">
+      <c r="U2" s="4">
         <v>8000</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="V2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>264</v>
+        <v>227</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3">
+        <v>6713</v>
+      </c>
+      <c r="K3" t="s">
+        <v>231</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4"/>
-      <c r="S3">
-        <v>6713</v>
+        <v>229</v>
+      </c>
+      <c r="N3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>232</v>
       </c>
       <c r="T3" t="s">
-        <v>231</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="W3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC3" t="s">
         <v>284</v>
       </c>
-      <c r="AD3">
-        <v>379</v>
-      </c>
-      <c r="AE3">
-        <v>152.16999999999999</v>
-      </c>
-      <c r="AF3">
-        <v>152.16999999999999</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
+      <c r="U3">
         <v>10</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="V3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" t="s">
         <v>236</v>
       </c>
-      <c r="Q4">
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="S4">
+      <c r="J4">
         <v>6713</v>
       </c>
+      <c r="K4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L4" t="s">
+        <v>238</v>
+      </c>
+      <c r="M4" t="s">
+        <v>238</v>
+      </c>
+      <c r="N4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>232</v>
+      </c>
       <c r="T4" t="s">
-        <v>237</v>
-      </c>
-      <c r="U4" t="s">
-        <v>238</v>
+        <v>285</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
       </c>
       <c r="V4" t="s">
-        <v>238</v>
-      </c>
-      <c r="W4" t="s">
-        <v>239</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>285</v>
-      </c>
-      <c r="AD4">
-        <v>152</v>
-      </c>
-      <c r="AE4">
-        <v>152.16999999999999</v>
-      </c>
-      <c r="AF4">
-        <v>152.16999999999999</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>10</v>
-      </c>
-      <c r="AI4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>240</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>241</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" t="s">
         <v>242</v>
       </c>
-      <c r="Q5">
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="S5">
+      <c r="J5">
         <v>6785</v>
       </c>
+      <c r="K5" t="s">
+        <v>243</v>
+      </c>
+      <c r="L5" t="s">
+        <v>244</v>
+      </c>
+      <c r="M5" t="s">
+        <v>245</v>
+      </c>
+      <c r="N5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
       <c r="T5" t="s">
-        <v>243</v>
-      </c>
-      <c r="U5" t="s">
-        <v>244</v>
+        <v>286</v>
+      </c>
+      <c r="U5">
+        <v>1000</v>
       </c>
       <c r="V5" t="s">
-        <v>245</v>
-      </c>
-      <c r="W5" t="s">
-        <v>65</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD5">
-        <v>194.88</v>
-      </c>
-      <c r="AE5">
-        <v>1200</v>
-      </c>
-      <c r="AF5">
-        <v>800</v>
-      </c>
-      <c r="AG5">
-        <v>400</v>
-      </c>
-      <c r="AH5">
-        <v>1000</v>
-      </c>
-      <c r="AI5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>294</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>241</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>264</v>
+        <v>242</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>6780</v>
+      </c>
+      <c r="K6" t="s">
+        <v>247</v>
+      </c>
+      <c r="L6" t="s">
+        <v>244</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="N6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>6780</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
       <c r="T6" t="s">
-        <v>247</v>
-      </c>
-      <c r="U6" t="s">
-        <v>244</v>
+        <v>286</v>
+      </c>
+      <c r="U6">
+        <v>1000</v>
       </c>
       <c r="V6" t="s">
-        <v>245</v>
-      </c>
-      <c r="W6" t="s">
-        <v>244</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD6">
-        <v>193.28</v>
-      </c>
-      <c r="AE6">
-        <v>1067</v>
-      </c>
-      <c r="AF6">
-        <v>603</v>
-      </c>
-      <c r="AG6">
-        <v>464</v>
-      </c>
-      <c r="AH6">
-        <v>1000</v>
-      </c>
-      <c r="AI6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>19</v>
+        <v>294</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>264</v>
+        <v>242</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>6798</v>
+      </c>
+      <c r="K7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L7" t="s">
+        <v>244</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="N7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>6798</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
       <c r="T7" t="s">
-        <v>249</v>
-      </c>
-      <c r="U7" t="s">
-        <v>244</v>
+        <v>286</v>
+      </c>
+      <c r="U7">
+        <v>500</v>
       </c>
       <c r="V7" t="s">
-        <v>245</v>
-      </c>
-      <c r="W7" t="s">
-        <v>244</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD7">
-        <v>241.15</v>
-      </c>
-      <c r="AE7">
-        <v>1143</v>
-      </c>
-      <c r="AF7">
-        <v>645</v>
-      </c>
-      <c r="AG7">
-        <v>498</v>
-      </c>
-      <c r="AH7">
-        <v>500</v>
-      </c>
-      <c r="AI7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>19</v>
+        <v>294</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>264</v>
+        <v>165</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" t="s">
+        <v>251</v>
+      </c>
+      <c r="L8" t="s">
+        <v>252</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="N8" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="S8" t="s">
-        <v>174</v>
+        <v>65</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="4">
+        <v>32.19</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="T8" t="s">
-        <v>251</v>
-      </c>
-      <c r="U8" t="s">
-        <v>252</v>
+        <v>168</v>
+      </c>
+      <c r="U8">
+        <v>1900</v>
       </c>
       <c r="V8" t="s">
-        <v>252</v>
-      </c>
-      <c r="W8" t="s">
-        <v>65</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA8" s="4">
-        <v>32.19</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD8">
-        <v>111</v>
-      </c>
-      <c r="AE8">
-        <v>102.12</v>
-      </c>
-      <c r="AF8">
-        <v>102.12</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>1900</v>
-      </c>
-      <c r="AI8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C9" t="s">
-        <v>296</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E9" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K9" t="s">
+        <v>254</v>
+      </c>
+      <c r="L9" t="s">
+        <v>255</v>
+      </c>
+      <c r="M9" t="s">
+        <v>256</v>
+      </c>
+      <c r="N9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R9">
+        <v>271.39999999999998</v>
+      </c>
+      <c r="S9" t="s">
+        <v>257</v>
+      </c>
+      <c r="T9" t="s">
+        <v>168</v>
+      </c>
+      <c r="U9">
         <v>16</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>164</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="M9" t="s">
-        <v>114</v>
-      </c>
-      <c r="N9" t="s">
-        <v>115</v>
-      </c>
-      <c r="P9" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="S9" t="s">
-        <v>174</v>
-      </c>
-      <c r="T9" t="s">
-        <v>254</v>
-      </c>
-      <c r="U9" t="s">
-        <v>255</v>
-      </c>
       <c r="V9" t="s">
-        <v>256</v>
-      </c>
-      <c r="W9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA9">
-        <v>271.39999999999998</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD9">
-        <v>441.02499999999998</v>
-      </c>
-      <c r="AE9">
-        <v>264.27999999999997</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>264.27999999999997</v>
-      </c>
-      <c r="AH9">
-        <v>16</v>
-      </c>
-      <c r="AI9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="17" customFormat="1"/>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1"/>
-    <row r="21" customFormat="1"/>
-    <row r="22" customFormat="1"/>
-    <row r="23" customFormat="1"/>
-    <row r="24" customFormat="1"/>
-    <row r="25" customFormat="1"/>
-    <row r="26" customFormat="1"/>
-    <row r="27" customFormat="1"/>
-    <row r="28" customFormat="1"/>
-    <row r="29" customFormat="1"/>
-    <row r="30" customFormat="1"/>
-    <row r="31" customFormat="1"/>
-    <row r="32" customFormat="1"/>
-    <row r="33" customFormat="1"/>
-    <row r="34" customFormat="1"/>
-    <row r="35" customFormat="1"/>
-    <row r="36" customFormat="1"/>
-    <row r="37" customFormat="1"/>
-    <row r="38" customFormat="1"/>
-    <row r="39" customFormat="1"/>
-    <row r="40" customFormat="1"/>
-    <row r="41" customFormat="1"/>
-    <row r="42" customFormat="1"/>
-    <row r="43" customFormat="1"/>
-    <row r="44" customFormat="1"/>
-    <row r="45" customFormat="1"/>
-    <row r="46" customFormat="1"/>
-    <row r="47" customFormat="1"/>
-    <row r="48" customFormat="1"/>
-    <row r="49" customFormat="1"/>
-    <row r="50" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="6"/>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{DE334DD5-2BBB-4C97-A68B-1E406CBA61C6}"/>
-    <hyperlink ref="K2" r:id="rId2" xr:uid="{A8FB9A3E-3E52-41A6-BBE2-BFDA7BF66C03}"/>
-    <hyperlink ref="J2" r:id="rId3" xr:uid="{81A699D2-0F9F-4175-99F8-1A6BD88EED02}"/>
-    <hyperlink ref="L2" r:id="rId4" xr:uid="{65649292-118F-4194-8B6F-7DBD0797BF7B}"/>
-    <hyperlink ref="I3" r:id="rId5" xr:uid="{A9BBAEC7-E361-4232-8617-F9B6CAF856CD}"/>
-    <hyperlink ref="K3" r:id="rId6" xr:uid="{B1F307B8-F3E9-45CB-89C5-373AEBC4BF15}"/>
-    <hyperlink ref="J3" r:id="rId7" xr:uid="{0D1248AA-399F-47F3-B36D-D43064A1D81F}"/>
-    <hyperlink ref="L3" r:id="rId8" xr:uid="{89D5F231-AE30-4326-BB0E-8B1D5DF033E6}"/>
-    <hyperlink ref="I4" r:id="rId9" xr:uid="{347C68FE-E551-469A-A778-519DCC0E22CB}"/>
-    <hyperlink ref="K4" r:id="rId10" xr:uid="{64306736-416F-457E-92FE-7B7CFAC980CE}"/>
-    <hyperlink ref="J4" r:id="rId11" xr:uid="{F062A991-E411-47EF-87C7-02229FCC4883}"/>
-    <hyperlink ref="L4" r:id="rId12" xr:uid="{5F41AB6C-D68F-4A72-8E1A-3125259F1AA8}"/>
-    <hyperlink ref="I5" r:id="rId13" xr:uid="{28AA4890-DE1E-4B1A-90CC-05B0FBFC0002}"/>
-    <hyperlink ref="K5" r:id="rId14" xr:uid="{EEA5AEB2-7419-4FD6-AEC7-6B04D920B0BD}"/>
-    <hyperlink ref="J5" r:id="rId15" xr:uid="{2AA73A65-3733-43DB-A862-1C5E19C64D44}"/>
-    <hyperlink ref="L5" r:id="rId16" xr:uid="{BCBE1382-BDB0-462D-94CF-78D03EAA736C}"/>
-    <hyperlink ref="I6" r:id="rId17" xr:uid="{C1B2B284-F40F-4DB0-878B-10FC01369903}"/>
-    <hyperlink ref="K6" r:id="rId18" xr:uid="{D2EC5C1B-9132-4CE0-8387-5D6AAFF7AF0A}"/>
-    <hyperlink ref="J6" r:id="rId19" xr:uid="{F711B310-7817-482E-B2A6-2C21030A0BF9}"/>
-    <hyperlink ref="L6" r:id="rId20" xr:uid="{8EFFFB82-EF2D-4651-82B0-32E8D4DEA328}"/>
-    <hyperlink ref="I7" r:id="rId21" xr:uid="{1C429C56-287A-4389-AB85-88EDF1ABC02F}"/>
-    <hyperlink ref="K7" r:id="rId22" xr:uid="{89065BCB-E83E-481E-95CE-CB6AE82105EA}"/>
-    <hyperlink ref="J7" r:id="rId23" xr:uid="{640F09D7-275B-44EC-9E94-CDF311A7B1B6}"/>
-    <hyperlink ref="L7" r:id="rId24" xr:uid="{9E3742B9-7874-48DA-B8C2-17B5E9C62543}"/>
-    <hyperlink ref="I8" r:id="rId25" xr:uid="{CFCF5FD8-D26F-4BED-847F-8679E400DC49}"/>
-    <hyperlink ref="K8" r:id="rId26" xr:uid="{9AEA9314-ED1D-458F-9BBF-9D9E3E953EBC}"/>
-    <hyperlink ref="J8" r:id="rId27" xr:uid="{B0465067-414F-4836-8295-5041726581A4}"/>
-    <hyperlink ref="L8" r:id="rId28" xr:uid="{F4C53FF5-21B4-4FB8-B27C-4F07809B116A}"/>
-    <hyperlink ref="I9" r:id="rId29" xr:uid="{DFD3FD48-9CA5-4894-841D-936CAFC13EF2}"/>
-    <hyperlink ref="K9" r:id="rId30" xr:uid="{0F964305-20F4-46F9-A3A5-0C825A2844B6}"/>
-    <hyperlink ref="J9" r:id="rId31" xr:uid="{87029CA2-0B38-485C-BACC-9B08B8C77C6D}"/>
-    <hyperlink ref="L9" r:id="rId32" xr:uid="{BAF729AF-9361-423E-9BF0-972B674946CD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C65497F-8BF7-442F-A459-51FA24899452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AC9A8D-FED7-4F46-9472-782582E32E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="312">
   <si>
     <t>name</t>
   </si>
@@ -996,10 +996,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>N-2023-3B6A-0082</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>dummy-naoto.suzuki.g3@mail.toray</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1013,6 +1009,30 @@
   </si>
   <si>
     <t>dummy-shinichi.imai.c2@mail.toray</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>N-2023-3A1A-0108</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>N-2023-3HYA-0139</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>N-2023-3HWA-0071</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>N-2023-3HWA-0072</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>N-2023-3HWA-0073</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>N-2023-3HWA-0079</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -4485,16 +4505,16 @@
         <v>226</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>39</v>
@@ -4580,16 +4600,16 @@
         <v>22</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>39</v>
@@ -4670,16 +4690,16 @@
         <v>235</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>39</v>
@@ -4759,16 +4779,16 @@
         <v>241</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>39</v>
@@ -4850,16 +4870,16 @@
         <v>241</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="M6" t="s">
         <v>39</v>
@@ -4941,16 +4961,16 @@
         <v>241</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="M7" t="s">
         <v>39</v>
@@ -5032,16 +5052,16 @@
         <v>164</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="M8" t="s">
         <v>39</v>
@@ -5127,16 +5147,16 @@
         <v>164</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="M9" t="s">
         <v>114</v>
@@ -5285,8 +5305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5430,7 +5450,7 @@
         <v>298</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>39</v>
@@ -5484,7 +5504,7 @@
         <v>299</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>39</v>
@@ -5537,7 +5557,7 @@
         <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>39</v>
@@ -5592,7 +5612,7 @@
         <v>301</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -5644,10 +5664,10 @@
         <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AC9A8D-FED7-4F46-9472-782582E32E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F16CB33-6C04-4769-8258-6DAD6CEDBE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="312">
   <si>
     <t>name</t>
   </si>
@@ -4363,8 +4363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="18.75"/>
@@ -5303,19 +5303,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="42.75" customWidth="1"/>
+    <col min="20" max="20" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -5374,16 +5375,19 @@
         <v>223</v>
       </c>
       <c r="T1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -5432,17 +5436,20 @@
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="4">
+        <v>7090</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="U2" s="4">
+      <c r="V2" s="4">
         <v>8000</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -5486,17 +5493,20 @@
       <c r="Q3" t="s">
         <v>232</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3">
+        <v>379</v>
+      </c>
+      <c r="U3" t="s">
         <v>284</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>10</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -5539,17 +5549,20 @@
       <c r="Q4" t="s">
         <v>232</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4">
+        <v>152</v>
+      </c>
+      <c r="U4" t="s">
         <v>285</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>10</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -5594,17 +5607,20 @@
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
-      <c r="T5" t="s">
+      <c r="T5">
+        <v>194.88</v>
+      </c>
+      <c r="U5" t="s">
         <v>286</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1000</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -5649,17 +5665,20 @@
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-      <c r="T6" t="s">
+      <c r="T6">
+        <v>193.28</v>
+      </c>
+      <c r="U6" t="s">
         <v>286</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1000</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -5704,17 +5723,20 @@
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-      <c r="T7" t="s">
+      <c r="T7">
+        <v>241.15</v>
+      </c>
+      <c r="U7" t="s">
         <v>286</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>500</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -5763,17 +5785,20 @@
       <c r="S8" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8">
+        <v>111</v>
+      </c>
+      <c r="U8" t="s">
         <v>168</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1900</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -5816,13 +5841,16 @@
       <c r="S9" t="s">
         <v>257</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9">
+        <v>441.02499999999998</v>
+      </c>
+      <c r="U9" t="s">
         <v>168</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>16</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>287</v>
       </c>
     </row>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F16CB33-6C04-4769-8258-6DAD6CEDBE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7F6C23-EAB9-4664-A58D-22F7B33F9E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="312">
   <si>
     <t>name</t>
   </si>
@@ -980,10 +980,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>N-2023-3A1A-0023</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>N-2023-3HYA-0149</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1033,6 +1029,10 @@
   </si>
   <si>
     <t>N-2023-3HWA-0079</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>N-2023-3A1A-0224</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -4363,8 +4363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI59"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AD1048576"/>
+    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="18.75"/>
@@ -4505,16 +4505,16 @@
         <v>226</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>39</v>
@@ -4600,16 +4600,16 @@
         <v>22</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>39</v>
@@ -4690,16 +4690,16 @@
         <v>235</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>39</v>
@@ -4779,16 +4779,16 @@
         <v>241</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>39</v>
@@ -4870,16 +4870,16 @@
         <v>241</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="M6" t="s">
         <v>39</v>
@@ -4961,16 +4961,16 @@
         <v>241</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="M7" t="s">
         <v>39</v>
@@ -5052,16 +5052,16 @@
         <v>164</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="M8" t="s">
         <v>39</v>
@@ -5147,16 +5147,16 @@
         <v>164</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="M9" t="s">
         <v>114</v>
@@ -5303,20 +5303,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="42.75" customWidth="1"/>
-    <col min="20" max="20" width="10.5"/>
+    <col min="15" max="15" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="20" max="23" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:26">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -5378,16 +5380,25 @@
         <v>81</v>
       </c>
       <c r="U1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -5439,25 +5450,28 @@
       <c r="T2" s="4">
         <v>7090</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="V2" s="4">
+      <c r="Y2" s="4">
         <v>8000</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>39</v>
@@ -5496,25 +5510,34 @@
       <c r="T3">
         <v>379</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3">
+        <v>152.16999999999999</v>
+      </c>
+      <c r="V3">
+        <v>152.16999999999999</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
         <v>284</v>
       </c>
-      <c r="V3">
+      <c r="Y3">
         <v>10</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>39</v>
@@ -5552,25 +5575,34 @@
       <c r="T4">
         <v>152</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4">
+        <v>152.16999999999999</v>
+      </c>
+      <c r="V4">
+        <v>152.16999999999999</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
         <v>285</v>
       </c>
-      <c r="V4">
+      <c r="Y4">
         <v>10</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>39</v>
@@ -5610,25 +5642,34 @@
       <c r="T5">
         <v>194.88</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5">
+        <v>1200</v>
+      </c>
+      <c r="V5">
+        <v>800</v>
+      </c>
+      <c r="W5">
+        <v>400</v>
+      </c>
+      <c r="X5" t="s">
         <v>286</v>
       </c>
-      <c r="V5">
+      <c r="Y5">
         <v>1000</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -5668,25 +5709,34 @@
       <c r="T6">
         <v>193.28</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6">
+        <v>1067</v>
+      </c>
+      <c r="V6">
+        <v>603</v>
+      </c>
+      <c r="W6">
+        <v>464</v>
+      </c>
+      <c r="X6" t="s">
         <v>286</v>
       </c>
-      <c r="V6">
+      <c r="Y6">
         <v>1000</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Z6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
@@ -5726,17 +5776,26 @@
       <c r="T7">
         <v>241.15</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7">
+        <v>1143</v>
+      </c>
+      <c r="V7">
+        <v>645</v>
+      </c>
+      <c r="W7">
+        <v>498</v>
+      </c>
+      <c r="X7" t="s">
         <v>286</v>
       </c>
-      <c r="V7">
+      <c r="Y7">
         <v>500</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Z7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -5788,17 +5847,26 @@
       <c r="T8">
         <v>111</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8">
+        <v>102.12</v>
+      </c>
+      <c r="V8">
+        <v>102.12</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
         <v>168</v>
       </c>
-      <c r="V8">
+      <c r="Y8">
         <v>1900</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Z8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -5844,13 +5912,22 @@
       <c r="T9">
         <v>441.02499999999998</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9">
+        <v>264.27999999999997</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>264.27999999999997</v>
+      </c>
+      <c r="X9" t="s">
         <v>168</v>
       </c>
-      <c r="V9">
+      <c r="Y9">
         <v>16</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Z9" t="s">
         <v>287</v>
       </c>
     </row>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7F6C23-EAB9-4664-A58D-22F7B33F9E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16893A6E-A12A-41E6-A5B8-1815C8B7537F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5305,8 +5305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5575,15 +5575,6 @@
       <c r="T4">
         <v>152</v>
       </c>
-      <c r="U4">
-        <v>152.16999999999999</v>
-      </c>
-      <c r="V4">
-        <v>152.16999999999999</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
       <c r="X4" t="s">
         <v>285</v>
       </c>
@@ -5941,8 +5932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -6038,7 +6029,9 @@
       <c r="B5" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>259</v>
+      </c>
       <c r="D5" s="14" t="s">
         <v>267</v>
       </c>
@@ -6056,9 +6049,7 @@
       <c r="B6" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>259</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="20" t="s">
         <v>265</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16893A6E-A12A-41E6-A5B8-1815C8B7537F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362858D4-11DA-4E4A-B777-126255252E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -5305,8 +5305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5932,8 +5932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362858D4-11DA-4E4A-B777-126255252E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C31E57-9BBB-4DAD-AF04-9BE56CBDB595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="313">
   <si>
     <t>name</t>
   </si>
@@ -1033,6 +1033,10 @@
   </si>
   <si>
     <t>N-2023-3A1A-0224</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3HYA</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -4363,8 +4367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI59"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AG1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="18.75"/>
@@ -4582,10 +4586,10 @@
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>230</v>
@@ -4672,10 +4676,10 @@
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>234</v>
@@ -4761,10 +4765,10 @@
         <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>240</v>
@@ -4852,10 +4856,10 @@
         <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>246</v>
@@ -4943,10 +4947,10 @@
         <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>248</v>
@@ -4958,7 +4962,7 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>301</v>
@@ -5303,627 +5307,826 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.75" customWidth="1"/>
-    <col min="15" max="15" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5" customWidth="1"/>
-    <col min="20" max="23" width="10.5"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="10" max="10" width="42.75" customWidth="1"/>
+    <col min="13" max="13" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="18" max="21" width="10.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:33">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>296</v>
+        <v>14</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>297</v>
+        <v>17</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C2" t="s">
-        <v>294</v>
+      <c r="B2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="4">
+      <c r="O2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4">
         <v>6200</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="P2" s="4">
+      <c r="W2" s="4">
         <v>983</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4">
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4">
         <v>7090</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4" t="s">
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="AF2" s="4">
         <v>8000</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AG2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>95</v>
       </c>
-      <c r="B3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C3" t="s">
-        <v>305</v>
+      <c r="B3" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H3" s="4">
+      <c r="O3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3">
+      <c r="P3" s="4"/>
+      <c r="Q3">
         <v>6713</v>
       </c>
-      <c r="K3" t="s">
+      <c r="R3" t="s">
         <v>231</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="N3" t="s">
+      <c r="U3" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="X3" t="s">
         <v>232</v>
       </c>
-      <c r="T3">
+      <c r="AA3">
         <v>379</v>
       </c>
-      <c r="U3">
+      <c r="AB3">
         <v>152.16999999999999</v>
       </c>
-      <c r="V3">
+      <c r="AC3">
         <v>152.16999999999999</v>
       </c>
-      <c r="W3">
+      <c r="AD3">
         <v>0</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AE3" t="s">
         <v>284</v>
       </c>
-      <c r="Y3">
+      <c r="AF3">
         <v>10</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AG3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>101</v>
       </c>
-      <c r="B4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C4" t="s">
-        <v>306</v>
+      <c r="B4" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" t="s">
+      <c r="N4" t="s">
         <v>236</v>
       </c>
-      <c r="H4">
+      <c r="O4">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="Q4">
         <v>6713</v>
       </c>
-      <c r="K4" t="s">
+      <c r="R4" t="s">
         <v>237</v>
       </c>
-      <c r="L4" t="s">
+      <c r="S4" t="s">
         <v>238</v>
       </c>
-      <c r="M4" t="s">
+      <c r="T4" t="s">
         <v>238</v>
       </c>
-      <c r="N4" t="s">
+      <c r="U4" t="s">
         <v>239</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="X4" t="s">
         <v>232</v>
       </c>
-      <c r="T4">
+      <c r="AA4">
         <v>152</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AE4" t="s">
         <v>285</v>
       </c>
-      <c r="Y4">
+      <c r="AF4">
         <v>10</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AG4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" t="s">
-        <v>307</v>
+      <c r="B5" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G5" t="s">
+      <c r="N5" t="s">
         <v>242</v>
       </c>
-      <c r="H5">
+      <c r="O5">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="Q5">
         <v>6785</v>
       </c>
-      <c r="K5" t="s">
+      <c r="R5" t="s">
         <v>243</v>
       </c>
-      <c r="L5" t="s">
+      <c r="S5" t="s">
         <v>244</v>
       </c>
-      <c r="M5" t="s">
+      <c r="T5" t="s">
         <v>245</v>
       </c>
-      <c r="N5" t="s">
+      <c r="U5" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5">
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5">
         <v>194.88</v>
       </c>
-      <c r="U5">
+      <c r="AB5">
         <v>1200</v>
       </c>
-      <c r="V5">
+      <c r="AC5">
         <v>800</v>
       </c>
-      <c r="W5">
+      <c r="AD5">
         <v>400</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AE5" t="s">
         <v>286</v>
       </c>
-      <c r="Y5">
+      <c r="AF5">
         <v>1000</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AG5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
         <v>111</v>
       </c>
-      <c r="B6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="K6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
+      <c r="L6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s">
+      <c r="N6" t="s">
         <v>242</v>
       </c>
-      <c r="H6">
+      <c r="O6">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="Q6">
         <v>6780</v>
       </c>
-      <c r="K6" t="s">
+      <c r="R6" t="s">
         <v>247</v>
       </c>
-      <c r="L6" t="s">
+      <c r="S6" t="s">
         <v>244</v>
       </c>
-      <c r="M6" t="s">
+      <c r="T6" t="s">
         <v>245</v>
       </c>
-      <c r="N6" t="s">
+      <c r="U6" t="s">
         <v>244</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6">
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6">
         <v>193.28</v>
       </c>
-      <c r="U6">
+      <c r="AB6">
         <v>1067</v>
       </c>
-      <c r="V6">
+      <c r="AC6">
         <v>603</v>
       </c>
-      <c r="W6">
+      <c r="AD6">
         <v>464</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AE6" t="s">
         <v>286</v>
       </c>
-      <c r="Y6">
+      <c r="AF6">
         <v>1000</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AG6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="K7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="L7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" t="s">
+      <c r="N7" t="s">
         <v>242</v>
       </c>
-      <c r="H7">
+      <c r="O7">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="Q7">
         <v>6798</v>
       </c>
-      <c r="K7" t="s">
+      <c r="R7" t="s">
         <v>249</v>
       </c>
-      <c r="L7" t="s">
+      <c r="S7" t="s">
         <v>244</v>
       </c>
-      <c r="M7" t="s">
+      <c r="T7" t="s">
         <v>245</v>
       </c>
-      <c r="N7" t="s">
+      <c r="U7" t="s">
         <v>244</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7">
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7">
         <v>241.15</v>
       </c>
-      <c r="U7">
+      <c r="AB7">
         <v>1143</v>
       </c>
-      <c r="V7">
+      <c r="AC7">
         <v>645</v>
       </c>
-      <c r="W7">
+      <c r="AD7">
         <v>498</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AE7" t="s">
         <v>286</v>
       </c>
-      <c r="Y7">
+      <c r="AF7">
         <v>500</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AG7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
         <v>130</v>
       </c>
-      <c r="B8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C8" t="s">
-        <v>294</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="K8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="L8" t="s">
         <v>42</v>
       </c>
-      <c r="G8" t="s">
+      <c r="N8" t="s">
         <v>165</v>
       </c>
-      <c r="H8">
+      <c r="O8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
+      <c r="Q8" t="s">
         <v>174</v>
       </c>
-      <c r="K8" t="s">
+      <c r="R8" t="s">
         <v>251</v>
       </c>
-      <c r="L8" t="s">
+      <c r="S8" t="s">
         <v>252</v>
       </c>
-      <c r="M8" t="s">
+      <c r="T8" t="s">
         <v>252</v>
       </c>
-      <c r="N8" t="s">
+      <c r="U8" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R8" s="4">
+      <c r="Y8" s="4">
         <v>32.19</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="T8">
+      <c r="AA8">
         <v>111</v>
       </c>
-      <c r="U8">
+      <c r="AB8">
         <v>102.12</v>
       </c>
-      <c r="V8">
+      <c r="AC8">
         <v>102.12</v>
       </c>
-      <c r="W8">
+      <c r="AD8">
         <v>0</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AE8" t="s">
         <v>168</v>
       </c>
-      <c r="Y8">
+      <c r="AF8">
         <v>1900</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AG8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
         <v>135</v>
       </c>
-      <c r="B9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="K9" t="s">
         <v>114</v>
       </c>
-      <c r="E9" t="s">
+      <c r="L9" t="s">
         <v>115</v>
       </c>
-      <c r="G9" t="s">
+      <c r="N9" t="s">
         <v>165</v>
       </c>
-      <c r="H9">
+      <c r="O9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
+      <c r="Q9" t="s">
         <v>174</v>
       </c>
-      <c r="K9" t="s">
+      <c r="R9" t="s">
         <v>254</v>
       </c>
-      <c r="L9" t="s">
+      <c r="S9" t="s">
         <v>255</v>
       </c>
-      <c r="M9" t="s">
+      <c r="T9" t="s">
         <v>256</v>
       </c>
-      <c r="N9" t="s">
+      <c r="U9" t="s">
         <v>65</v>
       </c>
-      <c r="R9">
+      <c r="Y9">
         <v>271.39999999999998</v>
       </c>
-      <c r="S9" t="s">
+      <c r="Z9" t="s">
         <v>257</v>
       </c>
-      <c r="T9">
+      <c r="AA9">
         <v>441.02499999999998</v>
       </c>
-      <c r="U9">
+      <c r="AB9">
         <v>264.27999999999997</v>
       </c>
-      <c r="V9">
+      <c r="AC9">
         <v>0</v>
       </c>
-      <c r="W9">
+      <c r="AD9">
         <v>264.27999999999997</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AE9" t="s">
         <v>168</v>
       </c>
-      <c r="Y9">
+      <c r="AF9">
         <v>16</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AG9" t="s">
         <v>287</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{B7595FD1-03D2-401B-8D77-03697C5340BC}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{3A41E5CE-7D26-49B8-81EB-5443E69BB418}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{0578C65A-896E-4A1F-803E-4E498B9D4D46}"/>
+    <hyperlink ref="J2" r:id="rId4" xr:uid="{AA449227-E82A-43A5-85E4-D65E8CB546A4}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{D23F57FC-AB31-44C3-9E5A-FA57AFDE007B}"/>
+    <hyperlink ref="G4" r:id="rId6" xr:uid="{41678A28-4060-4453-85F6-172E1C8E17AC}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{1036F058-7BE0-4ABE-A187-04053440DFA8}"/>
+    <hyperlink ref="G6" r:id="rId8" xr:uid="{97EF641E-5EAC-44A1-A03D-82CC81629A21}"/>
+    <hyperlink ref="G7" r:id="rId9" xr:uid="{414FE9BA-8B4C-40E1-A83C-562EE811569B}"/>
+    <hyperlink ref="G8" r:id="rId10" xr:uid="{11138E3C-2395-4104-B84A-F62F35E14F43}"/>
+    <hyperlink ref="G9" r:id="rId11" xr:uid="{A933DB33-D1C1-4C96-B115-0A2E582ECDAA}"/>
+    <hyperlink ref="H3" r:id="rId12" xr:uid="{D09B6F29-FE6A-48E0-AF19-D6DF47BC5EA6}"/>
+    <hyperlink ref="H4" r:id="rId13" xr:uid="{EF640FC5-8648-464E-BA15-3563CE258996}"/>
+    <hyperlink ref="H5" r:id="rId14" xr:uid="{F30BF0AE-1696-4572-9A75-137424650107}"/>
+    <hyperlink ref="H6" r:id="rId15" xr:uid="{AB159C3F-93C2-4C20-94F3-B76EC8B81F3B}"/>
+    <hyperlink ref="H7" r:id="rId16" xr:uid="{CE8AF0E5-0D37-420D-868C-864EB1140829}"/>
+    <hyperlink ref="H8" r:id="rId17" xr:uid="{A6431B29-0FF2-48BD-A8D8-1EFBDF84D3C9}"/>
+    <hyperlink ref="H9" r:id="rId18" xr:uid="{64971EB2-62AB-4704-A1C6-04B0285F1571}"/>
+    <hyperlink ref="I3" r:id="rId19" xr:uid="{72C8B7AF-EFD6-41E6-B1BD-BA719FC5CCD8}"/>
+    <hyperlink ref="I4" r:id="rId20" xr:uid="{B2CC0EA6-51E8-4F33-A07C-21B6AE734097}"/>
+    <hyperlink ref="I5" r:id="rId21" xr:uid="{5B5E971B-BA26-4291-BCC4-5E20AC901325}"/>
+    <hyperlink ref="I6" r:id="rId22" xr:uid="{DA26F332-2ACC-4D34-9C63-53F6F655E693}"/>
+    <hyperlink ref="I7" r:id="rId23" xr:uid="{FABBFA9A-4F0D-4D35-92A2-35DFF97C47F9}"/>
+    <hyperlink ref="I8" r:id="rId24" xr:uid="{D3647445-CE34-4E7D-A0B7-28866748A53D}"/>
+    <hyperlink ref="I9" r:id="rId25" xr:uid="{3933BEBE-E967-4DEC-B6C7-D1D135C0A6A3}"/>
+    <hyperlink ref="J3" r:id="rId26" xr:uid="{5648B972-61B5-41AE-B954-0ACAA38A844A}"/>
+    <hyperlink ref="J4" r:id="rId27" xr:uid="{01ED33E7-B805-43F9-A28D-14F35FE98D03}"/>
+    <hyperlink ref="J5" r:id="rId28" xr:uid="{4596668E-38B2-4FA3-AD1F-F6A0773F910E}"/>
+    <hyperlink ref="J6" r:id="rId29" xr:uid="{BB5CA6AB-321D-4A19-AD01-C730A7BDF068}"/>
+    <hyperlink ref="J7" r:id="rId30" xr:uid="{B03A70A3-C07E-4A74-83C7-79D39140F449}"/>
+    <hyperlink ref="J8" r:id="rId31" xr:uid="{0877F893-87B5-429B-B4A5-7E06DD950C6E}"/>
+    <hyperlink ref="J9" r:id="rId32" xr:uid="{7BE92E25-B6C3-4951-9853-02F2F73636A3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5932,7 +6135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C31E57-9BBB-4DAD-AF04-9BE56CBDB595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C87D82-4AC6-4CE0-A737-DE2D2A167CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="314">
   <si>
     <t>name</t>
   </si>
@@ -1038,6 +1038,9 @@
   <si>
     <t>3HYA</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ｍ２</t>
   </si>
 </sst>
 </file>
@@ -5307,10 +5310,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8:Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5320,9 +5323,10 @@
     <col min="13" max="13" width="27.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" customWidth="1"/>
     <col min="18" max="21" width="10.5"/>
+    <col min="25" max="25" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:32">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -5399,31 +5403,28 @@
         <v>222</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG1" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -5489,24 +5490,23 @@
         <v>74</v>
       </c>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4">
+      <c r="Z2" s="4">
         <v>7090</v>
       </c>
+      <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AE2" s="4">
         <v>8000</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AF2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -5568,29 +5568,29 @@
       <c r="X3" t="s">
         <v>232</v>
       </c>
+      <c r="Z3">
+        <v>379</v>
+      </c>
       <c r="AA3">
-        <v>379</v>
+        <v>152.16999999999999</v>
       </c>
       <c r="AB3">
         <v>152.16999999999999</v>
       </c>
       <c r="AC3">
-        <v>152.16999999999999</v>
-      </c>
-      <c r="AD3">
         <v>0</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AD3" t="s">
         <v>284</v>
       </c>
-      <c r="AF3">
+      <c r="AE3">
         <v>10</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AF3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -5651,20 +5651,20 @@
       <c r="X4" t="s">
         <v>232</v>
       </c>
-      <c r="AA4">
+      <c r="Z4">
         <v>152</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AD4" t="s">
         <v>285</v>
       </c>
-      <c r="AF4">
+      <c r="AE4">
         <v>10</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AF4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -5726,30 +5726,29 @@
         <v>74</v>
       </c>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
+      <c r="Z5">
+        <v>194.88</v>
+      </c>
       <c r="AA5">
-        <v>194.88</v>
+        <v>1200</v>
       </c>
       <c r="AB5">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="AC5">
-        <v>800</v>
-      </c>
-      <c r="AD5">
         <v>400</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AD5" t="s">
         <v>286</v>
       </c>
-      <c r="AF5">
+      <c r="AE5">
         <v>1000</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AF5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -5811,30 +5810,29 @@
         <v>74</v>
       </c>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
+      <c r="Z6">
+        <v>193.28</v>
+      </c>
       <c r="AA6">
-        <v>193.28</v>
+        <v>1067</v>
       </c>
       <c r="AB6">
-        <v>1067</v>
+        <v>603</v>
       </c>
       <c r="AC6">
-        <v>603</v>
-      </c>
-      <c r="AD6">
         <v>464</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AD6" t="s">
         <v>286</v>
       </c>
-      <c r="AF6">
+      <c r="AE6">
         <v>1000</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AF6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -5896,30 +5894,29 @@
         <v>74</v>
       </c>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+      <c r="Z7">
+        <v>241.15</v>
+      </c>
       <c r="AA7">
-        <v>241.15</v>
+        <v>1143</v>
       </c>
       <c r="AB7">
-        <v>1143</v>
+        <v>645</v>
       </c>
       <c r="AC7">
-        <v>645</v>
-      </c>
-      <c r="AD7">
         <v>498</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AD7" t="s">
         <v>286</v>
       </c>
-      <c r="AF7">
+      <c r="AE7">
         <v>500</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AF7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -5983,32 +5980,26 @@
       <c r="Y8" s="4">
         <v>32.19</v>
       </c>
-      <c r="Z8" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="AA8">
-        <v>111</v>
+        <v>102.12</v>
       </c>
       <c r="AB8">
         <v>102.12</v>
       </c>
       <c r="AC8">
-        <v>102.12</v>
-      </c>
-      <c r="AD8">
         <v>0</v>
       </c>
-      <c r="AE8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF8">
+      <c r="AD8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE8">
         <v>1900</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AF8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -6066,28 +6057,22 @@
       <c r="Y9">
         <v>271.39999999999998</v>
       </c>
-      <c r="Z9" t="s">
-        <v>257</v>
-      </c>
       <c r="AA9">
-        <v>441.02499999999998</v>
+        <v>264.27999999999997</v>
       </c>
       <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
         <v>264.27999999999997</v>
       </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>264.27999999999997</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF9">
+      <c r="AD9" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE9">
         <v>16</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>287</v>
       </c>
     </row>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C87D82-4AC6-4CE0-A737-DE2D2A167CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECBD153-80C8-4789-B523-4700357B4981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="314">
   <si>
     <t>name</t>
   </si>
@@ -5310,10 +5310,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8:Z9"/>
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5323,10 +5323,9 @@
     <col min="13" max="13" width="27.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" customWidth="1"/>
     <col min="18" max="21" width="10.5"/>
-    <col min="25" max="25" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:31">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -5400,31 +5399,28 @@
         <v>75</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF1" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -5489,24 +5485,23 @@
       <c r="X2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4">
+      <c r="Y2" s="4">
         <v>7090</v>
       </c>
+      <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AD2" s="4">
         <v>8000</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AE2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -5568,29 +5563,29 @@
       <c r="X3" t="s">
         <v>232</v>
       </c>
+      <c r="Y3">
+        <v>379</v>
+      </c>
       <c r="Z3">
-        <v>379</v>
+        <v>152.16999999999999</v>
       </c>
       <c r="AA3">
         <v>152.16999999999999</v>
       </c>
       <c r="AB3">
-        <v>152.16999999999999</v>
-      </c>
-      <c r="AC3">
         <v>0</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AC3" t="s">
         <v>284</v>
       </c>
-      <c r="AE3">
+      <c r="AD3">
         <v>10</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AE3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -5651,20 +5646,20 @@
       <c r="X4" t="s">
         <v>232</v>
       </c>
-      <c r="Z4">
+      <c r="Y4">
         <v>152</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AC4" t="s">
         <v>285</v>
       </c>
-      <c r="AE4">
+      <c r="AD4">
         <v>10</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AE4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -5725,30 +5720,29 @@
       <c r="X5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y5" s="4"/>
+      <c r="Y5">
+        <v>194.88</v>
+      </c>
       <c r="Z5">
-        <v>194.88</v>
+        <v>1200</v>
       </c>
       <c r="AA5">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="AB5">
-        <v>800</v>
-      </c>
-      <c r="AC5">
         <v>400</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AC5" t="s">
         <v>286</v>
       </c>
-      <c r="AE5">
+      <c r="AD5">
         <v>1000</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AE5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -5809,30 +5803,29 @@
       <c r="X6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y6" s="4"/>
+      <c r="Y6">
+        <v>193.28</v>
+      </c>
       <c r="Z6">
-        <v>193.28</v>
+        <v>1067</v>
       </c>
       <c r="AA6">
-        <v>1067</v>
+        <v>603</v>
       </c>
       <c r="AB6">
-        <v>603</v>
-      </c>
-      <c r="AC6">
         <v>464</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AC6" t="s">
         <v>286</v>
       </c>
-      <c r="AE6">
+      <c r="AD6">
         <v>1000</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AE6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -5893,30 +5886,29 @@
       <c r="X7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y7" s="4"/>
+      <c r="Y7">
+        <v>241.15</v>
+      </c>
       <c r="Z7">
-        <v>241.15</v>
+        <v>1143</v>
       </c>
       <c r="AA7">
-        <v>1143</v>
+        <v>645</v>
       </c>
       <c r="AB7">
-        <v>645</v>
-      </c>
-      <c r="AC7">
         <v>498</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AC7" t="s">
         <v>286</v>
       </c>
-      <c r="AE7">
+      <c r="AD7">
         <v>500</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AE7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -5980,26 +5972,26 @@
       <c r="Y8" s="4">
         <v>32.19</v>
       </c>
+      <c r="Z8">
+        <v>102.12</v>
+      </c>
       <c r="AA8">
         <v>102.12</v>
       </c>
       <c r="AB8">
-        <v>102.12</v>
-      </c>
-      <c r="AC8">
         <v>0</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AC8" t="s">
         <v>313</v>
       </c>
-      <c r="AE8">
+      <c r="AD8">
         <v>1900</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AE8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -6057,22 +6049,22 @@
       <c r="Y9">
         <v>271.39999999999998</v>
       </c>
+      <c r="Z9">
+        <v>264.27999999999997</v>
+      </c>
       <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
         <v>264.27999999999997</v>
       </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>264.27999999999997</v>
-      </c>
-      <c r="AD9" t="s">
+      <c r="AC9" t="s">
         <v>313</v>
       </c>
-      <c r="AE9">
+      <c r="AD9">
         <v>16</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AE9" t="s">
         <v>287</v>
       </c>
     </row>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECBD153-80C8-4789-B523-4700357B4981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEC6B2D-CA2D-4DA5-88FC-3538DCE6626F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5313,7 +5313,7 @@
   <dimension ref="A1:AE9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEC6B2D-CA2D-4DA5-88FC-3538DCE6626F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28D1E18-F8BA-474C-BE3E-272DF3CB070D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5312,8 +5312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
   <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28D1E18-F8BA-474C-BE3E-272DF3CB070D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB0ADE3-77AD-420D-A832-94417BF21496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="315">
   <si>
     <t>name</t>
   </si>
@@ -1041,6 +1041,10 @@
   </si>
   <si>
     <t>ｍ２</t>
+  </si>
+  <si>
+    <t>3G2A</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -4371,7 +4375,7 @@
   <dimension ref="A1:AI59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:L9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="18.75"/>
@@ -5312,8 +5316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
   <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5323,6 +5327,7 @@
     <col min="13" max="13" width="27.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" customWidth="1"/>
     <col min="18" max="21" width="10.5"/>
+    <col min="22" max="22" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -5434,7 +5439,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>226</v>
+        <v>314</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>301</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB0ADE3-77AD-420D-A832-94417BF21496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5F4F7F-5730-4D13-BBA0-695305653077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="331">
   <si>
     <t>name</t>
   </si>
@@ -1044,6 +1044,88 @@
   </si>
   <si>
     <t>3G2A</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>営業担当者</t>
+    <rPh sb="0" eb="5">
+      <t>エイギョウタントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>起案者</t>
+    <rPh sb="0" eb="3">
+      <t>キアンシャ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>回議先</t>
+    <rPh sb="0" eb="3">
+      <t>カイギサキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>決定者</t>
+    <rPh sb="0" eb="3">
+      <t>ケッテイシャ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>写し</t>
+    <rPh sb="0" eb="1">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dummy-agest02@gmail.com</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dummy-agest03@gmail.com</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dummy-agest04@gmail.com</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dummy-agest05@gmail.com</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dummy-agest01@gmail.com</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dummy-agest04@gmail.com,dummy-agest04@gmail.com</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dummy-agest02@gmail.com,dummy-agest03@gmail.com</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dummy-agest03@gmail.com,dummy-agest02@gmail.com</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dummy-agest03@gmail.com,dummy-agest03@gmail.com</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dummy-agest03@gmail.com,dummy-agest04@gmail.com</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1129,7 +1211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1200,6 +1282,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1208,7 +1312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1246,6 +1350,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2084,7 +2191,7 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -5316,8 +5423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
   <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6115,10 +6222,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -6128,10 +6235,11 @@
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="18.75" customWidth="1"/>
     <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="128.75" customWidth="1"/>
+    <col min="6" max="6" width="83.875" customWidth="1"/>
+    <col min="7" max="12" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" thickBot="1">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -6150,8 +6258,26 @@
       <c r="F1" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="115.5">
+      <c r="G1" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="181.5">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -6170,8 +6296,14 @@
       <c r="F2" s="17" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="99">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" ht="165">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -6190,8 +6322,14 @@
       <c r="F3" s="17" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="115.5">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" ht="181.5">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -6206,8 +6344,14 @@
       <c r="F4" s="17" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="115.5">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" ht="181.5">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -6226,8 +6370,14 @@
       <c r="F5" s="17" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="116.25" thickBot="1">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" ht="182.25" thickBot="1">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -6242,18 +6392,24 @@
       <c r="F6" s="17" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="116.25" thickBot="1">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" ht="181.5">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="24" t="s">
         <v>266</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -6262,18 +6418,24 @@
       <c r="F7" s="17" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="115.5">
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" ht="181.5">
       <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -6282,9 +6444,586 @@
       <c r="F8" s="17" t="s">
         <v>258</v>
       </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" ht="49.5">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" ht="49.5">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="49.5">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="49.5">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="49.5">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="49.5">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="49.5">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="49.5">
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:12" ht="49.5">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:12" ht="49.5">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" ht="49.5">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:12" ht="49.5">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="1:12" ht="49.5">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="1:12" ht="49.5">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:12" ht="49.5">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="L23" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{58BD0265-3F6E-48E9-875E-C21EEA5EC257}"/>
+    <hyperlink ref="H9" r:id="rId2" xr:uid="{502DF1A8-4A80-42E8-B4F6-39849B01EA2D}"/>
+    <hyperlink ref="I9" r:id="rId3" xr:uid="{DA576783-AB02-48AC-AD73-C297F0476537}"/>
+    <hyperlink ref="K9" r:id="rId4" xr:uid="{AF0D95CF-467F-4B96-99B9-64B80A9EA475}"/>
+    <hyperlink ref="G10" r:id="rId5" xr:uid="{0F8A2E04-8B3C-4C44-A6B1-060DB9F29D01}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{C1FA1115-B5CD-4479-AD6B-15BB0752E4BD}"/>
+    <hyperlink ref="I10" r:id="rId7" xr:uid="{AF4711B5-6BC6-46B3-8FFB-004657FE0C02}"/>
+    <hyperlink ref="J10" r:id="rId8" xr:uid="{414AE6C7-E483-4BEC-B320-839EEFA15455}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{73E57EBC-2D14-491E-B1A5-7843174DCFC4}"/>
+    <hyperlink ref="L10" r:id="rId10" xr:uid="{D6A24B77-A205-4D31-9494-A313AD1B672B}"/>
+    <hyperlink ref="G11" r:id="rId11" xr:uid="{FD970B54-DB3D-48E5-8258-E0B2153A2C53}"/>
+    <hyperlink ref="H11" r:id="rId12" xr:uid="{D9177382-8651-4BAD-8368-5C08826AC8E6}"/>
+    <hyperlink ref="I11" r:id="rId13" xr:uid="{0DE1F7C5-15A4-410B-90B4-74C4902A080C}"/>
+    <hyperlink ref="J11" r:id="rId14" xr:uid="{6A728DF4-41B6-4E3E-846B-9D094BF1524B}"/>
+    <hyperlink ref="K11" r:id="rId15" xr:uid="{A53B16E5-2CD2-40E4-B230-E339BEA2C695}"/>
+    <hyperlink ref="L11" r:id="rId16" xr:uid="{A2EF926D-CC1A-4D03-9F30-459C62E376A0}"/>
+    <hyperlink ref="G12" r:id="rId17" xr:uid="{DC240588-0414-42EA-A501-CADC56698DFF}"/>
+    <hyperlink ref="H12" r:id="rId18" xr:uid="{4745A5EF-0EB1-4B3C-AFA0-0AE79DEF9770}"/>
+    <hyperlink ref="I12" r:id="rId19" xr:uid="{80AB0DF6-6884-431D-BAB3-F63F3E41999B}"/>
+    <hyperlink ref="J12" r:id="rId20" xr:uid="{AC9C3692-E412-48B3-86FF-68947FF328CD}"/>
+    <hyperlink ref="K12" r:id="rId21" xr:uid="{4437D6E9-6B19-4DDF-BFB9-61FFA507FEB3}"/>
+    <hyperlink ref="L12" r:id="rId22" xr:uid="{16F99DDA-1E1D-49B6-B5A0-4B4A1A3E8870}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{BE2E2616-25CB-4FE9-A99B-66923C1726A3}"/>
+    <hyperlink ref="H13" r:id="rId24" xr:uid="{4710E06E-10E6-41F8-A15B-1EA59D4DE09B}"/>
+    <hyperlink ref="I13" r:id="rId25" xr:uid="{3D958E44-7330-4B38-9559-5FD14E2C5717}"/>
+    <hyperlink ref="K13" r:id="rId26" xr:uid="{4DE15C1B-DB4F-4AB1-8DD5-A8259266939D}"/>
+    <hyperlink ref="L13" r:id="rId27" xr:uid="{E9E96F55-7409-4D06-9BCE-2489CC205384}"/>
+    <hyperlink ref="G14" r:id="rId28" xr:uid="{4C226DC9-62D1-4495-B07D-6CFDAEC63094}"/>
+    <hyperlink ref="H14" r:id="rId29" xr:uid="{0E83A233-4AEE-4D76-A45A-49B6A17FDA92}"/>
+    <hyperlink ref="I14" r:id="rId30" xr:uid="{991546C1-9FD8-4905-8381-128005E1DFC8}"/>
+    <hyperlink ref="J14" r:id="rId31" xr:uid="{8A60F451-7010-4C59-8A3D-7B15793FA618}"/>
+    <hyperlink ref="K14" r:id="rId32" xr:uid="{93D1D676-18C3-42F2-B36F-D2FC0642AE1C}"/>
+    <hyperlink ref="L14" r:id="rId33" xr:uid="{113B2F7E-1120-45AE-B1E0-59A74E6658F9}"/>
+    <hyperlink ref="G15" r:id="rId34" xr:uid="{12C17381-7F14-4DA6-A26D-FCE8A8BDA306}"/>
+    <hyperlink ref="H15" r:id="rId35" xr:uid="{5CC8C9CE-9FB4-4AA8-A0F1-DD0E7A3344C5}"/>
+    <hyperlink ref="I15" r:id="rId36" xr:uid="{CBB03E43-33C1-497F-97B5-6F8EA4ABE3C5}"/>
+    <hyperlink ref="J15" r:id="rId37" xr:uid="{7D357CC9-03FF-42CC-AD92-E501F296E535}"/>
+    <hyperlink ref="K15" r:id="rId38" xr:uid="{6DE078A1-27CC-4B43-BE1B-E64F6FF576BA}"/>
+    <hyperlink ref="L15" r:id="rId39" xr:uid="{F12E0467-4AF4-47BA-8773-81EC06A6BAB4}"/>
+    <hyperlink ref="J16" r:id="rId40" xr:uid="{172009CE-B9AC-48E5-B5AC-22965629E689}"/>
+    <hyperlink ref="K16" r:id="rId41" xr:uid="{1C77463E-2788-458C-846D-73F295231F71}"/>
+    <hyperlink ref="G17" r:id="rId42" xr:uid="{AC4AB663-7A73-4F12-8225-5EE021948C2A}"/>
+    <hyperlink ref="H17" r:id="rId43" xr:uid="{06D7A109-B3F9-40D2-9F82-B6BF562076E8}"/>
+    <hyperlink ref="I17" r:id="rId44" xr:uid="{EC5B503E-E27B-40FF-BF8E-F248829B8043}"/>
+    <hyperlink ref="J17" r:id="rId45" xr:uid="{EA9B24A0-8CDA-43A6-8534-4A84880EB24B}"/>
+    <hyperlink ref="G18" r:id="rId46" xr:uid="{AFD45CAF-9A2D-4F42-AD35-FD72F84B008C}"/>
+    <hyperlink ref="G19" r:id="rId47" xr:uid="{FF7AFD2E-3A73-4673-9951-62C6C37AC3B8}"/>
+    <hyperlink ref="G20" r:id="rId48" xr:uid="{D9442433-FFA3-4D20-8AF5-600217F22773}"/>
+    <hyperlink ref="G21" r:id="rId49" xr:uid="{B543F4F4-6E88-4204-99A6-6087963D2BD4}"/>
+    <hyperlink ref="G22" r:id="rId50" xr:uid="{9DC868B7-729B-460C-BCBF-295CF7BBC064}"/>
+    <hyperlink ref="G23" r:id="rId51" xr:uid="{704F2103-153B-4F01-8918-E7004B3E9AEB}"/>
+    <hyperlink ref="H18" r:id="rId52" xr:uid="{D124867E-F1FD-4B74-AD08-59B7364D0A76}"/>
+    <hyperlink ref="H19" r:id="rId53" xr:uid="{EA213779-350D-412B-B36D-3204ED092A0A}"/>
+    <hyperlink ref="H20" r:id="rId54" xr:uid="{A19A3C53-0C6A-46C9-B23B-0E41498E7CA2}"/>
+    <hyperlink ref="H21" r:id="rId55" xr:uid="{0237D40D-0F37-4CC3-A20C-7C624EA654AE}"/>
+    <hyperlink ref="H22" r:id="rId56" xr:uid="{C200ADA3-5582-4F93-BFB7-86A6D9EC8803}"/>
+    <hyperlink ref="H23" r:id="rId57" xr:uid="{11F9D2E7-1F3C-4EBB-9117-4772AE4E972E}"/>
+    <hyperlink ref="I18" r:id="rId58" xr:uid="{3068E9CA-8FD9-49E1-BA88-63A1E3F2DB1C}"/>
+    <hyperlink ref="K18" r:id="rId59" xr:uid="{43FBF34C-F459-48CD-9A0C-9C73EA0D3C13}"/>
+    <hyperlink ref="I19" r:id="rId60" xr:uid="{48B715CB-12E6-4315-936D-BBEAAFC7123A}"/>
+    <hyperlink ref="J19" r:id="rId61" xr:uid="{DCEF4770-AB8A-4236-90C8-B507552769AF}"/>
+    <hyperlink ref="K19" r:id="rId62" xr:uid="{C2634BFF-526F-4766-82B6-49300A173C5B}"/>
+    <hyperlink ref="I20" r:id="rId63" xr:uid="{90C41D91-38E0-44F8-A986-93DE799D7536}"/>
+    <hyperlink ref="J20" r:id="rId64" xr:uid="{180CECC1-AF98-4023-A82F-AB5D5DAB9EB8}"/>
+    <hyperlink ref="K20" r:id="rId65" xr:uid="{A16795CD-E87D-4F47-B896-1612DAE3473A}"/>
+    <hyperlink ref="I21" r:id="rId66" xr:uid="{E18467B5-9BC2-492B-8BAE-7E1BA94E5637}"/>
+    <hyperlink ref="I22" r:id="rId67" xr:uid="{4D153C4A-2724-4F08-B9E6-BB83E784B8F1}"/>
+    <hyperlink ref="I23" r:id="rId68" xr:uid="{74CCDFD5-9BE4-43CA-AF99-2F4E9979809F}"/>
+    <hyperlink ref="K21" r:id="rId69" xr:uid="{1CA3286F-D8A4-4C17-8271-25B0EAA44F76}"/>
+    <hyperlink ref="K22" r:id="rId70" xr:uid="{60D969CA-E9F2-42EC-95AB-4226B5B0DDD0}"/>
+    <hyperlink ref="K23" r:id="rId71" xr:uid="{7E19D32D-B9F3-43B5-973C-C6B4EE3CD548}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5F4F7F-5730-4D13-BBA0-695305653077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48A3D5A-3396-4143-8C06-FCF08A3642CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1054,13 +1054,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>営業担当者</t>
-    <rPh sb="0" eb="5">
-      <t>エイギョウタントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>起案者</t>
     <rPh sb="0" eb="3">
       <t>キアンシャ</t>
@@ -1126,6 +1119,16 @@
   </si>
   <si>
     <t>dummy-agest03@gmail.com,dummy-agest04@gmail.com</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>営業担当</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タントウ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -6224,8 +6227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -6262,19 +6265,19 @@
         <v>315</v>
       </c>
       <c r="H1" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>319</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="181.5">
@@ -6469,17 +6472,17 @@
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="H9" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="I9" s="25" t="s">
         <v>322</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>323</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L9" s="17"/>
     </row>
@@ -6501,22 +6504,22 @@
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="I10" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="J10" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="L10" s="25" t="s">
         <v>324</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="49.5">
@@ -6537,22 +6540,22 @@
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>324</v>
-      </c>
       <c r="I11" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J11" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="K11" s="25" t="s">
-        <v>324</v>
-      </c>
       <c r="L11" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="49.5">
@@ -6573,22 +6576,22 @@
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H12" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="I12" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="J12" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>323</v>
-      </c>
       <c r="L12" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="49.5">
@@ -6609,20 +6612,20 @@
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="H13" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="I13" s="25" t="s">
         <v>322</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>323</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="L13" s="25" t="s">
         <v>322</v>
-      </c>
-      <c r="L13" s="25" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="49.5">
@@ -6643,22 +6646,22 @@
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="I14" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="K14" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="I14" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="K14" s="25" t="s">
-        <v>324</v>
-      </c>
       <c r="L14" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="49.5">
@@ -6679,22 +6682,22 @@
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="L15" s="25" t="s">
         <v>325</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="K15" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="49.5">
@@ -6716,10 +6719,10 @@
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L16" s="17"/>
     </row>
@@ -6739,16 +6742,16 @@
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="I17" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="H17" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="I17" s="25" t="s">
+      <c r="J17" s="25" t="s">
         <v>328</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>329</v>
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
@@ -6771,17 +6774,17 @@
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L18" s="17"/>
     </row>
@@ -6803,19 +6806,19 @@
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="J19" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="K19" s="25" t="s">
         <v>321</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>322</v>
       </c>
       <c r="L19" s="17"/>
     </row>
@@ -6837,19 +6840,19 @@
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="K20" s="25" t="s">
         <v>321</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>322</v>
       </c>
       <c r="L20" s="17"/>
     </row>
@@ -6871,17 +6874,17 @@
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L21" s="17"/>
     </row>
@@ -6903,17 +6906,17 @@
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L22" s="17"/>
     </row>
@@ -6935,17 +6938,17 @@
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L23" s="17"/>
     </row>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48A3D5A-3396-4143-8C06-FCF08A3642CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9F33D1-7477-4F91-90A8-7AC88B2B23E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,46 +1082,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>dummy-agest02@gmail.com</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>dummy-agest03@gmail.com</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>dummy-agest04@gmail.com</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>dummy-agest05@gmail.com</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>dummy-agest01@gmail.com</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>dummy-agest04@gmail.com,dummy-agest04@gmail.com</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>dummy-agest02@gmail.com,dummy-agest03@gmail.com</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>dummy-agest03@gmail.com,dummy-agest02@gmail.com</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>dummy-agest03@gmail.com,dummy-agest03@gmail.com</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>dummy-agest03@gmail.com,dummy-agest04@gmail.com</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>営業担当</t>
     <rPh sb="0" eb="2">
       <t>エイギョウ</t>
@@ -1130,6 +1090,36 @@
       <t>タントウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dummy-agest02@mail.toray</t>
+  </si>
+  <si>
+    <t>dummy-agest03@mail.toray</t>
+  </si>
+  <si>
+    <t>dummy-agest04@mail.toray</t>
+  </si>
+  <si>
+    <t>dummy-agest05@mail.toray</t>
+  </si>
+  <si>
+    <t>dummy-agest01@mail.toray</t>
+  </si>
+  <si>
+    <t>dummy-agest04@mail.toray,dummy-agest04@mail.toray</t>
+  </si>
+  <si>
+    <t>dummy-agest02@mail.toray,dummy-agest03@mail.toray</t>
+  </si>
+  <si>
+    <t>dummy-agest03@mail.toray,dummy-agest02@mail.toray</t>
+  </si>
+  <si>
+    <t>dummy-agest03@mail.toray,dummy-agest03@mail.toray</t>
+  </si>
+  <si>
+    <t>dummy-agest03@mail.toray,dummy-agest04@mail.toray</t>
   </si>
 </sst>
 </file>
@@ -6227,8 +6217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="F12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -6265,7 +6255,7 @@
         <v>315</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>316</v>
@@ -6472,17 +6462,17 @@
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L9" s="17"/>
     </row>
@@ -6504,22 +6494,22 @@
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H10" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="J10" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="K10" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="J10" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>322</v>
-      </c>
       <c r="L10" s="25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="49.5">
@@ -6540,22 +6530,22 @@
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="25" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H11" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="J11" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>322</v>
-      </c>
       <c r="K11" s="25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="49.5">
@@ -6576,22 +6566,22 @@
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="K12" s="25" t="s">
+      <c r="L12" s="25" t="s">
         <v>322</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="49.5">
@@ -6612,20 +6602,20 @@
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="49.5">
@@ -6646,22 +6636,22 @@
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="I14" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="J14" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="I14" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>321</v>
-      </c>
       <c r="K14" s="25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="49.5">
@@ -6682,22 +6672,22 @@
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L15" s="25" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="49.5">
@@ -6719,10 +6709,10 @@
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L16" s="17"/>
     </row>
@@ -6742,16 +6732,16 @@
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="25" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
@@ -6774,17 +6764,17 @@
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L18" s="17"/>
     </row>
@@ -6806,19 +6796,19 @@
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L19" s="17"/>
     </row>
@@ -6840,19 +6830,19 @@
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I20" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="K20" s="25" t="s">
         <v>322</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>321</v>
       </c>
       <c r="L20" s="17"/>
     </row>
@@ -6874,17 +6864,17 @@
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L21" s="17"/>
     </row>
@@ -6906,17 +6896,17 @@
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="25" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L22" s="17"/>
     </row>
@@ -6938,94 +6928,94 @@
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L23" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" xr:uid="{58BD0265-3F6E-48E9-875E-C21EEA5EC257}"/>
-    <hyperlink ref="H9" r:id="rId2" xr:uid="{502DF1A8-4A80-42E8-B4F6-39849B01EA2D}"/>
-    <hyperlink ref="I9" r:id="rId3" xr:uid="{DA576783-AB02-48AC-AD73-C297F0476537}"/>
-    <hyperlink ref="K9" r:id="rId4" xr:uid="{AF0D95CF-467F-4B96-99B9-64B80A9EA475}"/>
-    <hyperlink ref="G10" r:id="rId5" xr:uid="{0F8A2E04-8B3C-4C44-A6B1-060DB9F29D01}"/>
-    <hyperlink ref="H10" r:id="rId6" xr:uid="{C1FA1115-B5CD-4479-AD6B-15BB0752E4BD}"/>
-    <hyperlink ref="I10" r:id="rId7" xr:uid="{AF4711B5-6BC6-46B3-8FFB-004657FE0C02}"/>
-    <hyperlink ref="J10" r:id="rId8" xr:uid="{414AE6C7-E483-4BEC-B320-839EEFA15455}"/>
-    <hyperlink ref="K10" r:id="rId9" xr:uid="{73E57EBC-2D14-491E-B1A5-7843174DCFC4}"/>
-    <hyperlink ref="L10" r:id="rId10" xr:uid="{D6A24B77-A205-4D31-9494-A313AD1B672B}"/>
-    <hyperlink ref="G11" r:id="rId11" xr:uid="{FD970B54-DB3D-48E5-8258-E0B2153A2C53}"/>
-    <hyperlink ref="H11" r:id="rId12" xr:uid="{D9177382-8651-4BAD-8368-5C08826AC8E6}"/>
-    <hyperlink ref="I11" r:id="rId13" xr:uid="{0DE1F7C5-15A4-410B-90B4-74C4902A080C}"/>
-    <hyperlink ref="J11" r:id="rId14" xr:uid="{6A728DF4-41B6-4E3E-846B-9D094BF1524B}"/>
-    <hyperlink ref="K11" r:id="rId15" xr:uid="{A53B16E5-2CD2-40E4-B230-E339BEA2C695}"/>
-    <hyperlink ref="L11" r:id="rId16" xr:uid="{A2EF926D-CC1A-4D03-9F30-459C62E376A0}"/>
-    <hyperlink ref="G12" r:id="rId17" xr:uid="{DC240588-0414-42EA-A501-CADC56698DFF}"/>
-    <hyperlink ref="H12" r:id="rId18" xr:uid="{4745A5EF-0EB1-4B3C-AFA0-0AE79DEF9770}"/>
-    <hyperlink ref="I12" r:id="rId19" xr:uid="{80AB0DF6-6884-431D-BAB3-F63F3E41999B}"/>
-    <hyperlink ref="J12" r:id="rId20" xr:uid="{AC9C3692-E412-48B3-86FF-68947FF328CD}"/>
-    <hyperlink ref="K12" r:id="rId21" xr:uid="{4437D6E9-6B19-4DDF-BFB9-61FFA507FEB3}"/>
-    <hyperlink ref="L12" r:id="rId22" xr:uid="{16F99DDA-1E1D-49B6-B5A0-4B4A1A3E8870}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{BE2E2616-25CB-4FE9-A99B-66923C1726A3}"/>
-    <hyperlink ref="H13" r:id="rId24" xr:uid="{4710E06E-10E6-41F8-A15B-1EA59D4DE09B}"/>
-    <hyperlink ref="I13" r:id="rId25" xr:uid="{3D958E44-7330-4B38-9559-5FD14E2C5717}"/>
-    <hyperlink ref="K13" r:id="rId26" xr:uid="{4DE15C1B-DB4F-4AB1-8DD5-A8259266939D}"/>
-    <hyperlink ref="L13" r:id="rId27" xr:uid="{E9E96F55-7409-4D06-9BCE-2489CC205384}"/>
-    <hyperlink ref="G14" r:id="rId28" xr:uid="{4C226DC9-62D1-4495-B07D-6CFDAEC63094}"/>
-    <hyperlink ref="H14" r:id="rId29" xr:uid="{0E83A233-4AEE-4D76-A45A-49B6A17FDA92}"/>
-    <hyperlink ref="I14" r:id="rId30" xr:uid="{991546C1-9FD8-4905-8381-128005E1DFC8}"/>
-    <hyperlink ref="J14" r:id="rId31" xr:uid="{8A60F451-7010-4C59-8A3D-7B15793FA618}"/>
-    <hyperlink ref="K14" r:id="rId32" xr:uid="{93D1D676-18C3-42F2-B36F-D2FC0642AE1C}"/>
-    <hyperlink ref="L14" r:id="rId33" xr:uid="{113B2F7E-1120-45AE-B1E0-59A74E6658F9}"/>
-    <hyperlink ref="G15" r:id="rId34" xr:uid="{12C17381-7F14-4DA6-A26D-FCE8A8BDA306}"/>
-    <hyperlink ref="H15" r:id="rId35" xr:uid="{5CC8C9CE-9FB4-4AA8-A0F1-DD0E7A3344C5}"/>
-    <hyperlink ref="I15" r:id="rId36" xr:uid="{CBB03E43-33C1-497F-97B5-6F8EA4ABE3C5}"/>
-    <hyperlink ref="J15" r:id="rId37" xr:uid="{7D357CC9-03FF-42CC-AD92-E501F296E535}"/>
-    <hyperlink ref="K15" r:id="rId38" xr:uid="{6DE078A1-27CC-4B43-BE1B-E64F6FF576BA}"/>
-    <hyperlink ref="L15" r:id="rId39" xr:uid="{F12E0467-4AF4-47BA-8773-81EC06A6BAB4}"/>
-    <hyperlink ref="J16" r:id="rId40" xr:uid="{172009CE-B9AC-48E5-B5AC-22965629E689}"/>
-    <hyperlink ref="K16" r:id="rId41" xr:uid="{1C77463E-2788-458C-846D-73F295231F71}"/>
-    <hyperlink ref="G17" r:id="rId42" xr:uid="{AC4AB663-7A73-4F12-8225-5EE021948C2A}"/>
-    <hyperlink ref="H17" r:id="rId43" xr:uid="{06D7A109-B3F9-40D2-9F82-B6BF562076E8}"/>
-    <hyperlink ref="I17" r:id="rId44" xr:uid="{EC5B503E-E27B-40FF-BF8E-F248829B8043}"/>
-    <hyperlink ref="J17" r:id="rId45" xr:uid="{EA9B24A0-8CDA-43A6-8534-4A84880EB24B}"/>
-    <hyperlink ref="G18" r:id="rId46" xr:uid="{AFD45CAF-9A2D-4F42-AD35-FD72F84B008C}"/>
-    <hyperlink ref="G19" r:id="rId47" xr:uid="{FF7AFD2E-3A73-4673-9951-62C6C37AC3B8}"/>
-    <hyperlink ref="G20" r:id="rId48" xr:uid="{D9442433-FFA3-4D20-8AF5-600217F22773}"/>
-    <hyperlink ref="G21" r:id="rId49" xr:uid="{B543F4F4-6E88-4204-99A6-6087963D2BD4}"/>
-    <hyperlink ref="G22" r:id="rId50" xr:uid="{9DC868B7-729B-460C-BCBF-295CF7BBC064}"/>
-    <hyperlink ref="G23" r:id="rId51" xr:uid="{704F2103-153B-4F01-8918-E7004B3E9AEB}"/>
-    <hyperlink ref="H18" r:id="rId52" xr:uid="{D124867E-F1FD-4B74-AD08-59B7364D0A76}"/>
-    <hyperlink ref="H19" r:id="rId53" xr:uid="{EA213779-350D-412B-B36D-3204ED092A0A}"/>
-    <hyperlink ref="H20" r:id="rId54" xr:uid="{A19A3C53-0C6A-46C9-B23B-0E41498E7CA2}"/>
-    <hyperlink ref="H21" r:id="rId55" xr:uid="{0237D40D-0F37-4CC3-A20C-7C624EA654AE}"/>
-    <hyperlink ref="H22" r:id="rId56" xr:uid="{C200ADA3-5582-4F93-BFB7-86A6D9EC8803}"/>
-    <hyperlink ref="H23" r:id="rId57" xr:uid="{11F9D2E7-1F3C-4EBB-9117-4772AE4E972E}"/>
-    <hyperlink ref="I18" r:id="rId58" xr:uid="{3068E9CA-8FD9-49E1-BA88-63A1E3F2DB1C}"/>
-    <hyperlink ref="K18" r:id="rId59" xr:uid="{43FBF34C-F459-48CD-9A0C-9C73EA0D3C13}"/>
-    <hyperlink ref="I19" r:id="rId60" xr:uid="{48B715CB-12E6-4315-936D-BBEAAFC7123A}"/>
-    <hyperlink ref="J19" r:id="rId61" xr:uid="{DCEF4770-AB8A-4236-90C8-B507552769AF}"/>
-    <hyperlink ref="K19" r:id="rId62" xr:uid="{C2634BFF-526F-4766-82B6-49300A173C5B}"/>
-    <hyperlink ref="I20" r:id="rId63" xr:uid="{90C41D91-38E0-44F8-A986-93DE799D7536}"/>
-    <hyperlink ref="J20" r:id="rId64" xr:uid="{180CECC1-AF98-4023-A82F-AB5D5DAB9EB8}"/>
-    <hyperlink ref="K20" r:id="rId65" xr:uid="{A16795CD-E87D-4F47-B896-1612DAE3473A}"/>
-    <hyperlink ref="I21" r:id="rId66" xr:uid="{E18467B5-9BC2-492B-8BAE-7E1BA94E5637}"/>
-    <hyperlink ref="I22" r:id="rId67" xr:uid="{4D153C4A-2724-4F08-B9E6-BB83E784B8F1}"/>
-    <hyperlink ref="I23" r:id="rId68" xr:uid="{74CCDFD5-9BE4-43CA-AF99-2F4E9979809F}"/>
-    <hyperlink ref="K21" r:id="rId69" xr:uid="{1CA3286F-D8A4-4C17-8271-25B0EAA44F76}"/>
-    <hyperlink ref="K22" r:id="rId70" xr:uid="{60D969CA-E9F2-42EC-95AB-4226B5B0DDD0}"/>
-    <hyperlink ref="K23" r:id="rId71" xr:uid="{7E19D32D-B9F3-43B5-973C-C6B4EE3CD548}"/>
+    <hyperlink ref="G9" r:id="rId1" display="dummy-agest02@gmail.com" xr:uid="{58BD0265-3F6E-48E9-875E-C21EEA5EC257}"/>
+    <hyperlink ref="H9" r:id="rId2" display="dummy-agest03@gmail.com" xr:uid="{502DF1A8-4A80-42E8-B4F6-39849B01EA2D}"/>
+    <hyperlink ref="I9" r:id="rId3" display="dummy-agest04@gmail.com" xr:uid="{DA576783-AB02-48AC-AD73-C297F0476537}"/>
+    <hyperlink ref="K9" r:id="rId4" display="dummy-agest03@gmail.com" xr:uid="{AF0D95CF-467F-4B96-99B9-64B80A9EA475}"/>
+    <hyperlink ref="G10" r:id="rId5" display="dummy-agest03@gmail.com" xr:uid="{0F8A2E04-8B3C-4C44-A6B1-060DB9F29D01}"/>
+    <hyperlink ref="H10" r:id="rId6" display="dummy-agest04@gmail.com" xr:uid="{C1FA1115-B5CD-4479-AD6B-15BB0752E4BD}"/>
+    <hyperlink ref="I10" r:id="rId7" display="dummy-agest05@gmail.com" xr:uid="{AF4711B5-6BC6-46B3-8FFB-004657FE0C02}"/>
+    <hyperlink ref="J10" r:id="rId8" display="dummy-agest03@gmail.com" xr:uid="{414AE6C7-E483-4BEC-B320-839EEFA15455}"/>
+    <hyperlink ref="K10" r:id="rId9" display="dummy-agest04@gmail.com" xr:uid="{73E57EBC-2D14-491E-B1A5-7843174DCFC4}"/>
+    <hyperlink ref="L10" r:id="rId10" display="dummy-agest01@gmail.com" xr:uid="{D6A24B77-A205-4D31-9494-A313AD1B672B}"/>
+    <hyperlink ref="G11" r:id="rId11" display="dummy-agest04@gmail.com" xr:uid="{FD970B54-DB3D-48E5-8258-E0B2153A2C53}"/>
+    <hyperlink ref="H11" r:id="rId12" display="dummy-agest05@gmail.com" xr:uid="{D9177382-8651-4BAD-8368-5C08826AC8E6}"/>
+    <hyperlink ref="I11" r:id="rId13" display="dummy-agest02@gmail.com" xr:uid="{0DE1F7C5-15A4-410B-90B4-74C4902A080C}"/>
+    <hyperlink ref="J11" r:id="rId14" display="dummy-agest04@gmail.com" xr:uid="{6A728DF4-41B6-4E3E-846B-9D094BF1524B}"/>
+    <hyperlink ref="K11" r:id="rId15" display="dummy-agest05@gmail.com" xr:uid="{A53B16E5-2CD2-40E4-B230-E339BEA2C695}"/>
+    <hyperlink ref="L11" r:id="rId16" display="dummy-agest02@gmail.com" xr:uid="{A2EF926D-CC1A-4D03-9F30-459C62E376A0}"/>
+    <hyperlink ref="G12" r:id="rId17" display="dummy-agest05@gmail.com" xr:uid="{DC240588-0414-42EA-A501-CADC56698DFF}"/>
+    <hyperlink ref="H12" r:id="rId18" display="dummy-agest02@gmail.com" xr:uid="{4745A5EF-0EB1-4B3C-AFA0-0AE79DEF9770}"/>
+    <hyperlink ref="I12" r:id="rId19" display="dummy-agest03@gmail.com" xr:uid="{80AB0DF6-6884-431D-BAB3-F63F3E41999B}"/>
+    <hyperlink ref="J12" r:id="rId20" display="dummy-agest05@gmail.com" xr:uid="{AC9C3692-E412-48B3-86FF-68947FF328CD}"/>
+    <hyperlink ref="K12" r:id="rId21" display="dummy-agest04@gmail.com" xr:uid="{4437D6E9-6B19-4DDF-BFB9-61FFA507FEB3}"/>
+    <hyperlink ref="L12" r:id="rId22" display="dummy-agest03@gmail.com" xr:uid="{16F99DDA-1E1D-49B6-B5A0-4B4A1A3E8870}"/>
+    <hyperlink ref="G13" r:id="rId23" display="dummy-agest02@gmail.com" xr:uid="{BE2E2616-25CB-4FE9-A99B-66923C1726A3}"/>
+    <hyperlink ref="H13" r:id="rId24" display="dummy-agest03@gmail.com" xr:uid="{4710E06E-10E6-41F8-A15B-1EA59D4DE09B}"/>
+    <hyperlink ref="I13" r:id="rId25" display="dummy-agest04@gmail.com" xr:uid="{3D958E44-7330-4B38-9559-5FD14E2C5717}"/>
+    <hyperlink ref="K13" r:id="rId26" display="dummy-agest03@gmail.com" xr:uid="{4DE15C1B-DB4F-4AB1-8DD5-A8259266939D}"/>
+    <hyperlink ref="L13" r:id="rId27" display="dummy-agest04@gmail.com" xr:uid="{E9E96F55-7409-4D06-9BCE-2489CC205384}"/>
+    <hyperlink ref="G14" r:id="rId28" display="dummy-agest03@gmail.com" xr:uid="{4C226DC9-62D1-4495-B07D-6CFDAEC63094}"/>
+    <hyperlink ref="H14" r:id="rId29" display="dummy-agest04@gmail.com" xr:uid="{0E83A233-4AEE-4D76-A45A-49B6A17FDA92}"/>
+    <hyperlink ref="I14" r:id="rId30" display="dummy-agest02@gmail.com" xr:uid="{991546C1-9FD8-4905-8381-128005E1DFC8}"/>
+    <hyperlink ref="J14" r:id="rId31" display="dummy-agest03@gmail.com" xr:uid="{8A60F451-7010-4C59-8A3D-7B15793FA618}"/>
+    <hyperlink ref="K14" r:id="rId32" display="dummy-agest05@gmail.com" xr:uid="{93D1D676-18C3-42F2-B36F-D2FC0642AE1C}"/>
+    <hyperlink ref="L14" r:id="rId33" display="dummy-agest05@gmail.com" xr:uid="{113B2F7E-1120-45AE-B1E0-59A74E6658F9}"/>
+    <hyperlink ref="G15" r:id="rId34" display="dummy-agest01@gmail.com" xr:uid="{12C17381-7F14-4DA6-A26D-FCE8A8BDA306}"/>
+    <hyperlink ref="H15" r:id="rId35" display="dummy-agest01@gmail.com" xr:uid="{5CC8C9CE-9FB4-4AA8-A0F1-DD0E7A3344C5}"/>
+    <hyperlink ref="I15" r:id="rId36" display="dummy-agest01@gmail.com" xr:uid="{CBB03E43-33C1-497F-97B5-6F8EA4ABE3C5}"/>
+    <hyperlink ref="J15" r:id="rId37" display="dummy-agest02@gmail.com" xr:uid="{7D357CC9-03FF-42CC-AD92-E501F296E535}"/>
+    <hyperlink ref="K15" r:id="rId38" display="dummy-agest02@gmail.com" xr:uid="{6DE078A1-27CC-4B43-BE1B-E64F6FF576BA}"/>
+    <hyperlink ref="L15" r:id="rId39" display="dummy-agest04@gmail.com,dummy-agest04@gmail.com" xr:uid="{F12E0467-4AF4-47BA-8773-81EC06A6BAB4}"/>
+    <hyperlink ref="J16" r:id="rId40" display="dummy-agest01@gmail.com" xr:uid="{172009CE-B9AC-48E5-B5AC-22965629E689}"/>
+    <hyperlink ref="K16" r:id="rId41" display="dummy-agest01@gmail.com" xr:uid="{1C77463E-2788-458C-846D-73F295231F71}"/>
+    <hyperlink ref="G17" r:id="rId42" display="dummy-agest02@gmail.com,dummy-agest03@gmail.com" xr:uid="{AC4AB663-7A73-4F12-8225-5EE021948C2A}"/>
+    <hyperlink ref="H17" r:id="rId43" display="dummy-agest02@gmail.com,dummy-agest03@gmail.com" xr:uid="{06D7A109-B3F9-40D2-9F82-B6BF562076E8}"/>
+    <hyperlink ref="I17" r:id="rId44" display="dummy-agest03@gmail.com,dummy-agest02@gmail.com" xr:uid="{EC5B503E-E27B-40FF-BF8E-F248829B8043}"/>
+    <hyperlink ref="J17" r:id="rId45" display="dummy-agest03@gmail.com,dummy-agest03@gmail.com" xr:uid="{EA9B24A0-8CDA-43A6-8534-4A84880EB24B}"/>
+    <hyperlink ref="G18" r:id="rId46" display="dummy-agest02@gmail.com" xr:uid="{AFD45CAF-9A2D-4F42-AD35-FD72F84B008C}"/>
+    <hyperlink ref="G19" r:id="rId47" display="dummy-agest02@gmail.com" xr:uid="{FF7AFD2E-3A73-4673-9951-62C6C37AC3B8}"/>
+    <hyperlink ref="G20" r:id="rId48" display="dummy-agest02@gmail.com" xr:uid="{D9442433-FFA3-4D20-8AF5-600217F22773}"/>
+    <hyperlink ref="G21" r:id="rId49" display="dummy-agest02@gmail.com" xr:uid="{B543F4F4-6E88-4204-99A6-6087963D2BD4}"/>
+    <hyperlink ref="G22" r:id="rId50" display="dummy-agest02@gmail.com" xr:uid="{9DC868B7-729B-460C-BCBF-295CF7BBC064}"/>
+    <hyperlink ref="G23" r:id="rId51" display="dummy-agest02@gmail.com" xr:uid="{704F2103-153B-4F01-8918-E7004B3E9AEB}"/>
+    <hyperlink ref="H18" r:id="rId52" display="dummy-agest02@gmail.com" xr:uid="{D124867E-F1FD-4B74-AD08-59B7364D0A76}"/>
+    <hyperlink ref="H19" r:id="rId53" display="dummy-agest02@gmail.com" xr:uid="{EA213779-350D-412B-B36D-3204ED092A0A}"/>
+    <hyperlink ref="H20" r:id="rId54" display="dummy-agest02@gmail.com" xr:uid="{A19A3C53-0C6A-46C9-B23B-0E41498E7CA2}"/>
+    <hyperlink ref="H21" r:id="rId55" display="dummy-agest02@gmail.com" xr:uid="{0237D40D-0F37-4CC3-A20C-7C624EA654AE}"/>
+    <hyperlink ref="H22" r:id="rId56" display="dummy-agest02@gmail.com" xr:uid="{C200ADA3-5582-4F93-BFB7-86A6D9EC8803}"/>
+    <hyperlink ref="H23" r:id="rId57" display="dummy-agest02@gmail.com" xr:uid="{11F9D2E7-1F3C-4EBB-9117-4772AE4E972E}"/>
+    <hyperlink ref="I18" r:id="rId58" display="dummy-agest05@gmail.com" xr:uid="{3068E9CA-8FD9-49E1-BA88-63A1E3F2DB1C}"/>
+    <hyperlink ref="K18" r:id="rId59" display="dummy-agest05@gmail.com" xr:uid="{43FBF34C-F459-48CD-9A0C-9C73EA0D3C13}"/>
+    <hyperlink ref="I19" r:id="rId60" display="dummy-agest02@gmail.com" xr:uid="{48B715CB-12E6-4315-936D-BBEAAFC7123A}"/>
+    <hyperlink ref="J19" r:id="rId61" display="dummy-agest03@gmail.com" xr:uid="{DCEF4770-AB8A-4236-90C8-B507552769AF}"/>
+    <hyperlink ref="K19" r:id="rId62" display="dummy-agest03@gmail.com" xr:uid="{C2634BFF-526F-4766-82B6-49300A173C5B}"/>
+    <hyperlink ref="I20" r:id="rId63" display="dummy-agest04@gmail.com" xr:uid="{90C41D91-38E0-44F8-A986-93DE799D7536}"/>
+    <hyperlink ref="J20" r:id="rId64" display="dummy-agest04@gmail.com" xr:uid="{180CECC1-AF98-4023-A82F-AB5D5DAB9EB8}"/>
+    <hyperlink ref="K20" r:id="rId65" display="dummy-agest03@gmail.com" xr:uid="{A16795CD-E87D-4F47-B896-1612DAE3473A}"/>
+    <hyperlink ref="I21" r:id="rId66" display="dummy-agest02@gmail.com" xr:uid="{E18467B5-9BC2-492B-8BAE-7E1BA94E5637}"/>
+    <hyperlink ref="I22" r:id="rId67" display="dummy-agest02@gmail.com" xr:uid="{4D153C4A-2724-4F08-B9E6-BB83E784B8F1}"/>
+    <hyperlink ref="I23" r:id="rId68" display="dummy-agest02@gmail.com" xr:uid="{74CCDFD5-9BE4-43CA-AF99-2F4E9979809F}"/>
+    <hyperlink ref="K21" r:id="rId69" display="dummy-agest03@gmail.com" xr:uid="{1CA3286F-D8A4-4C17-8271-25B0EAA44F76}"/>
+    <hyperlink ref="K22" r:id="rId70" display="dummy-agest04@gmail.com" xr:uid="{60D969CA-E9F2-42EC-95AB-4226B5B0DDD0}"/>
+    <hyperlink ref="K23" r:id="rId71" display="dummy-agest03@gmail.com,dummy-agest04@gmail.com" xr:uid="{7E19D32D-B9F3-43B5-973C-C6B4EE3CD548}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9F33D1-7477-4F91-90A8-7AC88B2B23E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3533FC-7C0F-45E7-8013-8ED5D29B6B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6218,7 +6218,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9F33D1-7477-4F91-90A8-7AC88B2B23E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5F62E3-77E0-4EDB-B801-F405C01CD4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="331">
   <si>
     <t>name</t>
   </si>
@@ -6217,8 +6217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -6454,12 +6454,8 @@
       <c r="C9" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>261</v>
-      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="17"/>
       <c r="G9" s="25" t="s">
         <v>321</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5F62E3-77E0-4EDB-B801-F405C01CD4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174419B7-44ED-4940-B266-55899714F3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="331">
   <si>
     <t>name</t>
   </si>
@@ -6217,8 +6217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -6482,12 +6482,8 @@
       <c r="C10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>261</v>
-      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="17"/>
       <c r="G10" s="25" t="s">
         <v>322</v>
@@ -6518,12 +6514,8 @@
       <c r="C11" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>261</v>
-      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="17"/>
       <c r="G11" s="25" t="s">
         <v>323</v>
@@ -6554,12 +6546,8 @@
       <c r="C12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>261</v>
-      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="17"/>
       <c r="G12" s="25" t="s">
         <v>324</v>
@@ -6590,12 +6578,8 @@
       <c r="C13" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>261</v>
-      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="17"/>
       <c r="G13" s="25" t="s">
         <v>321</v>
@@ -6624,12 +6608,8 @@
       <c r="C14" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>261</v>
-      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="17"/>
       <c r="G14" s="25" t="s">
         <v>322</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174419B7-44ED-4940-B266-55899714F3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3FEECB-C58B-4403-9646-A3260BCCBD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="SC-01" sheetId="2" r:id="rId2"/>
-    <sheet name="新規" sheetId="3" r:id="rId3"/>
+    <sheet name="SC-01_新規" sheetId="3" r:id="rId3"/>
     <sheet name="SC-02" sheetId="4" r:id="rId4"/>
     <sheet name="SC-03" sheetId="5" r:id="rId5"/>
     <sheet name="SC-03_換算" sheetId="7" r:id="rId6"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="332">
   <si>
     <t>name</t>
   </si>
@@ -1120,6 +1120,10 @@
   </si>
   <si>
     <t>dummy-agest03@mail.toray,dummy-agest04@mail.toray</t>
+  </si>
+  <si>
+    <t>&lt;ignore&gt;</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -2183,15 +2187,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="A2:XFD4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="34.875" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
     <col min="6" max="6" width="6.875" customWidth="1"/>
     <col min="7" max="7" width="34.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.25" bestFit="1" customWidth="1"/>
@@ -2902,7 +2906,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>137</v>
@@ -4339,7 +4343,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -6217,8 +6221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -6289,8 +6293,12 @@
       <c r="F2" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="G2" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>331</v>
+      </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
@@ -6315,8 +6323,12 @@
       <c r="F3" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="G3" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>331</v>
+      </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
@@ -6337,8 +6349,12 @@
       <c r="F4" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="G4" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>331</v>
+      </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
@@ -6363,8 +6379,12 @@
       <c r="F5" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="G5" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>331</v>
+      </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
@@ -6385,8 +6405,12 @@
       <c r="F6" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>331</v>
+      </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
@@ -6411,8 +6435,12 @@
       <c r="F7" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>331</v>
+      </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
@@ -6437,8 +6465,12 @@
       <c r="F8" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="G8" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>331</v>
+      </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3FEECB-C58B-4403-9646-A3260BCCBD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C8E0A5-01AD-4CE0-995C-4A8FB846760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,11 @@
     <sheet name="SC-12" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="338">
   <si>
     <t>name</t>
   </si>
@@ -1123,6 +1118,51 @@
   </si>
   <si>
     <t>&lt;ignore&gt;</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>輸出(除EXGO)</t>
+    <rPh sb="0" eb="2">
+      <t>ユシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>BSF通貨</t>
+    <rPh sb="3" eb="5">
+      <t>ツウカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>BSF決裁単価_外貨</t>
+    <rPh sb="3" eb="7">
+      <t>ケッサイタンカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガイカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>想定為替レート</t>
+    <rPh sb="0" eb="2">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カワセ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>100~160</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1309,7 +1349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1350,6 +1390,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5418,23 +5462,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
-  <dimension ref="A1:AE9"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="10" max="10" width="42.75" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
     <col min="13" max="13" width="27.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" customWidth="1"/>
     <col min="18" max="21" width="10.5"/>
     <col min="22" max="22" width="19.75" customWidth="1"/>
+    <col min="25" max="25" width="15.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.375" customWidth="1"/>
+    <col min="27" max="27" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:35">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -5507,29 +5556,41 @@
       <c r="X1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -5594,23 +5655,27 @@
       <c r="X2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y2" s="4">
-        <v>7090</v>
-      </c>
+      <c r="Y2" s="27"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="4">
+        <v>7090</v>
+      </c>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AH2" s="4">
         <v>8000</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AI2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -5672,29 +5737,29 @@
       <c r="X3" t="s">
         <v>232</v>
       </c>
-      <c r="Y3">
+      <c r="AC3">
         <v>379</v>
       </c>
-      <c r="Z3">
+      <c r="AD3">
         <v>152.16999999999999</v>
       </c>
-      <c r="AA3">
+      <c r="AE3">
         <v>152.16999999999999</v>
       </c>
-      <c r="AB3">
+      <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>284</v>
       </c>
-      <c r="AD3">
+      <c r="AH3">
         <v>10</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AI3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -5755,20 +5820,20 @@
       <c r="X4" t="s">
         <v>232</v>
       </c>
-      <c r="Y4">
+      <c r="AC4">
         <v>152</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>285</v>
       </c>
-      <c r="AD4">
+      <c r="AH4">
         <v>10</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AI4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -5829,29 +5894,33 @@
       <c r="X5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5">
         <v>194.88</v>
       </c>
-      <c r="Z5">
+      <c r="AD5">
         <v>1200</v>
       </c>
-      <c r="AA5">
+      <c r="AE5">
         <v>800</v>
       </c>
-      <c r="AB5">
+      <c r="AF5">
         <v>400</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>286</v>
       </c>
-      <c r="AD5">
+      <c r="AH5">
         <v>1000</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AI5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:35">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -5912,29 +5981,33 @@
       <c r="X6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6">
         <v>193.28</v>
       </c>
-      <c r="Z6">
+      <c r="AD6">
         <v>1067</v>
       </c>
-      <c r="AA6">
+      <c r="AE6">
         <v>603</v>
       </c>
-      <c r="AB6">
+      <c r="AF6">
         <v>464</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>286</v>
       </c>
-      <c r="AD6">
+      <c r="AH6">
         <v>1000</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AI6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -5995,29 +6068,33 @@
       <c r="X7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7">
         <v>241.15</v>
       </c>
-      <c r="Z7">
+      <c r="AD7">
         <v>1143</v>
       </c>
-      <c r="AA7">
+      <c r="AE7">
         <v>645</v>
       </c>
-      <c r="AB7">
+      <c r="AF7">
         <v>498</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>286</v>
       </c>
-      <c r="AD7">
+      <c r="AH7">
         <v>500</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:35">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -6078,29 +6155,33 @@
       <c r="X8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="29">
         <v>32.19</v>
       </c>
-      <c r="Z8">
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8">
         <v>102.12</v>
       </c>
-      <c r="AA8">
+      <c r="AE8">
         <v>102.12</v>
       </c>
-      <c r="AB8">
+      <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>313</v>
       </c>
-      <c r="AD8">
+      <c r="AH8">
         <v>1900</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:35">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -6111,7 +6192,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="E9" t="s">
         <v>164</v>
@@ -6155,25 +6236,37 @@
       <c r="U9" t="s">
         <v>65</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z9">
         <v>271.39999999999998</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
+        <v>35282</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC9" s="26">
+        <v>441.02499999999998</v>
+      </c>
+      <c r="AD9">
         <v>264.27999999999997</v>
       </c>
-      <c r="AA9">
+      <c r="AE9">
         <v>0</v>
       </c>
-      <c r="AB9">
+      <c r="AF9">
         <v>264.27999999999997</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>313</v>
       </c>
-      <c r="AD9">
+      <c r="AH9">
         <v>16</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6221,7 +6314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C8E0A5-01AD-4CE0-995C-4A8FB846760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE9CC85-469A-4281-93BB-B670573049DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="339">
   <si>
     <t>name</t>
   </si>
@@ -1142,16 +1142,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>BSF決裁単価_外貨</t>
-    <rPh sb="3" eb="7">
-      <t>ケッサイタンカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガイカ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>想定為替レート</t>
     <rPh sb="0" eb="2">
       <t>ソウテイ</t>
@@ -1163,6 +1153,26 @@
   </si>
   <si>
     <t>100~160</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>BSF決済単価_外貨</t>
+    <rPh sb="3" eb="5">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガイカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>BSF決済単価</t>
+    <rPh sb="3" eb="5">
+      <t>ケッサイ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1349,7 +1359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1390,10 +1400,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5464,8 +5470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
   <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5478,7 +5484,7 @@
     <col min="14" max="14" width="17.5" customWidth="1"/>
     <col min="18" max="21" width="10.5"/>
     <col min="22" max="22" width="19.75" customWidth="1"/>
-    <col min="25" max="25" width="15.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.375" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
   </cols>
@@ -5556,14 +5562,14 @@
       <c r="X1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" s="28" t="s">
-        <v>336</v>
+      <c r="Y1" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>222</v>
+        <v>338</v>
       </c>
       <c r="AB1" s="11" t="s">
         <v>333</v>
@@ -5655,7 +5661,7 @@
       <c r="X2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y2" s="27"/>
+      <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
@@ -5894,7 +5900,7 @@
       <c r="X5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y5" s="27"/>
+      <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
@@ -5981,7 +5987,7 @@
       <c r="X6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y6" s="27"/>
+      <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
@@ -6068,7 +6074,7 @@
       <c r="X7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y7" s="27"/>
+      <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
@@ -6155,9 +6161,9 @@
       <c r="X8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Y8" s="27"/>
+      <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="29">
+      <c r="AA8" s="4">
         <v>32.19</v>
       </c>
       <c r="AB8" s="4"/>
@@ -6236,8 +6242,8 @@
       <c r="U9" t="s">
         <v>65</v>
       </c>
-      <c r="Y9" s="26" t="s">
-        <v>337</v>
+      <c r="Y9" t="s">
+        <v>336</v>
       </c>
       <c r="Z9">
         <v>271.39999999999998</v>
@@ -6248,7 +6254,7 @@
       <c r="AB9" t="s">
         <v>334</v>
       </c>
-      <c r="AC9" s="26">
+      <c r="AC9">
         <v>441.02499999999998</v>
       </c>
       <c r="AD9">

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE9CC85-469A-4281-93BB-B670573049DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB485A9-8659-4F17-BF3E-6CC969B1B64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="341">
   <si>
     <t>name</t>
   </si>
@@ -1173,6 +1173,14 @@
     <rPh sb="3" eb="5">
       <t>ケッサイ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>770X</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>T10SCB01 - 200X 500-P0225K</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -5470,8 +5478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
   <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5487,6 +5495,8 @@
     <col min="25" max="25" width="15.125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.375" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
+    <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -6228,10 +6238,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>174</v>
+        <v>339</v>
       </c>
       <c r="R9" t="s">
-        <v>254</v>
+        <v>340</v>
       </c>
       <c r="S9" t="s">
         <v>255</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB485A9-8659-4F17-BF3E-6CC969B1B64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6997F050-E284-491E-B9AB-FFE054BB57FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1367,7 +1367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1408,6 +1408,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5479,7 +5481,7 @@
   <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5647,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="4"/>
-      <c r="Q2" s="4">
+      <c r="Q2" s="26">
         <v>6200</v>
       </c>
       <c r="R2" s="4" t="s">
@@ -5732,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="4"/>
-      <c r="Q3">
+      <c r="Q3" s="27">
         <v>6713</v>
       </c>
       <c r="R3" t="s">
@@ -5815,7 +5817,7 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="27">
         <v>6713</v>
       </c>
       <c r="R4" t="s">
@@ -5889,7 +5891,7 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="27">
         <v>6785</v>
       </c>
       <c r="R5" t="s">
@@ -5976,7 +5978,7 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="27">
         <v>6780</v>
       </c>
       <c r="R6" t="s">
@@ -6063,7 +6065,7 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="27">
         <v>6798</v>
       </c>
       <c r="R7" t="s">
@@ -6150,7 +6152,7 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="27" t="s">
         <v>174</v>
       </c>
       <c r="R8" t="s">
@@ -6237,7 +6239,7 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="27" t="s">
         <v>339</v>
       </c>
       <c r="R9" t="s">

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6997F050-E284-491E-B9AB-FFE054BB57FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6798FCB9-05F2-4EB1-AEFF-49E7A493D9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1367,7 +1367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1410,6 +1410,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5480,8 +5481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
   <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5612,84 +5613,86 @@
       <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="M2" s="27"/>
+      <c r="N2" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="26">
         <v>0</v>
       </c>
-      <c r="P2" s="4"/>
+      <c r="P2" s="26"/>
       <c r="Q2" s="26">
         <v>6200</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="26">
         <v>983</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4">
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26">
         <v>7090</v>
       </c>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4" t="s">
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AH2" s="26">
         <v>8000</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="27" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5697,83 +5700,90 @@
       <c r="A3" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="26">
         <v>0</v>
       </c>
-      <c r="P3" s="4"/>
+      <c r="P3" s="26"/>
       <c r="Q3" s="27">
         <v>6713</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="X3" t="s">
+      <c r="W3" s="27"/>
+      <c r="X3" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="AC3">
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27">
         <v>379</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="27">
         <v>152.16999999999999</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="27">
         <v>152.16999999999999</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="27">
         <v>0</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="27">
         <v>10</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="27" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5781,73 +5791,84 @@
       <c r="A4" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" s="27"/>
+      <c r="N4" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="27">
         <v>0</v>
       </c>
+      <c r="P4" s="27"/>
       <c r="Q4" s="27">
         <v>6713</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="X4" t="s">
+      <c r="W4" s="27"/>
+      <c r="X4" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="AC4">
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27">
         <v>152</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="27">
         <v>10</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AI4" s="27" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5855,86 +5876,90 @@
       <c r="A5" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" s="27"/>
+      <c r="N5" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="27">
         <v>0</v>
       </c>
+      <c r="P5" s="27"/>
       <c r="Q5" s="27">
         <v>6785</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="W5" s="27"/>
+      <c r="X5" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5">
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="27">
         <v>194.88</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="27">
         <v>1200</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="27">
         <v>800</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="27">
         <v>400</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AG5" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="27">
         <v>1000</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AI5" s="27" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5942,86 +5967,90 @@
       <c r="A6" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M6" s="27"/>
+      <c r="N6" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="27">
         <v>0</v>
       </c>
+      <c r="P6" s="27"/>
       <c r="Q6" s="27">
         <v>6780</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="W6" s="27"/>
+      <c r="X6" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6">
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="27">
         <v>193.28</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="27">
         <v>1067</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="27">
         <v>603</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="27">
         <v>464</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AG6" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="27">
         <v>1000</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AI6" s="27" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6029,86 +6058,90 @@
       <c r="A7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="N7" t="s">
+      <c r="M7" s="27"/>
+      <c r="N7" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="27">
         <v>0</v>
       </c>
+      <c r="P7" s="27"/>
       <c r="Q7" s="27">
         <v>6798</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="W7" s="27"/>
+      <c r="X7" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7">
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="27">
         <v>241.15</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="27">
         <v>1143</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="27">
         <v>645</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="27">
         <v>498</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AG7" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="27">
         <v>500</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AI7" s="27" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6116,86 +6149,90 @@
       <c r="A8" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="N8" t="s">
+      <c r="M8" s="27"/>
+      <c r="N8" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="27">
         <v>0</v>
       </c>
+      <c r="P8" s="27"/>
       <c r="Q8" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="W8" s="27"/>
+      <c r="X8" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4">
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26">
         <v>32.19</v>
       </c>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8">
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="27">
         <v>102.12</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="27">
         <v>102.12</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="27">
         <v>0</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AG8" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="27">
         <v>1900</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AI8" s="27" t="s">
         <v>286</v>
       </c>
     </row>
@@ -6203,88 +6240,94 @@
       <c r="A9" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="N9" t="s">
+      <c r="M9" s="27"/>
+      <c r="N9" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="27">
         <v>0</v>
       </c>
+      <c r="P9" s="27"/>
       <c r="Q9" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="27">
         <v>271.39999999999998</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="27">
         <v>35282</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AB9" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="27">
         <v>441.02499999999998</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="27">
         <v>264.27999999999997</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="27">
         <v>0</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="27">
         <v>264.27999999999997</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AG9" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="27">
         <v>16</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AI9" s="27" t="s">
         <v>287</v>
       </c>
     </row>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6798FCB9-05F2-4EB1-AEFF-49E7A493D9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25D47E7-E747-44AC-B43B-BB936E365905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5481,8 +5481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
   <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6189,10 +6189,10 @@
       </c>
       <c r="P8" s="27"/>
       <c r="Q8" s="27" t="s">
-        <v>174</v>
+        <v>339</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>251</v>
+        <v>340</v>
       </c>
       <c r="S8" s="27" t="s">
         <v>252</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25D47E7-E747-44AC-B43B-BB936E365905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013B08E7-A773-429B-87CB-0435311075C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="342">
   <si>
     <t>name</t>
   </si>
@@ -1181,6 +1181,10 @@
   </si>
   <si>
     <t>T10SCB01 - 200X 500-P0225K</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>10007-NR28- 900X100F-ABK0E</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -5493,7 +5497,8 @@
     <col min="11" max="11" width="14.75" customWidth="1"/>
     <col min="13" max="13" width="27.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" customWidth="1"/>
-    <col min="18" max="21" width="10.5"/>
+    <col min="18" max="18" width="34.125" customWidth="1"/>
+    <col min="19" max="21" width="10.5"/>
     <col min="22" max="22" width="19.75" customWidth="1"/>
     <col min="25" max="25" width="15.125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.375" customWidth="1"/>
@@ -6101,7 +6106,7 @@
         <v>6798</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>249</v>
+        <v>341</v>
       </c>
       <c r="S7" s="27" t="s">
         <v>244</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013B08E7-A773-429B-87CB-0435311075C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D533E9-4DF0-4214-A508-8C31B2B8453D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="344">
   <si>
     <t>name</t>
   </si>
@@ -1185,6 +1185,20 @@
   </si>
   <si>
     <t>10007-NR28- 900X100F-ABK0E</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>円建て</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>輸出(除EXGO)(単価幅)</t>
+    <rPh sb="0" eb="2">
+      <t>ユシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -2252,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="O4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -3054,7 +3068,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>342</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>107</v>
@@ -3132,8 +3146,8 @@
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>19</v>
+      <c r="D11" s="26" t="s">
+        <v>332</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>137</v>
@@ -3206,8 +3220,8 @@
       <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>19</v>
+      <c r="D12" s="26" t="s">
+        <v>343</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>154</v>
@@ -4012,8 +4026,8 @@
       <c r="C22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>19</v>
+      <c r="D22" s="26" t="s">
+        <v>332</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>164</v>
@@ -4234,8 +4248,8 @@
       <c r="C25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>19</v>
+      <c r="D25" s="26" t="s">
+        <v>332</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>164</v>
@@ -5485,8 +5499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
   <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D533E9-4DF0-4214-A508-8C31B2B8453D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE57CE1-FEE2-41BE-9418-E828541C7063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="352">
   <si>
     <t>name</t>
   </si>
@@ -415,9 +415,6 @@
     <t>1296K</t>
   </si>
   <si>
-    <t>300～500</t>
-  </si>
-  <si>
     <t>07</t>
   </si>
   <si>
@@ -451,9 +448,6 @@
     <t>03P5A</t>
   </si>
   <si>
-    <t>50～200</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
@@ -589,9 +583,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>703.704～1407.407</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -607,9 +598,6 @@
     <t>AFKCF</t>
   </si>
   <si>
-    <t>1359.852～1687.721</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -635,9 +623,6 @@
   </si>
   <si>
     <t>F1YPB</t>
-  </si>
-  <si>
-    <t>155~175</t>
   </si>
   <si>
     <t>21</t>
@@ -1198,6 +1183,70 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>100~300</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>300~500</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>50~200</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>703.704~1407.407</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1359.852~1687.721</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>155~175</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>決済単価</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>決済単価_外貨</t>
+    <rPh sb="5" eb="7">
+      <t>ガイカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>JPY</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1~1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>付帯費用</t>
+    <rPh sb="0" eb="4">
+      <t>フタイヒヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>20~160</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>外貨通貨</t>
+    <rPh sb="0" eb="2">
+      <t>ガイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツウカ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1421,14 +1470,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1964,7 +2013,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>23</v>
@@ -1984,7 +2033,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>28</v>
@@ -1995,7 +2044,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>31</v>
@@ -2006,7 +2055,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>34</v>
@@ -2017,7 +2066,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>37</v>
@@ -2264,10 +2313,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2283,14 +2332,16 @@
     <col min="13" max="13" width="10.625" customWidth="1"/>
     <col min="21" max="21" width="27.25" customWidth="1"/>
     <col min="23" max="23" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.25" customWidth="1"/>
-    <col min="28" max="28" width="20.125" customWidth="1"/>
-    <col min="29" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" customWidth="1"/>
+    <col min="25" max="25" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13.125" customWidth="1"/>
+    <col min="29" max="29" width="20.25" customWidth="1"/>
+    <col min="30" max="30" width="20.125" customWidth="1"/>
+    <col min="31" max="32" width="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:33">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -2337,7 +2388,7 @@
         <v>51</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>57</v>
@@ -2361,1954 +2412,2109 @@
         <v>75</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>222</v>
+        <v>346</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>223</v>
+        <v>351</v>
       </c>
       <c r="Z1" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="24">
         <v>0</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="24">
         <v>675</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="s">
+      <c r="W2" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AC2" s="24">
         <v>662</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AD2" s="24">
         <v>372.161</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AE2" s="24">
         <v>372.161</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AF2" s="24">
         <v>0</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AG2" s="24">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="24">
+        <v>0</v>
+      </c>
+      <c r="P3" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="4">
+      <c r="Q3" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="V3" s="24">
+        <v>690</v>
+      </c>
+      <c r="W3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>690</v>
+      </c>
+      <c r="AD3" s="24">
+        <v>384</v>
+      </c>
+      <c r="AE3" s="24">
+        <v>384</v>
+      </c>
+      <c r="AF3" s="24">
         <v>0</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="U3" s="4" t="s">
+      <c r="AG3" s="24">
         <v>100</v>
       </c>
-      <c r="V3" s="4">
-        <v>690</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>690</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>384</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>384</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="25"/>
+      <c r="N4" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="24">
+        <v>0</v>
+      </c>
+      <c r="P4" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="24">
         <v>564</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4" t="s">
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AC4" s="24">
         <v>564</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AD4" s="24">
         <v>416</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AE4" s="24">
         <v>354</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AF4" s="24">
         <v>62</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AG4" s="24">
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K5" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="M5" s="25"/>
+      <c r="N5" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="24">
         <v>0</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q5" s="4" t="s">
+      <c r="P5" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="24">
         <v>487</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4" t="s">
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="AA5" s="21">
+      <c r="AC5" s="27">
         <v>387</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AD5" s="24">
         <v>426</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AE5" s="24">
         <v>384</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AF5" s="24">
         <v>42</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AG5" s="24">
         <v>576</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="M6" s="25"/>
+      <c r="N6" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="24">
         <v>0</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q6" s="4" t="s">
+      <c r="P6" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q6" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="W6" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4" t="s">
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="AA6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB6" s="4">
+      <c r="AC6" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD6" s="24">
         <v>401</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AE6" s="24">
         <v>532</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AF6" s="24">
         <v>49</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AG6" s="24">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K7" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="M7" s="25"/>
+      <c r="N7" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="24">
         <v>0</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC7" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD7" s="24">
+        <v>514</v>
+      </c>
+      <c r="AE7" s="24">
+        <v>478</v>
+      </c>
+      <c r="AF7" s="24">
+        <v>36</v>
+      </c>
+      <c r="AG7" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="25"/>
+      <c r="N8" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="U8" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="V8" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC8" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD8" s="24">
+        <v>563</v>
+      </c>
+      <c r="AE8" s="24">
+        <v>563</v>
+      </c>
+      <c r="AF8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="25"/>
+      <c r="N9" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="O9" s="24">
+        <v>100</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="T9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="U9" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="V9" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="W9" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC9" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD9" s="24">
+        <v>708</v>
+      </c>
+      <c r="AE9" s="24">
+        <v>708</v>
+      </c>
+      <c r="AF9" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="25"/>
+      <c r="N10" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="O10" s="24">
+        <v>0</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC10" s="24">
+        <v>1175.32</v>
+      </c>
+      <c r="AD10" s="24">
+        <v>318</v>
+      </c>
+      <c r="AE10" s="24">
+        <v>265</v>
+      </c>
+      <c r="AF10" s="24">
+        <v>53</v>
+      </c>
+      <c r="AG10" s="24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="O11" s="25">
+        <v>0</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q11" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="R11" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="S11" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="T11" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25">
+        <v>878</v>
+      </c>
+      <c r="Y11" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z11" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA11" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB11" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC11" s="25">
+        <v>720</v>
+      </c>
+      <c r="AD11" s="25">
+        <v>565</v>
+      </c>
+      <c r="AE11" s="25">
+        <v>503</v>
+      </c>
+      <c r="AF11" s="25">
+        <v>62</v>
+      </c>
+      <c r="AG11" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="O12" s="25">
+        <v>0</v>
+      </c>
+      <c r="P12" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="T7" s="4" t="s">
+      <c r="Q12" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="R12" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="T12" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC12" s="25">
+        <v>41500</v>
+      </c>
+      <c r="AD12" s="25">
+        <v>1157.01</v>
+      </c>
+      <c r="AE12" s="25">
+        <v>659.77</v>
+      </c>
+      <c r="AF12" s="25">
+        <v>497.24</v>
+      </c>
+      <c r="AG12" s="25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="O13" s="25">
         <v>100</v>
       </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4" t="s">
+      <c r="P13" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q13" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="T13" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC13" s="25">
+        <v>41250</v>
+      </c>
+      <c r="AD13" s="25">
+        <v>1358.65</v>
+      </c>
+      <c r="AE13" s="25">
+        <v>712.06</v>
+      </c>
+      <c r="AF13" s="25">
+        <v>646.59</v>
+      </c>
+      <c r="AG13" s="25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O14" s="25">
+        <v>0</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q14" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="S14" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="T14" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="U14" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="V14" s="25">
+        <v>70</v>
+      </c>
+      <c r="W14" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB7" s="4">
-        <v>514</v>
-      </c>
-      <c r="AC7" s="4">
-        <v>478</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>36</v>
-      </c>
-      <c r="AE7" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC14" s="25">
+        <v>70</v>
+      </c>
+      <c r="AD14" s="25">
+        <v>64.7</v>
+      </c>
+      <c r="AE14" s="25">
+        <v>32.58</v>
+      </c>
+      <c r="AF14" s="25">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="AG14" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="D15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L15" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" s="25">
+        <v>0</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q15" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="S15" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="T15" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="U15" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="V15" s="25">
+        <v>50</v>
+      </c>
+      <c r="W15" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC15" s="25">
+        <v>50</v>
+      </c>
+      <c r="AD15" s="25">
+        <v>17.87</v>
+      </c>
+      <c r="AE15" s="25">
+        <v>17.87</v>
+      </c>
+      <c r="AF15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" s="25">
+        <v>0</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q16" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="S16" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="T16" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="U16" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC16" s="25">
+        <v>110.999</v>
+      </c>
+      <c r="AD16" s="25">
+        <v>102.12</v>
+      </c>
+      <c r="AE16" s="25">
+        <v>102.12</v>
+      </c>
+      <c r="AF16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" s="25">
+        <v>0</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q17" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="R17" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="S17" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="T17" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="U17" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="V17" s="25"/>
+      <c r="W17" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC17" s="25">
+        <v>111.03</v>
+      </c>
+      <c r="AD17" s="25">
+        <v>99.668000000000006</v>
+      </c>
+      <c r="AE17" s="25">
+        <v>99.668000000000006</v>
+      </c>
+      <c r="AF17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" s="25">
+        <v>0</v>
+      </c>
+      <c r="P18" s="25">
+        <v>7791</v>
+      </c>
+      <c r="Q18" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="R18" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="S18" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="T18" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="U18" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="V18" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="W18" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC18" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD18" s="25">
+        <v>20407.406999999999</v>
+      </c>
+      <c r="AE18" s="25">
+        <v>20407.406999999999</v>
+      </c>
+      <c r="AF18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" s="25">
+        <v>0</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q19" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="R19" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="S19" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="T19" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="U19" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="V19" s="25"/>
+      <c r="W19" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC19" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD19" s="25">
+        <v>89.9</v>
+      </c>
+      <c r="AE19" s="25">
+        <v>44.51</v>
+      </c>
+      <c r="AF19" s="25">
+        <v>45.39</v>
+      </c>
+      <c r="AG19" s="25">
+        <v>86521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="O8" s="4">
+      <c r="M20" s="25"/>
+      <c r="N20" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" s="25">
         <v>0</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="T8" s="4" t="s">
+      <c r="P20" s="25">
+        <v>7715</v>
+      </c>
+      <c r="Q20" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="R20" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="S20" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="T20" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U20" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB8" s="4">
-        <v>563</v>
-      </c>
-      <c r="AC8" s="4">
-        <v>563</v>
-      </c>
-      <c r="AD8" s="4">
+      <c r="V20" s="25">
+        <v>100000</v>
+      </c>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC20" s="25">
+        <v>100000</v>
+      </c>
+      <c r="AD20" s="25">
+        <v>301.06</v>
+      </c>
+      <c r="AE20" s="25">
+        <v>218.97</v>
+      </c>
+      <c r="AF20" s="25">
+        <v>82.09</v>
+      </c>
+      <c r="AG20" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" s="25">
         <v>0</v>
       </c>
-      <c r="AE8" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="P21" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q21" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="R21" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="S21" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="T21" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="U21" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="V21" s="25"/>
+      <c r="W21" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC21" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD21" s="25">
+        <v>114</v>
+      </c>
+      <c r="AE21" s="25">
+        <v>114</v>
+      </c>
+      <c r="AF21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="25">
+        <v>599980</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="O9" s="4">
+      <c r="D22" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O22" s="25">
+        <v>0</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q22" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="R22" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="S22" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="T22" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC22" s="25">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="AD22" s="25">
+        <v>120.57</v>
+      </c>
+      <c r="AE22" s="25">
+        <v>36.67</v>
+      </c>
+      <c r="AF22" s="25">
+        <v>83.9</v>
+      </c>
+      <c r="AG22" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O23" s="25">
         <v>100</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="T9" s="4" t="s">
+      <c r="P23" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="R23" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="S23" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="T23" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC23" s="25">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="AD23" s="25">
+        <v>120.57</v>
+      </c>
+      <c r="AE23" s="25">
+        <v>36.67</v>
+      </c>
+      <c r="AF23" s="25">
+        <v>83.9</v>
+      </c>
+      <c r="AG23" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O24" s="25">
+        <v>0</v>
+      </c>
+      <c r="P24" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="R24" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="S24" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="T24" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC24" s="25">
+        <v>133.9</v>
+      </c>
+      <c r="AD24" s="25">
+        <v>47.18</v>
+      </c>
+      <c r="AE24" s="25">
+        <v>31.47</v>
+      </c>
+      <c r="AF24" s="25">
+        <v>15.71</v>
+      </c>
+      <c r="AG24" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="A25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O25" s="25">
         <v>100</v>
       </c>
-      <c r="V9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB9" s="4">
-        <v>708</v>
-      </c>
-      <c r="AC9" s="4">
-        <v>708</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="T10" s="4" t="s">
+      <c r="P25" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q25" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="R25" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="S25" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="T25" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA10" s="4">
-        <v>1175.32</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>318</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>265</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>53</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K11" t="s">
-        <v>114</v>
-      </c>
-      <c r="L11" t="s">
-        <v>115</v>
-      </c>
-      <c r="N11" t="s">
-        <v>149</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>150</v>
-      </c>
-      <c r="R11" t="s">
-        <v>151</v>
-      </c>
-      <c r="S11" t="s">
-        <v>146</v>
-      </c>
-      <c r="T11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA11">
-        <v>720</v>
-      </c>
-      <c r="AB11">
-        <v>565</v>
-      </c>
-      <c r="AC11">
-        <v>503</v>
-      </c>
-      <c r="AD11">
-        <v>62</v>
-      </c>
-      <c r="AE11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L12" t="s">
-        <v>115</v>
-      </c>
-      <c r="N12" t="s">
-        <v>155</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>156</v>
-      </c>
-      <c r="R12" t="s">
-        <v>157</v>
-      </c>
-      <c r="S12" t="s">
-        <v>158</v>
-      </c>
-      <c r="T12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA12">
-        <v>41500</v>
-      </c>
-      <c r="AB12">
-        <v>1157.01</v>
-      </c>
-      <c r="AC12">
-        <v>659.77</v>
-      </c>
-      <c r="AD12">
-        <v>497.24</v>
-      </c>
-      <c r="AE12">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K13" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" t="s">
-        <v>115</v>
-      </c>
-      <c r="N13" t="s">
-        <v>155</v>
-      </c>
-      <c r="O13">
-        <v>100</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>161</v>
-      </c>
-      <c r="R13" t="s">
-        <v>157</v>
-      </c>
-      <c r="S13" t="s">
-        <v>158</v>
-      </c>
-      <c r="T13" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA13">
-        <v>41250</v>
-      </c>
-      <c r="AB13">
-        <v>1358.65</v>
-      </c>
-      <c r="AC13">
-        <v>712.06</v>
-      </c>
-      <c r="AD13">
-        <v>646.59</v>
-      </c>
-      <c r="AE13">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K14" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" t="s">
-        <v>165</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="R14" t="s">
-        <v>167</v>
-      </c>
-      <c r="S14" t="s">
-        <v>167</v>
-      </c>
-      <c r="T14" t="s">
-        <v>65</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="V14">
-        <v>70</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA14">
-        <v>70</v>
-      </c>
-      <c r="AB14">
+      <c r="AC25" s="25">
+        <v>63.44</v>
+      </c>
+      <c r="AD25" s="25">
         <v>64.7</v>
       </c>
-      <c r="AC14">
+      <c r="AE25" s="25">
         <v>32.58</v>
       </c>
-      <c r="AD14">
+      <c r="AF25" s="25">
         <v>32.119999999999997</v>
       </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" t="s">
-        <v>165</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>171</v>
-      </c>
-      <c r="R15" t="s">
-        <v>167</v>
-      </c>
-      <c r="S15" t="s">
-        <v>167</v>
-      </c>
-      <c r="T15" t="s">
-        <v>65</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="V15">
-        <v>50</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA15">
-        <v>50</v>
-      </c>
-      <c r="AB15">
-        <v>17.87</v>
-      </c>
-      <c r="AC15">
-        <v>17.87</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" t="s">
-        <v>165</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>175</v>
-      </c>
-      <c r="R16" t="s">
-        <v>176</v>
-      </c>
-      <c r="S16" t="s">
-        <v>177</v>
-      </c>
-      <c r="T16" t="s">
-        <v>65</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA16">
-        <v>110.999</v>
-      </c>
-      <c r="AB16">
-        <v>102.12</v>
-      </c>
-      <c r="AC16">
-        <v>102.12</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
-      <c r="A17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" t="s">
-        <v>165</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>180</v>
-      </c>
-      <c r="R17" t="s">
-        <v>176</v>
-      </c>
-      <c r="S17" t="s">
-        <v>177</v>
-      </c>
-      <c r="T17" t="s">
-        <v>65</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA17">
-        <v>111.03</v>
-      </c>
-      <c r="AB17">
-        <v>99.668000000000006</v>
-      </c>
-      <c r="AC17">
-        <v>99.668000000000006</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31">
-      <c r="A18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K18" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" t="s">
-        <v>165</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>7791</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>183</v>
-      </c>
-      <c r="R18" t="s">
-        <v>184</v>
-      </c>
-      <c r="S18" t="s">
-        <v>185</v>
-      </c>
-      <c r="T18" t="s">
-        <v>184</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="V18" t="s">
-        <v>120</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB18">
-        <v>20407.406999999999</v>
-      </c>
-      <c r="AC18">
-        <v>20407.406999999999</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31">
-      <c r="A19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K19" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" t="s">
-        <v>42</v>
-      </c>
-      <c r="N19" t="s">
-        <v>165</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>190</v>
-      </c>
-      <c r="R19" t="s">
-        <v>191</v>
-      </c>
-      <c r="S19" t="s">
-        <v>192</v>
-      </c>
-      <c r="T19" t="s">
-        <v>65</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB19">
-        <v>89.9</v>
-      </c>
-      <c r="AC19">
-        <v>44.51</v>
-      </c>
-      <c r="AD19">
-        <v>45.39</v>
-      </c>
-      <c r="AE19">
-        <v>86521</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
-      <c r="A20" t="s">
-        <v>194</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K20" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" t="s">
-        <v>115</v>
-      </c>
-      <c r="N20" t="s">
-        <v>165</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>7715</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>196</v>
-      </c>
-      <c r="R20" t="s">
-        <v>197</v>
-      </c>
-      <c r="S20" t="s">
-        <v>198</v>
-      </c>
-      <c r="T20" t="s">
-        <v>65</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="V20">
-        <v>100000</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA20">
-        <v>100000</v>
-      </c>
-      <c r="AB20">
-        <v>301.06</v>
-      </c>
-      <c r="AC20">
-        <v>218.97</v>
-      </c>
-      <c r="AD20">
-        <v>82.09</v>
-      </c>
-      <c r="AE20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31">
-      <c r="A21" t="s">
-        <v>199</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K21" t="s">
-        <v>114</v>
-      </c>
-      <c r="L21" t="s">
-        <v>115</v>
-      </c>
-      <c r="N21" t="s">
-        <v>165</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>201</v>
-      </c>
-      <c r="R21" t="s">
-        <v>202</v>
-      </c>
-      <c r="S21" t="s">
-        <v>202</v>
-      </c>
-      <c r="T21" t="s">
-        <v>65</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB21">
-        <v>114</v>
-      </c>
-      <c r="AC21">
-        <v>114</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>599980</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
-      <c r="A22" t="s">
-        <v>204</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K22" t="s">
-        <v>114</v>
-      </c>
-      <c r="L22" t="s">
-        <v>115</v>
-      </c>
-      <c r="N22" t="s">
-        <v>165</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>206</v>
-      </c>
-      <c r="R22" t="s">
-        <v>207</v>
-      </c>
-      <c r="S22" t="s">
-        <v>208</v>
-      </c>
-      <c r="T22" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA22">
-        <v>131.30000000000001</v>
-      </c>
-      <c r="AB22">
-        <v>120.57</v>
-      </c>
-      <c r="AC22">
-        <v>36.67</v>
-      </c>
-      <c r="AD22">
-        <v>83.9</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31">
-      <c r="A23" t="s">
-        <v>210</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K23" t="s">
-        <v>114</v>
-      </c>
-      <c r="L23" t="s">
-        <v>115</v>
-      </c>
-      <c r="N23" t="s">
-        <v>165</v>
-      </c>
-      <c r="O23">
-        <v>100</v>
-      </c>
-      <c r="P23" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>212</v>
-      </c>
-      <c r="R23" t="s">
-        <v>207</v>
-      </c>
-      <c r="S23" t="s">
-        <v>208</v>
-      </c>
-      <c r="T23" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA23">
-        <v>131.30000000000001</v>
-      </c>
-      <c r="AB23">
-        <v>120.57</v>
-      </c>
-      <c r="AC23">
-        <v>36.67</v>
-      </c>
-      <c r="AD23">
-        <v>83.9</v>
-      </c>
-      <c r="AE23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31">
-      <c r="A24" t="s">
-        <v>213</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K24" t="s">
-        <v>114</v>
-      </c>
-      <c r="L24" t="s">
-        <v>115</v>
-      </c>
-      <c r="N24" t="s">
-        <v>165</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>215</v>
-      </c>
-      <c r="R24" t="s">
-        <v>207</v>
-      </c>
-      <c r="S24" t="s">
-        <v>208</v>
-      </c>
-      <c r="T24" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA24">
-        <v>133.9</v>
-      </c>
-      <c r="AB24">
-        <v>47.18</v>
-      </c>
-      <c r="AC24">
-        <v>31.47</v>
-      </c>
-      <c r="AD24">
-        <v>15.71</v>
-      </c>
-      <c r="AE24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31">
-      <c r="A25" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="K25" t="s">
-        <v>114</v>
-      </c>
-      <c r="L25" t="s">
-        <v>115</v>
-      </c>
-      <c r="N25" t="s">
-        <v>165</v>
-      </c>
-      <c r="O25">
-        <v>100</v>
-      </c>
-      <c r="P25" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>218</v>
-      </c>
-      <c r="R25" t="s">
-        <v>219</v>
-      </c>
-      <c r="S25" t="s">
-        <v>220</v>
-      </c>
-      <c r="T25" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA25">
-        <v>63.44</v>
-      </c>
-      <c r="AB25">
-        <v>64.7</v>
-      </c>
-      <c r="AC25">
-        <v>32.58</v>
-      </c>
-      <c r="AD25">
-        <v>32.119999999999997</v>
-      </c>
-      <c r="AE25">
+      <c r="AG25" s="25">
         <v>1</v>
       </c>
     </row>
@@ -4574,10 +4780,10 @@
         <v>92</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>14</v>
@@ -4616,16 +4822,16 @@
         <v>45</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>51</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="T1" s="11" t="s">
         <v>57</v>
@@ -4649,10 +4855,10 @@
         <v>75</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AC1" s="11" t="s">
         <v>78</v>
@@ -4673,7 +4879,7 @@
         <v>91</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:35">
@@ -4681,13 +4887,13 @@
         <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
@@ -4696,19 +4902,19 @@
         <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>39</v>
@@ -4717,7 +4923,7 @@
         <v>42</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Q2" s="4">
         <v>0</v>
@@ -4727,13 +4933,13 @@
         <v>6200</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>65</v>
@@ -4750,7 +4956,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AD2" s="4">
         <v>7090</v>
@@ -4768,7 +4974,7 @@
         <v>8000</v>
       </c>
       <c r="AI2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -4776,13 +4982,13 @@
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>16</v>
@@ -4794,16 +5000,16 @@
         <v>22</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>39</v>
@@ -4812,7 +5018,7 @@
         <v>42</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
@@ -4822,13 +5028,13 @@
         <v>6713</v>
       </c>
       <c r="T3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="W3" t="s">
         <v>65</v>
@@ -4837,10 +5043,10 @@
         <v>100</v>
       </c>
       <c r="Z3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AC3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AD3">
         <v>379</v>
@@ -4858,7 +5064,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -4866,13 +5072,13 @@
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -4881,19 +5087,19 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>39</v>
@@ -4902,7 +5108,7 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -4911,25 +5117,25 @@
         <v>6713</v>
       </c>
       <c r="T4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="U4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="V4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="W4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="X4" s="4" t="s">
         <v>100</v>
       </c>
       <c r="Z4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AC4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AD4">
         <v>152</v>
@@ -4947,7 +5153,7 @@
         <v>10</v>
       </c>
       <c r="AI4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -4955,13 +5161,13 @@
         <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>16</v>
@@ -4970,19 +5176,19 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>39</v>
@@ -4991,7 +5197,7 @@
         <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -5000,13 +5206,13 @@
         <v>6785</v>
       </c>
       <c r="T5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="U5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="V5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="W5" t="s">
         <v>65</v>
@@ -5020,7 +5226,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AD5">
         <v>194.88</v>
@@ -5038,7 +5244,7 @@
         <v>1000</v>
       </c>
       <c r="AI5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -5046,13 +5252,13 @@
         <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>16</v>
@@ -5061,19 +5267,19 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M6" t="s">
         <v>39</v>
@@ -5082,7 +5288,7 @@
         <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -5091,16 +5297,16 @@
         <v>6780</v>
       </c>
       <c r="T6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="U6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="V6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="W6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="X6" s="4" t="s">
         <v>100</v>
@@ -5111,7 +5317,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AD6">
         <v>193.28</v>
@@ -5129,7 +5335,7 @@
         <v>1000</v>
       </c>
       <c r="AI6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -5137,13 +5343,13 @@
         <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>16</v>
@@ -5152,19 +5358,19 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M7" t="s">
         <v>39</v>
@@ -5173,7 +5379,7 @@
         <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -5182,16 +5388,16 @@
         <v>6798</v>
       </c>
       <c r="T7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="U7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="V7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="W7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="X7" s="4" t="s">
         <v>100</v>
@@ -5202,7 +5408,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AD7">
         <v>241.15</v>
@@ -5220,21 +5426,21 @@
         <v>500</v>
       </c>
       <c r="AI7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C8" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
@@ -5243,19 +5449,19 @@
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M8" t="s">
         <v>39</v>
@@ -5264,22 +5470,22 @@
         <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="U8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="V8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="W8" t="s">
         <v>65</v>
@@ -5294,10 +5500,10 @@
         <v>32.19</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AC8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AD8">
         <v>111</v>
@@ -5315,21 +5521,21 @@
         <v>1900</v>
       </c>
       <c r="AI8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
@@ -5338,19 +5544,19 @@
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M9" t="s">
         <v>114</v>
@@ -5359,22 +5565,22 @@
         <v>115</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="U9" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="V9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="W9" t="s">
         <v>65</v>
@@ -5383,10 +5589,10 @@
         <v>271.39999999999998</v>
       </c>
       <c r="AB9" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AC9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AD9">
         <v>441.02499999999998</v>
@@ -5404,7 +5610,7 @@
         <v>16</v>
       </c>
       <c r="AI9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" customFormat="1"/>
@@ -5499,8 +5705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
   <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5562,16 +5768,16 @@
         <v>45</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>51</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>57</v>
@@ -5595,16 +5801,16 @@
         <v>75</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AC1" s="11" t="s">
         <v>81</v>
@@ -5625,729 +5831,729 @@
         <v>91</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="K2" s="26" t="s">
+      <c r="E2" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="O2" s="26">
+      <c r="M2" s="25"/>
+      <c r="N2" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="O2" s="24">
         <v>0</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24">
         <v>6200</v>
       </c>
-      <c r="R2" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="T2" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="U2" s="26" t="s">
+      <c r="R2" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="U2" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="W2" s="26">
+      <c r="W2" s="24">
         <v>983</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="X2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26">
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24">
         <v>7090</v>
       </c>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="AH2" s="26">
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH2" s="24">
         <v>8000</v>
       </c>
-      <c r="AI2" s="27" t="s">
-        <v>284</v>
+      <c r="AI2" s="25" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="K3" s="26" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K3" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="26" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="O3" s="24">
+        <v>0</v>
+      </c>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="25">
+        <v>6713</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="O3" s="26">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25">
+        <v>379</v>
+      </c>
+      <c r="AD3" s="25">
+        <v>152.16999999999999</v>
+      </c>
+      <c r="AE3" s="25">
+        <v>152.16999999999999</v>
+      </c>
+      <c r="AF3" s="25">
         <v>0</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="27">
-        <v>6713</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="T3" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="U3" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27">
-        <v>379</v>
-      </c>
-      <c r="AD3" s="27">
-        <v>152.16999999999999</v>
-      </c>
-      <c r="AE3" s="27">
-        <v>152.16999999999999</v>
-      </c>
-      <c r="AF3" s="27">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="AH3" s="27">
+      <c r="AG3" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="AH3" s="25">
         <v>10</v>
       </c>
-      <c r="AI3" s="27" t="s">
-        <v>286</v>
+      <c r="AI3" s="25" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="O4" s="25">
+        <v>0</v>
+      </c>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25">
+        <v>6713</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="U4" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="O4" s="27">
-        <v>0</v>
-      </c>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27">
-        <v>6713</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="S4" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="T4" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="U4" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="V4" s="26" t="s">
+      <c r="V4" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27">
+      <c r="W4" s="25"/>
+      <c r="X4" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25">
         <v>152</v>
       </c>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="AH4" s="27">
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH4" s="25">
         <v>10</v>
       </c>
-      <c r="AI4" s="27" t="s">
-        <v>286</v>
+      <c r="AI4" s="25" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="O5" s="25">
+        <v>0</v>
+      </c>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25">
+        <v>6785</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="T5" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="O5" s="27">
-        <v>0</v>
-      </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27">
-        <v>6785</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="S5" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="T5" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="U5" s="27" t="s">
+      <c r="U5" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="V5" s="26" t="s">
+      <c r="V5" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="W5" s="27"/>
-      <c r="X5" s="26" t="s">
+      <c r="W5" s="25"/>
+      <c r="X5" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="27">
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="25">
         <v>194.88</v>
       </c>
-      <c r="AD5" s="27">
+      <c r="AD5" s="25">
         <v>1200</v>
       </c>
-      <c r="AE5" s="27">
+      <c r="AE5" s="25">
         <v>800</v>
       </c>
-      <c r="AF5" s="27">
+      <c r="AF5" s="25">
         <v>400</v>
       </c>
-      <c r="AG5" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="AH5" s="27">
+      <c r="AG5" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH5" s="25">
         <v>1000</v>
       </c>
-      <c r="AI5" s="27" t="s">
-        <v>284</v>
+      <c r="AI5" s="25" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="K6" s="27" t="s">
+      <c r="E6" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27" t="s">
+      <c r="M6" s="25"/>
+      <c r="N6" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="O6" s="25">
+        <v>0</v>
+      </c>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25">
+        <v>6780</v>
+      </c>
+      <c r="R6" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="O6" s="27">
-        <v>0</v>
-      </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27">
-        <v>6780</v>
-      </c>
-      <c r="R6" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="S6" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="T6" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="U6" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="V6" s="26" t="s">
+      <c r="S6" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="U6" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="V6" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="W6" s="27"/>
-      <c r="X6" s="26" t="s">
+      <c r="W6" s="25"/>
+      <c r="X6" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="27">
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="25">
         <v>193.28</v>
       </c>
-      <c r="AD6" s="27">
+      <c r="AD6" s="25">
         <v>1067</v>
       </c>
-      <c r="AE6" s="27">
+      <c r="AE6" s="25">
         <v>603</v>
       </c>
-      <c r="AF6" s="27">
+      <c r="AF6" s="25">
         <v>464</v>
       </c>
-      <c r="AG6" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="AH6" s="27">
+      <c r="AG6" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH6" s="25">
         <v>1000</v>
       </c>
-      <c r="AI6" s="27" t="s">
-        <v>284</v>
+      <c r="AI6" s="25" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="K7" s="27" t="s">
+      <c r="E7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K7" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="O7" s="27">
+      <c r="M7" s="25"/>
+      <c r="N7" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="O7" s="25">
         <v>0</v>
       </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27">
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25">
         <v>6798</v>
       </c>
-      <c r="R7" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="U7" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="V7" s="26" t="s">
+      <c r="R7" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="S7" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="T7" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="V7" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="W7" s="27"/>
-      <c r="X7" s="26" t="s">
+      <c r="W7" s="25"/>
+      <c r="X7" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="27">
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="25">
         <v>241.15</v>
       </c>
-      <c r="AD7" s="27">
+      <c r="AD7" s="25">
         <v>1143</v>
       </c>
-      <c r="AE7" s="27">
+      <c r="AE7" s="25">
         <v>645</v>
       </c>
-      <c r="AF7" s="27">
+      <c r="AF7" s="25">
         <v>498</v>
       </c>
-      <c r="AG7" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="AH7" s="27">
+      <c r="AG7" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH7" s="25">
         <v>500</v>
       </c>
-      <c r="AI7" s="27" t="s">
-        <v>284</v>
+      <c r="AI7" s="25" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="K8" s="27" t="s">
+      <c r="E8" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="O8" s="27">
+      <c r="M8" s="25"/>
+      <c r="N8" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O8" s="25">
         <v>0</v>
       </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="R8" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="S8" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="T8" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="U8" s="27" t="s">
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="S8" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="T8" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="U8" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="V8" s="26" t="s">
+      <c r="V8" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="W8" s="27"/>
-      <c r="X8" s="26" t="s">
+      <c r="W8" s="25"/>
+      <c r="X8" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26">
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24">
         <v>32.19</v>
       </c>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="27">
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="25">
         <v>102.12</v>
       </c>
-      <c r="AE8" s="27">
+      <c r="AE8" s="25">
         <v>102.12</v>
       </c>
-      <c r="AF8" s="27">
+      <c r="AF8" s="25">
         <v>0</v>
       </c>
-      <c r="AG8" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="AH8" s="27">
+      <c r="AG8" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="AH8" s="25">
         <v>1900</v>
       </c>
-      <c r="AI8" s="27" t="s">
-        <v>286</v>
+      <c r="AI8" s="25" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="C9" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="K9" s="27" t="s">
+      <c r="D9" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K9" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="O9" s="27">
+      <c r="M9" s="25"/>
+      <c r="N9" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O9" s="25">
         <v>0</v>
       </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="R9" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="S9" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="T9" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="U9" s="27" t="s">
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="S9" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="T9" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="U9" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="Z9" s="27">
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z9" s="25">
         <v>271.39999999999998</v>
       </c>
-      <c r="AA9" s="27">
+      <c r="AA9" s="25">
         <v>35282</v>
       </c>
-      <c r="AB9" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC9" s="27">
+      <c r="AB9" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC9" s="25">
         <v>441.02499999999998</v>
       </c>
-      <c r="AD9" s="27">
+      <c r="AD9" s="25">
         <v>264.27999999999997</v>
       </c>
-      <c r="AE9" s="27">
+      <c r="AE9" s="25">
         <v>0</v>
       </c>
-      <c r="AF9" s="27">
+      <c r="AF9" s="25">
         <v>264.27999999999997</v>
       </c>
-      <c r="AG9" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="AH9" s="27">
+      <c r="AG9" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="AH9" s="25">
         <v>16</v>
       </c>
-      <c r="AI9" s="27" t="s">
-        <v>287</v>
+      <c r="AI9" s="25" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -6429,22 +6635,22 @@
         <v>25</v>
       </c>
       <c r="G1" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>320</v>
-      </c>
       <c r="I1" s="11" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="181.5">
@@ -6452,25 +6658,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
@@ -6482,25 +6688,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -6513,20 +6719,20 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="13" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -6538,25 +6744,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -6568,21 +6774,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="20" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -6594,25 +6800,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>266</v>
+        <v>284</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>261</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -6624,25 +6830,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -6654,26 +6860,26 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>323</v>
+      <c r="G9" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J9" s="17"/>
-      <c r="K9" s="25" t="s">
-        <v>322</v>
+      <c r="K9" s="23" t="s">
+        <v>317</v>
       </c>
       <c r="L9" s="17"/>
     </row>
@@ -6682,7 +6888,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>16</v>
@@ -6690,23 +6896,23 @@
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>325</v>
+      <c r="G10" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="49.5">
@@ -6714,31 +6920,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>321</v>
+      <c r="G11" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="49.5">
@@ -6746,7 +6952,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>16</v>
@@ -6754,23 +6960,23 @@
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>322</v>
+      <c r="G12" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="49.5">
@@ -6778,29 +6984,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>323</v>
+      <c r="G13" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="J13" s="17"/>
-      <c r="K13" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="L13" s="25" t="s">
-        <v>323</v>
+      <c r="K13" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="49.5">
@@ -6808,31 +7014,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="K14" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="L14" s="25" t="s">
-        <v>324</v>
+      <c r="G14" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="49.5">
@@ -6840,35 +7046,35 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F15" s="17"/>
-      <c r="G15" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="J15" s="25" t="s">
+      <c r="G15" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="L15" s="23" t="s">
         <v>321</v>
-      </c>
-      <c r="K15" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="49.5">
@@ -6876,24 +7082,24 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="K16" s="25" t="s">
-        <v>325</v>
+      <c r="J16" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>320</v>
       </c>
       <c r="L16" s="17"/>
     </row>
@@ -6902,27 +7108,27 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F17" s="17"/>
-      <c r="G17" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>329</v>
+      <c r="G17" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>324</v>
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
@@ -6932,30 +7138,30 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F18" s="17"/>
-      <c r="G18" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>324</v>
+      <c r="G18" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>319</v>
       </c>
       <c r="J18" s="17"/>
-      <c r="K18" s="25" t="s">
-        <v>324</v>
+      <c r="K18" s="23" t="s">
+        <v>319</v>
       </c>
       <c r="L18" s="17"/>
     </row>
@@ -6964,32 +7170,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F19" s="17"/>
-      <c r="G19" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>322</v>
+      <c r="G19" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>317</v>
       </c>
       <c r="L19" s="17"/>
     </row>
@@ -6998,32 +7204,32 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F20" s="17"/>
-      <c r="G20" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>322</v>
+      <c r="G20" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>317</v>
       </c>
       <c r="L20" s="17"/>
     </row>
@@ -7032,7 +7238,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>16</v>
@@ -7041,21 +7247,21 @@
         <v>19</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F21" s="17"/>
-      <c r="G21" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>321</v>
+      <c r="G21" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>316</v>
       </c>
       <c r="J21" s="17"/>
-      <c r="K21" s="25" t="s">
-        <v>322</v>
+      <c r="K21" s="23" t="s">
+        <v>317</v>
       </c>
       <c r="L21" s="17"/>
     </row>
@@ -7064,30 +7270,30 @@
         <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F22" s="17"/>
-      <c r="G22" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>321</v>
+      <c r="G22" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>316</v>
       </c>
       <c r="J22" s="17"/>
-      <c r="K22" s="25" t="s">
-        <v>323</v>
+      <c r="K22" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="L22" s="17"/>
     </row>
@@ -7096,30 +7302,30 @@
         <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F23" s="17"/>
-      <c r="G23" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>321</v>
+      <c r="G23" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>316</v>
       </c>
       <c r="J23" s="17"/>
-      <c r="K23" s="25" t="s">
-        <v>330</v>
+      <c r="K23" s="23" t="s">
+        <v>325</v>
       </c>
       <c r="L23" s="17"/>
     </row>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE57CE1-FEE2-41BE-9418-E828541C7063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56E8A4D-44AE-45EA-B965-710D8F7794CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="351">
   <si>
     <t>name</t>
   </si>
@@ -386,12 +386,6 @@
   </si>
   <si>
     <t>1296C</t>
-  </si>
-  <si>
-    <t>200～400</t>
-  </si>
-  <si>
-    <t>100～300</t>
   </si>
   <si>
     <t>06</t>
@@ -1187,30 +1181,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>100~300</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>300~500</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>50~200</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>703.704~1407.407</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>1359.852~1687.721</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>155~175</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>決済単価</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1226,18 +1196,10 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>1~1</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>付帯費用</t>
     <rPh sb="0" eb="4">
       <t>フタイヒヨウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>20~160</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -1249,6 +1211,33 @@
       <t>ツウカ</t>
     </rPh>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>200~400</t>
+  </si>
+  <si>
+    <t>100~300</t>
+  </si>
+  <si>
+    <t>300~500</t>
+  </si>
+  <si>
+    <t>50~200</t>
+  </si>
+  <si>
+    <t>1~1</t>
+  </si>
+  <si>
+    <t>20~160</t>
+  </si>
+  <si>
+    <t>703.704~1407.407</t>
+  </si>
+  <si>
+    <t>1359.852~1687.721</t>
+  </si>
+  <si>
+    <t>155~175</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1302,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1330,6 +1319,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9DC3E6"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1434,7 +1429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1476,8 +1471,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2013,7 +2012,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>23</v>
@@ -2033,7 +2032,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>28</v>
@@ -2044,7 +2043,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>31</v>
@@ -2055,7 +2054,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>34</v>
@@ -2066,7 +2065,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>37</v>
@@ -2315,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2388,7 +2387,7 @@
         <v>51</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>57</v>
@@ -2412,22 +2411,22 @@
         <v>75</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="AB1" s="11" t="s">
         <v>78</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="AD1" s="11" t="s">
         <v>84</v>
@@ -2442,359 +2441,359 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
-      <c r="A2" t="s">
+    <row r="2" spans="1:33" s="28" customFormat="1">
+      <c r="A2" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I2" s="26" t="s">
+      <c r="K2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="30"/>
+      <c r="N2" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="29">
+        <v>0</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="29">
+        <v>675</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC2" s="29">
+        <v>662</v>
+      </c>
+      <c r="AD2" s="29">
+        <v>372.161</v>
+      </c>
+      <c r="AE2" s="29">
+        <v>372.161</v>
+      </c>
+      <c r="AF2" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="28" customFormat="1">
+      <c r="A3" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="K2" s="24" t="s">
+      <c r="K3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="24" t="s">
+      <c r="M3" s="30"/>
+      <c r="N3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O3" s="29">
         <v>0</v>
       </c>
-      <c r="P2" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" s="24" t="s">
+      <c r="P3" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q3" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="T3" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="V3" s="29">
+        <v>690</v>
+      </c>
+      <c r="W3" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC3" s="29">
+        <v>690</v>
+      </c>
+      <c r="AD3" s="29">
+        <v>384</v>
+      </c>
+      <c r="AE3" s="29">
+        <v>384</v>
+      </c>
+      <c r="AF3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="28" customFormat="1">
+      <c r="A4" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="30"/>
+      <c r="N4" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="29">
+        <v>0</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="T4" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="V4" s="29">
+        <v>564</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC4" s="29">
+        <v>564</v>
+      </c>
+      <c r="AD4" s="29">
+        <v>416</v>
+      </c>
+      <c r="AE4" s="29">
+        <v>354</v>
+      </c>
+      <c r="AF4" s="29">
         <v>62</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="AG4" s="29">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="28" customFormat="1">
+      <c r="A5" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="30"/>
+      <c r="N5" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" s="29">
+        <v>0</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="T5" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" s="24">
-        <v>675</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24" t="s">
+      <c r="U5" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="V5" s="29">
+        <v>487</v>
+      </c>
+      <c r="W5" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC2" s="24">
-        <v>662</v>
-      </c>
-      <c r="AD2" s="24">
-        <v>372.161</v>
-      </c>
-      <c r="AE2" s="24">
-        <v>372.161</v>
-      </c>
-      <c r="AF2" s="24">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="24" t="s">
+      <c r="AC5" s="32">
+        <v>387</v>
+      </c>
+      <c r="AD5" s="29">
+        <v>426</v>
+      </c>
+      <c r="AE5" s="29">
+        <v>384</v>
+      </c>
+      <c r="AF5" s="29">
         <v>42</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="24">
-        <v>0</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="U3" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="V3" s="24">
-        <v>690</v>
-      </c>
-      <c r="W3" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC3" s="24">
-        <v>690</v>
-      </c>
-      <c r="AD3" s="24">
-        <v>384</v>
-      </c>
-      <c r="AE3" s="24">
-        <v>384</v>
-      </c>
-      <c r="AF3" s="24">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="A4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="24">
-        <v>0</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="S4" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="T4" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="U4" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="V4" s="24">
-        <v>564</v>
-      </c>
-      <c r="W4" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC4" s="24">
-        <v>564</v>
-      </c>
-      <c r="AD4" s="24">
-        <v>416</v>
-      </c>
-      <c r="AE4" s="24">
-        <v>354</v>
-      </c>
-      <c r="AF4" s="24">
-        <v>62</v>
-      </c>
-      <c r="AG4" s="24">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O5" s="24">
-        <v>0</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q5" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="R5" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="S5" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="T5" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="U5" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="V5" s="24">
-        <v>487</v>
-      </c>
-      <c r="W5" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC5" s="27">
-        <v>387</v>
-      </c>
-      <c r="AD5" s="24">
-        <v>426</v>
-      </c>
-      <c r="AE5" s="24">
-        <v>384</v>
-      </c>
-      <c r="AF5" s="24">
-        <v>42</v>
-      </c>
-      <c r="AG5" s="24">
+      <c r="AG5" s="29">
         <v>576</v>
       </c>
     </row>
@@ -2809,23 +2808,23 @@
         <v>16</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>113</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K6" s="24" t="s">
         <v>114</v>
@@ -2841,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q6" s="24" t="s">
         <v>117</v>
@@ -2859,7 +2858,7 @@
         <v>68</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>120</v>
+        <v>342</v>
       </c>
       <c r="W6" s="24" t="s">
         <v>74</v>
@@ -2872,7 +2871,7 @@
         <v>77</v>
       </c>
       <c r="AC6" s="24" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AD6" s="24">
         <v>401</v>
@@ -2887,121 +2886,121 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
-      <c r="A7" t="s">
+    <row r="7" spans="1:33" s="28" customFormat="1">
+      <c r="A7" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" s="30"/>
+      <c r="N7" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="E7" s="24" t="s">
+      <c r="O7" s="29">
+        <v>0</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q7" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="24" t="s">
+      <c r="R7" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="O7" s="24">
-        <v>0</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q7" s="24" t="s">
+      <c r="S7" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="R7" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="S7" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="T7" s="24" t="s">
+      <c r="T7" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="U7" s="24" t="s">
+      <c r="U7" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24" t="s">
+      <c r="V7" s="29"/>
+      <c r="W7" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24" t="s">
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC7" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="AD7" s="24">
+      <c r="AC7" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD7" s="29">
         <v>514</v>
       </c>
-      <c r="AE7" s="24">
+      <c r="AE7" s="29">
         <v>478</v>
       </c>
-      <c r="AF7" s="24">
+      <c r="AF7" s="29">
         <v>36</v>
       </c>
-      <c r="AG7" s="24">
+      <c r="AG7" s="29">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>39</v>
@@ -3011,20 +3010,20 @@
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O8" s="24">
         <v>0</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R8" s="24"/>
       <c r="S8" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T8" s="24" t="s">
         <v>65</v>
@@ -3033,7 +3032,7 @@
         <v>104</v>
       </c>
       <c r="V8" s="24" t="s">
-        <v>121</v>
+        <v>343</v>
       </c>
       <c r="W8" s="24"/>
       <c r="X8" s="24"/>
@@ -3044,7 +3043,7 @@
         <v>77</v>
       </c>
       <c r="AC8" s="24" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AD8" s="24">
         <v>563</v>
@@ -3061,32 +3060,32 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J9" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>39</v>
@@ -3096,20 +3095,20 @@
       </c>
       <c r="M9" s="25"/>
       <c r="N9" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O9" s="24">
         <v>100</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R9" s="24"/>
       <c r="S9" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T9" s="24" t="s">
         <v>65</v>
@@ -3118,7 +3117,7 @@
         <v>100</v>
       </c>
       <c r="V9" s="24" t="s">
-        <v>121</v>
+        <v>343</v>
       </c>
       <c r="W9" s="24" t="s">
         <v>74</v>
@@ -3131,7 +3130,7 @@
         <v>77</v>
       </c>
       <c r="AC9" s="24" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AD9" s="24">
         <v>708</v>
@@ -3148,32 +3147,32 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>107</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J10" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I10" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>114</v>
@@ -3183,22 +3182,22 @@
       </c>
       <c r="M10" s="25"/>
       <c r="N10" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O10" s="24">
         <v>0</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="S10" s="24" t="s">
         <v>142</v>
-      </c>
-      <c r="R10" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="S10" s="24" t="s">
-        <v>144</v>
       </c>
       <c r="T10" s="24" t="s">
         <v>65</v>
@@ -3231,32 +3230,32 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K11" s="25" t="s">
         <v>114</v>
@@ -3266,22 +3265,22 @@
       </c>
       <c r="M11" s="25"/>
       <c r="N11" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O11" s="25">
         <v>0</v>
       </c>
-      <c r="P11" s="28" t="s">
-        <v>271</v>
+      <c r="P11" s="27" t="s">
+        <v>269</v>
       </c>
       <c r="Q11" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R11" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="S11" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T11" s="25" t="s">
         <v>65</v>
@@ -3293,13 +3292,13 @@
         <v>878</v>
       </c>
       <c r="Y11" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z11" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA11" s="25" t="s">
         <v>347</v>
-      </c>
-      <c r="Z11" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA11" s="25" t="s">
-        <v>350</v>
       </c>
       <c r="AB11" s="25" t="s">
         <v>77</v>
@@ -3322,32 +3321,32 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J12" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K12" s="25" t="s">
         <v>114</v>
@@ -3357,22 +3356,22 @@
       </c>
       <c r="M12" s="25"/>
       <c r="N12" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O12" s="25">
         <v>0</v>
       </c>
-      <c r="P12" s="28" t="s">
-        <v>272</v>
+      <c r="P12" s="27" t="s">
+        <v>270</v>
       </c>
       <c r="Q12" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="R12" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="S12" s="25" t="s">
         <v>154</v>
-      </c>
-      <c r="R12" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="S12" s="25" t="s">
-        <v>156</v>
       </c>
       <c r="T12" s="25" t="s">
         <v>65</v>
@@ -3405,10 +3404,10 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>16</v>
@@ -3417,20 +3416,20 @@
         <v>19</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J13" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K13" s="25" t="s">
         <v>114</v>
@@ -3440,22 +3439,22 @@
       </c>
       <c r="M13" s="25"/>
       <c r="N13" s="25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O13" s="25">
         <v>100</v>
       </c>
-      <c r="P13" s="28" t="s">
-        <v>272</v>
+      <c r="P13" s="27" t="s">
+        <v>270</v>
       </c>
       <c r="Q13" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R13" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S13" s="25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T13" s="25" t="s">
         <v>65</v>
@@ -3488,10 +3487,10 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>16</v>
@@ -3500,20 +3499,20 @@
         <v>19</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J14" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K14" s="25" t="s">
         <v>39</v>
@@ -3523,22 +3522,22 @@
       </c>
       <c r="M14" s="25"/>
       <c r="N14" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O14" s="25">
         <v>0</v>
       </c>
-      <c r="P14" s="28" t="s">
-        <v>273</v>
+      <c r="P14" s="27" t="s">
+        <v>271</v>
       </c>
       <c r="Q14" s="25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S14" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T14" s="25" t="s">
         <v>65</v>
@@ -3557,7 +3556,7 @@
       <c r="Z14" s="24"/>
       <c r="AA14" s="24"/>
       <c r="AB14" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AC14" s="25">
         <v>70</v>
@@ -3577,10 +3576,10 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>16</v>
@@ -3589,20 +3588,20 @@
         <v>19</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J15" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K15" s="25" t="s">
         <v>39</v>
@@ -3612,22 +3611,22 @@
       </c>
       <c r="M15" s="25"/>
       <c r="N15" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O15" s="25">
         <v>0</v>
       </c>
-      <c r="P15" s="28" t="s">
-        <v>274</v>
+      <c r="P15" s="27" t="s">
+        <v>272</v>
       </c>
       <c r="Q15" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R15" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S15" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T15" s="25" t="s">
         <v>65</v>
@@ -3646,7 +3645,7 @@
       <c r="Z15" s="24"/>
       <c r="AA15" s="24"/>
       <c r="AB15" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AC15" s="25">
         <v>50</v>
@@ -3666,10 +3665,10 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>16</v>
@@ -3678,20 +3677,20 @@
         <v>19</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J16" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K16" s="25" t="s">
         <v>39</v>
@@ -3701,22 +3700,22 @@
       </c>
       <c r="M16" s="25"/>
       <c r="N16" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O16" s="25">
         <v>0</v>
       </c>
-      <c r="P16" s="28" t="s">
-        <v>275</v>
+      <c r="P16" s="27" t="s">
+        <v>273</v>
       </c>
       <c r="Q16" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="S16" s="25" t="s">
         <v>173</v>
-      </c>
-      <c r="R16" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="S16" s="25" t="s">
-        <v>175</v>
       </c>
       <c r="T16" s="25" t="s">
         <v>65</v>
@@ -3731,7 +3730,7 @@
       <c r="Z16" s="25"/>
       <c r="AA16" s="25"/>
       <c r="AB16" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AC16" s="25">
         <v>110.999</v>
@@ -3751,10 +3750,10 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>16</v>
@@ -3763,20 +3762,20 @@
         <v>19</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J17" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K17" s="25" t="s">
         <v>39</v>
@@ -3786,22 +3785,22 @@
       </c>
       <c r="M17" s="25"/>
       <c r="N17" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O17" s="25">
         <v>0</v>
       </c>
-      <c r="P17" s="28" t="s">
-        <v>275</v>
+      <c r="P17" s="27" t="s">
+        <v>273</v>
       </c>
       <c r="Q17" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R17" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="S17" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="T17" s="25" t="s">
         <v>65</v>
@@ -3818,7 +3817,7 @@
       <c r="Z17" s="24"/>
       <c r="AA17" s="24"/>
       <c r="AB17" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AC17" s="25">
         <v>111.03</v>
@@ -3838,10 +3837,10 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>16</v>
@@ -3850,20 +3849,20 @@
         <v>19</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J18" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K18" s="25" t="s">
         <v>39</v>
@@ -3873,7 +3872,7 @@
       </c>
       <c r="M18" s="25"/>
       <c r="N18" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O18" s="25">
         <v>0</v>
@@ -3882,22 +3881,22 @@
         <v>7791</v>
       </c>
       <c r="Q18" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="R18" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="S18" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="R18" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="S18" s="25" t="s">
-        <v>183</v>
-      </c>
       <c r="T18" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U18" s="24" t="s">
         <v>68</v>
       </c>
       <c r="V18" s="25" t="s">
-        <v>120</v>
+        <v>342</v>
       </c>
       <c r="W18" s="24" t="s">
         <v>74</v>
@@ -3907,10 +3906,10 @@
       <c r="Z18" s="24"/>
       <c r="AA18" s="24"/>
       <c r="AB18" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AC18" s="25" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AD18" s="25">
         <v>20407.406999999999</v>
@@ -3927,10 +3926,10 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>16</v>
@@ -3939,20 +3938,20 @@
         <v>19</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J19" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K19" s="25" t="s">
         <v>39</v>
@@ -3962,22 +3961,22 @@
       </c>
       <c r="M19" s="25"/>
       <c r="N19" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O19" s="25">
         <v>0</v>
       </c>
       <c r="P19" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q19" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="R19" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="S19" s="25" t="s">
         <v>187</v>
-      </c>
-      <c r="R19" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="S19" s="25" t="s">
-        <v>189</v>
       </c>
       <c r="T19" s="25" t="s">
         <v>65</v>
@@ -3994,10 +3993,10 @@
       <c r="Z19" s="24"/>
       <c r="AA19" s="24"/>
       <c r="AB19" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AC19" s="25" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AD19" s="25">
         <v>89.9</v>
@@ -4014,10 +4013,10 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>16</v>
@@ -4026,20 +4025,20 @@
         <v>19</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J20" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K20" s="25" t="s">
         <v>114</v>
@@ -4049,7 +4048,7 @@
       </c>
       <c r="M20" s="25"/>
       <c r="N20" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O20" s="25">
         <v>0</v>
@@ -4058,13 +4057,13 @@
         <v>7715</v>
       </c>
       <c r="Q20" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="R20" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="S20" s="25" t="s">
         <v>192</v>
-      </c>
-      <c r="R20" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="S20" s="25" t="s">
-        <v>194</v>
       </c>
       <c r="T20" s="25" t="s">
         <v>65</v>
@@ -4081,7 +4080,7 @@
       <c r="Z20" s="25"/>
       <c r="AA20" s="25"/>
       <c r="AB20" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AC20" s="25">
         <v>100000</v>
@@ -4101,10 +4100,10 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>16</v>
@@ -4113,20 +4112,20 @@
         <v>19</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J21" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K21" s="25" t="s">
         <v>114</v>
@@ -4136,22 +4135,22 @@
       </c>
       <c r="M21" s="25"/>
       <c r="N21" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O21" s="25">
         <v>0</v>
       </c>
       <c r="P21" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q21" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R21" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="S21" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T21" s="25" t="s">
         <v>65</v>
@@ -4168,10 +4167,10 @@
       <c r="Z21" s="24"/>
       <c r="AA21" s="24"/>
       <c r="AB21" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AC21" s="25" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AD21" s="25">
         <v>114</v>
@@ -4188,32 +4187,32 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J22" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K22" s="25" t="s">
         <v>114</v>
@@ -4223,22 +4222,22 @@
       </c>
       <c r="M22" s="25"/>
       <c r="N22" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O22" s="25">
         <v>0</v>
       </c>
       <c r="P22" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q22" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="R22" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="S22" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="R22" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="S22" s="25" t="s">
-        <v>203</v>
       </c>
       <c r="T22" s="25" t="s">
         <v>65</v>
@@ -4251,7 +4250,7 @@
       <c r="Z22" s="25"/>
       <c r="AA22" s="25"/>
       <c r="AB22" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AC22" s="25">
         <v>131.30000000000001</v>
@@ -4271,10 +4270,10 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>16</v>
@@ -4283,20 +4282,20 @@
         <v>19</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J23" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K23" s="25" t="s">
         <v>114</v>
@@ -4306,22 +4305,22 @@
       </c>
       <c r="M23" s="25"/>
       <c r="N23" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O23" s="25">
         <v>100</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q23" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R23" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S23" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="T23" s="25" t="s">
         <v>65</v>
@@ -4334,7 +4333,7 @@
       <c r="Z23" s="25"/>
       <c r="AA23" s="25"/>
       <c r="AB23" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AC23" s="25">
         <v>131.30000000000001</v>
@@ -4354,10 +4353,10 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>16</v>
@@ -4366,20 +4365,20 @@
         <v>19</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J24" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K24" s="25" t="s">
         <v>114</v>
@@ -4389,22 +4388,22 @@
       </c>
       <c r="M24" s="25"/>
       <c r="N24" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O24" s="25">
         <v>0</v>
       </c>
       <c r="P24" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R24" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S24" s="25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="T24" s="25" t="s">
         <v>65</v>
@@ -4417,7 +4416,7 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="25"/>
       <c r="AB24" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AC24" s="25">
         <v>133.9</v>
@@ -4437,32 +4436,32 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J25" s="26" t="s">
         <v>257</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>259</v>
       </c>
       <c r="K25" s="25" t="s">
         <v>114</v>
@@ -4472,22 +4471,22 @@
       </c>
       <c r="M25" s="25"/>
       <c r="N25" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O25" s="25">
         <v>100</v>
       </c>
       <c r="P25" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="R25" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="S25" s="25" t="s">
         <v>213</v>
-      </c>
-      <c r="R25" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="S25" s="25" t="s">
-        <v>215</v>
       </c>
       <c r="T25" s="25" t="s">
         <v>65</v>
@@ -4500,7 +4499,7 @@
       <c r="Z25" s="25"/>
       <c r="AA25" s="25"/>
       <c r="AB25" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AC25" s="25">
         <v>63.44</v>
@@ -4780,10 +4779,10 @@
         <v>92</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>14</v>
@@ -4822,16 +4821,16 @@
         <v>45</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>51</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="T1" s="11" t="s">
         <v>57</v>
@@ -4855,10 +4854,10 @@
         <v>75</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AC1" s="11" t="s">
         <v>78</v>
@@ -4879,7 +4878,7 @@
         <v>91</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:35">
@@ -4887,13 +4886,13 @@
         <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
@@ -4902,19 +4901,19 @@
         <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>39</v>
@@ -4923,7 +4922,7 @@
         <v>42</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q2" s="4">
         <v>0</v>
@@ -4933,13 +4932,13 @@
         <v>6200</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>65</v>
@@ -4956,7 +4955,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AD2" s="4">
         <v>7090</v>
@@ -4974,7 +4973,7 @@
         <v>8000</v>
       </c>
       <c r="AI2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -4982,13 +4981,13 @@
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>16</v>
@@ -5000,16 +4999,16 @@
         <v>22</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>39</v>
@@ -5018,7 +5017,7 @@
         <v>42</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
@@ -5028,13 +5027,13 @@
         <v>6713</v>
       </c>
       <c r="T3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="W3" t="s">
         <v>65</v>
@@ -5043,10 +5042,10 @@
         <v>100</v>
       </c>
       <c r="Z3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AC3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AD3">
         <v>379</v>
@@ -5064,7 +5063,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -5072,13 +5071,13 @@
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -5087,19 +5086,19 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>39</v>
@@ -5108,7 +5107,7 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -5117,25 +5116,25 @@
         <v>6713</v>
       </c>
       <c r="T4" t="s">
+        <v>230</v>
+      </c>
+      <c r="U4" t="s">
+        <v>231</v>
+      </c>
+      <c r="V4" t="s">
+        <v>231</v>
+      </c>
+      <c r="W4" t="s">
         <v>232</v>
-      </c>
-      <c r="U4" t="s">
-        <v>233</v>
-      </c>
-      <c r="V4" t="s">
-        <v>233</v>
-      </c>
-      <c r="W4" t="s">
-        <v>234</v>
       </c>
       <c r="X4" s="4" t="s">
         <v>100</v>
       </c>
       <c r="Z4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AC4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AD4">
         <v>152</v>
@@ -5153,7 +5152,7 @@
         <v>10</v>
       </c>
       <c r="AI4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -5161,13 +5160,13 @@
         <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>16</v>
@@ -5176,19 +5175,19 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>39</v>
@@ -5197,7 +5196,7 @@
         <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -5206,13 +5205,13 @@
         <v>6785</v>
       </c>
       <c r="T5" t="s">
+        <v>236</v>
+      </c>
+      <c r="U5" t="s">
+        <v>237</v>
+      </c>
+      <c r="V5" t="s">
         <v>238</v>
-      </c>
-      <c r="U5" t="s">
-        <v>239</v>
-      </c>
-      <c r="V5" t="s">
-        <v>240</v>
       </c>
       <c r="W5" t="s">
         <v>65</v>
@@ -5226,7 +5225,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AD5">
         <v>194.88</v>
@@ -5244,7 +5243,7 @@
         <v>1000</v>
       </c>
       <c r="AI5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -5252,13 +5251,13 @@
         <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>16</v>
@@ -5267,19 +5266,19 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="M6" t="s">
         <v>39</v>
@@ -5288,7 +5287,7 @@
         <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -5297,16 +5296,16 @@
         <v>6780</v>
       </c>
       <c r="T6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="U6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="V6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="W6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="X6" s="4" t="s">
         <v>100</v>
@@ -5317,7 +5316,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AD6">
         <v>193.28</v>
@@ -5335,21 +5334,21 @@
         <v>1000</v>
       </c>
       <c r="AI6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>16</v>
@@ -5358,19 +5357,19 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="M7" t="s">
         <v>39</v>
@@ -5379,7 +5378,7 @@
         <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -5388,16 +5387,16 @@
         <v>6798</v>
       </c>
       <c r="T7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="U7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="V7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="W7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="X7" s="4" t="s">
         <v>100</v>
@@ -5408,7 +5407,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AD7">
         <v>241.15</v>
@@ -5426,21 +5425,21 @@
         <v>500</v>
       </c>
       <c r="AI7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
@@ -5449,19 +5448,19 @@
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="M8" t="s">
         <v>39</v>
@@ -5470,22 +5469,22 @@
         <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="U8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="V8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="W8" t="s">
         <v>65</v>
@@ -5500,10 +5499,10 @@
         <v>32.19</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AC8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AD8">
         <v>111</v>
@@ -5521,21 +5520,21 @@
         <v>1900</v>
       </c>
       <c r="AI8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
@@ -5544,19 +5543,19 @@
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="M9" t="s">
         <v>114</v>
@@ -5565,22 +5564,22 @@
         <v>115</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T9" t="s">
+        <v>247</v>
+      </c>
+      <c r="U9" t="s">
+        <v>248</v>
+      </c>
+      <c r="V9" t="s">
         <v>249</v>
-      </c>
-      <c r="U9" t="s">
-        <v>250</v>
-      </c>
-      <c r="V9" t="s">
-        <v>251</v>
       </c>
       <c r="W9" t="s">
         <v>65</v>
@@ -5589,10 +5588,10 @@
         <v>271.39999999999998</v>
       </c>
       <c r="AB9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AC9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AD9">
         <v>441.02499999999998</v>
@@ -5610,7 +5609,7 @@
         <v>16</v>
       </c>
       <c r="AI9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" customFormat="1"/>
@@ -5768,16 +5767,16 @@
         <v>45</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>51</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>57</v>
@@ -5801,16 +5800,16 @@
         <v>75</v>
       </c>
       <c r="Y1" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z1" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="Z1" s="11" t="s">
-        <v>332</v>
-      </c>
       <c r="AA1" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AC1" s="11" t="s">
         <v>81</v>
@@ -5831,7 +5830,7 @@
         <v>91</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:35">
@@ -5839,7 +5838,7 @@
         <v>93</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>16</v>
@@ -5848,20 +5847,20 @@
         <v>19</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>297</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>299</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>39</v>
@@ -5871,7 +5870,7 @@
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O2" s="24">
         <v>0</v>
@@ -5881,13 +5880,13 @@
         <v>6200</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S2" s="24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U2" s="24" t="s">
         <v>65</v>
@@ -5912,13 +5911,13 @@
       <c r="AE2" s="24"/>
       <c r="AF2" s="24"/>
       <c r="AG2" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AH2" s="24">
         <v>8000</v>
       </c>
       <c r="AI2" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -5926,7 +5925,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>16</v>
@@ -5939,16 +5938,16 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="I3" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="J3" s="26" t="s">
         <v>297</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>299</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>39</v>
@@ -5958,7 +5957,7 @@
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O3" s="24">
         <v>0</v>
@@ -5968,13 +5967,13 @@
         <v>6713</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="T3" s="24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U3" s="25" t="s">
         <v>65</v>
@@ -5984,7 +5983,7 @@
       </c>
       <c r="W3" s="25"/>
       <c r="X3" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Y3" s="25"/>
       <c r="Z3" s="25"/>
@@ -6003,13 +6002,13 @@
         <v>0</v>
       </c>
       <c r="AG3" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AH3" s="25">
         <v>10</v>
       </c>
       <c r="AI3" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -6017,7 +6016,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>16</v>
@@ -6026,20 +6025,20 @@
         <v>19</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="I4" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="J4" s="26" t="s">
         <v>297</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>299</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>39</v>
@@ -6049,7 +6048,7 @@
       </c>
       <c r="M4" s="25"/>
       <c r="N4" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O4" s="25">
         <v>0</v>
@@ -6059,23 +6058,23 @@
         <v>6713</v>
       </c>
       <c r="R4" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="U4" s="25" t="s">
         <v>232</v>
-      </c>
-      <c r="S4" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="T4" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="U4" s="25" t="s">
-        <v>234</v>
       </c>
       <c r="V4" s="24" t="s">
         <v>100</v>
       </c>
       <c r="W4" s="25"/>
       <c r="X4" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Y4" s="25"/>
       <c r="Z4" s="25"/>
@@ -6088,13 +6087,13 @@
       <c r="AE4" s="25"/>
       <c r="AF4" s="25"/>
       <c r="AG4" s="25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AH4" s="25">
         <v>10</v>
       </c>
       <c r="AI4" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -6102,7 +6101,7 @@
         <v>105</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>16</v>
@@ -6111,20 +6110,20 @@
         <v>19</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="J5" s="26" t="s">
         <v>297</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>299</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>39</v>
@@ -6134,7 +6133,7 @@
       </c>
       <c r="M5" s="25"/>
       <c r="N5" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O5" s="25">
         <v>0</v>
@@ -6144,13 +6143,13 @@
         <v>6785</v>
       </c>
       <c r="R5" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="T5" s="25" t="s">
         <v>238</v>
-      </c>
-      <c r="S5" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="T5" s="25" t="s">
-        <v>240</v>
       </c>
       <c r="U5" s="25" t="s">
         <v>65</v>
@@ -6179,13 +6178,13 @@
         <v>400</v>
       </c>
       <c r="AG5" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AH5" s="25">
         <v>1000</v>
       </c>
       <c r="AI5" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -6193,7 +6192,7 @@
         <v>111</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>16</v>
@@ -6202,20 +6201,20 @@
         <v>19</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="I6" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="J6" s="26" t="s">
         <v>297</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>299</v>
       </c>
       <c r="K6" s="25" t="s">
         <v>39</v>
@@ -6225,7 +6224,7 @@
       </c>
       <c r="M6" s="25"/>
       <c r="N6" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O6" s="25">
         <v>0</v>
@@ -6235,16 +6234,16 @@
         <v>6780</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="S6" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T6" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U6" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="V6" s="24" t="s">
         <v>100</v>
@@ -6270,21 +6269,21 @@
         <v>464</v>
       </c>
       <c r="AG6" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AH6" s="25">
         <v>1000</v>
       </c>
       <c r="AI6" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>16</v>
@@ -6293,20 +6292,20 @@
         <v>19</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="I7" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="J7" s="26" t="s">
         <v>297</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>299</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>39</v>
@@ -6316,7 +6315,7 @@
       </c>
       <c r="M7" s="25"/>
       <c r="N7" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O7" s="25">
         <v>0</v>
@@ -6326,16 +6325,16 @@
         <v>6798</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="S7" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T7" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U7" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="V7" s="24" t="s">
         <v>100</v>
@@ -6361,21 +6360,21 @@
         <v>498</v>
       </c>
       <c r="AG7" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AH7" s="25">
         <v>500</v>
       </c>
       <c r="AI7" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>16</v>
@@ -6384,20 +6383,20 @@
         <v>19</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="J8" s="26" t="s">
         <v>297</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>299</v>
       </c>
       <c r="K8" s="25" t="s">
         <v>39</v>
@@ -6407,23 +6406,23 @@
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O8" s="25">
         <v>0</v>
       </c>
       <c r="P8" s="25"/>
       <c r="Q8" s="25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S8" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="T8" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="U8" s="25" t="s">
         <v>65</v>
@@ -6452,43 +6451,43 @@
         <v>0</v>
       </c>
       <c r="AG8" s="25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AH8" s="25">
         <v>1900</v>
       </c>
       <c r="AI8" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="I9" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="J9" s="26" t="s">
         <v>297</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>299</v>
       </c>
       <c r="K9" s="25" t="s">
         <v>114</v>
@@ -6498,23 +6497,23 @@
       </c>
       <c r="M9" s="25"/>
       <c r="N9" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O9" s="25">
         <v>0</v>
       </c>
       <c r="P9" s="25"/>
       <c r="Q9" s="25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S9" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="T9" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="U9" s="25" t="s">
         <v>65</v>
@@ -6523,7 +6522,7 @@
       <c r="W9" s="25"/>
       <c r="X9" s="25"/>
       <c r="Y9" s="25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z9" s="25">
         <v>271.39999999999998</v>
@@ -6532,7 +6531,7 @@
         <v>35282</v>
       </c>
       <c r="AB9" s="25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AC9" s="25">
         <v>441.02499999999998</v>
@@ -6547,13 +6546,13 @@
         <v>264.27999999999997</v>
       </c>
       <c r="AG9" s="25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AH9" s="25">
         <v>16</v>
       </c>
       <c r="AI9" s="25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -6635,22 +6634,22 @@
         <v>25</v>
       </c>
       <c r="G1" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="181.5">
@@ -6658,25 +6657,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
@@ -6688,25 +6687,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -6719,20 +6718,20 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -6744,25 +6743,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -6774,21 +6773,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -6800,25 +6799,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -6830,25 +6829,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -6860,26 +6859,26 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="17"/>
       <c r="G9" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>316</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>318</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L9" s="17"/>
     </row>
@@ -6888,7 +6887,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>16</v>
@@ -6897,22 +6896,22 @@
       <c r="E10" s="15"/>
       <c r="F10" s="17"/>
       <c r="G10" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="J10" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="L10" s="23" t="s">
         <v>318</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="49.5">
@@ -6920,31 +6919,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="17"/>
       <c r="G11" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I11" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="J11" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>318</v>
-      </c>
       <c r="K11" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="49.5">
@@ -6952,7 +6951,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>16</v>
@@ -6961,22 +6960,22 @@
       <c r="E12" s="15"/>
       <c r="F12" s="17"/>
       <c r="G12" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H12" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="K12" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>318</v>
-      </c>
       <c r="L12" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="49.5">
@@ -6984,29 +6983,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="17"/>
       <c r="G13" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>316</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>318</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="49.5">
@@ -7014,31 +7013,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="17"/>
       <c r="G14" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="K14" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="H14" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="J14" s="23" t="s">
+      <c r="L14" s="23" t="s">
         <v>317</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="49.5">
@@ -7046,35 +7045,35 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="49.5">
@@ -7082,24 +7081,24 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L16" s="17"/>
     </row>
@@ -7108,27 +7107,27 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="J17" s="23" t="s">
         <v>322</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>324</v>
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
@@ -7138,30 +7137,30 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L18" s="17"/>
     </row>
@@ -7170,32 +7169,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L19" s="17"/>
     </row>
@@ -7204,32 +7203,32 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="I20" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="J20" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="I20" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>318</v>
-      </c>
       <c r="K20" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L20" s="17"/>
     </row>
@@ -7238,7 +7237,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>16</v>
@@ -7247,21 +7246,21 @@
         <v>19</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L21" s="17"/>
     </row>
@@ -7270,30 +7269,30 @@
         <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L22" s="17"/>
     </row>
@@ -7302,30 +7301,30 @@
         <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L23" s="17"/>
     </row>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56E8A4D-44AE-45EA-B965-710D8F7794CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DA61D4-7275-49B9-854C-F16BA4DB2CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="353">
   <si>
     <t>name</t>
   </si>
@@ -1238,6 +1238,14 @@
   </si>
   <si>
     <t>155~175</t>
+  </si>
+  <si>
+    <t>F00YA</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>03P5D</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -2314,14 +2322,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="34.875" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="4" max="4" width="25.25" customWidth="1"/>
     <col min="6" max="6" width="6.875" customWidth="1"/>
     <col min="7" max="7" width="34.375" bestFit="1" customWidth="1"/>
@@ -2329,6 +2338,7 @@
     <col min="9" max="9" width="36.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="17" max="17" width="30.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="27.25" customWidth="1"/>
     <col min="23" max="23" width="11.25" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16" customWidth="1"/>
@@ -2797,92 +2807,92 @@
         <v>576</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
-      <c r="A6" t="s">
+    <row r="6" spans="1:33" s="28" customFormat="1">
+      <c r="A6" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="24" t="s">
+      <c r="M6" s="30"/>
+      <c r="N6" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="29">
         <v>0</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="S6" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="T6" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="U6" s="24" t="s">
+      <c r="U6" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="V6" s="24" t="s">
+      <c r="V6" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="W6" s="24" t="s">
+      <c r="W6" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24" t="s">
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC6" s="24" t="s">
+      <c r="AC6" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="AD6" s="24">
+      <c r="AD6" s="29">
         <v>401</v>
       </c>
-      <c r="AE6" s="24">
+      <c r="AE6" s="29">
         <v>532</v>
       </c>
-      <c r="AF6" s="24">
+      <c r="AF6" s="29">
         <v>49</v>
       </c>
-      <c r="AG6" s="24">
+      <c r="AG6" s="29">
         <v>200</v>
       </c>
     </row>
@@ -3021,7 +3031,9 @@
       <c r="Q8" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="24"/>
+      <c r="R8" s="24" t="s">
+        <v>351</v>
+      </c>
       <c r="S8" s="24" t="s">
         <v>131</v>
       </c>
@@ -3106,9 +3118,11 @@
       <c r="Q9" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="R9" s="24"/>
+      <c r="R9" s="24" t="s">
+        <v>137</v>
+      </c>
       <c r="S9" s="24" t="s">
-        <v>137</v>
+        <v>352</v>
       </c>
       <c r="T9" s="24" t="s">
         <v>65</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DA61D4-7275-49B9-854C-F16BA4DB2CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E697C13E-83D3-4E64-A1F3-B0B7A7841C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="359">
   <si>
     <t>name</t>
   </si>
@@ -1167,10 +1167,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>円建て</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>輸出(除EXGO)(単価幅)</t>
     <rPh sb="0" eb="2">
       <t>ユシュツ</t>
@@ -1245,6 +1241,34 @@
   </si>
   <si>
     <t>03P5D</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>10.336</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>80~160</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>30~100</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>200~400</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0~1000</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>100~300</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1~1500</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -2323,7 +2347,7 @@
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2421,22 +2445,22 @@
         <v>75</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Z1" s="11" t="s">
         <v>328</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AB1" s="11" t="s">
         <v>78</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AD1" s="11" t="s">
         <v>84</v>
@@ -2868,7 +2892,7 @@
         <v>68</v>
       </c>
       <c r="V6" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="W6" s="29" t="s">
         <v>74</v>
@@ -2881,7 +2905,7 @@
         <v>77</v>
       </c>
       <c r="AC6" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AD6" s="29">
         <v>401</v>
@@ -2968,7 +2992,7 @@
         <v>77</v>
       </c>
       <c r="AC7" s="29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AD7" s="29">
         <v>514</v>
@@ -2983,90 +3007,90 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
-      <c r="A8" t="s">
+    <row r="8" spans="1:33" s="28" customFormat="1">
+      <c r="A8" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="24" t="s">
+      <c r="M8" s="30"/>
+      <c r="N8" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="29">
         <v>0</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="S8" s="24" t="s">
+      <c r="R8" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="S8" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="T8" s="24" t="s">
+      <c r="T8" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="24" t="s">
+      <c r="U8" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="V8" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24" t="s">
+      <c r="V8" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC8" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="AD8" s="24">
+      <c r="AC8" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD8" s="29">
         <v>563</v>
       </c>
-      <c r="AE8" s="24">
+      <c r="AE8" s="29">
         <v>563</v>
       </c>
-      <c r="AF8" s="24">
+      <c r="AF8" s="29">
         <v>0</v>
       </c>
-      <c r="AG8" s="24">
+      <c r="AG8" s="29">
         <v>25</v>
       </c>
     </row>
@@ -3110,7 +3134,7 @@
         <v>135</v>
       </c>
       <c r="O9" s="24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="24" t="s">
         <v>267</v>
@@ -3122,7 +3146,7 @@
         <v>137</v>
       </c>
       <c r="S9" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="T9" s="24" t="s">
         <v>65</v>
@@ -3131,7 +3155,7 @@
         <v>100</v>
       </c>
       <c r="V9" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="W9" s="24" t="s">
         <v>74</v>
@@ -3144,7 +3168,7 @@
         <v>77</v>
       </c>
       <c r="AC9" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AD9" s="24">
         <v>708</v>
@@ -3170,7 +3194,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>107</v>
@@ -3219,10 +3243,18 @@
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
       <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
+      <c r="X10" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y10" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z10" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA10" s="24" t="s">
+        <v>354</v>
+      </c>
       <c r="AB10" s="24" t="s">
         <v>77</v>
       </c>
@@ -3306,13 +3338,13 @@
         <v>878</v>
       </c>
       <c r="Y11" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Z11" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA11" s="25" t="s">
         <v>346</v>
-      </c>
-      <c r="AA11" s="25" t="s">
-        <v>347</v>
       </c>
       <c r="AB11" s="25" t="s">
         <v>77</v>
@@ -3344,7 +3376,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>150</v>
@@ -3393,10 +3425,18 @@
       <c r="U12" s="25"/>
       <c r="V12" s="25"/>
       <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
+      <c r="X12" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y12" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z12" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA12" s="25" t="s">
+        <v>356</v>
+      </c>
       <c r="AB12" s="25" t="s">
         <v>77</v>
       </c>
@@ -3427,7 +3467,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>19</v>
+        <v>335</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>150</v>
@@ -3476,10 +3516,18 @@
       <c r="U13" s="25"/>
       <c r="V13" s="25"/>
       <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
+      <c r="X13" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y13" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z13" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA13" s="25" t="s">
+        <v>358</v>
+      </c>
       <c r="AB13" s="25" t="s">
         <v>77</v>
       </c>
@@ -3910,7 +3958,7 @@
         <v>68</v>
       </c>
       <c r="V18" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="W18" s="24" t="s">
         <v>74</v>
@@ -3923,7 +3971,7 @@
         <v>182</v>
       </c>
       <c r="AC18" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AD18" s="25">
         <v>20407.406999999999</v>
@@ -4010,7 +4058,7 @@
         <v>164</v>
       </c>
       <c r="AC19" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AD19" s="25">
         <v>89.9</v>
@@ -4184,7 +4232,7 @@
         <v>164</v>
       </c>
       <c r="AC21" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AD21" s="25">
         <v>114</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\toray\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E697C13E-83D3-4E64-A1F3-B0B7A7841C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883244CE-3390-4438-8FD6-89F5F1F74994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="361">
   <si>
     <t>name</t>
   </si>
@@ -1269,6 +1269,17 @@
   </si>
   <si>
     <t>1~1500</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>部門長決裁</t>
+    <rPh sb="1" eb="3">
+      <t>モンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dummy-agest05@mail.toray</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1461,7 +1472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1509,6 +1520,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2346,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -3094,274 +3106,274 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
-      <c r="A9" t="s">
+    <row r="9" spans="1:33" s="28" customFormat="1">
+      <c r="A9" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="24" t="s">
+      <c r="M9" s="30"/>
+      <c r="N9" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="29">
         <v>0</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="T9" s="24" t="s">
+      <c r="T9" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="U9" s="24" t="s">
+      <c r="U9" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="V9" s="24" t="s">
+      <c r="V9" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="W9" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24" t="s">
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC9" s="24" t="s">
+      <c r="AC9" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="AD9" s="24">
+      <c r="AD9" s="29">
         <v>708</v>
       </c>
-      <c r="AE9" s="24">
+      <c r="AE9" s="29">
         <v>708</v>
       </c>
-      <c r="AF9" s="24">
+      <c r="AF9" s="29">
         <v>0</v>
       </c>
-      <c r="AG9" s="24">
+      <c r="AG9" s="29">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
-      <c r="A10" t="s">
+    <row r="10" spans="1:33" s="28" customFormat="1">
+      <c r="A10" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="24" t="s">
+      <c r="M10" s="30"/>
+      <c r="N10" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="29">
         <v>0</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="P10" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="T10" s="24" t="s">
+      <c r="T10" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24" t="s">
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="Y10" s="24" t="s">
+      <c r="Y10" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="Z10" s="24" t="s">
+      <c r="Z10" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="AA10" s="24" t="s">
+      <c r="AA10" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="AB10" s="24" t="s">
+      <c r="AB10" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC10" s="24">
+      <c r="AC10" s="29">
         <v>1175.32</v>
       </c>
-      <c r="AD10" s="24">
+      <c r="AD10" s="29">
         <v>318</v>
       </c>
-      <c r="AE10" s="24">
+      <c r="AE10" s="29">
         <v>265</v>
       </c>
-      <c r="AF10" s="24">
+      <c r="AF10" s="29">
         <v>53</v>
       </c>
-      <c r="AG10" s="24">
+      <c r="AG10" s="29">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
-      <c r="A11" t="s">
+    <row r="11" spans="1:33" s="28" customFormat="1">
+      <c r="A11" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25" t="s">
+      <c r="M11" s="30"/>
+      <c r="N11" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="30">
         <v>0</v>
       </c>
-      <c r="P11" s="27" t="s">
+      <c r="P11" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="Q11" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="T11" s="25" t="s">
+      <c r="T11" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25">
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30">
         <v>878</v>
       </c>
-      <c r="Y11" s="25" t="s">
+      <c r="Y11" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="Z11" s="25" t="s">
+      <c r="Z11" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="AA11" s="25" t="s">
+      <c r="AA11" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="AB11" s="25" t="s">
+      <c r="AB11" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="AC11" s="25">
+      <c r="AC11" s="30">
         <v>720</v>
       </c>
-      <c r="AD11" s="25">
+      <c r="AD11" s="30">
         <v>565</v>
       </c>
-      <c r="AE11" s="25">
+      <c r="AE11" s="30">
         <v>503</v>
       </c>
-      <c r="AF11" s="25">
+      <c r="AF11" s="30">
         <v>62</v>
       </c>
-      <c r="AG11" s="25">
+      <c r="AG11" s="30">
         <v>50</v>
       </c>
     </row>
@@ -3372,8 +3384,8 @@
       <c r="B12" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>16</v>
+      <c r="C12" s="29" t="s">
+        <v>359</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>335</v>
@@ -3391,8 +3403,8 @@
       <c r="I12" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="J12" s="26" t="s">
-        <v>257</v>
+      <c r="J12" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="K12" s="25" t="s">
         <v>114</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883244CE-3390-4438-8FD6-89F5F1F74994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A785B9-B103-4E1E-9EAA-CF2518AA2FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="362">
   <si>
     <t>name</t>
   </si>
@@ -1280,6 +1280,10 @@
   </si>
   <si>
     <t>dummy-agest05@mail.toray</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1472,7 +1476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1521,6 +1525,7 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2358,8 +2363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -3377,94 +3382,94 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
-      <c r="A12" t="s">
+    <row r="12" spans="1:33" s="28" customFormat="1">
+      <c r="A12" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="29" t="s">
         <v>149</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25" t="s">
+      <c r="M12" s="30"/>
+      <c r="N12" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="30">
         <v>0</v>
       </c>
-      <c r="P12" s="27" t="s">
+      <c r="P12" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="Q12" s="25" t="s">
+      <c r="Q12" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="R12" s="25" t="s">
+      <c r="R12" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="T12" s="25" t="s">
+      <c r="T12" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25" t="s">
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="Y12" s="25" t="s">
+      <c r="Y12" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="Z12" s="25" t="s">
+      <c r="Z12" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="AA12" s="25" t="s">
+      <c r="AA12" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="AB12" s="25" t="s">
+      <c r="AB12" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="AC12" s="25">
+      <c r="AC12" s="30">
         <v>41500</v>
       </c>
-      <c r="AD12" s="25">
+      <c r="AD12" s="30">
         <v>1157.01</v>
       </c>
-      <c r="AE12" s="25">
+      <c r="AE12" s="30">
         <v>659.77</v>
       </c>
-      <c r="AF12" s="25">
+      <c r="AF12" s="30">
         <v>497.24</v>
       </c>
-      <c r="AG12" s="25">
+      <c r="AG12" s="30">
         <v>5000</v>
       </c>
     </row>
@@ -3507,8 +3512,8 @@
       <c r="N13" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="O13" s="25">
-        <v>100</v>
+      <c r="O13" s="25" t="s">
+        <v>361</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>270</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A785B9-B103-4E1E-9EAA-CF2518AA2FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E21EED-3E8A-4B73-8607-B7A1EC61014A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2363,8 +2363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -3480,8 +3480,8 @@
       <c r="B13" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>16</v>
+      <c r="C13" s="29" t="s">
+        <v>359</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>335</v>
@@ -3499,8 +3499,8 @@
       <c r="I13" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="J13" s="26" t="s">
-        <v>257</v>
+      <c r="J13" s="34" t="s">
+        <v>360</v>
       </c>
       <c r="K13" s="25" t="s">
         <v>114</v>
@@ -4646,55 +4646,55 @@
     <hyperlink ref="G13" r:id="rId45" xr:uid="{70687612-9839-42E6-A0B6-14E9D518EE26}"/>
     <hyperlink ref="I13" r:id="rId46" xr:uid="{7C7EA202-115B-47E2-87C4-7DC0C4F90991}"/>
     <hyperlink ref="H13" r:id="rId47" xr:uid="{3CC933C9-75E6-4C49-B532-C81F49DFE5D8}"/>
-    <hyperlink ref="J13" r:id="rId48" xr:uid="{05A903DA-10DB-4CD9-9C90-177BA3E4075F}"/>
-    <hyperlink ref="G14" r:id="rId49" xr:uid="{3E406F0F-7376-4364-B9A9-16F5DAADB9CB}"/>
-    <hyperlink ref="I14" r:id="rId50" xr:uid="{6FED580F-423B-462D-B665-838DB6443D91}"/>
-    <hyperlink ref="H14" r:id="rId51" xr:uid="{C05C1504-287B-411F-BD0E-0DC34B3862A7}"/>
-    <hyperlink ref="J14" r:id="rId52" xr:uid="{84CA161F-E41D-41B9-8FA3-D6555A041FA2}"/>
-    <hyperlink ref="G15" r:id="rId53" xr:uid="{738AB0F4-3155-412D-91BB-975A92A99C7A}"/>
-    <hyperlink ref="I15" r:id="rId54" xr:uid="{E020517F-7670-46E6-8FC9-D140F7CFECA5}"/>
-    <hyperlink ref="H15" r:id="rId55" xr:uid="{55DB7210-9A05-4842-90D8-8F158DD85D3A}"/>
-    <hyperlink ref="J15" r:id="rId56" xr:uid="{38E83CDC-5E80-44A8-A462-F30E6D0C04B8}"/>
-    <hyperlink ref="G16" r:id="rId57" xr:uid="{00A5C076-64F2-415A-92FD-FD263765DA36}"/>
-    <hyperlink ref="I16" r:id="rId58" xr:uid="{FA426CD7-B7BD-40BA-BCEA-1DD4413EA64F}"/>
-    <hyperlink ref="H16" r:id="rId59" xr:uid="{2BEEBE17-E1A6-4D72-A05F-2394486A946D}"/>
-    <hyperlink ref="J16" r:id="rId60" xr:uid="{8BAF0078-81FA-4601-8CAB-98491FFCCC40}"/>
-    <hyperlink ref="G17" r:id="rId61" xr:uid="{74139832-6CCB-400D-912B-B15F48E10CE8}"/>
-    <hyperlink ref="I17" r:id="rId62" xr:uid="{54B0ECED-7DB0-4BB4-AFC5-BF56125437BD}"/>
-    <hyperlink ref="H17" r:id="rId63" xr:uid="{EA738BC9-6072-4824-8E88-47307A46842A}"/>
-    <hyperlink ref="J17" r:id="rId64" xr:uid="{7DD69F58-29E3-44DD-A2E5-AEC996DAA613}"/>
-    <hyperlink ref="G18" r:id="rId65" xr:uid="{9AE348CB-3BB1-4240-87C2-420EC0732E32}"/>
-    <hyperlink ref="I18" r:id="rId66" xr:uid="{5000F525-5B21-4C78-BD3E-1A2EC97E1C6C}"/>
-    <hyperlink ref="H18" r:id="rId67" xr:uid="{F65494D0-92C4-4B11-A5DC-EDAF3480967A}"/>
-    <hyperlink ref="J18" r:id="rId68" xr:uid="{DB9DE153-E303-4716-B9F7-1D02A0B40BB7}"/>
-    <hyperlink ref="G19" r:id="rId69" xr:uid="{28C070CF-9342-4D3C-BA8A-893FAA91E4AC}"/>
-    <hyperlink ref="I19" r:id="rId70" xr:uid="{467924E0-417D-4933-8E87-F732FF834133}"/>
-    <hyperlink ref="H19" r:id="rId71" xr:uid="{9FBB96B5-FA1F-4F9A-898B-22401DF846BC}"/>
-    <hyperlink ref="J19" r:id="rId72" xr:uid="{D2050E35-DFE5-40FE-B1FC-6223DFB362E2}"/>
-    <hyperlink ref="G20" r:id="rId73" xr:uid="{F859CFF7-21D0-4B44-83E8-3440DC85DABB}"/>
-    <hyperlink ref="I20" r:id="rId74" xr:uid="{D29FA834-1B37-4633-AF6A-DB9C8A399BE2}"/>
-    <hyperlink ref="H20" r:id="rId75" xr:uid="{77174520-0A13-49BA-A57A-39362AC5424B}"/>
-    <hyperlink ref="J20" r:id="rId76" xr:uid="{672BDA63-D38D-465D-82BC-125B9B693B35}"/>
-    <hyperlink ref="G21" r:id="rId77" xr:uid="{A983C802-6D08-4903-8634-93C8EEE930A5}"/>
-    <hyperlink ref="I21" r:id="rId78" xr:uid="{4F5620D0-E48B-46BC-8215-A80DB6F5448C}"/>
-    <hyperlink ref="H21" r:id="rId79" xr:uid="{56DB1C9E-9966-468A-A967-55F70D290E95}"/>
-    <hyperlink ref="J21" r:id="rId80" xr:uid="{77821B68-7CA4-4D3C-AE65-D62D3671A492}"/>
-    <hyperlink ref="G22" r:id="rId81" xr:uid="{ABF74A90-AF04-4DA5-A000-25D8ECEF2560}"/>
-    <hyperlink ref="I22" r:id="rId82" xr:uid="{8094B2E7-5BB8-43F5-AF95-FEFBBF8E4D1A}"/>
-    <hyperlink ref="H22" r:id="rId83" xr:uid="{DD817EAC-4448-4B3B-9C65-E751B82B508B}"/>
-    <hyperlink ref="J22" r:id="rId84" xr:uid="{1C36995B-F630-4EF8-A0DC-8205DBC62E91}"/>
-    <hyperlink ref="G23" r:id="rId85" xr:uid="{D15C0320-7B58-4540-BF0B-1D820D4D13DA}"/>
-    <hyperlink ref="I23" r:id="rId86" xr:uid="{7C5FF14A-D424-4AC1-A1FB-03AF5264C7C0}"/>
-    <hyperlink ref="H23" r:id="rId87" xr:uid="{A48A9308-3900-4EC4-BB39-F1D2AFFD65B4}"/>
-    <hyperlink ref="J23" r:id="rId88" xr:uid="{AE1DA3C6-9C53-468F-96B9-112E5B33B517}"/>
-    <hyperlink ref="G24" r:id="rId89" xr:uid="{21E257AF-D5BC-42B7-AD27-4C6898D831EE}"/>
-    <hyperlink ref="I24" r:id="rId90" xr:uid="{C4D83CFB-E432-4618-989E-B800FB888CB5}"/>
-    <hyperlink ref="H24" r:id="rId91" xr:uid="{133ACBE7-77C3-4FCD-B650-D517C1301F4D}"/>
-    <hyperlink ref="J24" r:id="rId92" xr:uid="{324DF9DB-3A1F-4391-8F0E-FA1D89929438}"/>
-    <hyperlink ref="G25" r:id="rId93" xr:uid="{3BD2C1C7-8CDE-4C3A-836D-A7D25EBF4FC0}"/>
-    <hyperlink ref="I25" r:id="rId94" xr:uid="{F61878C1-574A-4CDF-A177-06F0B106F276}"/>
-    <hyperlink ref="H25" r:id="rId95" xr:uid="{466816E3-A050-4B8C-A4F9-E33F31FCA996}"/>
-    <hyperlink ref="J25" r:id="rId96" xr:uid="{084B917E-C821-42D5-A5EC-39EEB09B53C3}"/>
+    <hyperlink ref="G14" r:id="rId48" xr:uid="{3E406F0F-7376-4364-B9A9-16F5DAADB9CB}"/>
+    <hyperlink ref="I14" r:id="rId49" xr:uid="{6FED580F-423B-462D-B665-838DB6443D91}"/>
+    <hyperlink ref="H14" r:id="rId50" xr:uid="{C05C1504-287B-411F-BD0E-0DC34B3862A7}"/>
+    <hyperlink ref="J14" r:id="rId51" xr:uid="{84CA161F-E41D-41B9-8FA3-D6555A041FA2}"/>
+    <hyperlink ref="G15" r:id="rId52" xr:uid="{738AB0F4-3155-412D-91BB-975A92A99C7A}"/>
+    <hyperlink ref="I15" r:id="rId53" xr:uid="{E020517F-7670-46E6-8FC9-D140F7CFECA5}"/>
+    <hyperlink ref="H15" r:id="rId54" xr:uid="{55DB7210-9A05-4842-90D8-8F158DD85D3A}"/>
+    <hyperlink ref="J15" r:id="rId55" xr:uid="{38E83CDC-5E80-44A8-A462-F30E6D0C04B8}"/>
+    <hyperlink ref="G16" r:id="rId56" xr:uid="{00A5C076-64F2-415A-92FD-FD263765DA36}"/>
+    <hyperlink ref="I16" r:id="rId57" xr:uid="{FA426CD7-B7BD-40BA-BCEA-1DD4413EA64F}"/>
+    <hyperlink ref="H16" r:id="rId58" xr:uid="{2BEEBE17-E1A6-4D72-A05F-2394486A946D}"/>
+    <hyperlink ref="J16" r:id="rId59" xr:uid="{8BAF0078-81FA-4601-8CAB-98491FFCCC40}"/>
+    <hyperlink ref="G17" r:id="rId60" xr:uid="{74139832-6CCB-400D-912B-B15F48E10CE8}"/>
+    <hyperlink ref="I17" r:id="rId61" xr:uid="{54B0ECED-7DB0-4BB4-AFC5-BF56125437BD}"/>
+    <hyperlink ref="H17" r:id="rId62" xr:uid="{EA738BC9-6072-4824-8E88-47307A46842A}"/>
+    <hyperlink ref="J17" r:id="rId63" xr:uid="{7DD69F58-29E3-44DD-A2E5-AEC996DAA613}"/>
+    <hyperlink ref="G18" r:id="rId64" xr:uid="{9AE348CB-3BB1-4240-87C2-420EC0732E32}"/>
+    <hyperlink ref="I18" r:id="rId65" xr:uid="{5000F525-5B21-4C78-BD3E-1A2EC97E1C6C}"/>
+    <hyperlink ref="H18" r:id="rId66" xr:uid="{F65494D0-92C4-4B11-A5DC-EDAF3480967A}"/>
+    <hyperlink ref="J18" r:id="rId67" xr:uid="{DB9DE153-E303-4716-B9F7-1D02A0B40BB7}"/>
+    <hyperlink ref="G19" r:id="rId68" xr:uid="{28C070CF-9342-4D3C-BA8A-893FAA91E4AC}"/>
+    <hyperlink ref="I19" r:id="rId69" xr:uid="{467924E0-417D-4933-8E87-F732FF834133}"/>
+    <hyperlink ref="H19" r:id="rId70" xr:uid="{9FBB96B5-FA1F-4F9A-898B-22401DF846BC}"/>
+    <hyperlink ref="J19" r:id="rId71" xr:uid="{D2050E35-DFE5-40FE-B1FC-6223DFB362E2}"/>
+    <hyperlink ref="G20" r:id="rId72" xr:uid="{F859CFF7-21D0-4B44-83E8-3440DC85DABB}"/>
+    <hyperlink ref="I20" r:id="rId73" xr:uid="{D29FA834-1B37-4633-AF6A-DB9C8A399BE2}"/>
+    <hyperlink ref="H20" r:id="rId74" xr:uid="{77174520-0A13-49BA-A57A-39362AC5424B}"/>
+    <hyperlink ref="J20" r:id="rId75" xr:uid="{672BDA63-D38D-465D-82BC-125B9B693B35}"/>
+    <hyperlink ref="G21" r:id="rId76" xr:uid="{A983C802-6D08-4903-8634-93C8EEE930A5}"/>
+    <hyperlink ref="I21" r:id="rId77" xr:uid="{4F5620D0-E48B-46BC-8215-A80DB6F5448C}"/>
+    <hyperlink ref="H21" r:id="rId78" xr:uid="{56DB1C9E-9966-468A-A967-55F70D290E95}"/>
+    <hyperlink ref="J21" r:id="rId79" xr:uid="{77821B68-7CA4-4D3C-AE65-D62D3671A492}"/>
+    <hyperlink ref="G22" r:id="rId80" xr:uid="{ABF74A90-AF04-4DA5-A000-25D8ECEF2560}"/>
+    <hyperlink ref="I22" r:id="rId81" xr:uid="{8094B2E7-5BB8-43F5-AF95-FEFBBF8E4D1A}"/>
+    <hyperlink ref="H22" r:id="rId82" xr:uid="{DD817EAC-4448-4B3B-9C65-E751B82B508B}"/>
+    <hyperlink ref="J22" r:id="rId83" xr:uid="{1C36995B-F630-4EF8-A0DC-8205DBC62E91}"/>
+    <hyperlink ref="G23" r:id="rId84" xr:uid="{D15C0320-7B58-4540-BF0B-1D820D4D13DA}"/>
+    <hyperlink ref="I23" r:id="rId85" xr:uid="{7C5FF14A-D424-4AC1-A1FB-03AF5264C7C0}"/>
+    <hyperlink ref="H23" r:id="rId86" xr:uid="{A48A9308-3900-4EC4-BB39-F1D2AFFD65B4}"/>
+    <hyperlink ref="J23" r:id="rId87" xr:uid="{AE1DA3C6-9C53-468F-96B9-112E5B33B517}"/>
+    <hyperlink ref="G24" r:id="rId88" xr:uid="{21E257AF-D5BC-42B7-AD27-4C6898D831EE}"/>
+    <hyperlink ref="I24" r:id="rId89" xr:uid="{C4D83CFB-E432-4618-989E-B800FB888CB5}"/>
+    <hyperlink ref="H24" r:id="rId90" xr:uid="{133ACBE7-77C3-4FCD-B650-D517C1301F4D}"/>
+    <hyperlink ref="J24" r:id="rId91" xr:uid="{324DF9DB-3A1F-4391-8F0E-FA1D89929438}"/>
+    <hyperlink ref="G25" r:id="rId92" xr:uid="{3BD2C1C7-8CDE-4C3A-836D-A7D25EBF4FC0}"/>
+    <hyperlink ref="I25" r:id="rId93" xr:uid="{F61878C1-574A-4CDF-A177-06F0B106F276}"/>
+    <hyperlink ref="H25" r:id="rId94" xr:uid="{466816E3-A050-4B8C-A4F9-E33F31FCA996}"/>
+    <hyperlink ref="J25" r:id="rId95" xr:uid="{084B917E-C821-42D5-A5EC-39EEB09B53C3}"/>
+    <hyperlink ref="J13" r:id="rId96" xr:uid="{9417D517-0C4A-45D5-9BAF-95B95C679537}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E21EED-3E8A-4B73-8607-B7A1EC61014A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDDAC2C-FC71-41D8-AAE7-1B188C9A0F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDDAC2C-FC71-41D8-AAE7-1B188C9A0F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C270D88-E6E0-4DE9-92DC-58AC9B07B17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="362">
   <si>
     <t>name</t>
   </si>
@@ -2361,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2385,13 +2385,16 @@
     <col min="24" max="24" width="16" customWidth="1"/>
     <col min="25" max="25" width="13.125" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="13.125" customWidth="1"/>
-    <col min="29" max="29" width="20.25" customWidth="1"/>
-    <col min="30" max="30" width="20.125" customWidth="1"/>
-    <col min="31" max="32" width="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.25" customWidth="1"/>
+    <col min="30" max="30" width="13.125" customWidth="1"/>
+    <col min="31" max="31" width="12.625" customWidth="1"/>
+    <col min="32" max="32" width="20.25" customWidth="1"/>
+    <col min="33" max="33" width="20.125" customWidth="1"/>
+    <col min="34" max="35" width="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:36">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -2477,22 +2480,31 @@
         <v>78</v>
       </c>
       <c r="AC1" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF1" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="28" customFormat="1">
+    <row r="2" spans="1:36" s="28" customFormat="1">
       <c r="A2" s="28" t="s">
         <v>93</v>
       </c>
@@ -2565,23 +2577,26 @@
       <c r="AB2" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC2" s="29">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29">
         <v>662</v>
       </c>
-      <c r="AD2" s="29">
+      <c r="AG2" s="29">
         <v>372.161</v>
       </c>
-      <c r="AE2" s="29">
+      <c r="AH2" s="29">
         <v>372.161</v>
       </c>
-      <c r="AF2" s="29">
+      <c r="AI2" s="29">
         <v>0</v>
       </c>
-      <c r="AG2" s="29">
+      <c r="AJ2" s="29">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="28" customFormat="1">
+    <row r="3" spans="1:36" s="28" customFormat="1">
       <c r="A3" s="28" t="s">
         <v>95</v>
       </c>
@@ -2654,23 +2669,26 @@
       <c r="AB3" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC3" s="29">
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29">
         <v>690</v>
       </c>
-      <c r="AD3" s="29">
+      <c r="AG3" s="29">
         <v>384</v>
       </c>
-      <c r="AE3" s="29">
+      <c r="AH3" s="29">
         <v>384</v>
       </c>
-      <c r="AF3" s="29">
+      <c r="AI3" s="29">
         <v>0</v>
       </c>
-      <c r="AG3" s="29">
+      <c r="AJ3" s="29">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="28" customFormat="1">
+    <row r="4" spans="1:36" s="28" customFormat="1">
       <c r="A4" s="28" t="s">
         <v>101</v>
       </c>
@@ -2743,23 +2761,26 @@
       <c r="AB4" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC4" s="29">
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29">
         <v>564</v>
       </c>
-      <c r="AD4" s="29">
+      <c r="AG4" s="29">
         <v>416</v>
       </c>
-      <c r="AE4" s="29">
+      <c r="AH4" s="29">
         <v>354</v>
       </c>
-      <c r="AF4" s="29">
+      <c r="AI4" s="29">
         <v>62</v>
       </c>
-      <c r="AG4" s="29">
+      <c r="AJ4" s="29">
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="28" customFormat="1">
+    <row r="5" spans="1:36" s="28" customFormat="1">
       <c r="A5" s="28" t="s">
         <v>105</v>
       </c>
@@ -2832,23 +2853,26 @@
       <c r="AB5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC5" s="32">
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32">
         <v>387</v>
       </c>
-      <c r="AD5" s="29">
+      <c r="AG5" s="29">
         <v>426</v>
       </c>
-      <c r="AE5" s="29">
+      <c r="AH5" s="29">
         <v>384</v>
       </c>
-      <c r="AF5" s="29">
+      <c r="AI5" s="29">
         <v>42</v>
       </c>
-      <c r="AG5" s="29">
+      <c r="AJ5" s="29">
         <v>576</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="28" customFormat="1">
+    <row r="6" spans="1:36" s="28" customFormat="1">
       <c r="A6" s="28" t="s">
         <v>111</v>
       </c>
@@ -2921,23 +2945,26 @@
       <c r="AB6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC6" s="29" t="s">
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="AD6" s="29">
+      <c r="AG6" s="29">
         <v>401</v>
       </c>
-      <c r="AE6" s="29">
+      <c r="AH6" s="29">
         <v>532</v>
       </c>
-      <c r="AF6" s="29">
+      <c r="AI6" s="29">
         <v>49</v>
       </c>
-      <c r="AG6" s="29">
+      <c r="AJ6" s="29">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="28" customFormat="1">
+    <row r="7" spans="1:36" s="28" customFormat="1">
       <c r="A7" s="28" t="s">
         <v>120</v>
       </c>
@@ -3008,23 +3035,26 @@
       <c r="AB7" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC7" s="29" t="s">
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="AD7" s="29">
+      <c r="AG7" s="29">
         <v>514</v>
       </c>
-      <c r="AE7" s="29">
+      <c r="AH7" s="29">
         <v>478</v>
       </c>
-      <c r="AF7" s="29">
+      <c r="AI7" s="29">
         <v>36</v>
       </c>
-      <c r="AG7" s="29">
+      <c r="AJ7" s="29">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="28" customFormat="1">
+    <row r="8" spans="1:36" s="28" customFormat="1">
       <c r="A8" s="28" t="s">
         <v>127</v>
       </c>
@@ -3095,23 +3125,26 @@
       <c r="AB8" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC8" s="29" t="s">
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="AD8" s="29">
+      <c r="AG8" s="29">
         <v>563</v>
       </c>
-      <c r="AE8" s="29">
+      <c r="AH8" s="29">
         <v>563</v>
       </c>
-      <c r="AF8" s="29">
+      <c r="AI8" s="29">
         <v>0</v>
       </c>
-      <c r="AG8" s="29">
+      <c r="AJ8" s="29">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="28" customFormat="1">
+    <row r="9" spans="1:36" s="28" customFormat="1">
       <c r="A9" s="28" t="s">
         <v>132</v>
       </c>
@@ -3184,23 +3217,26 @@
       <c r="AB9" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC9" s="29" t="s">
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="AD9" s="29">
+      <c r="AG9" s="29">
         <v>708</v>
       </c>
-      <c r="AE9" s="29">
+      <c r="AH9" s="29">
         <v>708</v>
       </c>
-      <c r="AF9" s="29">
+      <c r="AI9" s="29">
         <v>0</v>
       </c>
-      <c r="AG9" s="29">
+      <c r="AJ9" s="29">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="28" customFormat="1">
+    <row r="10" spans="1:36" s="28" customFormat="1">
       <c r="A10" s="28" t="s">
         <v>138</v>
       </c>
@@ -3275,23 +3311,26 @@
       <c r="AB10" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC10" s="29">
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29">
         <v>1175.32</v>
       </c>
-      <c r="AD10" s="29">
+      <c r="AG10" s="29">
         <v>318</v>
       </c>
-      <c r="AE10" s="29">
+      <c r="AH10" s="29">
         <v>265</v>
       </c>
-      <c r="AF10" s="29">
+      <c r="AI10" s="29">
         <v>53</v>
       </c>
-      <c r="AG10" s="29">
+      <c r="AJ10" s="29">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="28" customFormat="1">
+    <row r="11" spans="1:36" s="28" customFormat="1">
       <c r="A11" s="28" t="s">
         <v>143</v>
       </c>
@@ -3366,23 +3405,26 @@
       <c r="AB11" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="AC11" s="30">
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30">
         <v>720</v>
       </c>
-      <c r="AD11" s="30">
+      <c r="AG11" s="30">
         <v>565</v>
       </c>
-      <c r="AE11" s="30">
+      <c r="AH11" s="30">
         <v>503</v>
       </c>
-      <c r="AF11" s="30">
+      <c r="AI11" s="30">
         <v>62</v>
       </c>
-      <c r="AG11" s="30">
+      <c r="AJ11" s="30">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="28" customFormat="1">
+    <row r="12" spans="1:36" s="28" customFormat="1">
       <c r="A12" s="28" t="s">
         <v>148</v>
       </c>
@@ -3457,114 +3499,120 @@
       <c r="AB12" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="AC12" s="30">
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30">
         <v>41500</v>
       </c>
-      <c r="AD12" s="30">
+      <c r="AG12" s="30">
         <v>1157.01</v>
       </c>
-      <c r="AE12" s="30">
+      <c r="AH12" s="30">
         <v>659.77</v>
       </c>
-      <c r="AF12" s="30">
+      <c r="AI12" s="30">
         <v>497.24</v>
       </c>
-      <c r="AG12" s="30">
+      <c r="AJ12" s="30">
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
-      <c r="A13" t="s">
+    <row r="13" spans="1:36" s="28" customFormat="1">
+      <c r="A13" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="29" t="s">
         <v>156</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="31" t="s">
         <v>255</v>
       </c>
       <c r="J13" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25" t="s">
+      <c r="M13" s="30"/>
+      <c r="N13" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="P13" s="27" t="s">
+      <c r="P13" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="Q13" s="25" t="s">
+      <c r="Q13" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="T13" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25" t="s">
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="Y13" s="25" t="s">
+      <c r="Y13" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="Z13" s="25" t="s">
+      <c r="Z13" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="AA13" s="25" t="s">
+      <c r="AA13" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="AB13" s="25" t="s">
+      <c r="AB13" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="AC13" s="25">
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30">
         <v>41250</v>
       </c>
-      <c r="AD13" s="25">
+      <c r="AG13" s="30">
         <v>1358.65</v>
       </c>
-      <c r="AE13" s="25">
+      <c r="AH13" s="30">
         <v>712.06</v>
       </c>
-      <c r="AF13" s="25">
+      <c r="AI13" s="30">
         <v>646.59</v>
       </c>
-      <c r="AG13" s="25">
+      <c r="AJ13" s="30">
         <v>20000</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:36">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -3637,23 +3685,24 @@
       <c r="AB14" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="AC14" s="25">
+      <c r="AD14" s="25">
         <v>70</v>
       </c>
-      <c r="AD14" s="25">
+      <c r="AE14" s="25"/>
+      <c r="AG14" s="25">
         <v>64.7</v>
       </c>
-      <c r="AE14" s="25">
+      <c r="AH14" s="25">
         <v>32.58</v>
       </c>
-      <c r="AF14" s="25">
+      <c r="AI14" s="25">
         <v>32.119999999999997</v>
       </c>
-      <c r="AG14" s="25">
+      <c r="AJ14" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:36">
       <c r="A15" t="s">
         <v>165</v>
       </c>
@@ -3726,23 +3775,26 @@
       <c r="AB15" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="AC15" s="25">
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25">
         <v>50</v>
       </c>
-      <c r="AD15" s="25">
+      <c r="AG15" s="25">
         <v>17.87</v>
       </c>
-      <c r="AE15" s="25">
+      <c r="AH15" s="25">
         <v>17.87</v>
       </c>
-      <c r="AF15" s="25">
+      <c r="AI15" s="25">
         <v>0</v>
       </c>
-      <c r="AG15" s="25">
+      <c r="AJ15" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:36">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -3811,23 +3863,26 @@
       <c r="AB16" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="AC16" s="25">
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25">
         <v>110.999</v>
       </c>
-      <c r="AD16" s="25">
+      <c r="AG16" s="25">
         <v>102.12</v>
       </c>
-      <c r="AE16" s="25">
+      <c r="AH16" s="25">
         <v>102.12</v>
       </c>
-      <c r="AF16" s="25">
+      <c r="AI16" s="25">
         <v>0</v>
       </c>
-      <c r="AG16" s="25">
+      <c r="AJ16" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:36">
       <c r="A17" t="s">
         <v>174</v>
       </c>
@@ -3898,23 +3953,26 @@
       <c r="AB17" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="AC17" s="25">
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25">
         <v>111.03</v>
       </c>
-      <c r="AD17" s="25">
+      <c r="AG17" s="25">
         <v>99.668000000000006</v>
       </c>
-      <c r="AE17" s="25">
+      <c r="AH17" s="25">
         <v>99.668000000000006</v>
       </c>
-      <c r="AF17" s="25">
+      <c r="AI17" s="25">
         <v>0</v>
       </c>
-      <c r="AG17" s="25">
+      <c r="AJ17" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:36">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -3987,23 +4045,26 @@
       <c r="AB18" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="AC18" s="25" t="s">
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="AD18" s="25">
+      <c r="AG18" s="25">
         <v>20407.406999999999</v>
       </c>
-      <c r="AE18" s="25">
+      <c r="AH18" s="25">
         <v>20407.406999999999</v>
       </c>
-      <c r="AF18" s="25">
+      <c r="AI18" s="25">
         <v>0</v>
       </c>
-      <c r="AG18" s="25">
+      <c r="AJ18" s="25">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:36">
       <c r="A19" t="s">
         <v>183</v>
       </c>
@@ -4074,23 +4135,26 @@
       <c r="AB19" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="AC19" s="25" t="s">
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="AD19" s="25">
+      <c r="AG19" s="25">
         <v>89.9</v>
       </c>
-      <c r="AE19" s="25">
+      <c r="AH19" s="25">
         <v>44.51</v>
       </c>
-      <c r="AF19" s="25">
+      <c r="AI19" s="25">
         <v>45.39</v>
       </c>
-      <c r="AG19" s="25">
+      <c r="AJ19" s="25">
         <v>86521</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:36">
       <c r="A20" t="s">
         <v>188</v>
       </c>
@@ -4161,23 +4225,26 @@
       <c r="AB20" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="AC20" s="25">
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25">
         <v>100000</v>
       </c>
-      <c r="AD20" s="25">
+      <c r="AG20" s="25">
         <v>301.06</v>
       </c>
-      <c r="AE20" s="25">
+      <c r="AH20" s="25">
         <v>218.97</v>
       </c>
-      <c r="AF20" s="25">
+      <c r="AI20" s="25">
         <v>82.09</v>
       </c>
-      <c r="AG20" s="25">
+      <c r="AJ20" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:36">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -4248,23 +4315,26 @@
       <c r="AB21" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="AC21" s="25" t="s">
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="AD21" s="25">
+      <c r="AG21" s="25">
         <v>114</v>
       </c>
-      <c r="AE21" s="25">
+      <c r="AH21" s="25">
         <v>114</v>
       </c>
-      <c r="AF21" s="25">
+      <c r="AI21" s="25">
         <v>0</v>
       </c>
-      <c r="AG21" s="25">
+      <c r="AJ21" s="25">
         <v>599980</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:36">
       <c r="A22" t="s">
         <v>197</v>
       </c>
@@ -4331,23 +4401,26 @@
       <c r="AB22" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="AC22" s="25">
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25">
         <v>131.30000000000001</v>
       </c>
-      <c r="AD22" s="25">
+      <c r="AG22" s="25">
         <v>120.57</v>
       </c>
-      <c r="AE22" s="25">
+      <c r="AH22" s="25">
         <v>36.67</v>
       </c>
-      <c r="AF22" s="25">
+      <c r="AI22" s="25">
         <v>83.9</v>
       </c>
-      <c r="AG22" s="25">
+      <c r="AJ22" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:36">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -4414,23 +4487,26 @@
       <c r="AB23" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="AC23" s="25">
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25">
         <v>131.30000000000001</v>
       </c>
-      <c r="AD23" s="25">
+      <c r="AG23" s="25">
         <v>120.57</v>
       </c>
-      <c r="AE23" s="25">
+      <c r="AH23" s="25">
         <v>36.67</v>
       </c>
-      <c r="AF23" s="25">
+      <c r="AI23" s="25">
         <v>83.9</v>
       </c>
-      <c r="AG23" s="25">
+      <c r="AJ23" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:36">
       <c r="A24" t="s">
         <v>206</v>
       </c>
@@ -4497,23 +4573,26 @@
       <c r="AB24" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="AC24" s="25">
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25">
         <v>133.9</v>
       </c>
-      <c r="AD24" s="25">
+      <c r="AG24" s="25">
         <v>47.18</v>
       </c>
-      <c r="AE24" s="25">
+      <c r="AH24" s="25">
         <v>31.47</v>
       </c>
-      <c r="AF24" s="25">
+      <c r="AI24" s="25">
         <v>15.71</v>
       </c>
-      <c r="AG24" s="25">
+      <c r="AJ24" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:36">
       <c r="A25" t="s">
         <v>209</v>
       </c>
@@ -4580,19 +4659,22 @@
       <c r="AB25" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="AC25" s="25">
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25">
         <v>63.44</v>
       </c>
-      <c r="AD25" s="25">
+      <c r="AG25" s="25">
         <v>64.7</v>
       </c>
-      <c r="AE25" s="25">
+      <c r="AH25" s="25">
         <v>32.58</v>
       </c>
-      <c r="AF25" s="25">
+      <c r="AI25" s="25">
         <v>32.119999999999997</v>
       </c>
-      <c r="AG25" s="25">
+      <c r="AJ25" s="25">
         <v>1</v>
       </c>
     </row>
@@ -5784,7 +5866,7 @@
   <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+      <selection activeCell="AB1" sqref="Z1:AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C270D88-E6E0-4DE9-92DC-58AC9B07B17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0468C767-A5BE-435F-9DC8-BA15C5AA536A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2363,8 +2363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -3776,11 +3776,10 @@
         <v>164</v>
       </c>
       <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
+      <c r="AD15" s="25">
+        <v>50</v>
+      </c>
       <c r="AE15" s="25"/>
-      <c r="AF15" s="25">
-        <v>50</v>
-      </c>
       <c r="AG15" s="25">
         <v>17.87</v>
       </c>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0468C767-A5BE-435F-9DC8-BA15C5AA536A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B843D09-4696-4244-8C13-E15390BADF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="363">
   <si>
     <t>name</t>
   </si>
@@ -1284,6 +1284,10 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>38.35</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -2363,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -3612,184 +3616,184 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
-      <c r="A14" t="s">
+    <row r="14" spans="1:36" s="28" customFormat="1">
+      <c r="A14" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26" t="s">
+      <c r="F14" s="30"/>
+      <c r="G14" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25" t="s">
+      <c r="M14" s="30"/>
+      <c r="N14" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="30">
         <v>0</v>
       </c>
-      <c r="P14" s="27" t="s">
+      <c r="P14" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="Q14" s="25" t="s">
+      <c r="Q14" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="R14" s="25" t="s">
+      <c r="R14" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="S14" s="25" t="s">
+      <c r="S14" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="T14" s="25" t="s">
+      <c r="T14" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="U14" s="24" t="s">
+      <c r="U14" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="V14" s="25">
+      <c r="V14" s="30">
         <v>70</v>
       </c>
-      <c r="W14" s="24" t="s">
+      <c r="W14" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="25" t="s">
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="AD14" s="25">
+      <c r="AD14" s="30">
         <v>70</v>
       </c>
-      <c r="AE14" s="25"/>
-      <c r="AG14" s="25">
+      <c r="AE14" s="30"/>
+      <c r="AG14" s="30">
         <v>64.7</v>
       </c>
-      <c r="AH14" s="25">
+      <c r="AH14" s="30">
         <v>32.58</v>
       </c>
-      <c r="AI14" s="25">
+      <c r="AI14" s="30">
         <v>32.119999999999997</v>
       </c>
-      <c r="AJ14" s="25">
+      <c r="AJ14" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
-      <c r="A15" t="s">
+    <row r="15" spans="1:36" s="28" customFormat="1">
+      <c r="A15" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26" t="s">
+      <c r="F15" s="30"/>
+      <c r="G15" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25" t="s">
+      <c r="M15" s="30"/>
+      <c r="N15" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="30">
         <v>0</v>
       </c>
-      <c r="P15" s="27" t="s">
+      <c r="P15" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="Q15" s="25" t="s">
+      <c r="Q15" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="S15" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="T15" s="25" t="s">
+      <c r="T15" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="U15" s="24" t="s">
+      <c r="U15" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="V15" s="25">
+      <c r="V15" s="30">
         <v>50</v>
       </c>
-      <c r="W15" s="24" t="s">
+      <c r="W15" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="25" t="s">
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25">
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30">
         <v>50</v>
       </c>
-      <c r="AE15" s="25"/>
-      <c r="AG15" s="25">
+      <c r="AE15" s="30"/>
+      <c r="AG15" s="30">
         <v>17.87</v>
       </c>
-      <c r="AH15" s="25">
+      <c r="AH15" s="30">
         <v>17.87</v>
       </c>
-      <c r="AI15" s="25">
+      <c r="AI15" s="30">
         <v>0</v>
       </c>
-      <c r="AJ15" s="25">
+      <c r="AJ15" s="30">
         <v>1</v>
       </c>
     </row>
@@ -3863,11 +3867,11 @@
         <v>164</v>
       </c>
       <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
+      <c r="AD16" s="25" t="s">
+        <v>362</v>
+      </c>
       <c r="AE16" s="25"/>
-      <c r="AF16" s="25">
-        <v>110.999</v>
-      </c>
+      <c r="AF16" s="25"/>
       <c r="AG16" s="25">
         <v>102.12</v>
       </c>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B843D09-4696-4244-8C13-E15390BADF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789F1147-25C2-4F8F-9061-15ED67031BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="366">
   <si>
     <t>name</t>
   </si>
@@ -1288,6 +1288,27 @@
   </si>
   <si>
     <t>38.35</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>BSF単位</t>
+    <rPh sb="3" eb="5">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>期待単位</t>
+    <rPh sb="0" eb="2">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>16.71</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -2365,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AL25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2390,15 +2411,15 @@
     <col min="25" max="25" width="13.125" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="13.125" customWidth="1"/>
     <col min="29" max="29" width="13.25" customWidth="1"/>
-    <col min="30" max="30" width="13.125" customWidth="1"/>
-    <col min="31" max="31" width="12.625" customWidth="1"/>
-    <col min="32" max="32" width="20.25" customWidth="1"/>
-    <col min="33" max="33" width="20.125" customWidth="1"/>
-    <col min="34" max="35" width="11" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="13.125" customWidth="1"/>
+    <col min="32" max="32" width="12.625" customWidth="1"/>
+    <col min="33" max="33" width="20.25" customWidth="1"/>
+    <col min="34" max="34" width="20.125" customWidth="1"/>
+    <col min="35" max="36" width="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:38">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -2490,25 +2511,31 @@
         <v>331</v>
       </c>
       <c r="AE1" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF1" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" s="28" customFormat="1">
+      <c r="AL1" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="28" customFormat="1">
       <c r="A2" s="28" t="s">
         <v>93</v>
       </c>
@@ -2584,23 +2611,27 @@
       <c r="AC2" s="29"/>
       <c r="AD2" s="29"/>
       <c r="AE2" s="29"/>
-      <c r="AF2" s="29">
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29">
         <v>662</v>
-      </c>
-      <c r="AG2" s="29">
-        <v>372.161</v>
       </c>
       <c r="AH2" s="29">
         <v>372.161</v>
       </c>
       <c r="AI2" s="29">
+        <v>372.161</v>
+      </c>
+      <c r="AJ2" s="29">
         <v>0</v>
       </c>
-      <c r="AJ2" s="29">
+      <c r="AK2" s="29">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" s="28" customFormat="1">
+      <c r="AL2" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="28" customFormat="1">
       <c r="A3" s="28" t="s">
         <v>95</v>
       </c>
@@ -2676,23 +2707,27 @@
       <c r="AC3" s="29"/>
       <c r="AD3" s="29"/>
       <c r="AE3" s="29"/>
-      <c r="AF3" s="29">
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29">
         <v>690</v>
-      </c>
-      <c r="AG3" s="29">
-        <v>384</v>
       </c>
       <c r="AH3" s="29">
         <v>384</v>
       </c>
       <c r="AI3" s="29">
+        <v>384</v>
+      </c>
+      <c r="AJ3" s="29">
         <v>0</v>
       </c>
-      <c r="AJ3" s="29">
+      <c r="AK3" s="29">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" s="28" customFormat="1">
+      <c r="AL3" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" s="28" customFormat="1">
       <c r="A4" s="28" t="s">
         <v>101</v>
       </c>
@@ -2768,23 +2803,27 @@
       <c r="AC4" s="29"/>
       <c r="AD4" s="29"/>
       <c r="AE4" s="29"/>
-      <c r="AF4" s="29">
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29">
         <v>564</v>
       </c>
-      <c r="AG4" s="29">
+      <c r="AH4" s="29">
         <v>416</v>
       </c>
-      <c r="AH4" s="29">
+      <c r="AI4" s="29">
         <v>354</v>
       </c>
-      <c r="AI4" s="29">
+      <c r="AJ4" s="29">
         <v>62</v>
       </c>
-      <c r="AJ4" s="29">
+      <c r="AK4" s="29">
         <v>475</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" s="28" customFormat="1">
+      <c r="AL4" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="28" customFormat="1">
       <c r="A5" s="28" t="s">
         <v>105</v>
       </c>
@@ -2860,23 +2899,27 @@
       <c r="AC5" s="32"/>
       <c r="AD5" s="32"/>
       <c r="AE5" s="32"/>
-      <c r="AF5" s="32">
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32">
         <v>387</v>
       </c>
-      <c r="AG5" s="29">
+      <c r="AH5" s="29">
         <v>426</v>
       </c>
-      <c r="AH5" s="29">
+      <c r="AI5" s="29">
         <v>384</v>
       </c>
-      <c r="AI5" s="29">
+      <c r="AJ5" s="29">
         <v>42</v>
       </c>
-      <c r="AJ5" s="29">
+      <c r="AK5" s="29">
         <v>576</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" s="28" customFormat="1">
+      <c r="AL5" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" s="28" customFormat="1">
       <c r="A6" s="28" t="s">
         <v>111</v>
       </c>
@@ -2952,23 +2995,27 @@
       <c r="AC6" s="29"/>
       <c r="AD6" s="29"/>
       <c r="AE6" s="29"/>
-      <c r="AF6" s="29" t="s">
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="AG6" s="29">
+      <c r="AH6" s="29">
         <v>401</v>
       </c>
-      <c r="AH6" s="29">
+      <c r="AI6" s="29">
         <v>532</v>
       </c>
-      <c r="AI6" s="29">
+      <c r="AJ6" s="29">
         <v>49</v>
       </c>
-      <c r="AJ6" s="29">
+      <c r="AK6" s="29">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" s="28" customFormat="1">
+      <c r="AL6" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" s="28" customFormat="1">
       <c r="A7" s="28" t="s">
         <v>120</v>
       </c>
@@ -3042,23 +3089,27 @@
       <c r="AC7" s="29"/>
       <c r="AD7" s="29"/>
       <c r="AE7" s="29"/>
-      <c r="AF7" s="29" t="s">
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="AG7" s="29">
+      <c r="AH7" s="29">
         <v>514</v>
       </c>
-      <c r="AH7" s="29">
+      <c r="AI7" s="29">
         <v>478</v>
       </c>
-      <c r="AI7" s="29">
+      <c r="AJ7" s="29">
         <v>36</v>
       </c>
-      <c r="AJ7" s="29">
+      <c r="AK7" s="29">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" s="28" customFormat="1">
+      <c r="AL7" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" s="28" customFormat="1">
       <c r="A8" s="28" t="s">
         <v>127</v>
       </c>
@@ -3132,23 +3183,27 @@
       <c r="AC8" s="29"/>
       <c r="AD8" s="29"/>
       <c r="AE8" s="29"/>
-      <c r="AF8" s="29" t="s">
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29" t="s">
         <v>342</v>
-      </c>
-      <c r="AG8" s="29">
-        <v>563</v>
       </c>
       <c r="AH8" s="29">
         <v>563</v>
       </c>
       <c r="AI8" s="29">
+        <v>563</v>
+      </c>
+      <c r="AJ8" s="29">
         <v>0</v>
       </c>
-      <c r="AJ8" s="29">
+      <c r="AK8" s="29">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" s="28" customFormat="1">
+      <c r="AL8" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" s="28" customFormat="1">
       <c r="A9" s="28" t="s">
         <v>132</v>
       </c>
@@ -3224,23 +3279,27 @@
       <c r="AC9" s="29"/>
       <c r="AD9" s="29"/>
       <c r="AE9" s="29"/>
-      <c r="AF9" s="29" t="s">
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29" t="s">
         <v>344</v>
-      </c>
-      <c r="AG9" s="29">
-        <v>708</v>
       </c>
       <c r="AH9" s="29">
         <v>708</v>
       </c>
       <c r="AI9" s="29">
+        <v>708</v>
+      </c>
+      <c r="AJ9" s="29">
         <v>0</v>
       </c>
-      <c r="AJ9" s="29">
+      <c r="AK9" s="29">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" s="28" customFormat="1">
+      <c r="AL9" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="28" customFormat="1">
       <c r="A10" s="28" t="s">
         <v>138</v>
       </c>
@@ -3318,23 +3377,27 @@
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="29"/>
-      <c r="AF10" s="29">
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29">
         <v>1175.32</v>
       </c>
-      <c r="AG10" s="29">
+      <c r="AH10" s="29">
         <v>318</v>
       </c>
-      <c r="AH10" s="29">
+      <c r="AI10" s="29">
         <v>265</v>
       </c>
-      <c r="AI10" s="29">
+      <c r="AJ10" s="29">
         <v>53</v>
       </c>
-      <c r="AJ10" s="29">
+      <c r="AK10" s="29">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" s="28" customFormat="1">
+      <c r="AL10" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" s="28" customFormat="1">
       <c r="A11" s="28" t="s">
         <v>143</v>
       </c>
@@ -3412,23 +3475,27 @@
       <c r="AC11" s="30"/>
       <c r="AD11" s="30"/>
       <c r="AE11" s="30"/>
-      <c r="AF11" s="30">
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30">
         <v>720</v>
       </c>
-      <c r="AG11" s="30">
+      <c r="AH11" s="30">
         <v>565</v>
       </c>
-      <c r="AH11" s="30">
+      <c r="AI11" s="30">
         <v>503</v>
       </c>
-      <c r="AI11" s="30">
+      <c r="AJ11" s="30">
         <v>62</v>
       </c>
-      <c r="AJ11" s="30">
+      <c r="AK11" s="30">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:36" s="28" customFormat="1">
+      <c r="AL11" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" s="28" customFormat="1">
       <c r="A12" s="28" t="s">
         <v>148</v>
       </c>
@@ -3506,23 +3573,27 @@
       <c r="AC12" s="30"/>
       <c r="AD12" s="30"/>
       <c r="AE12" s="30"/>
-      <c r="AF12" s="30">
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30">
         <v>41500</v>
       </c>
-      <c r="AG12" s="30">
+      <c r="AH12" s="30">
         <v>1157.01</v>
       </c>
-      <c r="AH12" s="30">
+      <c r="AI12" s="30">
         <v>659.77</v>
       </c>
-      <c r="AI12" s="30">
+      <c r="AJ12" s="30">
         <v>497.24</v>
       </c>
-      <c r="AJ12" s="30">
+      <c r="AK12" s="30">
         <v>5000</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" s="28" customFormat="1">
+      <c r="AL12" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" s="28" customFormat="1">
       <c r="A13" s="28" t="s">
         <v>155</v>
       </c>
@@ -3600,23 +3671,27 @@
       <c r="AC13" s="30"/>
       <c r="AD13" s="30"/>
       <c r="AE13" s="30"/>
-      <c r="AF13" s="30">
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30">
         <v>41250</v>
       </c>
-      <c r="AG13" s="30">
+      <c r="AH13" s="30">
         <v>1358.65</v>
       </c>
-      <c r="AH13" s="30">
+      <c r="AI13" s="30">
         <v>712.06</v>
       </c>
-      <c r="AI13" s="30">
+      <c r="AJ13" s="30">
         <v>646.59</v>
       </c>
-      <c r="AJ13" s="30">
+      <c r="AK13" s="30">
         <v>20000</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" s="28" customFormat="1">
+      <c r="AL13" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" s="28" customFormat="1">
       <c r="A14" s="28" t="s">
         <v>158</v>
       </c>
@@ -3693,20 +3768,24 @@
         <v>70</v>
       </c>
       <c r="AE14" s="30"/>
-      <c r="AG14" s="30">
+      <c r="AF14" s="30"/>
+      <c r="AH14" s="30">
         <v>64.7</v>
       </c>
-      <c r="AH14" s="30">
+      <c r="AI14" s="30">
         <v>32.58</v>
       </c>
-      <c r="AI14" s="30">
+      <c r="AJ14" s="30">
         <v>32.119999999999997</v>
       </c>
-      <c r="AJ14" s="30">
+      <c r="AK14" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" s="28" customFormat="1">
+      <c r="AL14" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" s="28" customFormat="1">
       <c r="A15" s="28" t="s">
         <v>165</v>
       </c>
@@ -3784,108 +3863,116 @@
         <v>50</v>
       </c>
       <c r="AE15" s="30"/>
-      <c r="AG15" s="30">
-        <v>17.87</v>
-      </c>
+      <c r="AF15" s="30"/>
       <c r="AH15" s="30">
         <v>17.87</v>
       </c>
       <c r="AI15" s="30">
+        <v>17.87</v>
+      </c>
+      <c r="AJ15" s="30">
         <v>0</v>
       </c>
-      <c r="AJ15" s="30">
+      <c r="AK15" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:36">
-      <c r="A16" t="s">
+      <c r="AL15" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" s="28" customFormat="1">
+      <c r="A16" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26" t="s">
+      <c r="F16" s="30"/>
+      <c r="G16" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25" t="s">
+      <c r="M16" s="30"/>
+      <c r="N16" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="30">
         <v>0</v>
       </c>
-      <c r="P16" s="27" t="s">
+      <c r="P16" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="S16" s="25" t="s">
+      <c r="S16" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="T16" s="25" t="s">
+      <c r="T16" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="U16" s="24" t="s">
+      <c r="U16" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25" t="s">
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25" t="s">
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25">
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30">
         <v>102.12</v>
       </c>
-      <c r="AH16" s="25">
+      <c r="AI16" s="30">
         <v>102.12</v>
       </c>
-      <c r="AI16" s="25">
+      <c r="AJ16" s="30">
         <v>0</v>
       </c>
-      <c r="AJ16" s="25">
+      <c r="AK16" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:36">
+      <c r="AL16" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38">
       <c r="A17" t="s">
         <v>174</v>
       </c>
@@ -3957,25 +4044,31 @@
         <v>164</v>
       </c>
       <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25">
-        <v>111.03</v>
-      </c>
-      <c r="AG17" s="25">
-        <v>99.668000000000006</v>
-      </c>
+      <c r="AD17" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE17" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
       <c r="AH17" s="25">
         <v>99.668000000000006</v>
       </c>
       <c r="AI17" s="25">
+        <v>99.668000000000006</v>
+      </c>
+      <c r="AJ17" s="25">
         <v>0</v>
       </c>
-      <c r="AJ17" s="25">
+      <c r="AK17" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:36">
+      <c r="AL17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -4051,23 +4144,24 @@
       <c r="AC18" s="25"/>
       <c r="AD18" s="25"/>
       <c r="AE18" s="25"/>
-      <c r="AF18" s="25" t="s">
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25" t="s">
         <v>347</v>
-      </c>
-      <c r="AG18" s="25">
-        <v>20407.406999999999</v>
       </c>
       <c r="AH18" s="25">
         <v>20407.406999999999</v>
       </c>
       <c r="AI18" s="25">
+        <v>20407.406999999999</v>
+      </c>
+      <c r="AJ18" s="25">
         <v>0</v>
       </c>
-      <c r="AJ18" s="25">
+      <c r="AK18" s="25">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:38">
       <c r="A19" t="s">
         <v>183</v>
       </c>
@@ -4141,23 +4235,24 @@
       <c r="AC19" s="25"/>
       <c r="AD19" s="25"/>
       <c r="AE19" s="25"/>
-      <c r="AF19" s="25" t="s">
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="AG19" s="25">
+      <c r="AH19" s="25">
         <v>89.9</v>
       </c>
-      <c r="AH19" s="25">
+      <c r="AI19" s="25">
         <v>44.51</v>
       </c>
-      <c r="AI19" s="25">
+      <c r="AJ19" s="25">
         <v>45.39</v>
       </c>
-      <c r="AJ19" s="25">
+      <c r="AK19" s="25">
         <v>86521</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:38">
       <c r="A20" t="s">
         <v>188</v>
       </c>
@@ -4231,23 +4326,24 @@
       <c r="AC20" s="25"/>
       <c r="AD20" s="25"/>
       <c r="AE20" s="25"/>
-      <c r="AF20" s="25">
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25">
         <v>100000</v>
       </c>
-      <c r="AG20" s="25">
+      <c r="AH20" s="25">
         <v>301.06</v>
       </c>
-      <c r="AH20" s="25">
+      <c r="AI20" s="25">
         <v>218.97</v>
       </c>
-      <c r="AI20" s="25">
+      <c r="AJ20" s="25">
         <v>82.09</v>
       </c>
-      <c r="AJ20" s="25">
+      <c r="AK20" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:38">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -4321,23 +4417,24 @@
       <c r="AC21" s="25"/>
       <c r="AD21" s="25"/>
       <c r="AE21" s="25"/>
-      <c r="AF21" s="25" t="s">
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25" t="s">
         <v>349</v>
-      </c>
-      <c r="AG21" s="25">
-        <v>114</v>
       </c>
       <c r="AH21" s="25">
         <v>114</v>
       </c>
       <c r="AI21" s="25">
+        <v>114</v>
+      </c>
+      <c r="AJ21" s="25">
         <v>0</v>
       </c>
-      <c r="AJ21" s="25">
+      <c r="AK21" s="25">
         <v>599980</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:38">
       <c r="A22" t="s">
         <v>197</v>
       </c>
@@ -4407,23 +4504,24 @@
       <c r="AC22" s="25"/>
       <c r="AD22" s="25"/>
       <c r="AE22" s="25"/>
-      <c r="AF22" s="25">
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25">
         <v>131.30000000000001</v>
       </c>
-      <c r="AG22" s="25">
+      <c r="AH22" s="25">
         <v>120.57</v>
       </c>
-      <c r="AH22" s="25">
+      <c r="AI22" s="25">
         <v>36.67</v>
       </c>
-      <c r="AI22" s="25">
+      <c r="AJ22" s="25">
         <v>83.9</v>
       </c>
-      <c r="AJ22" s="25">
+      <c r="AK22" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:38">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -4493,23 +4591,24 @@
       <c r="AC23" s="25"/>
       <c r="AD23" s="25"/>
       <c r="AE23" s="25"/>
-      <c r="AF23" s="25">
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25">
         <v>131.30000000000001</v>
       </c>
-      <c r="AG23" s="25">
+      <c r="AH23" s="25">
         <v>120.57</v>
       </c>
-      <c r="AH23" s="25">
+      <c r="AI23" s="25">
         <v>36.67</v>
       </c>
-      <c r="AI23" s="25">
+      <c r="AJ23" s="25">
         <v>83.9</v>
       </c>
-      <c r="AJ23" s="25">
+      <c r="AK23" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:38">
       <c r="A24" t="s">
         <v>206</v>
       </c>
@@ -4579,23 +4678,24 @@
       <c r="AC24" s="25"/>
       <c r="AD24" s="25"/>
       <c r="AE24" s="25"/>
-      <c r="AF24" s="25">
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25">
         <v>133.9</v>
       </c>
-      <c r="AG24" s="25">
+      <c r="AH24" s="25">
         <v>47.18</v>
       </c>
-      <c r="AH24" s="25">
+      <c r="AI24" s="25">
         <v>31.47</v>
       </c>
-      <c r="AI24" s="25">
+      <c r="AJ24" s="25">
         <v>15.71</v>
       </c>
-      <c r="AJ24" s="25">
+      <c r="AK24" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:38">
       <c r="A25" t="s">
         <v>209</v>
       </c>
@@ -4665,19 +4765,20 @@
       <c r="AC25" s="25"/>
       <c r="AD25" s="25"/>
       <c r="AE25" s="25"/>
-      <c r="AF25" s="25">
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25">
         <v>63.44</v>
       </c>
-      <c r="AG25" s="25">
+      <c r="AH25" s="25">
         <v>64.7</v>
       </c>
-      <c r="AH25" s="25">
+      <c r="AI25" s="25">
         <v>32.58</v>
       </c>
-      <c r="AI25" s="25">
+      <c r="AJ25" s="25">
         <v>32.119999999999997</v>
       </c>
-      <c r="AJ25" s="25">
+      <c r="AK25" s="25">
         <v>1</v>
       </c>
     </row>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789F1147-25C2-4F8F-9061-15ED67031BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8133ABC-F037-4AE0-A20C-5AE18C1814ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="381">
   <si>
     <t>name</t>
   </si>
@@ -565,27 +565,18 @@
     <t>AGEST自動化テスト_新規_パターン17_事前準備</t>
   </si>
   <si>
-    <t>B10X12-270X 200-B0310H</t>
-  </si>
-  <si>
     <t>E9Z4B</t>
   </si>
   <si>
     <t>Z99CK</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
     <t>AGEST自動化テスト_新規_パターン18_事前準備</t>
   </si>
   <si>
-    <t>F16CG1T-61X****-******</t>
-  </si>
-  <si>
     <t>AFKCG</t>
   </si>
   <si>
@@ -598,9 +589,6 @@
     <t>AGEST自動化テスト_新規_パターン19_事前準備</t>
   </si>
   <si>
-    <t>E30TDP-**********************</t>
-  </si>
-  <si>
     <t>F8SPC</t>
   </si>
   <si>
@@ -613,9 +601,6 @@
     <t>AGEST自動化テスト_新規_パターン20_事前準備</t>
   </si>
   <si>
-    <t>U14XZ053-65EX****-*****</t>
-  </si>
-  <si>
     <t>F1YPB</t>
   </si>
   <si>
@@ -625,43 +610,28 @@
     <t>AGEST自動化テスト_新規_パターン21_事前準備</t>
   </si>
   <si>
-    <t>E07BLS-76EX****-******</t>
-  </si>
-  <si>
     <t>F2KWB</t>
   </si>
   <si>
     <t>F2KWA</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
     <t>AGEST自動化テスト_新規_パターン22_事前準備</t>
   </si>
   <si>
-    <t>E07BLS-23EX-****-******</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
     <t>AGEST自動化テスト_新規_パターン23_事前準備</t>
   </si>
   <si>
-    <t>F05DC1-76EX****-******</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
     <t>AGEST自動化テスト_新規_パターン24_事前準備</t>
-  </si>
-  <si>
-    <t>F12CD1-515X****-******</t>
   </si>
   <si>
     <t>F7RQA</t>
@@ -1309,6 +1279,115 @@
   </si>
   <si>
     <t>16.71</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>111.03</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>B10X12   - 270X 200-B0310H</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>190~380</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>端末単価単位</t>
+    <rPh sb="0" eb="2">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>m2</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>F16CG1T  -  61X****-******</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>82.951~102.951</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>E30TDP   -**********************</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>U14XZ053 - 65EX****-*****</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>155~175</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>E07BLS   - 76EX****-******</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>77.265</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>10044.45</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0~0</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1010</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>E07BLS   - 23EX****-******</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>23.735</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3085.550</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>F05DC1   - 76EX****-******</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1.307~3.922</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>10243.35</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>F12CD1   - 515X****-******</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>0~10</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>63.44</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -2086,7 +2165,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>23</v>
@@ -2106,7 +2185,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>28</v>
@@ -2117,7 +2196,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>31</v>
@@ -2128,7 +2207,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>34</v>
@@ -2139,7 +2218,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>37</v>
@@ -2386,10 +2465,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AL25"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+    <sheetView tabSelected="1" topLeftCell="V6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2406,20 +2485,21 @@
     <col min="13" max="13" width="10.625" customWidth="1"/>
     <col min="17" max="17" width="30.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="27.25" customWidth="1"/>
-    <col min="23" max="23" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16" customWidth="1"/>
-    <col min="25" max="25" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13.125" customWidth="1"/>
-    <col min="29" max="29" width="13.25" customWidth="1"/>
-    <col min="30" max="31" width="13.125" customWidth="1"/>
-    <col min="32" max="32" width="12.625" customWidth="1"/>
-    <col min="33" max="33" width="20.25" customWidth="1"/>
-    <col min="34" max="34" width="20.125" customWidth="1"/>
-    <col min="35" max="36" width="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" customWidth="1"/>
+    <col min="26" max="26" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.125" customWidth="1"/>
+    <col min="30" max="30" width="13.25" customWidth="1"/>
+    <col min="31" max="32" width="13.125" customWidth="1"/>
+    <col min="33" max="33" width="12.625" customWidth="1"/>
+    <col min="34" max="34" width="20.25" customWidth="1"/>
+    <col min="35" max="35" width="20.125" customWidth="1"/>
+    <col min="36" max="37" width="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:39">
       <c r="A1" s="9" t="s">
         <v>92</v>
       </c>
@@ -2466,7 +2546,7 @@
         <v>51</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>57</v>
@@ -2486,56 +2566,59 @@
       <c r="V1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="X1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="12" t="s">
-        <v>337</v>
-      </c>
       <c r="Y1" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>330</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="AB1" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AC1" s="11" t="s">
-        <v>330</v>
-      </c>
       <c r="AD1" s="11" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="AF1" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="AH1" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="AG1" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AL1" s="11" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" s="28" customFormat="1">
+      <c r="AM1" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" s="28" customFormat="1">
       <c r="A2" s="28" t="s">
         <v>93</v>
       </c>
@@ -2553,16 +2636,16 @@
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K2" s="29" t="s">
         <v>39</v>
@@ -2599,39 +2682,42 @@
         <v>675</v>
       </c>
       <c r="W2" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="X2" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>264</v>
+      </c>
       <c r="Y2" s="29"/>
       <c r="Z2" s="29"/>
       <c r="AA2" s="29"/>
-      <c r="AB2" s="29" t="s">
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC2" s="29"/>
       <c r="AD2" s="29"/>
       <c r="AE2" s="29"/>
       <c r="AF2" s="29"/>
-      <c r="AG2" s="29">
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29">
         <v>662</v>
-      </c>
-      <c r="AH2" s="29">
-        <v>372.161</v>
       </c>
       <c r="AI2" s="29">
         <v>372.161</v>
       </c>
       <c r="AJ2" s="29">
+        <v>372.161</v>
+      </c>
+      <c r="AK2" s="29">
         <v>0</v>
       </c>
-      <c r="AK2" s="29">
+      <c r="AL2" s="29">
         <v>40</v>
       </c>
-      <c r="AL2" s="29" t="s">
+      <c r="AM2" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="28" customFormat="1">
+    <row r="3" spans="1:39" s="28" customFormat="1">
       <c r="A3" s="28" t="s">
         <v>95</v>
       </c>
@@ -2649,16 +2735,16 @@
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K3" s="29" t="s">
         <v>39</v>
@@ -2674,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="Q3" s="29" t="s">
         <v>97</v>
@@ -2695,39 +2781,42 @@
         <v>690</v>
       </c>
       <c r="W3" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="X3" s="29"/>
       <c r="Y3" s="29"/>
       <c r="Z3" s="29"/>
       <c r="AA3" s="29"/>
-      <c r="AB3" s="29" t="s">
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC3" s="29"/>
       <c r="AD3" s="29"/>
       <c r="AE3" s="29"/>
       <c r="AF3" s="29"/>
-      <c r="AG3" s="29">
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29">
         <v>690</v>
-      </c>
-      <c r="AH3" s="29">
-        <v>384</v>
       </c>
       <c r="AI3" s="29">
         <v>384</v>
       </c>
       <c r="AJ3" s="29">
+        <v>384</v>
+      </c>
+      <c r="AK3" s="29">
         <v>0</v>
       </c>
-      <c r="AK3" s="29">
+      <c r="AL3" s="29">
         <v>100</v>
       </c>
-      <c r="AL3" s="29" t="s">
+      <c r="AM3" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="28" customFormat="1">
+    <row r="4" spans="1:39" s="28" customFormat="1">
       <c r="A4" s="28" t="s">
         <v>101</v>
       </c>
@@ -2745,16 +2834,16 @@
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K4" s="29" t="s">
         <v>39</v>
@@ -2770,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="29" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="Q4" s="29" t="s">
         <v>103</v>
@@ -2791,39 +2880,42 @@
         <v>564</v>
       </c>
       <c r="W4" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="X4" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="X4" s="29"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
       <c r="AA4" s="29"/>
-      <c r="AB4" s="29" t="s">
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC4" s="29"/>
       <c r="AD4" s="29"/>
       <c r="AE4" s="29"/>
       <c r="AF4" s="29"/>
-      <c r="AG4" s="29">
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29">
         <v>564</v>
       </c>
-      <c r="AH4" s="29">
+      <c r="AI4" s="29">
         <v>416</v>
       </c>
-      <c r="AI4" s="29">
+      <c r="AJ4" s="29">
         <v>354</v>
       </c>
-      <c r="AJ4" s="29">
+      <c r="AK4" s="29">
         <v>62</v>
       </c>
-      <c r="AK4" s="29">
+      <c r="AL4" s="29">
         <v>475</v>
       </c>
-      <c r="AL4" s="29" t="s">
+      <c r="AM4" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="28" customFormat="1">
+    <row r="5" spans="1:39" s="28" customFormat="1">
       <c r="A5" s="28" t="s">
         <v>105</v>
       </c>
@@ -2841,16 +2933,16 @@
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K5" s="29" t="s">
         <v>39</v>
@@ -2866,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="29" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="Q5" s="29" t="s">
         <v>109</v>
@@ -2887,39 +2979,42 @@
         <v>487</v>
       </c>
       <c r="W5" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="X5" s="29"/>
       <c r="Y5" s="29"/>
       <c r="Z5" s="29"/>
       <c r="AA5" s="29"/>
-      <c r="AB5" s="29" t="s">
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC5" s="32"/>
       <c r="AD5" s="32"/>
       <c r="AE5" s="32"/>
       <c r="AF5" s="32"/>
-      <c r="AG5" s="32">
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32">
         <v>387</v>
       </c>
-      <c r="AH5" s="29">
+      <c r="AI5" s="29">
         <v>426</v>
       </c>
-      <c r="AI5" s="29">
+      <c r="AJ5" s="29">
         <v>384</v>
       </c>
-      <c r="AJ5" s="29">
+      <c r="AK5" s="29">
         <v>42</v>
       </c>
-      <c r="AK5" s="29">
+      <c r="AL5" s="29">
         <v>576</v>
       </c>
-      <c r="AL5" s="29" t="s">
+      <c r="AM5" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="28" customFormat="1">
+    <row r="6" spans="1:39" s="28" customFormat="1">
       <c r="A6" s="28" t="s">
         <v>111</v>
       </c>
@@ -2930,23 +3025,23 @@
         <v>16</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>113</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K6" s="29" t="s">
         <v>114</v>
@@ -2962,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="29" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="Q6" s="29" t="s">
         <v>117</v>
@@ -2980,42 +3075,45 @@
         <v>68</v>
       </c>
       <c r="V6" s="29" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="W6" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="X6" s="29"/>
       <c r="Y6" s="29"/>
       <c r="Z6" s="29"/>
       <c r="AA6" s="29"/>
-      <c r="AB6" s="29" t="s">
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC6" s="29"/>
       <c r="AD6" s="29"/>
       <c r="AE6" s="29"/>
       <c r="AF6" s="29"/>
-      <c r="AG6" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="AH6" s="29">
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="AI6" s="29">
         <v>401</v>
       </c>
-      <c r="AI6" s="29">
+      <c r="AJ6" s="29">
         <v>532</v>
       </c>
-      <c r="AJ6" s="29">
+      <c r="AK6" s="29">
         <v>49</v>
       </c>
-      <c r="AK6" s="29">
+      <c r="AL6" s="29">
         <v>200</v>
       </c>
-      <c r="AL6" s="29" t="s">
+      <c r="AM6" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:38" s="28" customFormat="1">
+    <row r="7" spans="1:39" s="28" customFormat="1">
       <c r="A7" s="28" t="s">
         <v>120</v>
       </c>
@@ -3026,23 +3124,23 @@
         <v>16</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>122</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K7" s="29" t="s">
         <v>114</v>
@@ -3058,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="29" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="29" t="s">
         <v>124</v>
@@ -3076,40 +3174,41 @@
         <v>100</v>
       </c>
       <c r="V7" s="29"/>
-      <c r="W7" s="29" t="s">
+      <c r="W7" s="29"/>
+      <c r="X7" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="X7" s="29"/>
       <c r="Y7" s="29"/>
       <c r="Z7" s="29"/>
       <c r="AA7" s="29"/>
-      <c r="AB7" s="29" t="s">
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC7" s="29"/>
       <c r="AD7" s="29"/>
       <c r="AE7" s="29"/>
       <c r="AF7" s="29"/>
-      <c r="AG7" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="AH7" s="29">
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="AI7" s="29">
         <v>514</v>
       </c>
-      <c r="AI7" s="29">
+      <c r="AJ7" s="29">
         <v>478</v>
       </c>
-      <c r="AJ7" s="29">
+      <c r="AK7" s="29">
         <v>36</v>
       </c>
-      <c r="AK7" s="29">
+      <c r="AL7" s="29">
         <v>25</v>
       </c>
-      <c r="AL7" s="29" t="s">
+      <c r="AM7" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="28" customFormat="1">
+    <row r="8" spans="1:39" s="28" customFormat="1">
       <c r="A8" s="28" t="s">
         <v>127</v>
       </c>
@@ -3120,23 +3219,23 @@
         <v>16</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>122</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K8" s="29" t="s">
         <v>39</v>
@@ -3152,13 +3251,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="29" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="29" t="s">
         <v>130</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="S8" s="29" t="s">
         <v>131</v>
@@ -3170,40 +3269,43 @@
         <v>104</v>
       </c>
       <c r="V8" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="W8" s="29"/>
+        <v>332</v>
+      </c>
+      <c r="W8" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="X8" s="29"/>
       <c r="Y8" s="29"/>
       <c r="Z8" s="29"/>
       <c r="AA8" s="29"/>
-      <c r="AB8" s="29" t="s">
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC8" s="29"/>
       <c r="AD8" s="29"/>
       <c r="AE8" s="29"/>
       <c r="AF8" s="29"/>
-      <c r="AG8" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="AH8" s="29">
-        <v>563</v>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29" t="s">
+        <v>332</v>
       </c>
       <c r="AI8" s="29">
         <v>563</v>
       </c>
       <c r="AJ8" s="29">
+        <v>563</v>
+      </c>
+      <c r="AK8" s="29">
         <v>0</v>
       </c>
-      <c r="AK8" s="29">
+      <c r="AL8" s="29">
         <v>25</v>
       </c>
-      <c r="AL8" s="29" t="s">
+      <c r="AM8" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="28" customFormat="1">
+    <row r="9" spans="1:39" s="28" customFormat="1">
       <c r="A9" s="28" t="s">
         <v>132</v>
       </c>
@@ -3214,23 +3316,23 @@
         <v>16</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>134</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K9" s="29" t="s">
         <v>39</v>
@@ -3246,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="29" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="Q9" s="29" t="s">
         <v>136</v>
@@ -3255,7 +3357,7 @@
         <v>137</v>
       </c>
       <c r="S9" s="29" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="T9" s="29" t="s">
         <v>65</v>
@@ -3264,42 +3366,45 @@
         <v>100</v>
       </c>
       <c r="V9" s="29" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="W9" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="X9" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="X9" s="29"/>
       <c r="Y9" s="29"/>
       <c r="Z9" s="29"/>
       <c r="AA9" s="29"/>
-      <c r="AB9" s="29" t="s">
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC9" s="29"/>
       <c r="AD9" s="29"/>
       <c r="AE9" s="29"/>
       <c r="AF9" s="29"/>
-      <c r="AG9" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="AH9" s="29">
-        <v>708</v>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29" t="s">
+        <v>334</v>
       </c>
       <c r="AI9" s="29">
         <v>708</v>
       </c>
       <c r="AJ9" s="29">
+        <v>708</v>
+      </c>
+      <c r="AK9" s="29">
         <v>0</v>
       </c>
-      <c r="AK9" s="29">
+      <c r="AL9" s="29">
         <v>25</v>
       </c>
-      <c r="AL9" s="29" t="s">
+      <c r="AM9" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="28" customFormat="1">
+    <row r="10" spans="1:39" s="28" customFormat="1">
       <c r="A10" s="28" t="s">
         <v>138</v>
       </c>
@@ -3310,23 +3415,23 @@
         <v>16</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>107</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K10" s="29" t="s">
         <v>114</v>
@@ -3342,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="29" t="s">
         <v>140</v>
@@ -3359,45 +3464,46 @@
       <c r="U10" s="29"/>
       <c r="V10" s="29"/>
       <c r="W10" s="29"/>
-      <c r="X10" s="29" t="s">
-        <v>352</v>
-      </c>
+      <c r="X10" s="29"/>
       <c r="Y10" s="29" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="Z10" s="29" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="AA10" s="29" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="AB10" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC10" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="29"/>
       <c r="AF10" s="29"/>
-      <c r="AG10" s="29">
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29">
         <v>1175.32</v>
       </c>
-      <c r="AH10" s="29">
+      <c r="AI10" s="29">
         <v>318</v>
       </c>
-      <c r="AI10" s="29">
+      <c r="AJ10" s="29">
         <v>265</v>
       </c>
-      <c r="AJ10" s="29">
+      <c r="AK10" s="29">
         <v>53</v>
       </c>
-      <c r="AK10" s="29">
+      <c r="AL10" s="29">
         <v>25</v>
       </c>
-      <c r="AL10" s="29" t="s">
+      <c r="AM10" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="28" customFormat="1">
+    <row r="11" spans="1:39" s="28" customFormat="1">
       <c r="A11" s="28" t="s">
         <v>143</v>
       </c>
@@ -3408,23 +3514,23 @@
         <v>16</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>134</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K11" s="30" t="s">
         <v>114</v>
@@ -3440,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="Q11" s="30" t="s">
         <v>146</v>
@@ -3457,45 +3563,46 @@
       <c r="U11" s="30"/>
       <c r="V11" s="30"/>
       <c r="W11" s="30"/>
-      <c r="X11" s="30">
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30">
         <v>878</v>
       </c>
-      <c r="Y11" s="30" t="s">
-        <v>338</v>
-      </c>
       <c r="Z11" s="30" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="AA11" s="30" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="AB11" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC11" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="AC11" s="30"/>
       <c r="AD11" s="30"/>
       <c r="AE11" s="30"/>
       <c r="AF11" s="30"/>
-      <c r="AG11" s="30">
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30">
         <v>720</v>
       </c>
-      <c r="AH11" s="30">
+      <c r="AI11" s="30">
         <v>565</v>
       </c>
-      <c r="AI11" s="30">
+      <c r="AJ11" s="30">
         <v>503</v>
       </c>
-      <c r="AJ11" s="30">
+      <c r="AK11" s="30">
         <v>62</v>
       </c>
-      <c r="AK11" s="30">
+      <c r="AL11" s="30">
         <v>50</v>
       </c>
-      <c r="AL11" s="30" t="s">
+      <c r="AM11" s="30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="28" customFormat="1">
+    <row r="12" spans="1:39" s="28" customFormat="1">
       <c r="A12" s="28" t="s">
         <v>148</v>
       </c>
@@ -3503,26 +3610,26 @@
         <v>149</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>150</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K12" s="30" t="s">
         <v>114</v>
@@ -3538,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q12" s="30" t="s">
         <v>152</v>
@@ -3555,45 +3662,46 @@
       <c r="U12" s="30"/>
       <c r="V12" s="30"/>
       <c r="W12" s="30"/>
-      <c r="X12" s="30" t="s">
-        <v>355</v>
-      </c>
+      <c r="X12" s="30"/>
       <c r="Y12" s="30" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="Z12" s="30" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="AA12" s="30" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="AB12" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC12" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="AC12" s="30"/>
       <c r="AD12" s="30"/>
       <c r="AE12" s="30"/>
       <c r="AF12" s="30"/>
-      <c r="AG12" s="30">
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30">
         <v>41500</v>
       </c>
-      <c r="AH12" s="30">
+      <c r="AI12" s="30">
         <v>1157.01</v>
       </c>
-      <c r="AI12" s="30">
+      <c r="AJ12" s="30">
         <v>659.77</v>
       </c>
-      <c r="AJ12" s="30">
+      <c r="AK12" s="30">
         <v>497.24</v>
       </c>
-      <c r="AK12" s="30">
+      <c r="AL12" s="30">
         <v>5000</v>
       </c>
-      <c r="AL12" s="30" t="s">
+      <c r="AM12" s="30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="28" customFormat="1">
+    <row r="13" spans="1:39" s="28" customFormat="1">
       <c r="A13" s="28" t="s">
         <v>155</v>
       </c>
@@ -3601,26 +3709,26 @@
         <v>156</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>150</v>
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K13" s="30" t="s">
         <v>114</v>
@@ -3633,10 +3741,10 @@
         <v>151</v>
       </c>
       <c r="O13" s="30" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="30" t="s">
         <v>157</v>
@@ -3653,45 +3761,46 @@
       <c r="U13" s="30"/>
       <c r="V13" s="30"/>
       <c r="W13" s="30"/>
-      <c r="X13" s="30" t="s">
-        <v>357</v>
-      </c>
+      <c r="X13" s="30"/>
       <c r="Y13" s="30" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="Z13" s="30" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="AA13" s="30" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="AB13" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC13" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="AC13" s="30"/>
       <c r="AD13" s="30"/>
       <c r="AE13" s="30"/>
       <c r="AF13" s="30"/>
-      <c r="AG13" s="30">
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30">
         <v>41250</v>
       </c>
-      <c r="AH13" s="30">
+      <c r="AI13" s="30">
         <v>1358.65</v>
       </c>
-      <c r="AI13" s="30">
+      <c r="AJ13" s="30">
         <v>712.06</v>
       </c>
-      <c r="AJ13" s="30">
+      <c r="AK13" s="30">
         <v>646.59</v>
       </c>
-      <c r="AK13" s="30">
+      <c r="AL13" s="30">
         <v>20000</v>
       </c>
-      <c r="AL13" s="30" t="s">
+      <c r="AM13" s="30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:38" s="28" customFormat="1">
+    <row r="14" spans="1:39" s="28" customFormat="1">
       <c r="A14" s="28" t="s">
         <v>158</v>
       </c>
@@ -3709,16 +3818,16 @@
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K14" s="30" t="s">
         <v>39</v>
@@ -3734,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="30" t="s">
         <v>162</v>
@@ -3754,38 +3863,41 @@
       <c r="V14" s="30">
         <v>70</v>
       </c>
-      <c r="W14" s="29" t="s">
+      <c r="W14" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="X14" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="X14" s="29"/>
       <c r="Y14" s="29"/>
       <c r="Z14" s="29"/>
       <c r="AA14" s="29"/>
-      <c r="AB14" s="30" t="s">
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="AD14" s="30">
+      <c r="AE14" s="30">
         <v>70</v>
       </c>
-      <c r="AE14" s="30"/>
       <c r="AF14" s="30"/>
-      <c r="AH14" s="30">
+      <c r="AG14" s="30"/>
+      <c r="AI14" s="30">
         <v>64.7</v>
       </c>
-      <c r="AI14" s="30">
+      <c r="AJ14" s="30">
         <v>32.58</v>
       </c>
-      <c r="AJ14" s="30">
+      <c r="AK14" s="30">
         <v>32.119999999999997</v>
       </c>
-      <c r="AK14" s="30">
+      <c r="AL14" s="30">
         <v>0</v>
       </c>
-      <c r="AL14" s="30" t="s">
+      <c r="AM14" s="30" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:38" s="28" customFormat="1">
+    <row r="15" spans="1:39" s="28" customFormat="1">
       <c r="A15" s="28" t="s">
         <v>165</v>
       </c>
@@ -3803,16 +3915,16 @@
       </c>
       <c r="F15" s="30"/>
       <c r="G15" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K15" s="30" t="s">
         <v>39</v>
@@ -3828,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="Q15" s="30" t="s">
         <v>167</v>
@@ -3848,39 +3960,42 @@
       <c r="V15" s="30">
         <v>50</v>
       </c>
-      <c r="W15" s="29" t="s">
+      <c r="W15" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="X15" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="X15" s="29"/>
       <c r="Y15" s="29"/>
       <c r="Z15" s="29"/>
       <c r="AA15" s="29"/>
-      <c r="AB15" s="30" t="s">
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30">
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30">
         <v>50</v>
       </c>
-      <c r="AE15" s="30"/>
       <c r="AF15" s="30"/>
-      <c r="AH15" s="30">
-        <v>17.87</v>
-      </c>
+      <c r="AG15" s="30"/>
       <c r="AI15" s="30">
         <v>17.87</v>
       </c>
       <c r="AJ15" s="30">
+        <v>17.87</v>
+      </c>
+      <c r="AK15" s="30">
         <v>0</v>
       </c>
-      <c r="AK15" s="30">
+      <c r="AL15" s="30">
         <v>1</v>
       </c>
-      <c r="AL15" s="30" t="s">
+      <c r="AM15" s="30" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="28" customFormat="1">
+    <row r="16" spans="1:39" s="28" customFormat="1">
       <c r="A16" s="28" t="s">
         <v>168</v>
       </c>
@@ -3898,16 +4013,16 @@
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K16" s="30" t="s">
         <v>39</v>
@@ -3923,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="30" t="s">
         <v>171</v>
@@ -3946,33 +4061,34 @@
       <c r="Y16" s="30"/>
       <c r="Z16" s="30"/>
       <c r="AA16" s="30"/>
-      <c r="AB16" s="30" t="s">
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="AE16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30" t="s">
+        <v>352</v>
+      </c>
       <c r="AF16" s="30"/>
       <c r="AG16" s="30"/>
-      <c r="AH16" s="30">
-        <v>102.12</v>
-      </c>
+      <c r="AH16" s="30"/>
       <c r="AI16" s="30">
         <v>102.12</v>
       </c>
       <c r="AJ16" s="30">
+        <v>102.12</v>
+      </c>
+      <c r="AK16" s="30">
         <v>0</v>
       </c>
-      <c r="AK16" s="30">
+      <c r="AL16" s="30">
         <v>1</v>
       </c>
-      <c r="AL16" s="30" t="s">
+      <c r="AM16" s="30" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
         <v>174</v>
       </c>
@@ -3990,16 +4106,16 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K17" s="25" t="s">
         <v>39</v>
@@ -4015,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="27" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="25" t="s">
         <v>176</v>
@@ -4033,42 +4149,45 @@
         <v>100</v>
       </c>
       <c r="V17" s="25"/>
-      <c r="W17" s="24" t="s">
+      <c r="W17" s="25"/>
+      <c r="X17" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="X17" s="24"/>
       <c r="Y17" s="24"/>
       <c r="Z17" s="24"/>
       <c r="AA17" s="24"/>
-      <c r="AB17" s="25" t="s">
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25" t="s">
-        <v>365</v>
-      </c>
+      <c r="AD17" s="25"/>
       <c r="AE17" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="AF17" s="25"/>
+        <v>355</v>
+      </c>
+      <c r="AF17" s="25" t="s">
+        <v>269</v>
+      </c>
       <c r="AG17" s="25"/>
-      <c r="AH17" s="25">
-        <v>99.668000000000006</v>
+      <c r="AH17" s="25" t="s">
+        <v>356</v>
       </c>
       <c r="AI17" s="25">
         <v>99.668000000000006</v>
       </c>
       <c r="AJ17" s="25">
+        <v>99.668000000000006</v>
+      </c>
+      <c r="AK17" s="25">
         <v>0</v>
       </c>
-      <c r="AK17" s="25">
+      <c r="AL17" s="25">
         <v>1</v>
       </c>
-      <c r="AL17" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38">
+      <c r="AM17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -4078,24 +4197,24 @@
       <c r="C18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>19</v>
+      <c r="D18" s="29" t="s">
+        <v>265</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>160</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K18" s="25" t="s">
         <v>39</v>
@@ -4114,81 +4233,91 @@
         <v>7791</v>
       </c>
       <c r="Q18" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="R18" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="R18" s="25" t="s">
+      <c r="S18" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="S18" s="25" t="s">
-        <v>181</v>
-      </c>
       <c r="T18" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U18" s="24" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="V18" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="W18" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="W18" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="X18" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="X18" s="24"/>
       <c r="Y18" s="24"/>
       <c r="Z18" s="24"/>
       <c r="AA18" s="24"/>
-      <c r="AB18" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC18" s="25"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="25" t="s">
+        <v>164</v>
+      </c>
       <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="AH18" s="25">
-        <v>20407.406999999999</v>
+      <c r="AE18" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="AF18" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25" t="s">
+        <v>337</v>
       </c>
       <c r="AI18" s="25">
         <v>20407.406999999999</v>
       </c>
       <c r="AJ18" s="25">
+        <v>20407.406999999999</v>
+      </c>
+      <c r="AK18" s="25">
         <v>0</v>
       </c>
-      <c r="AK18" s="25">
+      <c r="AL18" s="25">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:38">
+      <c r="AM18" s="30" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>19</v>
+      <c r="D19" s="29" t="s">
+        <v>265</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>160</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K19" s="25" t="s">
         <v>39</v>
@@ -4207,13 +4336,13 @@
         <v>170</v>
       </c>
       <c r="Q19" s="25" t="s">
-        <v>185</v>
+        <v>361</v>
       </c>
       <c r="R19" s="25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="S19" s="25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="T19" s="25" t="s">
         <v>65</v>
@@ -4222,42 +4351,50 @@
         <v>100</v>
       </c>
       <c r="V19" s="25"/>
-      <c r="W19" s="24" t="s">
+      <c r="W19" s="25"/>
+      <c r="X19" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="X19" s="24"/>
       <c r="Y19" s="24"/>
       <c r="Z19" s="24"/>
       <c r="AA19" s="24"/>
-      <c r="AB19" s="25" t="s">
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="AC19" s="25"/>
       <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="AH19" s="25">
+      <c r="AE19" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF19" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI19" s="25">
         <v>89.9</v>
       </c>
-      <c r="AI19" s="25">
+      <c r="AJ19" s="25">
         <v>44.51</v>
       </c>
-      <c r="AJ19" s="25">
+      <c r="AK19" s="25">
         <v>45.39</v>
       </c>
-      <c r="AK19" s="25">
+      <c r="AL19" s="25">
         <v>86521</v>
       </c>
-    </row>
-    <row r="20" spans="1:38">
+      <c r="AM19" s="30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>16</v>
@@ -4270,16 +4407,16 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K20" s="25" t="s">
         <v>114</v>
@@ -4298,13 +4435,13 @@
         <v>7715</v>
       </c>
       <c r="Q20" s="25" t="s">
-        <v>190</v>
+        <v>363</v>
       </c>
       <c r="R20" s="25" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="S20" s="25" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="T20" s="25" t="s">
         <v>65</v>
@@ -4315,62 +4452,70 @@
       <c r="V20" s="25">
         <v>100000</v>
       </c>
-      <c r="W20" s="25"/>
+      <c r="W20" s="25" t="s">
+        <v>164</v>
+      </c>
       <c r="X20" s="25"/>
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
       <c r="AA20" s="25"/>
-      <c r="AB20" s="25" t="s">
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="AC20" s="25"/>
       <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
+      <c r="AE20" s="25" t="s">
+        <v>364</v>
+      </c>
       <c r="AF20" s="25"/>
-      <c r="AG20" s="25">
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25">
         <v>100000</v>
       </c>
-      <c r="AH20" s="25">
+      <c r="AI20" s="25">
         <v>301.06</v>
       </c>
-      <c r="AI20" s="25">
+      <c r="AJ20" s="25">
         <v>218.97</v>
       </c>
-      <c r="AJ20" s="25">
+      <c r="AK20" s="25">
         <v>82.09</v>
       </c>
-      <c r="AK20" s="25">
+      <c r="AL20" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:38">
+      <c r="AM20" s="30" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>19</v>
+      <c r="D21" s="29" t="s">
+        <v>265</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>160</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K21" s="25" t="s">
         <v>114</v>
@@ -4389,13 +4534,13 @@
         <v>170</v>
       </c>
       <c r="Q21" s="25" t="s">
-        <v>195</v>
+        <v>365</v>
       </c>
       <c r="R21" s="25" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="S21" s="25" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="T21" s="25" t="s">
         <v>65</v>
@@ -4404,64 +4549,72 @@
         <v>100</v>
       </c>
       <c r="V21" s="25"/>
-      <c r="W21" s="24" t="s">
+      <c r="W21" s="25"/>
+      <c r="X21" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="X21" s="24"/>
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
       <c r="AA21" s="24"/>
-      <c r="AB21" s="25" t="s">
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="AC21" s="25"/>
       <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="AH21" s="25">
-        <v>114</v>
+      <c r="AE21" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="AF21" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25" t="s">
+        <v>339</v>
       </c>
       <c r="AI21" s="25">
         <v>114</v>
       </c>
       <c r="AJ21" s="25">
+        <v>114</v>
+      </c>
+      <c r="AK21" s="25">
         <v>0</v>
       </c>
-      <c r="AK21" s="25">
+      <c r="AL21" s="25">
         <v>599980</v>
       </c>
-    </row>
-    <row r="22" spans="1:38">
+      <c r="AM21" s="30" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>160</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K22" s="25" t="s">
         <v>114</v>
@@ -4480,13 +4633,13 @@
         <v>170</v>
       </c>
       <c r="Q22" s="25" t="s">
-        <v>199</v>
+        <v>367</v>
       </c>
       <c r="R22" s="25" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="S22" s="25" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="T22" s="25" t="s">
         <v>65</v>
@@ -4495,60 +4648,80 @@
       <c r="V22" s="25"/>
       <c r="W22" s="25"/>
       <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
+      <c r="Y22" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z22" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA22" s="25" t="s">
+        <v>319</v>
+      </c>
       <c r="AB22" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25">
+        <v>370</v>
+      </c>
+      <c r="AC22" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD22" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE22" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF22" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG22" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="AH22" s="25">
         <v>131.30000000000001</v>
       </c>
-      <c r="AH22" s="25">
+      <c r="AI22" s="25">
         <v>120.57</v>
       </c>
-      <c r="AI22" s="25">
+      <c r="AJ22" s="25">
         <v>36.67</v>
       </c>
-      <c r="AJ22" s="25">
+      <c r="AK22" s="25">
         <v>83.9</v>
       </c>
-      <c r="AK22" s="25">
+      <c r="AL22" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:38">
+      <c r="AM22" s="30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>160</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K23" s="25" t="s">
         <v>114</v>
@@ -4560,20 +4733,20 @@
       <c r="N23" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="O23" s="25">
-        <v>100</v>
+      <c r="O23" s="25" t="s">
+        <v>351</v>
       </c>
       <c r="P23" s="25" t="s">
         <v>170</v>
       </c>
       <c r="Q23" s="25" t="s">
-        <v>205</v>
+        <v>372</v>
       </c>
       <c r="R23" s="25" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="S23" s="25" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="T23" s="25" t="s">
         <v>65</v>
@@ -4582,60 +4755,80 @@
       <c r="V23" s="25"/>
       <c r="W23" s="25"/>
       <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
+      <c r="Y23" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z23" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA23" s="25" t="s">
+        <v>319</v>
+      </c>
       <c r="AB23" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25">
+        <v>370</v>
+      </c>
+      <c r="AC23" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD23" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE23" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="AF23" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG23" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="AH23" s="25">
         <v>131.30000000000001</v>
       </c>
-      <c r="AH23" s="25">
+      <c r="AI23" s="25">
         <v>120.57</v>
       </c>
-      <c r="AI23" s="25">
+      <c r="AJ23" s="25">
         <v>36.67</v>
       </c>
-      <c r="AJ23" s="25">
+      <c r="AK23" s="25">
         <v>83.9</v>
       </c>
-      <c r="AK23" s="25">
+      <c r="AL23" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:38">
+      <c r="AM23" s="30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>19</v>
+      <c r="D24" s="29" t="s">
+        <v>325</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>160</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K24" s="25" t="s">
         <v>114</v>
@@ -4654,13 +4847,13 @@
         <v>170</v>
       </c>
       <c r="Q24" s="25" t="s">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="R24" s="25" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="S24" s="25" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="T24" s="25" t="s">
         <v>65</v>
@@ -4669,43 +4862,63 @@
       <c r="V24" s="25"/>
       <c r="W24" s="25"/>
       <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
+      <c r="Y24" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z24" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA24" s="25" t="s">
+        <v>319</v>
+      </c>
       <c r="AB24" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC24" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25">
+      <c r="AD24" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE24" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="AF24" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG24" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="AH24" s="25">
         <v>133.9</v>
       </c>
-      <c r="AH24" s="25">
+      <c r="AI24" s="25">
         <v>47.18</v>
       </c>
-      <c r="AI24" s="25">
+      <c r="AJ24" s="25">
         <v>31.47</v>
       </c>
-      <c r="AJ24" s="25">
+      <c r="AK24" s="25">
         <v>15.71</v>
       </c>
-      <c r="AK24" s="25">
+      <c r="AL24" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:38">
+      <c r="AM24" s="30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="29" t="s">
         <v>325</v>
       </c>
       <c r="E25" s="24" t="s">
@@ -4713,16 +4926,16 @@
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="K25" s="25" t="s">
         <v>114</v>
@@ -4741,13 +4954,13 @@
         <v>170</v>
       </c>
       <c r="Q25" s="25" t="s">
-        <v>211</v>
+        <v>378</v>
       </c>
       <c r="R25" s="25" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="S25" s="25" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="T25" s="25" t="s">
         <v>65</v>
@@ -4756,30 +4969,50 @@
       <c r="V25" s="25"/>
       <c r="W25" s="25"/>
       <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
+      <c r="Y25" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z25" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA25" s="25" t="s">
+        <v>319</v>
+      </c>
       <c r="AB25" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC25" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25">
+      <c r="AD25" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE25" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="AF25" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="AG25" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="AH25" s="25">
         <v>63.44</v>
       </c>
-      <c r="AH25" s="25">
+      <c r="AI25" s="25">
         <v>64.7</v>
       </c>
-      <c r="AI25" s="25">
+      <c r="AJ25" s="25">
         <v>32.58</v>
       </c>
-      <c r="AJ25" s="25">
+      <c r="AK25" s="25">
         <v>32.119999999999997</v>
       </c>
-      <c r="AK25" s="25">
+      <c r="AL25" s="25">
         <v>1</v>
+      </c>
+      <c r="AM25" s="30" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -5044,10 +5277,10 @@
         <v>92</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>14</v>
@@ -5086,16 +5319,16 @@
         <v>45</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>51</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="T1" s="11" t="s">
         <v>57</v>
@@ -5119,10 +5352,10 @@
         <v>75</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="AC1" s="11" t="s">
         <v>78</v>
@@ -5143,7 +5376,7 @@
         <v>91</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:35">
@@ -5151,13 +5384,13 @@
         <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
@@ -5166,19 +5399,19 @@
         <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>39</v>
@@ -5187,7 +5420,7 @@
         <v>42</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="Q2" s="4">
         <v>0</v>
@@ -5197,13 +5430,13 @@
         <v>6200</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>65</v>
@@ -5220,7 +5453,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AD2" s="4">
         <v>7090</v>
@@ -5238,7 +5471,7 @@
         <v>8000</v>
       </c>
       <c r="AI2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -5246,13 +5479,13 @@
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>16</v>
@@ -5264,16 +5497,16 @@
         <v>22</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>39</v>
@@ -5282,7 +5515,7 @@
         <v>42</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
@@ -5292,13 +5525,13 @@
         <v>6713</v>
       </c>
       <c r="T3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="W3" t="s">
         <v>65</v>
@@ -5307,10 +5540,10 @@
         <v>100</v>
       </c>
       <c r="Z3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="AC3" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AD3">
         <v>379</v>
@@ -5328,7 +5561,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -5336,13 +5569,13 @@
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -5351,19 +5584,19 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>39</v>
@@ -5372,7 +5605,7 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -5381,25 +5614,25 @@
         <v>6713</v>
       </c>
       <c r="T4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="U4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="V4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="W4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="X4" s="4" t="s">
         <v>100</v>
       </c>
       <c r="Z4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="AC4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="AD4">
         <v>152</v>
@@ -5417,7 +5650,7 @@
         <v>10</v>
       </c>
       <c r="AI4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -5425,13 +5658,13 @@
         <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>16</v>
@@ -5440,19 +5673,19 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>39</v>
@@ -5461,7 +5694,7 @@
         <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -5470,13 +5703,13 @@
         <v>6785</v>
       </c>
       <c r="T5" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="U5" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="V5" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="W5" t="s">
         <v>65</v>
@@ -5490,7 +5723,7 @@
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AD5">
         <v>194.88</v>
@@ -5508,7 +5741,7 @@
         <v>1000</v>
       </c>
       <c r="AI5" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -5516,13 +5749,13 @@
         <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>16</v>
@@ -5531,19 +5764,19 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M6" t="s">
         <v>39</v>
@@ -5552,7 +5785,7 @@
         <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -5561,16 +5794,16 @@
         <v>6780</v>
       </c>
       <c r="T6" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="U6" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="V6" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="W6" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="X6" s="4" t="s">
         <v>100</v>
@@ -5581,7 +5814,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AD6">
         <v>193.28</v>
@@ -5599,7 +5832,7 @@
         <v>1000</v>
       </c>
       <c r="AI6" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -5607,13 +5840,13 @@
         <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>16</v>
@@ -5622,19 +5855,19 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M7" t="s">
         <v>39</v>
@@ -5643,7 +5876,7 @@
         <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -5652,16 +5885,16 @@
         <v>6798</v>
       </c>
       <c r="T7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="U7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="V7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="W7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="X7" s="4" t="s">
         <v>100</v>
@@ -5672,7 +5905,7 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AD7">
         <v>241.15</v>
@@ -5690,7 +5923,7 @@
         <v>500</v>
       </c>
       <c r="AI7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -5698,13 +5931,13 @@
         <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
@@ -5716,16 +5949,16 @@
         <v>160</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M8" t="s">
         <v>39</v>
@@ -5743,13 +5976,13 @@
         <v>170</v>
       </c>
       <c r="T8" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="U8" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="V8" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="W8" t="s">
         <v>65</v>
@@ -5764,7 +5997,7 @@
         <v>32.19</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="AC8" t="s">
         <v>164</v>
@@ -5785,7 +6018,7 @@
         <v>1900</v>
       </c>
       <c r="AI8" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -5793,13 +6026,13 @@
         <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
@@ -5811,16 +6044,16 @@
         <v>160</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M9" t="s">
         <v>114</v>
@@ -5838,13 +6071,13 @@
         <v>170</v>
       </c>
       <c r="T9" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="U9" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="V9" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="W9" t="s">
         <v>65</v>
@@ -5853,7 +6086,7 @@
         <v>271.39999999999998</v>
       </c>
       <c r="AB9" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AC9" t="s">
         <v>164</v>
@@ -5874,7 +6107,7 @@
         <v>16</v>
       </c>
       <c r="AI9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" customFormat="1"/>
@@ -6032,16 +6265,16 @@
         <v>45</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>51</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>57</v>
@@ -6065,16 +6298,16 @@
         <v>75</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="AC1" s="11" t="s">
         <v>81</v>
@@ -6095,7 +6328,7 @@
         <v>91</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:35">
@@ -6103,7 +6336,7 @@
         <v>93</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>16</v>
@@ -6112,20 +6345,20 @@
         <v>19</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="26" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>39</v>
@@ -6135,7 +6368,7 @@
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="24" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="O2" s="24">
         <v>0</v>
@@ -6145,13 +6378,13 @@
         <v>6200</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="S2" s="24" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="T2" s="24" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="U2" s="24" t="s">
         <v>65</v>
@@ -6176,13 +6409,13 @@
       <c r="AE2" s="24"/>
       <c r="AF2" s="24"/>
       <c r="AG2" s="24" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AH2" s="24">
         <v>8000</v>
       </c>
       <c r="AI2" s="25" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -6190,7 +6423,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>16</v>
@@ -6203,16 +6436,16 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="26" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>39</v>
@@ -6222,7 +6455,7 @@
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="24" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="O3" s="24">
         <v>0</v>
@@ -6232,13 +6465,13 @@
         <v>6713</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="T3" s="24" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="U3" s="25" t="s">
         <v>65</v>
@@ -6248,7 +6481,7 @@
       </c>
       <c r="W3" s="25"/>
       <c r="X3" s="25" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="Y3" s="25"/>
       <c r="Z3" s="25"/>
@@ -6267,13 +6500,13 @@
         <v>0</v>
       </c>
       <c r="AG3" s="25" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AH3" s="25">
         <v>10</v>
       </c>
       <c r="AI3" s="25" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -6281,7 +6514,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>16</v>
@@ -6290,20 +6523,20 @@
         <v>19</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="26" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>39</v>
@@ -6313,7 +6546,7 @@
       </c>
       <c r="M4" s="25"/>
       <c r="N4" s="25" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="O4" s="25">
         <v>0</v>
@@ -6323,23 +6556,23 @@
         <v>6713</v>
       </c>
       <c r="R4" s="25" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="T4" s="25" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="V4" s="24" t="s">
         <v>100</v>
       </c>
       <c r="W4" s="25"/>
       <c r="X4" s="25" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="Y4" s="25"/>
       <c r="Z4" s="25"/>
@@ -6352,13 +6585,13 @@
       <c r="AE4" s="25"/>
       <c r="AF4" s="25"/>
       <c r="AG4" s="25" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="AH4" s="25">
         <v>10</v>
       </c>
       <c r="AI4" s="25" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -6366,7 +6599,7 @@
         <v>105</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>16</v>
@@ -6375,20 +6608,20 @@
         <v>19</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="26" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>39</v>
@@ -6398,7 +6631,7 @@
       </c>
       <c r="M5" s="25"/>
       <c r="N5" s="25" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="O5" s="25">
         <v>0</v>
@@ -6408,13 +6641,13 @@
         <v>6785</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="S5" s="25" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="T5" s="25" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="U5" s="25" t="s">
         <v>65</v>
@@ -6443,13 +6676,13 @@
         <v>400</v>
       </c>
       <c r="AG5" s="25" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AH5" s="25">
         <v>1000</v>
       </c>
       <c r="AI5" s="25" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -6457,7 +6690,7 @@
         <v>111</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>16</v>
@@ -6466,20 +6699,20 @@
         <v>19</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="26" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K6" s="25" t="s">
         <v>39</v>
@@ -6489,7 +6722,7 @@
       </c>
       <c r="M6" s="25"/>
       <c r="N6" s="25" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="O6" s="25">
         <v>0</v>
@@ -6499,16 +6732,16 @@
         <v>6780</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="S6" s="25" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="T6" s="25" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="U6" s="25" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="V6" s="24" t="s">
         <v>100</v>
@@ -6534,13 +6767,13 @@
         <v>464</v>
       </c>
       <c r="AG6" s="25" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AH6" s="25">
         <v>1000</v>
       </c>
       <c r="AI6" s="25" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -6548,7 +6781,7 @@
         <v>120</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>16</v>
@@ -6557,20 +6790,20 @@
         <v>19</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="26" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>39</v>
@@ -6580,7 +6813,7 @@
       </c>
       <c r="M7" s="25"/>
       <c r="N7" s="25" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="O7" s="25">
         <v>0</v>
@@ -6590,16 +6823,16 @@
         <v>6798</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="S7" s="25" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="T7" s="25" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="U7" s="25" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="V7" s="24" t="s">
         <v>100</v>
@@ -6625,13 +6858,13 @@
         <v>498</v>
       </c>
       <c r="AG7" s="25" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="AH7" s="25">
         <v>500</v>
       </c>
       <c r="AI7" s="25" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -6639,7 +6872,7 @@
         <v>127</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>16</v>
@@ -6652,16 +6885,16 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="26" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K8" s="25" t="s">
         <v>39</v>
@@ -6678,16 +6911,16 @@
       </c>
       <c r="P8" s="25"/>
       <c r="Q8" s="25" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="S8" s="25" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="T8" s="25" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="U8" s="25" t="s">
         <v>65</v>
@@ -6716,13 +6949,13 @@
         <v>0</v>
       </c>
       <c r="AG8" s="25" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="AH8" s="25">
         <v>1900</v>
       </c>
       <c r="AI8" s="25" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -6730,29 +6963,29 @@
         <v>132</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>160</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="26" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K9" s="25" t="s">
         <v>114</v>
@@ -6769,16 +7002,16 @@
       </c>
       <c r="P9" s="25"/>
       <c r="Q9" s="25" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="S9" s="25" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="T9" s="25" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="U9" s="25" t="s">
         <v>65</v>
@@ -6787,7 +7020,7 @@
       <c r="W9" s="25"/>
       <c r="X9" s="25"/>
       <c r="Y9" s="25" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="Z9" s="25">
         <v>271.39999999999998</v>
@@ -6796,7 +7029,7 @@
         <v>35282</v>
       </c>
       <c r="AB9" s="25" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="AC9" s="25">
         <v>441.02499999999998</v>
@@ -6811,13 +7044,13 @@
         <v>264.27999999999997</v>
       </c>
       <c r="AG9" s="25" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="AH9" s="25">
         <v>16</v>
       </c>
       <c r="AI9" s="25" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6899,22 +7132,22 @@
         <v>25</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="181.5">
@@ -6922,25 +7155,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
@@ -6952,25 +7185,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -6983,20 +7216,20 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="13" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="17" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -7008,25 +7241,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -7038,21 +7271,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="20" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -7064,25 +7297,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -7094,25 +7327,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -7124,26 +7357,26 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="17"/>
       <c r="G9" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="23" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L9" s="17"/>
     </row>
@@ -7152,7 +7385,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>16</v>
@@ -7161,22 +7394,22 @@
       <c r="E10" s="15"/>
       <c r="F10" s="17"/>
       <c r="G10" s="23" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="49.5">
@@ -7184,31 +7417,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="17"/>
       <c r="G11" s="23" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="49.5">
@@ -7216,7 +7449,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>16</v>
@@ -7225,22 +7458,22 @@
       <c r="E12" s="15"/>
       <c r="F12" s="17"/>
       <c r="G12" s="23" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="49.5">
@@ -7248,29 +7481,29 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="17"/>
       <c r="G13" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="23" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="49.5">
@@ -7278,31 +7511,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="17"/>
       <c r="G14" s="23" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="49.5">
@@ -7310,35 +7543,35 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="23" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="49.5">
@@ -7346,24 +7579,24 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="23" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="L16" s="17"/>
     </row>
@@ -7372,27 +7605,27 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="23" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
@@ -7402,30 +7635,30 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="J18" s="17"/>
       <c r="K18" s="23" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="L18" s="17"/>
     </row>
@@ -7434,32 +7667,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L19" s="17"/>
     </row>
@@ -7468,32 +7701,32 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L20" s="17"/>
     </row>
@@ -7502,7 +7735,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>16</v>
@@ -7511,21 +7744,21 @@
         <v>19</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="23" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L21" s="17"/>
     </row>
@@ -7534,30 +7767,30 @@
         <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="23" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L22" s="17"/>
     </row>
@@ -7566,30 +7799,30 @@
         <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="23" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="L23" s="17"/>
     </row>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8133ABC-F037-4AE0-A20C-5AE18C1814ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FAE1CF-5D9C-47DC-B148-3FE6B24BAEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="380">
   <si>
     <t>name</t>
   </si>
@@ -1195,9 +1195,6 @@
   </si>
   <si>
     <t>20~160</t>
-  </si>
-  <si>
-    <t>703.704~1407.407</t>
   </si>
   <si>
     <t>1359.852~1687.721</t>
@@ -2467,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD28" sqref="AD28"/>
+    <sheetView tabSelected="1" topLeftCell="Y6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO20" sqref="AO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2567,7 +2564,7 @@
         <v>72</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X1" s="12" t="s">
         <v>75</v>
@@ -2594,7 +2591,7 @@
         <v>321</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG1" s="11" t="s">
         <v>316</v>
@@ -2615,7 +2612,7 @@
         <v>91</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="28" customFormat="1">
@@ -3257,7 +3254,7 @@
         <v>130</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S8" s="29" t="s">
         <v>131</v>
@@ -3357,7 +3354,7 @@
         <v>137</v>
       </c>
       <c r="S9" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T9" s="29" t="s">
         <v>65</v>
@@ -3466,16 +3463,16 @@
       <c r="W10" s="29"/>
       <c r="X10" s="29"/>
       <c r="Y10" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Z10" s="29" t="s">
         <v>317</v>
       </c>
       <c r="AA10" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB10" s="29" t="s">
         <v>343</v>
-      </c>
-      <c r="AB10" s="29" t="s">
-        <v>344</v>
       </c>
       <c r="AC10" s="29" t="s">
         <v>77</v>
@@ -3610,7 +3607,7 @@
         <v>149</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>325</v>
@@ -3629,7 +3626,7 @@
         <v>245</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K12" s="30" t="s">
         <v>114</v>
@@ -3664,7 +3661,7 @@
       <c r="W12" s="30"/>
       <c r="X12" s="30"/>
       <c r="Y12" s="30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Z12" s="30" t="s">
         <v>317</v>
@@ -3673,7 +3670,7 @@
         <v>319</v>
       </c>
       <c r="AB12" s="30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AC12" s="30" t="s">
         <v>77</v>
@@ -3709,7 +3706,7 @@
         <v>156</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>325</v>
@@ -3728,7 +3725,7 @@
         <v>245</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K13" s="30" t="s">
         <v>114</v>
@@ -3741,7 +3738,7 @@
         <v>151</v>
       </c>
       <c r="O13" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P13" s="33" t="s">
         <v>260</v>
@@ -3763,7 +3760,7 @@
       <c r="W13" s="30"/>
       <c r="X13" s="30"/>
       <c r="Y13" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z13" s="30" t="s">
         <v>317</v>
@@ -3772,7 +3769,7 @@
         <v>319</v>
       </c>
       <c r="AB13" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AC13" s="30" t="s">
         <v>77</v>
@@ -4067,7 +4064,7 @@
       </c>
       <c r="AD16" s="30"/>
       <c r="AE16" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF16" s="30"/>
       <c r="AG16" s="30"/>
@@ -4162,14 +4159,14 @@
       </c>
       <c r="AD17" s="25"/>
       <c r="AE17" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF17" s="25" t="s">
         <v>269</v>
       </c>
       <c r="AG17" s="25"/>
       <c r="AH17" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AI17" s="25">
         <v>99.668000000000006</v>
@@ -4233,7 +4230,7 @@
         <v>7791</v>
       </c>
       <c r="Q18" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R18" s="25" t="s">
         <v>179</v>
@@ -4265,15 +4262,13 @@
       </c>
       <c r="AD18" s="25"/>
       <c r="AE18" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF18" s="25" t="s">
         <v>269</v>
       </c>
       <c r="AG18" s="25"/>
-      <c r="AH18" s="25" t="s">
-        <v>337</v>
-      </c>
+      <c r="AH18" s="25"/>
       <c r="AI18" s="25">
         <v>20407.406999999999</v>
       </c>
@@ -4287,7 +4282,7 @@
         <v>108</v>
       </c>
       <c r="AM18" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:39">
@@ -4336,7 +4331,7 @@
         <v>170</v>
       </c>
       <c r="Q19" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R19" s="25" t="s">
         <v>183</v>
@@ -4364,14 +4359,14 @@
       </c>
       <c r="AD19" s="25"/>
       <c r="AE19" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF19" s="25" t="s">
         <v>269</v>
       </c>
       <c r="AG19" s="25"/>
       <c r="AH19" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AI19" s="25">
         <v>89.9</v>
@@ -4435,7 +4430,7 @@
         <v>7715</v>
       </c>
       <c r="Q20" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R20" s="25" t="s">
         <v>187</v>
@@ -4465,7 +4460,7 @@
       </c>
       <c r="AD20" s="25"/>
       <c r="AE20" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
@@ -4485,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="AM20" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:39">
@@ -4534,7 +4529,7 @@
         <v>170</v>
       </c>
       <c r="Q21" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="R21" s="25" t="s">
         <v>191</v>
@@ -4562,14 +4557,14 @@
       </c>
       <c r="AD21" s="25"/>
       <c r="AE21" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF21" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG21" s="25"/>
       <c r="AH21" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AI21" s="25">
         <v>114</v>
@@ -4584,7 +4579,7 @@
         <v>599980</v>
       </c>
       <c r="AM21" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:39">
@@ -4633,7 +4628,7 @@
         <v>170</v>
       </c>
       <c r="Q22" s="25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R22" s="25" t="s">
         <v>194</v>
@@ -4649,7 +4644,7 @@
       <c r="W22" s="25"/>
       <c r="X22" s="25"/>
       <c r="Y22" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Z22" s="25" t="s">
         <v>317</v>
@@ -4658,16 +4653,16 @@
         <v>319</v>
       </c>
       <c r="AB22" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AC22" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AD22" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE22" s="25" t="s">
         <v>368</v>
-      </c>
-      <c r="AE22" s="25" t="s">
-        <v>369</v>
       </c>
       <c r="AF22" s="25" t="s">
         <v>270</v>
@@ -4734,13 +4729,13 @@
         <v>161</v>
       </c>
       <c r="O23" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P23" s="25" t="s">
         <v>170</v>
       </c>
       <c r="Q23" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R23" s="25" t="s">
         <v>194</v>
@@ -4756,7 +4751,7 @@
       <c r="W23" s="25"/>
       <c r="X23" s="25"/>
       <c r="Y23" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Z23" s="25" t="s">
         <v>317</v>
@@ -4765,16 +4760,16 @@
         <v>319</v>
       </c>
       <c r="AB23" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AC23" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AD23" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE23" s="25" t="s">
         <v>373</v>
-      </c>
-      <c r="AE23" s="25" t="s">
-        <v>374</v>
       </c>
       <c r="AF23" s="25" t="s">
         <v>270</v>
@@ -4847,7 +4842,7 @@
         <v>170</v>
       </c>
       <c r="Q24" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R24" s="25" t="s">
         <v>194</v>
@@ -4863,7 +4858,7 @@
       <c r="W24" s="25"/>
       <c r="X24" s="25"/>
       <c r="Y24" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z24" s="25" t="s">
         <v>317</v>
@@ -4872,16 +4867,16 @@
         <v>319</v>
       </c>
       <c r="AB24" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AC24" s="25" t="s">
         <v>164</v>
       </c>
       <c r="AD24" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AE24" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF24" s="25" t="s">
         <v>270</v>
@@ -4954,7 +4949,7 @@
         <v>170</v>
       </c>
       <c r="Q25" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R25" s="25" t="s">
         <v>202</v>
@@ -4970,7 +4965,7 @@
       <c r="W25" s="25"/>
       <c r="X25" s="25"/>
       <c r="Y25" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z25" s="25" t="s">
         <v>317</v>
@@ -4979,19 +4974,19 @@
         <v>319</v>
       </c>
       <c r="AB25" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AC25" s="25" t="s">
         <v>164</v>
       </c>
       <c r="AD25" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE25" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="AE25" s="25" t="s">
-        <v>380</v>
-      </c>
       <c r="AF25" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG25" s="25" t="s">
         <v>317</v>
@@ -5012,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="AM25" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FAE1CF-5D9C-47DC-B148-3FE6B24BAEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D33535A-6328-4BFE-9D29-145827EE23F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="378">
   <si>
     <t>name</t>
   </si>
@@ -1195,12 +1195,6 @@
   </si>
   <si>
     <t>20~160</t>
-  </si>
-  <si>
-    <t>1359.852~1687.721</t>
-  </si>
-  <si>
-    <t>155~175</t>
   </si>
   <si>
     <t>F00YA</t>
@@ -2464,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO20" sqref="AO20"/>
+    <sheetView tabSelected="1" topLeftCell="Y10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH19" sqref="AH19:AH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2564,7 +2558,7 @@
         <v>72</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="X1" s="12" t="s">
         <v>75</v>
@@ -2591,7 +2585,7 @@
         <v>321</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AG1" s="11" t="s">
         <v>316</v>
@@ -2612,7 +2606,7 @@
         <v>91</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="28" customFormat="1">
@@ -3254,7 +3248,7 @@
         <v>130</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="S8" s="29" t="s">
         <v>131</v>
@@ -3354,7 +3348,7 @@
         <v>137</v>
       </c>
       <c r="S9" s="29" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="T9" s="29" t="s">
         <v>65</v>
@@ -3463,16 +3457,16 @@
       <c r="W10" s="29"/>
       <c r="X10" s="29"/>
       <c r="Y10" s="29" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Z10" s="29" t="s">
         <v>317</v>
       </c>
       <c r="AA10" s="29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AB10" s="29" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AC10" s="29" t="s">
         <v>77</v>
@@ -3607,7 +3601,7 @@
         <v>149</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>325</v>
@@ -3626,7 +3620,7 @@
         <v>245</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K12" s="30" t="s">
         <v>114</v>
@@ -3661,7 +3655,7 @@
       <c r="W12" s="30"/>
       <c r="X12" s="30"/>
       <c r="Y12" s="30" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Z12" s="30" t="s">
         <v>317</v>
@@ -3670,7 +3664,7 @@
         <v>319</v>
       </c>
       <c r="AB12" s="30" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AC12" s="30" t="s">
         <v>77</v>
@@ -3706,7 +3700,7 @@
         <v>156</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>325</v>
@@ -3725,7 +3719,7 @@
         <v>245</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K13" s="30" t="s">
         <v>114</v>
@@ -3738,7 +3732,7 @@
         <v>151</v>
       </c>
       <c r="O13" s="30" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P13" s="33" t="s">
         <v>260</v>
@@ -3760,7 +3754,7 @@
       <c r="W13" s="30"/>
       <c r="X13" s="30"/>
       <c r="Y13" s="30" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Z13" s="30" t="s">
         <v>317</v>
@@ -3769,7 +3763,7 @@
         <v>319</v>
       </c>
       <c r="AB13" s="30" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AC13" s="30" t="s">
         <v>77</v>
@@ -4064,7 +4058,7 @@
       </c>
       <c r="AD16" s="30"/>
       <c r="AE16" s="30" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AF16" s="30"/>
       <c r="AG16" s="30"/>
@@ -4159,14 +4153,14 @@
       </c>
       <c r="AD17" s="25"/>
       <c r="AE17" s="25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AF17" s="25" t="s">
         <v>269</v>
       </c>
       <c r="AG17" s="25"/>
       <c r="AH17" s="25" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AI17" s="25">
         <v>99.668000000000006</v>
@@ -4184,105 +4178,105 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
-      <c r="A18" t="s">
+    <row r="18" spans="1:39" s="28" customFormat="1">
+      <c r="A18" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26" t="s">
+      <c r="F18" s="30"/>
+      <c r="G18" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="L18" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25" t="s">
+      <c r="M18" s="30"/>
+      <c r="N18" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18" s="30">
         <v>0</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P18" s="30">
         <v>7791</v>
       </c>
-      <c r="Q18" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="R18" s="25" t="s">
+      <c r="Q18" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="R18" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="S18" s="25" t="s">
+      <c r="S18" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="T18" s="25" t="s">
+      <c r="T18" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="U18" s="24" t="s">
+      <c r="U18" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="V18" s="25" t="s">
+      <c r="V18" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="W18" s="25" t="s">
+      <c r="W18" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="X18" s="24" t="s">
+      <c r="X18" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="25" t="s">
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25" t="s">
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="AF18" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30">
+        <v>20407.406999999999</v>
+      </c>
+      <c r="AJ18" s="30">
+        <v>20407.406999999999</v>
+      </c>
+      <c r="AK18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="30">
+        <v>108</v>
+      </c>
+      <c r="AM18" s="30" t="s">
         <v>357</v>
-      </c>
-      <c r="AF18" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="25"/>
-      <c r="AI18" s="25">
-        <v>20407.406999999999</v>
-      </c>
-      <c r="AJ18" s="25">
-        <v>20407.406999999999</v>
-      </c>
-      <c r="AK18" s="25">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="25">
-        <v>108</v>
-      </c>
-      <c r="AM18" s="30" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:39">
@@ -4331,7 +4325,7 @@
         <v>170</v>
       </c>
       <c r="Q19" s="25" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="R19" s="25" t="s">
         <v>183</v>
@@ -4359,15 +4353,13 @@
       </c>
       <c r="AD19" s="25"/>
       <c r="AE19" s="25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AF19" s="25" t="s">
         <v>269</v>
       </c>
       <c r="AG19" s="25"/>
-      <c r="AH19" s="25" t="s">
-        <v>337</v>
-      </c>
+      <c r="AH19" s="25"/>
       <c r="AI19" s="25">
         <v>89.9</v>
       </c>
@@ -4430,7 +4422,7 @@
         <v>7715</v>
       </c>
       <c r="Q20" s="25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="R20" s="25" t="s">
         <v>187</v>
@@ -4460,13 +4452,11 @@
       </c>
       <c r="AD20" s="25"/>
       <c r="AE20" s="25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
-      <c r="AH20" s="25">
-        <v>100000</v>
-      </c>
+      <c r="AH20" s="25"/>
       <c r="AI20" s="25">
         <v>301.06</v>
       </c>
@@ -4480,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="AM20" s="30" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:39">
@@ -4529,7 +4519,7 @@
         <v>170</v>
       </c>
       <c r="Q21" s="25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="R21" s="25" t="s">
         <v>191</v>
@@ -4557,15 +4547,13 @@
       </c>
       <c r="AD21" s="25"/>
       <c r="AE21" s="25" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AF21" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AG21" s="25"/>
-      <c r="AH21" s="25" t="s">
-        <v>338</v>
-      </c>
+      <c r="AH21" s="25"/>
       <c r="AI21" s="25">
         <v>114</v>
       </c>
@@ -4579,7 +4567,7 @@
         <v>599980</v>
       </c>
       <c r="AM21" s="30" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:39">
@@ -4628,7 +4616,7 @@
         <v>170</v>
       </c>
       <c r="Q22" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="R22" s="25" t="s">
         <v>194</v>
@@ -4644,7 +4632,7 @@
       <c r="W22" s="25"/>
       <c r="X22" s="25"/>
       <c r="Y22" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Z22" s="25" t="s">
         <v>317</v>
@@ -4653,16 +4641,16 @@
         <v>319</v>
       </c>
       <c r="AB22" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AC22" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AD22" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AE22" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AF22" s="25" t="s">
         <v>270</v>
@@ -4670,9 +4658,7 @@
       <c r="AG22" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="AH22" s="25">
-        <v>131.30000000000001</v>
-      </c>
+      <c r="AH22" s="25"/>
       <c r="AI22" s="25">
         <v>120.57</v>
       </c>
@@ -4729,13 +4715,13 @@
         <v>161</v>
       </c>
       <c r="O23" s="25" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P23" s="25" t="s">
         <v>170</v>
       </c>
       <c r="Q23" s="25" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="R23" s="25" t="s">
         <v>194</v>
@@ -4751,7 +4737,7 @@
       <c r="W23" s="25"/>
       <c r="X23" s="25"/>
       <c r="Y23" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Z23" s="25" t="s">
         <v>317</v>
@@ -4760,16 +4746,16 @@
         <v>319</v>
       </c>
       <c r="AB23" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AC23" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AD23" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AE23" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AF23" s="25" t="s">
         <v>270</v>
@@ -4777,9 +4763,7 @@
       <c r="AG23" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="AH23" s="25">
-        <v>131.30000000000001</v>
-      </c>
+      <c r="AH23" s="25"/>
       <c r="AI23" s="25">
         <v>120.57</v>
       </c>
@@ -4842,7 +4826,7 @@
         <v>170</v>
       </c>
       <c r="Q24" s="25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="R24" s="25" t="s">
         <v>194</v>
@@ -4858,7 +4842,7 @@
       <c r="W24" s="25"/>
       <c r="X24" s="25"/>
       <c r="Y24" s="25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Z24" s="25" t="s">
         <v>317</v>
@@ -4867,16 +4851,16 @@
         <v>319</v>
       </c>
       <c r="AB24" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AC24" s="25" t="s">
         <v>164</v>
       </c>
       <c r="AD24" s="25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AE24" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF24" s="25" t="s">
         <v>270</v>
@@ -4884,9 +4868,7 @@
       <c r="AG24" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="AH24" s="25">
-        <v>133.9</v>
-      </c>
+      <c r="AH24" s="25"/>
       <c r="AI24" s="25">
         <v>47.18</v>
       </c>
@@ -4949,7 +4931,7 @@
         <v>170</v>
       </c>
       <c r="Q25" s="25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="R25" s="25" t="s">
         <v>202</v>
@@ -4965,7 +4947,7 @@
       <c r="W25" s="25"/>
       <c r="X25" s="25"/>
       <c r="Y25" s="25" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="Z25" s="25" t="s">
         <v>317</v>
@@ -4974,26 +4956,24 @@
         <v>319</v>
       </c>
       <c r="AB25" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AC25" s="25" t="s">
         <v>164</v>
       </c>
       <c r="AD25" s="25" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AE25" s="25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AF25" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AG25" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="AH25" s="25">
-        <v>63.44</v>
-      </c>
+      <c r="AH25" s="25"/>
       <c r="AI25" s="25">
         <v>64.7</v>
       </c>
@@ -5007,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="AM25" s="30" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D33535A-6328-4BFE-9D29-145827EE23F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81D3E20-7281-49A7-8F36-A9EEB9ECE670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2458,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH19" sqref="AH19:AH25"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -4279,194 +4279,194 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
-      <c r="A19" t="s">
+    <row r="19" spans="1:39" s="28" customFormat="1">
+      <c r="A19" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26" t="s">
+      <c r="F19" s="30"/>
+      <c r="G19" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L19" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25" t="s">
+      <c r="M19" s="30"/>
+      <c r="N19" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="30">
         <v>0</v>
       </c>
-      <c r="P19" s="25" t="s">
+      <c r="P19" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="Q19" s="25" t="s">
+      <c r="Q19" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="R19" s="25" t="s">
+      <c r="R19" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="S19" s="25" t="s">
+      <c r="S19" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="T19" s="25" t="s">
+      <c r="T19" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="U19" s="24" t="s">
+      <c r="U19" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="24" t="s">
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="25" t="s">
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25" t="s">
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="AF19" s="25" t="s">
+      <c r="AF19" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25">
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30">
         <v>89.9</v>
       </c>
-      <c r="AJ19" s="25">
+      <c r="AJ19" s="30">
         <v>44.51</v>
       </c>
-      <c r="AK19" s="25">
+      <c r="AK19" s="30">
         <v>45.39</v>
       </c>
-      <c r="AL19" s="25">
+      <c r="AL19" s="30">
         <v>86521</v>
       </c>
       <c r="AM19" s="30" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
-      <c r="A20" t="s">
+    <row r="20" spans="1:39" s="28" customFormat="1">
+      <c r="A20" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26" t="s">
+      <c r="F20" s="30"/>
+      <c r="G20" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25" t="s">
+      <c r="M20" s="30"/>
+      <c r="N20" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="30">
         <v>0</v>
       </c>
-      <c r="P20" s="25">
+      <c r="P20" s="30">
         <v>7715</v>
       </c>
-      <c r="Q20" s="25" t="s">
+      <c r="Q20" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="R20" s="25" t="s">
+      <c r="R20" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="S20" s="25" t="s">
+      <c r="S20" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="T20" s="25" t="s">
+      <c r="T20" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="U20" s="24" t="s">
+      <c r="U20" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="V20" s="25">
+      <c r="V20" s="30">
         <v>100000</v>
       </c>
-      <c r="W20" s="25" t="s">
+      <c r="W20" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25" t="s">
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25" t="s">
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25">
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30">
         <v>301.06</v>
       </c>
-      <c r="AJ20" s="25">
+      <c r="AJ20" s="30">
         <v>218.97</v>
       </c>
-      <c r="AK20" s="25">
+      <c r="AK20" s="30">
         <v>82.09</v>
       </c>
-      <c r="AL20" s="25">
+      <c r="AL20" s="30">
         <v>1</v>
       </c>
       <c r="AM20" s="30" t="s">
@@ -4480,8 +4480,8 @@
       <c r="B21" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>16</v>
+      <c r="C21" s="29" t="s">
+        <v>346</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>265</v>
@@ -4499,8 +4499,8 @@
       <c r="I21" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="J21" s="26" t="s">
-        <v>247</v>
+      <c r="J21" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="K21" s="25" t="s">
         <v>114</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81D3E20-7281-49A7-8F36-A9EEB9ECE670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BDE214-9749-40EA-8A19-8ECB7E0540A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="376">
   <si>
     <t>name</t>
   </si>
@@ -1342,10 +1342,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>1010</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>E07BLS   - 23EX****-******</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1359,10 +1355,6 @@
   </si>
   <si>
     <t>F05DC1   - 76EX****-******</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>1.307~3.922</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -2458,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="Q8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -4473,11 +4465,11 @@
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
-      <c r="A21" t="s">
+    <row r="21" spans="1:39" s="28" customFormat="1">
+      <c r="A21" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="29" t="s">
         <v>190</v>
       </c>
       <c r="C21" s="29" t="s">
@@ -4486,84 +4478,84 @@
       <c r="D21" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26" t="s">
+      <c r="F21" s="30"/>
+      <c r="G21" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L21" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25" t="s">
+      <c r="M21" s="30"/>
+      <c r="N21" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="30">
         <v>0</v>
       </c>
-      <c r="P21" s="25" t="s">
+      <c r="P21" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="Q21" s="25" t="s">
+      <c r="Q21" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="R21" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="S21" s="25" t="s">
+      <c r="S21" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="T21" s="25" t="s">
+      <c r="T21" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="U21" s="24" t="s">
+      <c r="U21" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="24" t="s">
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="25" t="s">
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25" t="s">
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="AF21" s="25" t="s">
+      <c r="AF21" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25">
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30">
         <v>114</v>
       </c>
-      <c r="AJ21" s="25">
+      <c r="AJ21" s="30">
         <v>114</v>
       </c>
-      <c r="AK21" s="25">
+      <c r="AK21" s="30">
         <v>0</v>
       </c>
-      <c r="AL21" s="25">
+      <c r="AL21" s="30">
         <v>599980</v>
       </c>
       <c r="AM21" s="30" t="s">
@@ -4631,9 +4623,7 @@
       <c r="V22" s="25"/>
       <c r="W22" s="25"/>
       <c r="X22" s="25"/>
-      <c r="Y22" s="25" t="s">
-        <v>368</v>
-      </c>
+      <c r="Y22" s="25"/>
       <c r="Z22" s="25" t="s">
         <v>317</v>
       </c>
@@ -4721,7 +4711,7 @@
         <v>170</v>
       </c>
       <c r="Q23" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R23" s="25" t="s">
         <v>194</v>
@@ -4736,9 +4726,7 @@
       <c r="V23" s="25"/>
       <c r="W23" s="25"/>
       <c r="X23" s="25"/>
-      <c r="Y23" s="25" t="s">
-        <v>368</v>
-      </c>
+      <c r="Y23" s="25"/>
       <c r="Z23" s="25" t="s">
         <v>317</v>
       </c>
@@ -4752,10 +4740,10 @@
         <v>357</v>
       </c>
       <c r="AD23" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE23" s="25" t="s">
         <v>370</v>
-      </c>
-      <c r="AE23" s="25" t="s">
-        <v>371</v>
       </c>
       <c r="AF23" s="25" t="s">
         <v>270</v>
@@ -4826,7 +4814,7 @@
         <v>170</v>
       </c>
       <c r="Q24" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R24" s="25" t="s">
         <v>194</v>
@@ -4841,9 +4829,7 @@
       <c r="V24" s="25"/>
       <c r="W24" s="25"/>
       <c r="X24" s="25"/>
-      <c r="Y24" s="25" t="s">
-        <v>373</v>
-      </c>
+      <c r="Y24" s="25"/>
       <c r="Z24" s="25" t="s">
         <v>317</v>
       </c>
@@ -4860,7 +4846,7 @@
         <v>344</v>
       </c>
       <c r="AE24" s="25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AF24" s="25" t="s">
         <v>270</v>
@@ -4931,7 +4917,7 @@
         <v>170</v>
       </c>
       <c r="Q25" s="25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="R25" s="25" t="s">
         <v>202</v>
@@ -4946,9 +4932,7 @@
       <c r="V25" s="25"/>
       <c r="W25" s="25"/>
       <c r="X25" s="25"/>
-      <c r="Y25" s="25" t="s">
-        <v>376</v>
-      </c>
+      <c r="Y25" s="25"/>
       <c r="Z25" s="25" t="s">
         <v>317</v>
       </c>
@@ -4962,10 +4946,10 @@
         <v>164</v>
       </c>
       <c r="AD25" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AE25" s="25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AF25" s="25" t="s">
         <v>357</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BDE214-9749-40EA-8A19-8ECB7E0540A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E273E5E0-7178-4C9D-801C-629D2E07ADE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1273,10 +1273,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>111.03</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>B10X12   - 270X 200-B0310H</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1371,6 +1367,13 @@
   </si>
   <si>
     <t>63.44</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>連</t>
+    <rPh sb="0" eb="1">
+      <t>レン</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -2450,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22:Y25"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2550,7 +2553,7 @@
         <v>72</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="X1" s="12" t="s">
         <v>75</v>
@@ -4148,12 +4151,10 @@
         <v>352</v>
       </c>
       <c r="AF17" s="25" t="s">
-        <v>269</v>
+        <v>375</v>
       </c>
       <c r="AG17" s="25"/>
-      <c r="AH17" s="25" t="s">
-        <v>353</v>
-      </c>
+      <c r="AH17" s="25"/>
       <c r="AI17" s="25">
         <v>99.668000000000006</v>
       </c>
@@ -4166,8 +4167,8 @@
       <c r="AL17" s="25">
         <v>1</v>
       </c>
-      <c r="AM17" t="s">
-        <v>269</v>
+      <c r="AM17" s="25" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:39" s="28" customFormat="1">
@@ -4216,7 +4217,7 @@
         <v>7791</v>
       </c>
       <c r="Q18" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R18" s="30" t="s">
         <v>179</v>
@@ -4248,7 +4249,7 @@
       </c>
       <c r="AD18" s="30"/>
       <c r="AE18" s="30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF18" s="30" t="s">
         <v>269</v>
@@ -4268,7 +4269,7 @@
         <v>108</v>
       </c>
       <c r="AM18" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:39" s="28" customFormat="1">
@@ -4317,7 +4318,7 @@
         <v>170</v>
       </c>
       <c r="Q19" s="30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R19" s="30" t="s">
         <v>183</v>
@@ -4345,7 +4346,7 @@
       </c>
       <c r="AD19" s="30"/>
       <c r="AE19" s="30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF19" s="30" t="s">
         <v>269</v>
@@ -4414,7 +4415,7 @@
         <v>7715</v>
       </c>
       <c r="Q20" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R20" s="30" t="s">
         <v>187</v>
@@ -4444,7 +4445,7 @@
       </c>
       <c r="AD20" s="30"/>
       <c r="AE20" s="30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF20" s="30"/>
       <c r="AG20" s="30"/>
@@ -4462,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="AM20" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:39" s="28" customFormat="1">
@@ -4511,7 +4512,7 @@
         <v>170</v>
       </c>
       <c r="Q21" s="30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R21" s="30" t="s">
         <v>191</v>
@@ -4539,10 +4540,10 @@
       </c>
       <c r="AD21" s="30"/>
       <c r="AE21" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF21" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG21" s="30"/>
       <c r="AH21" s="30"/>
@@ -4559,312 +4560,312 @@
         <v>599980</v>
       </c>
       <c r="AM21" s="30" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39">
-      <c r="A22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" s="28" customFormat="1">
+      <c r="A22" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26" t="s">
+      <c r="F22" s="30"/>
+      <c r="G22" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="K22" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="L22" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25" t="s">
+      <c r="M22" s="30"/>
+      <c r="N22" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="O22" s="25">
+      <c r="O22" s="30">
         <v>0</v>
       </c>
-      <c r="P22" s="25" t="s">
+      <c r="P22" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="Q22" s="25" t="s">
+      <c r="Q22" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="R22" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="S22" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="T22" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA22" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB22" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC22" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD22" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="R22" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="S22" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="T22" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25" t="s">
+      <c r="AE22" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="AF22" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG22" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="AA22" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB22" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="AC22" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD22" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="AE22" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="AF22" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="AG22" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25">
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30">
         <v>120.57</v>
       </c>
-      <c r="AJ22" s="25">
+      <c r="AJ22" s="30">
         <v>36.67</v>
       </c>
-      <c r="AK22" s="25">
+      <c r="AK22" s="30">
         <v>83.9</v>
       </c>
-      <c r="AL22" s="25">
+      <c r="AL22" s="30">
         <v>1</v>
       </c>
       <c r="AM22" s="30" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
-      <c r="A23" t="s">
+    <row r="23" spans="1:39" s="28" customFormat="1">
+      <c r="A23" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26" t="s">
+      <c r="F23" s="30"/>
+      <c r="G23" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K23" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="L23" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25" t="s">
+      <c r="M23" s="30"/>
+      <c r="N23" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="O23" s="25" t="s">
+      <c r="O23" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="P23" s="25" t="s">
+      <c r="P23" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="Q23" s="25" t="s">
+      <c r="Q23" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="R23" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="S23" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="T23" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA23" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB23" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC23" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD23" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="R23" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="S23" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="T23" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25" t="s">
+      <c r="AE23" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF23" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG23" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="AA23" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB23" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="AC23" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD23" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE23" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="AF23" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="AG23" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25">
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30">
         <v>120.57</v>
       </c>
-      <c r="AJ23" s="25">
+      <c r="AJ23" s="30">
         <v>36.67</v>
       </c>
-      <c r="AK23" s="25">
+      <c r="AK23" s="30">
         <v>83.9</v>
       </c>
-      <c r="AL23" s="25">
+      <c r="AL23" s="30">
         <v>1</v>
       </c>
       <c r="AM23" s="30" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
-      <c r="A24" t="s">
+    <row r="24" spans="1:39" s="28" customFormat="1">
+      <c r="A24" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26" t="s">
+      <c r="F24" s="30"/>
+      <c r="G24" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="L24" s="25" t="s">
+      <c r="L24" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25" t="s">
+      <c r="M24" s="30"/>
+      <c r="N24" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="30">
         <v>0</v>
       </c>
-      <c r="P24" s="25" t="s">
+      <c r="P24" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="Q24" s="25" t="s">
+      <c r="Q24" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="R24" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="S24" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="T24" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA24" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB24" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC24" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD24" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE24" s="30" t="s">
         <v>371</v>
       </c>
-      <c r="R24" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="S24" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="T24" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25" t="s">
+      <c r="AF24" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG24" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="AA24" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB24" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="AC24" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD24" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="AE24" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF24" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="AG24" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25">
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30">
         <v>47.18</v>
       </c>
-      <c r="AJ24" s="25">
+      <c r="AJ24" s="30">
         <v>31.47</v>
       </c>
-      <c r="AK24" s="25">
+      <c r="AK24" s="30">
         <v>15.71</v>
       </c>
-      <c r="AL24" s="25">
+      <c r="AL24" s="30">
         <v>1</v>
       </c>
       <c r="AM24" s="30" t="s">
@@ -4910,14 +4911,14 @@
       <c r="N25" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="O25" s="25">
-        <v>100</v>
+      <c r="O25" s="25" t="s">
+        <v>348</v>
       </c>
       <c r="P25" s="25" t="s">
         <v>170</v>
       </c>
       <c r="Q25" s="25" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R25" s="25" t="s">
         <v>202</v>
@@ -4940,19 +4941,19 @@
         <v>319</v>
       </c>
       <c r="AB25" s="25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AC25" s="25" t="s">
         <v>164</v>
       </c>
       <c r="AD25" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE25" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="AE25" s="25" t="s">
-        <v>375</v>
-      </c>
       <c r="AF25" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG25" s="25" t="s">
         <v>317</v>
@@ -4971,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="AM25" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19877CA1-A7FE-4763-BA17-DFE84780535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A30D1F-5039-44A4-AAA3-AD5ED7C99000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="337">
   <si>
     <t>name</t>
   </si>
@@ -1244,6 +1244,10 @@
   </si>
   <si>
     <t>U20XZ039 -150EX****-******</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1300</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1423,7 +1427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1457,13 +1461,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2078,2374 +2078,2374 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="23" customFormat="1">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J2" s="26" t="s">
+      <c r="I2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="24" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="20">
         <v>0</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="24">
+      <c r="V2" s="20">
         <v>675</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24" t="s">
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24">
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20">
         <v>662</v>
       </c>
-      <c r="AI2" s="24">
+      <c r="AI2" s="20">
         <v>372.161</v>
       </c>
-      <c r="AJ2" s="24">
+      <c r="AJ2" s="20">
         <v>372.161</v>
       </c>
-      <c r="AK2" s="24">
+      <c r="AK2" s="20">
         <v>0</v>
       </c>
-      <c r="AL2" s="24">
+      <c r="AL2" s="20">
         <v>40</v>
       </c>
-      <c r="AM2" s="24" t="s">
+      <c r="AM2" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="23" customFormat="1">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:39">
+      <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H3" s="26" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J3" s="26" t="s">
+      <c r="I3" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="24" t="s">
+      <c r="M3" s="21"/>
+      <c r="N3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="20">
         <v>0</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V3" s="24">
+      <c r="V3" s="20">
         <v>690</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="W3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="24" t="s">
+      <c r="X3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24" t="s">
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24">
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20">
         <v>690</v>
       </c>
-      <c r="AI3" s="24">
+      <c r="AI3" s="20">
         <v>384</v>
       </c>
-      <c r="AJ3" s="24">
+      <c r="AJ3" s="20">
         <v>384</v>
       </c>
-      <c r="AK3" s="24">
+      <c r="AK3" s="20">
         <v>0</v>
       </c>
-      <c r="AL3" s="24">
+      <c r="AL3" s="20">
         <v>100</v>
       </c>
-      <c r="AM3" s="24" t="s">
+      <c r="AM3" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="23" customFormat="1">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H4" s="26" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I4" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J4" s="26" t="s">
+      <c r="I4" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="24" t="s">
+      <c r="M4" s="21"/>
+      <c r="N4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="20">
         <v>0</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="S4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="24" t="s">
+      <c r="T4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="U4" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="24">
+      <c r="V4" s="20">
         <v>564</v>
       </c>
-      <c r="W4" s="24" t="s">
+      <c r="W4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="24" t="s">
+      <c r="X4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24" t="s">
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24">
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20">
         <v>564</v>
       </c>
-      <c r="AI4" s="24">
+      <c r="AI4" s="20">
         <v>416</v>
       </c>
-      <c r="AJ4" s="24">
+      <c r="AJ4" s="20">
         <v>354</v>
       </c>
-      <c r="AK4" s="24">
+      <c r="AK4" s="20">
         <v>62</v>
       </c>
-      <c r="AL4" s="24">
+      <c r="AL4" s="20">
         <v>475</v>
       </c>
-      <c r="AM4" s="24" t="s">
+      <c r="AM4" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="23" customFormat="1">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:39">
+      <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H5" s="26" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I5" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J5" s="26" t="s">
+      <c r="I5" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="24" t="s">
+      <c r="M5" s="21"/>
+      <c r="N5" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="20">
         <v>0</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="24" t="s">
+      <c r="T5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U5" s="24" t="s">
+      <c r="U5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V5" s="24">
+      <c r="V5" s="20">
         <v>487</v>
       </c>
-      <c r="W5" s="24" t="s">
+      <c r="W5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X5" s="24" t="s">
+      <c r="X5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24" t="s">
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27">
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23">
         <v>387</v>
       </c>
-      <c r="AI5" s="24">
+      <c r="AI5" s="20">
         <v>426</v>
       </c>
-      <c r="AJ5" s="24">
+      <c r="AJ5" s="20">
         <v>384</v>
       </c>
-      <c r="AK5" s="24">
+      <c r="AK5" s="20">
         <v>42</v>
       </c>
-      <c r="AL5" s="24">
+      <c r="AL5" s="20">
         <v>576</v>
       </c>
-      <c r="AM5" s="24" t="s">
+      <c r="AM5" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="23" customFormat="1">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:39">
+      <c r="A6" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H6" s="26" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J6" s="26" t="s">
+      <c r="I6" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="24" t="s">
+      <c r="M6" s="21"/>
+      <c r="N6" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="20">
         <v>0</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="S6" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="T6" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="U6" s="24" t="s">
+      <c r="U6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="V6" s="24" t="s">
+      <c r="V6" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="W6" s="24" t="s">
+      <c r="W6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X6" s="24" t="s">
+      <c r="X6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24" t="s">
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24" t="s">
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="AI6" s="24">
+      <c r="AI6" s="20">
         <v>401</v>
       </c>
-      <c r="AJ6" s="24">
+      <c r="AJ6" s="20">
         <v>532</v>
       </c>
-      <c r="AK6" s="24">
+      <c r="AK6" s="20">
         <v>49</v>
       </c>
-      <c r="AL6" s="24">
+      <c r="AL6" s="20">
         <v>200</v>
       </c>
-      <c r="AM6" s="24" t="s">
+      <c r="AM6" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="23" customFormat="1">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" s="26" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I7" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J7" s="26" t="s">
+      <c r="I7" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="21"/>
+      <c r="N7" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="20">
         <v>0</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="P7" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="Q7" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="R7" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="S7" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="T7" s="24" t="s">
+      <c r="T7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U7" s="24" t="s">
+      <c r="U7" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24" t="s">
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24" t="s">
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24" t="s">
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="AI7" s="24">
+      <c r="AI7" s="20">
         <v>514</v>
       </c>
-      <c r="AJ7" s="24">
+      <c r="AJ7" s="20">
         <v>478</v>
       </c>
-      <c r="AK7" s="24">
+      <c r="AK7" s="20">
         <v>36</v>
       </c>
-      <c r="AL7" s="24">
+      <c r="AL7" s="20">
         <v>25</v>
       </c>
-      <c r="AM7" s="24" t="s">
+      <c r="AM7" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="23" customFormat="1">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="26" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J8" s="26" t="s">
+      <c r="I8" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="24" t="s">
+      <c r="M8" s="21"/>
+      <c r="N8" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="20">
         <v>0</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="R8" s="24" t="s">
+      <c r="R8" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="T8" s="24" t="s">
+      <c r="T8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U8" s="24" t="s">
+      <c r="U8" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="V8" s="24" t="s">
+      <c r="V8" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="W8" s="24" t="s">
+      <c r="W8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24" t="s">
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="24"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24" t="s">
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="AI8" s="24">
+      <c r="AI8" s="20">
         <v>563</v>
       </c>
-      <c r="AJ8" s="24">
+      <c r="AJ8" s="20">
         <v>563</v>
       </c>
-      <c r="AK8" s="24">
+      <c r="AK8" s="20">
         <v>0</v>
       </c>
-      <c r="AL8" s="24">
+      <c r="AL8" s="20">
         <v>25</v>
       </c>
-      <c r="AM8" s="24" t="s">
+      <c r="AM8" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="23" customFormat="1">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H9" s="26" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J9" s="26" t="s">
+      <c r="I9" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="24" t="s">
+      <c r="M9" s="21"/>
+      <c r="N9" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="20">
         <v>0</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="T9" s="24" t="s">
+      <c r="T9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="24" t="s">
+      <c r="U9" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V9" s="24" t="s">
+      <c r="V9" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="W9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X9" s="24" t="s">
+      <c r="X9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24" t="s">
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24" t="s">
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="AI9" s="24">
+      <c r="AI9" s="20">
         <v>708</v>
       </c>
-      <c r="AJ9" s="24">
+      <c r="AJ9" s="20">
         <v>708</v>
       </c>
-      <c r="AK9" s="24">
+      <c r="AK9" s="20">
         <v>0</v>
       </c>
-      <c r="AL9" s="24">
+      <c r="AL9" s="20">
         <v>25</v>
       </c>
-      <c r="AM9" s="24" t="s">
+      <c r="AM9" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="23" customFormat="1">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:39">
+      <c r="A10" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H10" s="26" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J10" s="26" t="s">
+      <c r="I10" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="24" t="s">
+      <c r="M10" s="21"/>
+      <c r="N10" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="20">
         <v>0</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="P10" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="T10" s="24" t="s">
+      <c r="T10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24" t="s">
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="Z10" s="24" t="s">
+      <c r="Z10" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="AA10" s="24" t="s">
+      <c r="AA10" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="AB10" s="24" t="s">
+      <c r="AB10" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="AC10" s="24" t="s">
+      <c r="AC10" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24">
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20">
         <v>1175.32</v>
       </c>
-      <c r="AI10" s="24">
+      <c r="AI10" s="20">
         <v>318</v>
       </c>
-      <c r="AJ10" s="24">
+      <c r="AJ10" s="20">
         <v>265</v>
       </c>
-      <c r="AK10" s="24">
+      <c r="AK10" s="20">
         <v>53</v>
       </c>
-      <c r="AL10" s="24">
+      <c r="AL10" s="20">
         <v>25</v>
       </c>
-      <c r="AM10" s="24" t="s">
+      <c r="AM10" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="23" customFormat="1">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:39">
+      <c r="A11" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H11" s="26" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I11" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J11" s="26" t="s">
+      <c r="I11" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25" t="s">
+      <c r="M11" s="21"/>
+      <c r="N11" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="21">
         <v>0</v>
       </c>
-      <c r="P11" s="28" t="s">
+      <c r="P11" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="Q11" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="T11" s="25" t="s">
+      <c r="T11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25">
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21">
         <v>878</v>
       </c>
-      <c r="Z11" s="25" t="s">
+      <c r="Z11" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="AA11" s="25" t="s">
+      <c r="AA11" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="AB11" s="25" t="s">
+      <c r="AB11" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="AC11" s="25" t="s">
+      <c r="AC11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25">
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21">
         <v>720</v>
       </c>
-      <c r="AI11" s="25">
+      <c r="AI11" s="21">
         <v>565</v>
       </c>
-      <c r="AJ11" s="25">
+      <c r="AJ11" s="21">
         <v>503</v>
       </c>
-      <c r="AK11" s="25">
+      <c r="AK11" s="21">
         <v>62</v>
       </c>
-      <c r="AL11" s="25">
+      <c r="AL11" s="21">
         <v>50</v>
       </c>
-      <c r="AM11" s="25" t="s">
+      <c r="AM11" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="23" customFormat="1">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H12" s="26" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I12" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J12" s="29" t="s">
+      <c r="I12" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J12" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25" t="s">
+      <c r="M12" s="21"/>
+      <c r="N12" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="21">
         <v>0</v>
       </c>
-      <c r="P12" s="28" t="s">
+      <c r="P12" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="Q12" s="25" t="s">
+      <c r="Q12" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="R12" s="25" t="s">
+      <c r="R12" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="T12" s="25" t="s">
+      <c r="T12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25" t="s">
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="Z12" s="25" t="s">
+      <c r="Z12" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA12" s="25" t="s">
+      <c r="AA12" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB12" s="25" t="s">
+      <c r="AB12" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="AC12" s="25" t="s">
+      <c r="AC12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25">
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21">
         <v>41500</v>
       </c>
-      <c r="AI12" s="25">
+      <c r="AI12" s="21">
         <v>1157.01</v>
       </c>
-      <c r="AJ12" s="25">
+      <c r="AJ12" s="21">
         <v>659.77</v>
       </c>
-      <c r="AK12" s="25">
+      <c r="AK12" s="21">
         <v>497.24</v>
       </c>
-      <c r="AL12" s="25">
+      <c r="AL12" s="21">
         <v>5000</v>
       </c>
-      <c r="AM12" s="25" t="s">
+      <c r="AM12" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="23" customFormat="1">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H13" s="26" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I13" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J13" s="29" t="s">
+      <c r="I13" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25" t="s">
+      <c r="M13" s="21"/>
+      <c r="N13" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="P13" s="28" t="s">
+      <c r="P13" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="Q13" s="25" t="s">
+      <c r="Q13" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="T13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25" t="s">
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="Z13" s="25" t="s">
+      <c r="Z13" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA13" s="25" t="s">
+      <c r="AA13" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB13" s="25" t="s">
+      <c r="AB13" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="AC13" s="25" t="s">
+      <c r="AC13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25">
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21">
         <v>41250</v>
       </c>
-      <c r="AI13" s="25">
+      <c r="AI13" s="21">
         <v>1358.65</v>
       </c>
-      <c r="AJ13" s="25">
+      <c r="AJ13" s="21">
         <v>712.06</v>
       </c>
-      <c r="AK13" s="25">
+      <c r="AK13" s="21">
         <v>646.59</v>
       </c>
-      <c r="AL13" s="25">
+      <c r="AL13" s="21">
         <v>20000</v>
       </c>
-      <c r="AM13" s="25" t="s">
+      <c r="AM13" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="23" customFormat="1">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="26" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I14" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J14" s="26" t="s">
+      <c r="I14" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25" t="s">
+      <c r="M14" s="21"/>
+      <c r="N14" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="21">
         <v>0</v>
       </c>
-      <c r="P14" s="28" t="s">
+      <c r="P14" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="Q14" s="25" t="s">
+      <c r="Q14" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="R14" s="25" t="s">
+      <c r="R14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="S14" s="25" t="s">
+      <c r="S14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="T14" s="25" t="s">
+      <c r="T14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U14" s="24" t="s">
+      <c r="U14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="V14" s="25">
+      <c r="V14" s="21">
         <v>70</v>
       </c>
-      <c r="W14" s="25" t="s">
+      <c r="W14" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="X14" s="24" t="s">
+      <c r="X14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="25" t="s">
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AE14" s="25">
+      <c r="AE14" s="21">
         <v>70</v>
       </c>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AI14" s="25">
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AI14" s="21">
         <v>64.7</v>
       </c>
-      <c r="AJ14" s="25">
+      <c r="AJ14" s="21">
         <v>32.58</v>
       </c>
-      <c r="AK14" s="25">
+      <c r="AK14" s="21">
         <v>32.119999999999997</v>
       </c>
-      <c r="AL14" s="25">
+      <c r="AL14" s="21">
         <v>0</v>
       </c>
-      <c r="AM14" s="25" t="s">
+      <c r="AM14" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="23" customFormat="1">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H15" s="26" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I15" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J15" s="26" t="s">
+      <c r="I15" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25" t="s">
+      <c r="M15" s="21"/>
+      <c r="N15" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="21">
         <v>0</v>
       </c>
-      <c r="P15" s="28" t="s">
+      <c r="P15" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="Q15" s="25" t="s">
+      <c r="Q15" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="S15" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="T15" s="25" t="s">
+      <c r="T15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U15" s="24" t="s">
+      <c r="U15" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V15" s="25">
+      <c r="V15" s="21">
         <v>50</v>
       </c>
-      <c r="W15" s="25" t="s">
+      <c r="W15" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="X15" s="24" t="s">
+      <c r="X15" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="25" t="s">
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25">
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21">
         <v>50</v>
       </c>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AI15" s="25">
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AI15" s="21">
         <v>17.87</v>
       </c>
-      <c r="AJ15" s="25">
+      <c r="AJ15" s="21">
         <v>17.87</v>
       </c>
-      <c r="AK15" s="25">
+      <c r="AK15" s="21">
         <v>0</v>
       </c>
-      <c r="AL15" s="25">
+      <c r="AL15" s="21">
         <v>1</v>
       </c>
-      <c r="AM15" s="25" t="s">
+      <c r="AM15" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="23" customFormat="1">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H16" s="26" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I16" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J16" s="26" t="s">
+      <c r="I16" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J16" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25" t="s">
+      <c r="M16" s="21"/>
+      <c r="N16" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="21">
         <v>0</v>
       </c>
-      <c r="P16" s="28" t="s">
+      <c r="P16" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="S16" s="25" t="s">
+      <c r="S16" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="T16" s="25" t="s">
+      <c r="T16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U16" s="24" t="s">
+      <c r="U16" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25" t="s">
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25" t="s">
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="25">
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21">
         <v>102.12</v>
       </c>
-      <c r="AJ16" s="25">
+      <c r="AJ16" s="21">
         <v>102.12</v>
       </c>
-      <c r="AK16" s="25">
+      <c r="AK16" s="21">
         <v>0</v>
       </c>
-      <c r="AL16" s="25">
+      <c r="AL16" s="21">
         <v>1</v>
       </c>
-      <c r="AM16" s="25" t="s">
+      <c r="AM16" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:39" s="23" customFormat="1">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:39">
+      <c r="A17" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="26" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I17" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J17" s="26" t="s">
+      <c r="I17" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25" t="s">
+      <c r="M17" s="21"/>
+      <c r="N17" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="21">
         <v>0</v>
       </c>
-      <c r="P17" s="28" t="s">
+      <c r="P17" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="Q17" s="25" t="s">
+      <c r="Q17" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="R17" s="25" t="s">
+      <c r="R17" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="S17" s="25" t="s">
+      <c r="S17" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="T17" s="25" t="s">
+      <c r="T17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U17" s="24" t="s">
+      <c r="U17" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="24" t="s">
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="25" t="s">
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25" t="s">
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="AF17" s="25" t="s">
+      <c r="AF17" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25">
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21">
         <v>99.668000000000006</v>
       </c>
-      <c r="AJ17" s="25">
+      <c r="AJ17" s="21">
         <v>99.668000000000006</v>
       </c>
-      <c r="AK17" s="25">
+      <c r="AK17" s="21">
         <v>0</v>
       </c>
-      <c r="AL17" s="25">
+      <c r="AL17" s="21">
         <v>1</v>
       </c>
-      <c r="AM17" s="25" t="s">
+      <c r="AM17" s="21" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="18" spans="1:39" s="23" customFormat="1">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:39">
+      <c r="A18" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H18" s="26" t="s">
+      <c r="F18" s="21"/>
+      <c r="G18" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I18" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J18" s="26" t="s">
+      <c r="I18" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="L18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25" t="s">
+      <c r="M18" s="21"/>
+      <c r="N18" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18" s="21">
         <v>0</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P18" s="21">
         <v>7791</v>
       </c>
-      <c r="Q18" s="25" t="s">
+      <c r="Q18" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="R18" s="25" t="s">
+      <c r="R18" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="25" t="s">
+      <c r="S18" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="25" t="s">
+      <c r="T18" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="U18" s="24" t="s">
+      <c r="U18" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V18" s="25" t="s">
+      <c r="V18" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="W18" s="25" t="s">
+      <c r="W18" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="X18" s="24" t="s">
+      <c r="X18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="25" t="s">
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25" t="s">
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="AF18" s="25" t="s">
+      <c r="AF18" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="25"/>
-      <c r="AI18" s="25">
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21">
         <v>20407.406999999999</v>
       </c>
-      <c r="AJ18" s="25">
+      <c r="AJ18" s="21">
         <v>20407.406999999999</v>
       </c>
-      <c r="AK18" s="25">
+      <c r="AK18" s="21">
         <v>0</v>
       </c>
-      <c r="AL18" s="25">
+      <c r="AL18" s="21">
         <v>108</v>
       </c>
-      <c r="AM18" s="25" t="s">
+      <c r="AM18" s="21" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:39" s="23" customFormat="1">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:39">
+      <c r="A19" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H19" s="26" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H19" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I19" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J19" s="26" t="s">
+      <c r="I19" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25" t="s">
+      <c r="M19" s="21"/>
+      <c r="N19" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="21">
         <v>0</v>
       </c>
-      <c r="P19" s="25" t="s">
+      <c r="P19" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="Q19" s="25" t="s">
+      <c r="Q19" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="R19" s="25" t="s">
+      <c r="R19" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="S19" s="25" t="s">
+      <c r="S19" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="T19" s="25" t="s">
+      <c r="T19" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U19" s="24" t="s">
+      <c r="U19" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="24" t="s">
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="25" t="s">
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25" t="s">
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="AF19" s="25" t="s">
+      <c r="AF19" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25">
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21">
         <v>89.9</v>
       </c>
-      <c r="AJ19" s="25">
+      <c r="AJ19" s="21">
         <v>44.51</v>
       </c>
-      <c r="AK19" s="25">
+      <c r="AK19" s="21">
         <v>45.39</v>
       </c>
-      <c r="AL19" s="25">
+      <c r="AL19" s="21">
         <v>86521</v>
       </c>
-      <c r="AM19" s="25" t="s">
+      <c r="AM19" s="21" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:39" s="23" customFormat="1">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:39">
+      <c r="A20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H20" s="26" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I20" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J20" s="26" t="s">
+      <c r="I20" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25" t="s">
+      <c r="M20" s="21"/>
+      <c r="N20" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="21">
         <v>0</v>
       </c>
-      <c r="P20" s="25">
+      <c r="P20" s="21">
         <v>7715</v>
       </c>
-      <c r="Q20" s="25" t="s">
+      <c r="Q20" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="R20" s="25" t="s">
+      <c r="R20" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="S20" s="25" t="s">
+      <c r="S20" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="T20" s="25" t="s">
+      <c r="T20" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U20" s="24" t="s">
+      <c r="U20" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="V20" s="25">
+      <c r="V20" s="21">
         <v>100000</v>
       </c>
-      <c r="W20" s="25" t="s">
+      <c r="W20" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25" t="s">
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25" t="s">
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25">
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21">
         <v>301.06</v>
       </c>
-      <c r="AJ20" s="25">
+      <c r="AJ20" s="21">
         <v>218.97</v>
       </c>
-      <c r="AK20" s="25">
+      <c r="AK20" s="21">
         <v>82.09</v>
       </c>
-      <c r="AL20" s="25">
+      <c r="AL20" s="21">
         <v>1</v>
       </c>
-      <c r="AM20" s="25" t="s">
+      <c r="AM20" s="21" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:39" s="23" customFormat="1">
-      <c r="A21" s="23" t="s">
+    <row r="21" spans="1:39">
+      <c r="A21" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H21" s="26" t="s">
+      <c r="F21" s="21"/>
+      <c r="G21" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H21" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I21" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J21" s="29" t="s">
+      <c r="I21" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J21" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L21" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25" t="s">
+      <c r="M21" s="21"/>
+      <c r="N21" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="21">
         <v>0</v>
       </c>
-      <c r="P21" s="25" t="s">
+      <c r="P21" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="Q21" s="25" t="s">
+      <c r="Q21" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="R21" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="S21" s="25" t="s">
+      <c r="S21" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="T21" s="25" t="s">
+      <c r="T21" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U21" s="24" t="s">
+      <c r="U21" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="24" t="s">
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="25" t="s">
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25" t="s">
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="AF21" s="25" t="s">
+      <c r="AF21" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25">
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21">
         <v>114</v>
       </c>
-      <c r="AJ21" s="25">
+      <c r="AJ21" s="21">
         <v>114</v>
       </c>
-      <c r="AK21" s="25">
+      <c r="AK21" s="21">
         <v>0</v>
       </c>
-      <c r="AL21" s="25">
+      <c r="AL21" s="21">
         <v>599980</v>
       </c>
-      <c r="AM21" s="25" t="s">
+      <c r="AM21" s="21" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="1:39" s="23" customFormat="1">
-      <c r="A22" s="23" t="s">
+    <row r="22" spans="1:39">
+      <c r="A22" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H22" s="26" t="s">
+      <c r="F22" s="21"/>
+      <c r="G22" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H22" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I22" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J22" s="26" t="s">
+      <c r="I22" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="K22" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="L22" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25" t="s">
+      <c r="M22" s="21"/>
+      <c r="N22" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O22" s="25">
+      <c r="O22" s="21">
         <v>0</v>
       </c>
-      <c r="P22" s="25" t="s">
+      <c r="P22" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="Q22" s="25" t="s">
+      <c r="Q22" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="R22" s="25" t="s">
+      <c r="R22" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="S22" s="25" t="s">
+      <c r="S22" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="T22" s="25" t="s">
+      <c r="T22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25" t="s">
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA22" s="25" t="s">
+      <c r="AA22" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB22" s="25" t="s">
+      <c r="AB22" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AC22" s="25" t="s">
+      <c r="AC22" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AD22" s="25" t="s">
+      <c r="AD22" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="AE22" s="25" t="s">
+      <c r="AE22" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="AF22" s="25" t="s">
+      <c r="AF22" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="AG22" s="25" t="s">
+      <c r="AG22" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25">
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21">
         <v>120.57</v>
       </c>
-      <c r="AJ22" s="25">
+      <c r="AJ22" s="21">
         <v>36.67</v>
       </c>
-      <c r="AK22" s="25">
+      <c r="AK22" s="21">
         <v>83.9</v>
       </c>
-      <c r="AL22" s="25">
+      <c r="AL22" s="21">
         <v>1</v>
       </c>
-      <c r="AM22" s="25" t="s">
+      <c r="AM22" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:39" s="23" customFormat="1">
-      <c r="A23" s="23" t="s">
+    <row r="23" spans="1:39">
+      <c r="A23" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H23" s="26" t="s">
+      <c r="F23" s="21"/>
+      <c r="G23" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I23" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J23" s="26" t="s">
+      <c r="I23" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K23" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="L23" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25" t="s">
+      <c r="M23" s="21"/>
+      <c r="N23" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O23" s="25" t="s">
+      <c r="O23" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="P23" s="25" t="s">
+      <c r="P23" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="Q23" s="25" t="s">
+      <c r="Q23" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="R23" s="25" t="s">
+      <c r="R23" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="S23" s="25" t="s">
+      <c r="S23" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="T23" s="25" t="s">
+      <c r="T23" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25" t="s">
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA23" s="25" t="s">
+      <c r="AA23" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB23" s="25" t="s">
+      <c r="AB23" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AC23" s="25" t="s">
+      <c r="AC23" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AD23" s="25" t="s">
+      <c r="AD23" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="AE23" s="25" t="s">
+      <c r="AE23" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="AF23" s="25" t="s">
+      <c r="AF23" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="AG23" s="25" t="s">
+      <c r="AG23" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25">
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21">
         <v>120.57</v>
       </c>
-      <c r="AJ23" s="25">
+      <c r="AJ23" s="21">
         <v>36.67</v>
       </c>
-      <c r="AK23" s="25">
+      <c r="AK23" s="21">
         <v>83.9</v>
       </c>
-      <c r="AL23" s="25">
+      <c r="AL23" s="21">
         <v>1</v>
       </c>
-      <c r="AM23" s="25" t="s">
+      <c r="AM23" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:39" s="23" customFormat="1">
-      <c r="A24" s="23" t="s">
+    <row r="24" spans="1:39">
+      <c r="A24" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H24" s="26" t="s">
+      <c r="F24" s="21"/>
+      <c r="G24" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I24" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J24" s="26" t="s">
+      <c r="I24" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L24" s="25" t="s">
+      <c r="L24" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25" t="s">
+      <c r="M24" s="21"/>
+      <c r="N24" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="21">
         <v>0</v>
       </c>
-      <c r="P24" s="25" t="s">
+      <c r="P24" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="Q24" s="25" t="s">
+      <c r="Q24" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="R24" s="25" t="s">
+      <c r="R24" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="S24" s="25" t="s">
+      <c r="S24" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="T24" s="25" t="s">
+      <c r="T24" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25" t="s">
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA24" s="25" t="s">
+      <c r="AA24" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB24" s="25" t="s">
+      <c r="AB24" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AC24" s="25" t="s">
+      <c r="AC24" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD24" s="25" t="s">
+      <c r="AD24" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="AE24" s="25" t="s">
+      <c r="AE24" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="AF24" s="25" t="s">
+      <c r="AF24" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="AG24" s="25" t="s">
+      <c r="AG24" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25">
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="21">
         <v>47.18</v>
       </c>
-      <c r="AJ24" s="25">
+      <c r="AJ24" s="21">
         <v>31.47</v>
       </c>
-      <c r="AK24" s="25">
+      <c r="AK24" s="21">
         <v>15.71</v>
       </c>
-      <c r="AL24" s="25">
+      <c r="AL24" s="21">
         <v>1</v>
       </c>
-      <c r="AM24" s="25" t="s">
+      <c r="AM24" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:39" s="23" customFormat="1">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:39">
+      <c r="A25" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H25" s="26" t="s">
+      <c r="F25" s="21"/>
+      <c r="G25" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I25" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J25" s="26" t="s">
+      <c r="I25" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J25" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25" t="s">
+      <c r="M25" s="21"/>
+      <c r="N25" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O25" s="25" t="s">
+      <c r="O25" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="P25" s="25" t="s">
+      <c r="P25" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="Q25" s="25" t="s">
+      <c r="Q25" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="R25" s="25" t="s">
+      <c r="R25" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="S25" s="25" t="s">
+      <c r="S25" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="T25" s="25" t="s">
+      <c r="T25" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25" t="s">
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA25" s="25" t="s">
+      <c r="AA25" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB25" s="25" t="s">
+      <c r="AB25" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AC25" s="25" t="s">
+      <c r="AC25" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD25" s="25" t="s">
+      <c r="AD25" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="AE25" s="25" t="s">
+      <c r="AE25" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="AF25" s="25" t="s">
+      <c r="AF25" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AG25" s="25" t="s">
+      <c r="AG25" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25">
+      <c r="AH25" s="21"/>
+      <c r="AI25" s="21">
         <v>64.7</v>
       </c>
-      <c r="AJ25" s="25">
+      <c r="AJ25" s="21">
         <v>32.58</v>
       </c>
-      <c r="AK25" s="25">
+      <c r="AK25" s="21">
         <v>32.119999999999997</v>
       </c>
-      <c r="AL25" s="25">
+      <c r="AL25" s="21">
         <v>1</v>
       </c>
-      <c r="AM25" s="25" t="s">
+      <c r="AM25" s="21" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4558,8 +4558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q25"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -4570,6 +4570,7 @@
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="17" max="17" width="29.875" customWidth="1"/>
     <col min="21" max="21" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.375" customWidth="1"/>
     <col min="31" max="31" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4692,2377 +4693,2379 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="23" customFormat="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:39">
+      <c r="A2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J2" s="26" t="s">
+      <c r="I2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="24" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="20">
         <v>0</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="24">
+      <c r="V2" s="20">
         <v>675</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24" t="s">
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24">
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20">
         <v>662</v>
       </c>
-      <c r="AI2" s="24">
+      <c r="AI2" s="20">
         <v>372.161</v>
       </c>
-      <c r="AJ2" s="24">
+      <c r="AJ2" s="20">
         <v>372.161</v>
       </c>
-      <c r="AK2" s="24">
+      <c r="AK2" s="20">
         <v>0</v>
       </c>
-      <c r="AL2" s="24">
+      <c r="AL2" s="20">
         <v>40</v>
       </c>
-      <c r="AM2" s="24" t="s">
+      <c r="AM2" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="23" customFormat="1">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:39">
+      <c r="A3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H3" s="26" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J3" s="26" t="s">
+      <c r="I3" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="24" t="s">
+      <c r="M3" s="21"/>
+      <c r="N3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="20">
         <v>0</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V3" s="24">
+      <c r="V3" s="20">
         <v>690</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="W3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="24" t="s">
+      <c r="X3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24" t="s">
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24">
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20">
         <v>690</v>
       </c>
-      <c r="AI3" s="24">
+      <c r="AI3" s="20">
         <v>384</v>
       </c>
-      <c r="AJ3" s="24">
+      <c r="AJ3" s="20">
         <v>384</v>
       </c>
-      <c r="AK3" s="24">
+      <c r="AK3" s="20">
         <v>0</v>
       </c>
-      <c r="AL3" s="24">
+      <c r="AL3" s="20">
         <v>100</v>
       </c>
-      <c r="AM3" s="24" t="s">
+      <c r="AM3" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="23" customFormat="1">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:39">
+      <c r="A4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H4" s="26" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I4" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J4" s="26" t="s">
+      <c r="I4" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="24" t="s">
+      <c r="M4" s="21"/>
+      <c r="N4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="20">
         <v>0</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="S4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="24" t="s">
+      <c r="T4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="U4" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="24">
+      <c r="V4" s="20">
         <v>564</v>
       </c>
-      <c r="W4" s="24" t="s">
+      <c r="W4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="24" t="s">
+      <c r="X4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24" t="s">
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24">
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20">
         <v>564</v>
       </c>
-      <c r="AI4" s="24">
+      <c r="AI4" s="20">
         <v>416</v>
       </c>
-      <c r="AJ4" s="24">
+      <c r="AJ4" s="20">
         <v>354</v>
       </c>
-      <c r="AK4" s="24">
+      <c r="AK4" s="20">
         <v>62</v>
       </c>
-      <c r="AL4" s="24">
+      <c r="AL4" s="20">
         <v>475</v>
       </c>
-      <c r="AM4" s="24" t="s">
+      <c r="AM4" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="23" customFormat="1">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:39">
+      <c r="A5" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H5" s="26" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I5" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J5" s="26" t="s">
+      <c r="I5" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="24" t="s">
+      <c r="M5" s="21"/>
+      <c r="N5" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="20">
         <v>0</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="24" t="s">
+      <c r="T5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U5" s="24" t="s">
+      <c r="U5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V5" s="24">
+      <c r="V5" s="20">
         <v>487</v>
       </c>
-      <c r="W5" s="24" t="s">
+      <c r="W5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X5" s="24" t="s">
+      <c r="X5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24" t="s">
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27">
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23">
         <v>387</v>
       </c>
-      <c r="AI5" s="24">
+      <c r="AI5" s="20">
         <v>426</v>
       </c>
-      <c r="AJ5" s="24">
+      <c r="AJ5" s="20">
         <v>384</v>
       </c>
-      <c r="AK5" s="24">
+      <c r="AK5" s="20">
         <v>42</v>
       </c>
-      <c r="AL5" s="24">
+      <c r="AL5" s="20">
         <v>576</v>
       </c>
-      <c r="AM5" s="24" t="s">
+      <c r="AM5" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="23" customFormat="1">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:39">
+      <c r="A6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H6" s="26" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I6" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J6" s="26" t="s">
+      <c r="I6" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="24" t="s">
+      <c r="M6" s="21"/>
+      <c r="N6" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="20">
         <v>0</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="S6" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="T6" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="U6" s="24" t="s">
+      <c r="U6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="V6" s="24" t="s">
+      <c r="V6" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="W6" s="24" t="s">
+      <c r="W6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X6" s="24" t="s">
+      <c r="X6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24" t="s">
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24" t="s">
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="AI6" s="24">
+      <c r="AI6" s="20">
         <v>401</v>
       </c>
-      <c r="AJ6" s="24">
+      <c r="AJ6" s="20">
         <v>532</v>
       </c>
-      <c r="AK6" s="24">
+      <c r="AK6" s="20">
         <v>49</v>
       </c>
-      <c r="AL6" s="24">
+      <c r="AL6" s="20">
         <v>200</v>
       </c>
-      <c r="AM6" s="24" t="s">
+      <c r="AM6" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="23" customFormat="1">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:39">
+      <c r="A7" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" s="26" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I7" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J7" s="26" t="s">
+      <c r="I7" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="21"/>
+      <c r="N7" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="20">
         <v>0</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="P7" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="Q7" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="R7" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="S7" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="T7" s="24" t="s">
+      <c r="T7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U7" s="24" t="s">
+      <c r="U7" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24" t="s">
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24" t="s">
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24" t="s">
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="AI7" s="24">
+      <c r="AI7" s="20">
         <v>514</v>
       </c>
-      <c r="AJ7" s="24">
+      <c r="AJ7" s="20">
         <v>478</v>
       </c>
-      <c r="AK7" s="24">
+      <c r="AK7" s="20">
         <v>36</v>
       </c>
-      <c r="AL7" s="24">
+      <c r="AL7" s="20">
         <v>25</v>
       </c>
-      <c r="AM7" s="24" t="s">
+      <c r="AM7" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="23" customFormat="1">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:39">
+      <c r="A8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="26" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J8" s="26" t="s">
+      <c r="I8" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="24" t="s">
+      <c r="M8" s="21"/>
+      <c r="N8" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="20">
         <v>0</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="R8" s="24" t="s">
+      <c r="R8" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="T8" s="24" t="s">
+      <c r="T8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U8" s="24" t="s">
+      <c r="U8" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="V8" s="24" t="s">
+      <c r="V8" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="W8" s="24" t="s">
+      <c r="W8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24" t="s">
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="24"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24" t="s">
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="AI8" s="24">
+      <c r="AI8" s="20">
         <v>563</v>
       </c>
-      <c r="AJ8" s="24">
+      <c r="AJ8" s="20">
         <v>563</v>
       </c>
-      <c r="AK8" s="24">
+      <c r="AK8" s="20">
         <v>0</v>
       </c>
-      <c r="AL8" s="24">
+      <c r="AL8" s="20">
         <v>25</v>
       </c>
-      <c r="AM8" s="24" t="s">
+      <c r="AM8" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="23" customFormat="1">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H9" s="26" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J9" s="26" t="s">
+      <c r="I9" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="24" t="s">
+      <c r="M9" s="21"/>
+      <c r="N9" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="20">
         <v>0</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="T9" s="24" t="s">
+      <c r="T9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U9" s="24" t="s">
+      <c r="U9" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V9" s="24" t="s">
+      <c r="V9" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="W9" s="24" t="s">
+      <c r="W9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X9" s="24" t="s">
+      <c r="X9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24" t="s">
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24" t="s">
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="AI9" s="24">
+      <c r="AI9" s="20">
         <v>708</v>
       </c>
-      <c r="AJ9" s="24">
+      <c r="AJ9" s="20">
         <v>708</v>
       </c>
-      <c r="AK9" s="24">
+      <c r="AK9" s="20">
         <v>0</v>
       </c>
-      <c r="AL9" s="24">
+      <c r="AL9" s="20">
         <v>25</v>
       </c>
-      <c r="AM9" s="24" t="s">
+      <c r="AM9" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="23" customFormat="1">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:39">
+      <c r="A10" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H10" s="26" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J10" s="26" t="s">
+      <c r="I10" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="24" t="s">
+      <c r="M10" s="21"/>
+      <c r="N10" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="20">
         <v>0</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="P10" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="T10" s="24" t="s">
+      <c r="T10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24" t="s">
+      <c r="U10" s="20"/>
+      <c r="V10" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="Z10" s="24" t="s">
+      <c r="Z10" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="AA10" s="24" t="s">
+      <c r="AA10" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="AB10" s="24" t="s">
+      <c r="AB10" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="AC10" s="24" t="s">
+      <c r="AC10" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24">
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20">
         <v>1175.32</v>
       </c>
-      <c r="AI10" s="24">
+      <c r="AI10" s="20">
         <v>318</v>
       </c>
-      <c r="AJ10" s="24">
+      <c r="AJ10" s="20">
         <v>265</v>
       </c>
-      <c r="AK10" s="24">
+      <c r="AK10" s="20">
         <v>53</v>
       </c>
-      <c r="AL10" s="24">
+      <c r="AL10" s="20">
         <v>25</v>
       </c>
-      <c r="AM10" s="24" t="s">
+      <c r="AM10" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="23" customFormat="1">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:39">
+      <c r="A11" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H11" s="26" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I11" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J11" s="26" t="s">
+      <c r="I11" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25" t="s">
+      <c r="M11" s="21"/>
+      <c r="N11" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="21">
         <v>0</v>
       </c>
-      <c r="P11" s="28" t="s">
+      <c r="P11" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="Q11" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="T11" s="25" t="s">
+      <c r="T11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25">
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21">
         <v>878</v>
       </c>
-      <c r="Z11" s="25" t="s">
+      <c r="Z11" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="AA11" s="25" t="s">
+      <c r="AA11" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="AB11" s="25" t="s">
+      <c r="AB11" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="AC11" s="25" t="s">
+      <c r="AC11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25">
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21">
         <v>720</v>
       </c>
-      <c r="AI11" s="25">
+      <c r="AI11" s="21">
         <v>565</v>
       </c>
-      <c r="AJ11" s="25">
+      <c r="AJ11" s="21">
         <v>503</v>
       </c>
-      <c r="AK11" s="25">
+      <c r="AK11" s="21">
         <v>62</v>
       </c>
-      <c r="AL11" s="25">
+      <c r="AL11" s="21">
         <v>50</v>
       </c>
-      <c r="AM11" s="25" t="s">
+      <c r="AM11" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="23" customFormat="1">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:39">
+      <c r="A12" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H12" s="26" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I12" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J12" s="26" t="s">
+      <c r="I12" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J12" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25" t="s">
+      <c r="M12" s="21"/>
+      <c r="N12" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="21">
         <v>0</v>
       </c>
-      <c r="P12" s="28" t="s">
+      <c r="P12" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="Q12" s="25" t="s">
+      <c r="Q12" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="R12" s="25" t="s">
+      <c r="R12" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="T12" s="25" t="s">
+      <c r="T12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25" t="s">
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="Z12" s="25" t="s">
+      <c r="Z12" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA12" s="25" t="s">
+      <c r="AA12" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB12" s="25" t="s">
+      <c r="AB12" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="AC12" s="25" t="s">
+      <c r="AC12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25">
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21">
         <v>41500</v>
       </c>
-      <c r="AI12" s="25">
+      <c r="AI12" s="21">
         <v>1157.01</v>
       </c>
-      <c r="AJ12" s="25">
+      <c r="AJ12" s="21">
         <v>659.77</v>
       </c>
-      <c r="AK12" s="25">
+      <c r="AK12" s="21">
         <v>497.24</v>
       </c>
-      <c r="AL12" s="25">
+      <c r="AL12" s="21">
         <v>5000</v>
       </c>
-      <c r="AM12" s="25" t="s">
+      <c r="AM12" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="23" customFormat="1">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:39">
+      <c r="A13" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H13" s="26" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I13" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J13" s="26" t="s">
+      <c r="I13" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25" t="s">
+      <c r="M13" s="21"/>
+      <c r="N13" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="P13" s="28" t="s">
+      <c r="P13" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="Q13" s="25" t="s">
+      <c r="Q13" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="T13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25" t="s">
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="Z13" s="25" t="s">
+      <c r="Z13" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA13" s="25" t="s">
+      <c r="AA13" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB13" s="25" t="s">
+      <c r="AB13" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="AC13" s="25" t="s">
+      <c r="AC13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25">
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21">
         <v>41250</v>
       </c>
-      <c r="AI13" s="25">
+      <c r="AI13" s="21">
         <v>1358.65</v>
       </c>
-      <c r="AJ13" s="25">
+      <c r="AJ13" s="21">
         <v>712.06</v>
       </c>
-      <c r="AK13" s="25">
+      <c r="AK13" s="21">
         <v>646.59</v>
       </c>
-      <c r="AL13" s="25">
+      <c r="AL13" s="21">
         <v>20000</v>
       </c>
-      <c r="AM13" s="25" t="s">
+      <c r="AM13" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="23" customFormat="1">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:39">
+      <c r="A14" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="26" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I14" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J14" s="26" t="s">
+      <c r="I14" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25" t="s">
+      <c r="M14" s="21"/>
+      <c r="N14" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="21">
         <v>0</v>
       </c>
-      <c r="P14" s="28" t="s">
+      <c r="P14" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="Q14" s="25" t="s">
+      <c r="Q14" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="R14" s="25" t="s">
+      <c r="R14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="S14" s="25" t="s">
+      <c r="S14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="T14" s="25" t="s">
+      <c r="T14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U14" s="24" t="s">
+      <c r="U14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="V14" s="25">
+      <c r="V14" s="21">
         <v>70</v>
       </c>
-      <c r="W14" s="25" t="s">
+      <c r="W14" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="X14" s="24" t="s">
+      <c r="X14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="25" t="s">
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25">
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21">
         <v>70</v>
       </c>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25">
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21">
         <v>64.7</v>
       </c>
-      <c r="AJ14" s="25">
+      <c r="AJ14" s="21">
         <v>32.58</v>
       </c>
-      <c r="AK14" s="25">
+      <c r="AK14" s="21">
         <v>32.119999999999997</v>
       </c>
-      <c r="AL14" s="25">
+      <c r="AL14" s="21">
         <v>0</v>
       </c>
-      <c r="AM14" s="25" t="s">
+      <c r="AM14" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="23" customFormat="1">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:39">
+      <c r="A15" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H15" s="26" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I15" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J15" s="26" t="s">
+      <c r="I15" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25" t="s">
+      <c r="M15" s="21"/>
+      <c r="N15" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="21">
         <v>0</v>
       </c>
-      <c r="P15" s="28" t="s">
+      <c r="P15" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="Q15" s="25" t="s">
+      <c r="Q15" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="S15" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="T15" s="25" t="s">
+      <c r="T15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U15" s="24" t="s">
+      <c r="U15" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V15" s="25">
+      <c r="V15" s="21">
         <v>50</v>
       </c>
-      <c r="W15" s="25" t="s">
+      <c r="W15" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="X15" s="24" t="s">
+      <c r="X15" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="25" t="s">
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25">
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21">
         <v>50</v>
       </c>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25">
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21">
         <v>17.87</v>
       </c>
-      <c r="AJ15" s="25">
+      <c r="AJ15" s="21">
         <v>17.87</v>
       </c>
-      <c r="AK15" s="25">
+      <c r="AK15" s="21">
         <v>0</v>
       </c>
-      <c r="AL15" s="25">
+      <c r="AL15" s="21">
         <v>1</v>
       </c>
-      <c r="AM15" s="25" t="s">
+      <c r="AM15" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="23" customFormat="1">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:39">
+      <c r="A16" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H16" s="26" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I16" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J16" s="26" t="s">
+      <c r="I16" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J16" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25" t="s">
+      <c r="M16" s="21"/>
+      <c r="N16" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="21">
         <v>0</v>
       </c>
-      <c r="P16" s="28" t="s">
+      <c r="P16" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="S16" s="25" t="s">
+      <c r="S16" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="T16" s="25" t="s">
+      <c r="T16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U16" s="24" t="s">
+      <c r="U16" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25" t="s">
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25" t="s">
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="25">
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21">
         <v>102.12</v>
       </c>
-      <c r="AJ16" s="25">
+      <c r="AJ16" s="21">
         <v>102.12</v>
       </c>
-      <c r="AK16" s="25">
+      <c r="AK16" s="21">
         <v>0</v>
       </c>
-      <c r="AL16" s="25">
+      <c r="AL16" s="21">
         <v>1</v>
       </c>
-      <c r="AM16" s="25" t="s">
+      <c r="AM16" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:39" s="23" customFormat="1">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:39">
+      <c r="A17" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="26" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I17" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J17" s="26" t="s">
+      <c r="I17" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25" t="s">
+      <c r="M17" s="21"/>
+      <c r="N17" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="21">
         <v>0</v>
       </c>
-      <c r="P17" s="28" t="s">
+      <c r="P17" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="Q17" s="25" t="s">
+      <c r="Q17" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="R17" s="25" t="s">
+      <c r="R17" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="S17" s="25" t="s">
+      <c r="S17" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="T17" s="25" t="s">
+      <c r="T17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U17" s="24" t="s">
+      <c r="U17" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="24" t="s">
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="25" t="s">
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25" t="s">
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="AF17" s="25" t="s">
+      <c r="AF17" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25">
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21">
         <v>99.668000000000006</v>
       </c>
-      <c r="AJ17" s="25">
+      <c r="AJ17" s="21">
         <v>99.668000000000006</v>
       </c>
-      <c r="AK17" s="25">
+      <c r="AK17" s="21">
         <v>0</v>
       </c>
-      <c r="AL17" s="25">
+      <c r="AL17" s="21">
         <v>1</v>
       </c>
-      <c r="AM17" s="25" t="s">
+      <c r="AM17" s="21" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="18" spans="1:39" s="23" customFormat="1">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:39">
+      <c r="A18" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H18" s="26" t="s">
+      <c r="F18" s="21"/>
+      <c r="G18" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I18" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J18" s="26" t="s">
+      <c r="I18" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="L18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25" t="s">
+      <c r="M18" s="21"/>
+      <c r="N18" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18" s="21">
         <v>0</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P18" s="21">
         <v>7791</v>
       </c>
-      <c r="Q18" s="25" t="s">
+      <c r="Q18" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="R18" s="25" t="s">
+      <c r="R18" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="25" t="s">
+      <c r="S18" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="T18" s="25" t="s">
+      <c r="T18" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="U18" s="24" t="s">
+      <c r="U18" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V18" s="25" t="s">
+      <c r="V18" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="W18" s="25" t="s">
+      <c r="W18" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="X18" s="24" t="s">
+      <c r="X18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="25" t="s">
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25" t="s">
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="AF18" s="25" t="s">
+      <c r="AF18" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="25"/>
-      <c r="AI18" s="25">
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21">
         <v>20407.406999999999</v>
       </c>
-      <c r="AJ18" s="25">
+      <c r="AJ18" s="21">
         <v>20407.406999999999</v>
       </c>
-      <c r="AK18" s="25">
+      <c r="AK18" s="21">
         <v>0</v>
       </c>
-      <c r="AL18" s="25">
+      <c r="AL18" s="21">
         <v>108</v>
       </c>
-      <c r="AM18" s="25" t="s">
+      <c r="AM18" s="21" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:39" s="23" customFormat="1">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:39">
+      <c r="A19" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H19" s="26" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H19" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I19" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J19" s="26" t="s">
+      <c r="I19" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25" t="s">
+      <c r="M19" s="21"/>
+      <c r="N19" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="21">
         <v>0</v>
       </c>
-      <c r="P19" s="25" t="s">
+      <c r="P19" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="Q19" s="25" t="s">
+      <c r="Q19" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="R19" s="25" t="s">
+      <c r="R19" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="S19" s="25" t="s">
+      <c r="S19" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="T19" s="25" t="s">
+      <c r="T19" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U19" s="24" t="s">
+      <c r="U19" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="24" t="s">
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="25" t="s">
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25" t="s">
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="AF19" s="25" t="s">
+      <c r="AF19" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25">
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21">
         <v>89.9</v>
       </c>
-      <c r="AJ19" s="25">
+      <c r="AJ19" s="21">
         <v>44.51</v>
       </c>
-      <c r="AK19" s="25">
+      <c r="AK19" s="21">
         <v>45.39</v>
       </c>
-      <c r="AL19" s="25">
+      <c r="AL19" s="21">
         <v>86521</v>
       </c>
-      <c r="AM19" s="25" t="s">
+      <c r="AM19" s="21" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:39" s="23" customFormat="1">
-      <c r="A20" s="25" t="s">
+    <row r="20" spans="1:39">
+      <c r="A20" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H20" s="26" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I20" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J20" s="26" t="s">
+      <c r="I20" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25" t="s">
+      <c r="M20" s="21"/>
+      <c r="N20" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="21">
         <v>0</v>
       </c>
-      <c r="P20" s="25">
+      <c r="P20" s="21">
         <v>7715</v>
       </c>
-      <c r="Q20" s="25" t="s">
+      <c r="Q20" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="R20" s="25" t="s">
+      <c r="R20" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="S20" s="25" t="s">
+      <c r="S20" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="T20" s="25" t="s">
+      <c r="T20" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U20" s="24" t="s">
+      <c r="U20" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="V20" s="25">
+      <c r="V20" s="21">
         <v>100000</v>
       </c>
-      <c r="W20" s="25" t="s">
+      <c r="W20" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25" t="s">
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25" t="s">
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25">
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21">
         <v>301.06</v>
       </c>
-      <c r="AJ20" s="25">
+      <c r="AJ20" s="21">
         <v>218.97</v>
       </c>
-      <c r="AK20" s="25">
+      <c r="AK20" s="21">
         <v>82.09</v>
       </c>
-      <c r="AL20" s="25">
+      <c r="AL20" s="21">
         <v>1</v>
       </c>
-      <c r="AM20" s="25" t="s">
+      <c r="AM20" s="21" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:39" s="23" customFormat="1">
-      <c r="A21" s="25" t="s">
+    <row r="21" spans="1:39">
+      <c r="A21" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H21" s="26" t="s">
+      <c r="F21" s="21"/>
+      <c r="G21" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H21" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I21" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J21" s="26" t="s">
+      <c r="I21" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J21" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L21" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25" t="s">
+      <c r="M21" s="21"/>
+      <c r="N21" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="21">
         <v>0</v>
       </c>
-      <c r="P21" s="25" t="s">
+      <c r="P21" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="Q21" s="25" t="s">
+      <c r="Q21" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="R21" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="S21" s="25" t="s">
+      <c r="S21" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="T21" s="25" t="s">
+      <c r="T21" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U21" s="24" t="s">
+      <c r="U21" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="24" t="s">
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="25" t="s">
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25" t="s">
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="AF21" s="25" t="s">
+      <c r="AF21" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AG21" s="25"/>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25">
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21">
         <v>114</v>
       </c>
-      <c r="AJ21" s="25">
+      <c r="AJ21" s="21">
         <v>114</v>
       </c>
-      <c r="AK21" s="25">
+      <c r="AK21" s="21">
         <v>0</v>
       </c>
-      <c r="AL21" s="25">
+      <c r="AL21" s="21">
         <v>599980</v>
       </c>
-      <c r="AM21" s="25" t="s">
+      <c r="AM21" s="21" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="1:39" s="23" customFormat="1">
-      <c r="A22" s="25" t="s">
+    <row r="22" spans="1:39">
+      <c r="A22" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H22" s="26" t="s">
+      <c r="F22" s="21"/>
+      <c r="G22" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H22" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I22" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J22" s="26" t="s">
+      <c r="I22" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="K22" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="L22" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25" t="s">
+      <c r="M22" s="21"/>
+      <c r="N22" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O22" s="25">
+      <c r="O22" s="21">
         <v>0</v>
       </c>
-      <c r="P22" s="25" t="s">
+      <c r="P22" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="Q22" s="25" t="s">
+      <c r="Q22" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="R22" s="25" t="s">
+      <c r="R22" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="S22" s="25" t="s">
+      <c r="S22" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="T22" s="25" t="s">
+      <c r="T22" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25" t="s">
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA22" s="25" t="s">
+      <c r="AA22" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB22" s="25" t="s">
+      <c r="AB22" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AC22" s="25" t="s">
+      <c r="AC22" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AD22" s="25" t="s">
+      <c r="AD22" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="AE22" s="25" t="s">
+      <c r="AE22" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="AF22" s="25" t="s">
+      <c r="AF22" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="AG22" s="25" t="s">
+      <c r="AG22" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25">
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21">
         <v>120.57</v>
       </c>
-      <c r="AJ22" s="25">
+      <c r="AJ22" s="21">
         <v>36.67</v>
       </c>
-      <c r="AK22" s="25">
+      <c r="AK22" s="21">
         <v>83.9</v>
       </c>
-      <c r="AL22" s="25">
+      <c r="AL22" s="21">
         <v>1</v>
       </c>
-      <c r="AM22" s="25" t="s">
+      <c r="AM22" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:39" s="23" customFormat="1">
-      <c r="A23" s="25" t="s">
+    <row r="23" spans="1:39">
+      <c r="A23" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H23" s="26" t="s">
+      <c r="F23" s="21"/>
+      <c r="G23" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I23" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J23" s="26" t="s">
+      <c r="I23" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K23" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="L23" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25" t="s">
+      <c r="M23" s="21"/>
+      <c r="N23" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O23" s="25" t="s">
+      <c r="O23" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="P23" s="25" t="s">
+      <c r="P23" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="Q23" s="25" t="s">
+      <c r="Q23" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="R23" s="25" t="s">
+      <c r="R23" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="S23" s="25" t="s">
+      <c r="S23" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="T23" s="25" t="s">
+      <c r="T23" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25" t="s">
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA23" s="25" t="s">
+      <c r="AA23" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB23" s="25" t="s">
+      <c r="AB23" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AC23" s="25" t="s">
+      <c r="AC23" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AD23" s="25" t="s">
+      <c r="AD23" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="AE23" s="25" t="s">
+      <c r="AE23" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="AF23" s="25" t="s">
+      <c r="AF23" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="AG23" s="25" t="s">
+      <c r="AG23" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25">
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21">
         <v>120.57</v>
       </c>
-      <c r="AJ23" s="25">
+      <c r="AJ23" s="21">
         <v>36.67</v>
       </c>
-      <c r="AK23" s="25">
+      <c r="AK23" s="21">
         <v>83.9</v>
       </c>
-      <c r="AL23" s="25">
+      <c r="AL23" s="21">
         <v>1</v>
       </c>
-      <c r="AM23" s="25" t="s">
+      <c r="AM23" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:39" s="23" customFormat="1">
-      <c r="A24" s="25" t="s">
+    <row r="24" spans="1:39">
+      <c r="A24" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H24" s="26" t="s">
+      <c r="F24" s="21"/>
+      <c r="G24" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I24" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J24" s="26" t="s">
+      <c r="I24" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L24" s="25" t="s">
+      <c r="L24" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25" t="s">
+      <c r="M24" s="21"/>
+      <c r="N24" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="21">
         <v>0</v>
       </c>
-      <c r="P24" s="25" t="s">
+      <c r="P24" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="Q24" s="25" t="s">
+      <c r="Q24" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="R24" s="25" t="s">
+      <c r="R24" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="S24" s="25" t="s">
+      <c r="S24" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="T24" s="25" t="s">
+      <c r="T24" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="25" t="s">
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA24" s="25" t="s">
+      <c r="AA24" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB24" s="25" t="s">
+      <c r="AB24" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AC24" s="25" t="s">
+      <c r="AC24" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD24" s="25" t="s">
+      <c r="AD24" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="AE24" s="25" t="s">
+      <c r="AE24" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="AF24" s="25" t="s">
+      <c r="AF24" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="AG24" s="25" t="s">
+      <c r="AG24" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25">
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="21">
         <v>47.18</v>
       </c>
-      <c r="AJ24" s="25">
+      <c r="AJ24" s="21">
         <v>31.47</v>
       </c>
-      <c r="AK24" s="25">
+      <c r="AK24" s="21">
         <v>15.71</v>
       </c>
-      <c r="AL24" s="25">
+      <c r="AL24" s="21">
         <v>1</v>
       </c>
-      <c r="AM24" s="25" t="s">
+      <c r="AM24" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:39" s="23" customFormat="1">
-      <c r="A25" s="25" t="s">
+    <row r="25" spans="1:39">
+      <c r="A25" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H25" s="26" t="s">
+      <c r="F25" s="21"/>
+      <c r="G25" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="I25" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="J25" s="26" t="s">
+      <c r="I25" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J25" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25" t="s">
+      <c r="M25" s="21"/>
+      <c r="N25" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="O25" s="25" t="s">
+      <c r="O25" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="P25" s="25" t="s">
+      <c r="P25" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="Q25" s="25" t="s">
+      <c r="Q25" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="R25" s="25" t="s">
+      <c r="R25" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="S25" s="25" t="s">
+      <c r="S25" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="T25" s="25" t="s">
+      <c r="T25" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25" t="s">
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA25" s="25" t="s">
+      <c r="AA25" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB25" s="25" t="s">
+      <c r="AB25" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AC25" s="25" t="s">
+      <c r="AC25" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD25" s="25" t="s">
+      <c r="AD25" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="AE25" s="25" t="s">
+      <c r="AE25" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="AF25" s="25" t="s">
+      <c r="AF25" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AG25" s="25" t="s">
+      <c r="AG25" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25">
+      <c r="AH25" s="21"/>
+      <c r="AI25" s="21">
         <v>64.7</v>
       </c>
-      <c r="AJ25" s="25">
+      <c r="AJ25" s="21">
         <v>32.58</v>
       </c>
-      <c r="AK25" s="25">
+      <c r="AK25" s="21">
         <v>32.119999999999997</v>
       </c>
-      <c r="AL25" s="25">
+      <c r="AL25" s="21">
         <v>1</v>
       </c>
-      <c r="AM25" s="25" t="s">
+      <c r="AM25" s="21" t="s">
         <v>278</v>
       </c>
     </row>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A30D1F-5039-44A4-AAA3-AD5ED7C99000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFF6509-6859-4937-91F2-CA3E9FCCEBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="338">
   <si>
     <t>name</t>
   </si>
@@ -1248,6 +1248,16 @@
   </si>
   <si>
     <t>1300</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>端末単価通貨</t>
+    <rPh sb="0" eb="4">
+      <t>タンマツタンカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウカ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1925,10 +1935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q25"/>
+    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -1946,20 +1956,21 @@
     <col min="17" max="17" width="30.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="27.25" customWidth="1"/>
     <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16" customWidth="1"/>
-    <col min="26" max="26" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="13.125" customWidth="1"/>
-    <col min="30" max="30" width="13.25" customWidth="1"/>
-    <col min="31" max="32" width="13.125" customWidth="1"/>
-    <col min="33" max="33" width="12.625" customWidth="1"/>
-    <col min="34" max="34" width="20.25" customWidth="1"/>
-    <col min="35" max="35" width="20.125" customWidth="1"/>
-    <col min="36" max="37" width="11" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
+    <col min="25" max="25" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16" customWidth="1"/>
+    <col min="27" max="27" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13.125" customWidth="1"/>
+    <col min="31" max="31" width="13.25" customWidth="1"/>
+    <col min="32" max="33" width="13.125" customWidth="1"/>
+    <col min="34" max="34" width="12.625" customWidth="1"/>
+    <col min="35" max="35" width="20.25" customWidth="1"/>
+    <col min="36" max="36" width="20.125" customWidth="1"/>
+    <col min="37" max="38" width="11" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
@@ -2029,56 +2040,59 @@
       <c r="W1" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -2144,40 +2158,41 @@
       <c r="W2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="Y2" s="20"/>
       <c r="Z2" s="20"/>
       <c r="AA2" s="20"/>
       <c r="AB2" s="20"/>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="20"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="20"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="20">
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20">
         <v>662</v>
-      </c>
-      <c r="AI2" s="20">
-        <v>372.161</v>
       </c>
       <c r="AJ2" s="20">
         <v>372.161</v>
       </c>
       <c r="AK2" s="20">
+        <v>372.161</v>
+      </c>
+      <c r="AL2" s="20">
         <v>0</v>
       </c>
-      <c r="AL2" s="20">
+      <c r="AM2" s="20">
         <v>40</v>
       </c>
-      <c r="AM2" s="20" t="s">
+      <c r="AN2" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -2243,40 +2258,41 @@
       <c r="W3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y3" s="20"/>
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
       <c r="AB3" s="20"/>
-      <c r="AC3" s="20" t="s">
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD3" s="20"/>
       <c r="AE3" s="20"/>
       <c r="AF3" s="20"/>
       <c r="AG3" s="20"/>
-      <c r="AH3" s="20">
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20">
         <v>690</v>
-      </c>
-      <c r="AI3" s="20">
-        <v>384</v>
       </c>
       <c r="AJ3" s="20">
         <v>384</v>
       </c>
       <c r="AK3" s="20">
+        <v>384</v>
+      </c>
+      <c r="AL3" s="20">
         <v>0</v>
       </c>
-      <c r="AL3" s="20">
+      <c r="AM3" s="20">
         <v>100</v>
       </c>
-      <c r="AM3" s="20" t="s">
+      <c r="AN3" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2342,40 +2358,41 @@
       <c r="W4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="20" t="s">
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
       <c r="AB4" s="20"/>
-      <c r="AC4" s="20" t="s">
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="20"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="20"/>
       <c r="AG4" s="20"/>
-      <c r="AH4" s="20">
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20">
         <v>564</v>
       </c>
-      <c r="AI4" s="20">
+      <c r="AJ4" s="20">
         <v>416</v>
       </c>
-      <c r="AJ4" s="20">
+      <c r="AK4" s="20">
         <v>354</v>
       </c>
-      <c r="AK4" s="20">
+      <c r="AL4" s="20">
         <v>62</v>
       </c>
-      <c r="AL4" s="20">
+      <c r="AM4" s="20">
         <v>475</v>
       </c>
-      <c r="AM4" s="20" t="s">
+      <c r="AN4" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -2441,40 +2458,41 @@
       <c r="W5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X5" s="20" t="s">
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y5" s="20"/>
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
       <c r="AB5" s="20"/>
-      <c r="AC5" s="20" t="s">
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" s="23"/>
       <c r="AE5" s="23"/>
       <c r="AF5" s="23"/>
       <c r="AG5" s="23"/>
-      <c r="AH5" s="23">
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23">
         <v>387</v>
       </c>
-      <c r="AI5" s="20">
+      <c r="AJ5" s="20">
         <v>426</v>
       </c>
-      <c r="AJ5" s="20">
+      <c r="AK5" s="20">
         <v>384</v>
       </c>
-      <c r="AK5" s="20">
+      <c r="AL5" s="20">
         <v>42</v>
       </c>
-      <c r="AL5" s="20">
+      <c r="AM5" s="20">
         <v>576</v>
       </c>
-      <c r="AM5" s="20" t="s">
+      <c r="AN5" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -2540,40 +2558,41 @@
       <c r="W6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X6" s="20" t="s">
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="20" t="s">
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD6" s="20"/>
       <c r="AE6" s="20"/>
       <c r="AF6" s="20"/>
       <c r="AG6" s="20"/>
-      <c r="AH6" s="20" t="s">
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="AI6" s="20">
+      <c r="AJ6" s="20">
         <v>401</v>
       </c>
-      <c r="AJ6" s="20">
+      <c r="AK6" s="20">
         <v>532</v>
       </c>
-      <c r="AK6" s="20">
+      <c r="AL6" s="20">
         <v>49</v>
       </c>
-      <c r="AL6" s="20">
+      <c r="AM6" s="20">
         <v>200</v>
       </c>
-      <c r="AM6" s="20" t="s">
+      <c r="AN6" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -2635,40 +2654,41 @@
       </c>
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
-      <c r="X7" s="20" t="s">
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
-      <c r="AC7" s="20" t="s">
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD7" s="20"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="20"/>
       <c r="AG7" s="20"/>
-      <c r="AH7" s="20" t="s">
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="AI7" s="20">
+      <c r="AJ7" s="20">
         <v>514</v>
       </c>
-      <c r="AJ7" s="20">
+      <c r="AK7" s="20">
         <v>478</v>
       </c>
-      <c r="AK7" s="20">
+      <c r="AL7" s="20">
         <v>36</v>
       </c>
-      <c r="AL7" s="20">
+      <c r="AM7" s="20">
         <v>25</v>
       </c>
-      <c r="AM7" s="20" t="s">
+      <c r="AN7" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -2739,33 +2759,34 @@
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="20" t="s">
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD8" s="20"/>
       <c r="AE8" s="20"/>
       <c r="AF8" s="20"/>
       <c r="AG8" s="20"/>
-      <c r="AH8" s="20" t="s">
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20" t="s">
         <v>254</v>
-      </c>
-      <c r="AI8" s="20">
-        <v>563</v>
       </c>
       <c r="AJ8" s="20">
         <v>563</v>
       </c>
       <c r="AK8" s="20">
+        <v>563</v>
+      </c>
+      <c r="AL8" s="20">
         <v>0</v>
       </c>
-      <c r="AL8" s="20">
+      <c r="AM8" s="20">
         <v>25</v>
       </c>
-      <c r="AM8" s="20" t="s">
+      <c r="AN8" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -2831,40 +2852,41 @@
       <c r="W9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X9" s="20" t="s">
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
-      <c r="AC9" s="20" t="s">
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD9" s="20"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
       <c r="AG9" s="20"/>
-      <c r="AH9" s="20" t="s">
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20" t="s">
         <v>256</v>
-      </c>
-      <c r="AI9" s="20">
-        <v>708</v>
       </c>
       <c r="AJ9" s="20">
         <v>708</v>
       </c>
       <c r="AK9" s="20">
+        <v>708</v>
+      </c>
+      <c r="AL9" s="20">
         <v>0</v>
       </c>
-      <c r="AL9" s="20">
+      <c r="AM9" s="20">
         <v>25</v>
       </c>
-      <c r="AM9" s="20" t="s">
+      <c r="AN9" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -2925,45 +2947,46 @@
       <c r="V10" s="20"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
-      <c r="Y10" s="20" t="s">
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="Z10" s="20" t="s">
+      <c r="AA10" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="AA10" s="20" t="s">
+      <c r="AB10" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="AB10" s="20" t="s">
+      <c r="AC10" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AD10" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD10" s="20"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
       <c r="AG10" s="20"/>
-      <c r="AH10" s="20">
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20">
         <v>1175.32</v>
       </c>
-      <c r="AI10" s="20">
+      <c r="AJ10" s="20">
         <v>318</v>
       </c>
-      <c r="AJ10" s="20">
+      <c r="AK10" s="20">
         <v>265</v>
       </c>
-      <c r="AK10" s="20">
+      <c r="AL10" s="20">
         <v>53</v>
       </c>
-      <c r="AL10" s="20">
+      <c r="AM10" s="20">
         <v>25</v>
       </c>
-      <c r="AM10" s="20" t="s">
+      <c r="AN10" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -3024,45 +3047,46 @@
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="21">
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21">
         <v>878</v>
       </c>
-      <c r="Z11" s="21" t="s">
+      <c r="AA11" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="AA11" s="21" t="s">
+      <c r="AB11" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="AB11" s="21" t="s">
+      <c r="AC11" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="AC11" s="21" t="s">
+      <c r="AD11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AD11" s="21"/>
       <c r="AE11" s="21"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="21"/>
-      <c r="AH11" s="21">
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21">
         <v>720</v>
       </c>
-      <c r="AI11" s="21">
+      <c r="AJ11" s="21">
         <v>565</v>
       </c>
-      <c r="AJ11" s="21">
+      <c r="AK11" s="21">
         <v>503</v>
       </c>
-      <c r="AK11" s="21">
+      <c r="AL11" s="21">
         <v>62</v>
       </c>
-      <c r="AL11" s="21">
+      <c r="AM11" s="21">
         <v>50</v>
       </c>
-      <c r="AM11" s="21" t="s">
+      <c r="AN11" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -3123,45 +3147,46 @@
       <c r="V12" s="21"/>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
-      <c r="Y12" s="21" t="s">
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="Z12" s="21" t="s">
+      <c r="AA12" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA12" s="21" t="s">
+      <c r="AB12" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB12" s="21" t="s">
+      <c r="AC12" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="AC12" s="21" t="s">
+      <c r="AD12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AD12" s="21"/>
       <c r="AE12" s="21"/>
       <c r="AF12" s="21"/>
       <c r="AG12" s="21"/>
-      <c r="AH12" s="21">
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21">
         <v>41500</v>
       </c>
-      <c r="AI12" s="21">
+      <c r="AJ12" s="21">
         <v>1157.01</v>
       </c>
-      <c r="AJ12" s="21">
+      <c r="AK12" s="21">
         <v>659.77</v>
       </c>
-      <c r="AK12" s="21">
+      <c r="AL12" s="21">
         <v>497.24</v>
       </c>
-      <c r="AL12" s="21">
+      <c r="AM12" s="21">
         <v>5000</v>
       </c>
-      <c r="AM12" s="21" t="s">
+      <c r="AN12" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -3222,45 +3247,46 @@
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
-      <c r="Y13" s="21" t="s">
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="Z13" s="21" t="s">
+      <c r="AA13" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA13" s="21" t="s">
+      <c r="AB13" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB13" s="21" t="s">
+      <c r="AC13" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="AC13" s="21" t="s">
+      <c r="AD13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AD13" s="21"/>
       <c r="AE13" s="21"/>
       <c r="AF13" s="21"/>
       <c r="AG13" s="21"/>
-      <c r="AH13" s="21">
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21">
         <v>41250</v>
       </c>
-      <c r="AI13" s="21">
+      <c r="AJ13" s="21">
         <v>1358.65</v>
       </c>
-      <c r="AJ13" s="21">
+      <c r="AK13" s="21">
         <v>712.06</v>
       </c>
-      <c r="AK13" s="21">
+      <c r="AL13" s="21">
         <v>646.59</v>
       </c>
-      <c r="AL13" s="21">
+      <c r="AM13" s="21">
         <v>20000</v>
       </c>
-      <c r="AM13" s="21" t="s">
+      <c r="AN13" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -3326,38 +3352,39 @@
       <c r="W14" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="X14" s="20" t="s">
+      <c r="X14" s="21"/>
+      <c r="Y14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
-      <c r="AC14" s="21" t="s">
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AE14" s="21">
+      <c r="AF14" s="21">
         <v>70</v>
       </c>
-      <c r="AF14" s="21"/>
       <c r="AG14" s="21"/>
-      <c r="AI14" s="21">
+      <c r="AH14" s="21"/>
+      <c r="AJ14" s="21">
         <v>64.7</v>
       </c>
-      <c r="AJ14" s="21">
+      <c r="AK14" s="21">
         <v>32.58</v>
       </c>
-      <c r="AK14" s="21">
+      <c r="AL14" s="21">
         <v>32.119999999999997</v>
       </c>
-      <c r="AL14" s="21">
+      <c r="AM14" s="21">
         <v>0</v>
       </c>
-      <c r="AM14" s="21" t="s">
+      <c r="AN14" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:40">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -3423,39 +3450,40 @@
       <c r="W15" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="X15" s="20" t="s">
+      <c r="X15" s="21"/>
+      <c r="Y15" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="21" t="s">
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21">
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21">
         <v>50</v>
       </c>
-      <c r="AF15" s="21"/>
       <c r="AG15" s="21"/>
-      <c r="AI15" s="21">
-        <v>17.87</v>
-      </c>
+      <c r="AH15" s="21"/>
       <c r="AJ15" s="21">
         <v>17.87</v>
       </c>
       <c r="AK15" s="21">
+        <v>17.87</v>
+      </c>
+      <c r="AL15" s="21">
         <v>0</v>
       </c>
-      <c r="AL15" s="21">
+      <c r="AM15" s="21">
         <v>1</v>
       </c>
-      <c r="AM15" s="21" t="s">
+      <c r="AN15" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:40">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -3522,33 +3550,34 @@
       <c r="Z16" s="21"/>
       <c r="AA16" s="21"/>
       <c r="AB16" s="21"/>
-      <c r="AC16" s="21" t="s">
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21" t="s">
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="AF16" s="21"/>
       <c r="AG16" s="21"/>
       <c r="AH16" s="21"/>
-      <c r="AI16" s="21">
-        <v>102.12</v>
-      </c>
+      <c r="AI16" s="21"/>
       <c r="AJ16" s="21">
         <v>102.12</v>
       </c>
       <c r="AK16" s="21">
+        <v>102.12</v>
+      </c>
+      <c r="AL16" s="21">
         <v>0</v>
       </c>
-      <c r="AL16" s="21">
+      <c r="AM16" s="21">
         <v>1</v>
       </c>
-      <c r="AM16" s="21" t="s">
+      <c r="AN16" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:40">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -3610,42 +3639,43 @@
       </c>
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
-      <c r="X17" s="20" t="s">
+      <c r="X17" s="21"/>
+      <c r="Y17" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
-      <c r="AC17" s="21" t="s">
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21" t="s">
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="AF17" s="21" t="s">
+      <c r="AG17" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="AG17" s="21"/>
       <c r="AH17" s="21"/>
-      <c r="AI17" s="21">
-        <v>99.668000000000006</v>
-      </c>
+      <c r="AI17" s="21"/>
       <c r="AJ17" s="21">
         <v>99.668000000000006</v>
       </c>
       <c r="AK17" s="21">
+        <v>99.668000000000006</v>
+      </c>
+      <c r="AL17" s="21">
         <v>0</v>
       </c>
-      <c r="AL17" s="21">
+      <c r="AM17" s="21">
         <v>1</v>
       </c>
-      <c r="AM17" s="21" t="s">
+      <c r="AN17" s="21" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:40">
       <c r="A18" t="s">
         <v>121</v>
       </c>
@@ -3711,42 +3741,43 @@
       <c r="W18" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="X18" s="20" t="s">
+      <c r="X18" s="21"/>
+      <c r="Y18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="21" t="s">
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="21" t="s">
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="AF18" s="21" t="s">
+      <c r="AG18" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="AG18" s="21"/>
       <c r="AH18" s="21"/>
-      <c r="AI18" s="21">
-        <v>20407.406999999999</v>
-      </c>
+      <c r="AI18" s="21"/>
       <c r="AJ18" s="21">
         <v>20407.406999999999</v>
       </c>
       <c r="AK18" s="21">
+        <v>20407.406999999999</v>
+      </c>
+      <c r="AL18" s="21">
         <v>0</v>
       </c>
-      <c r="AL18" s="21">
+      <c r="AM18" s="21">
         <v>108</v>
       </c>
-      <c r="AM18" s="21" t="s">
+      <c r="AN18" s="21" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:40">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -3808,42 +3839,43 @@
       </c>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
-      <c r="X19" s="20" t="s">
+      <c r="X19" s="21"/>
+      <c r="Y19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
-      <c r="AC19" s="21" t="s">
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="21" t="s">
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="AF19" s="21" t="s">
+      <c r="AG19" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="AG19" s="21"/>
       <c r="AH19" s="21"/>
-      <c r="AI19" s="21">
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21">
         <v>89.9</v>
       </c>
-      <c r="AJ19" s="21">
+      <c r="AK19" s="21">
         <v>44.51</v>
       </c>
-      <c r="AK19" s="21">
+      <c r="AL19" s="21">
         <v>45.39</v>
       </c>
-      <c r="AL19" s="21">
+      <c r="AM19" s="21">
         <v>86521</v>
       </c>
-      <c r="AM19" s="21" t="s">
+      <c r="AN19" s="21" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:40">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -3914,33 +3946,34 @@
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
-      <c r="AC20" s="21" t="s">
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21" t="s">
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="AF20" s="21"/>
       <c r="AG20" s="21"/>
       <c r="AH20" s="21"/>
-      <c r="AI20" s="21">
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21">
         <v>301.06</v>
       </c>
-      <c r="AJ20" s="21">
+      <c r="AK20" s="21">
         <v>218.97</v>
       </c>
-      <c r="AK20" s="21">
+      <c r="AL20" s="21">
         <v>82.09</v>
       </c>
-      <c r="AL20" s="21">
+      <c r="AM20" s="21">
         <v>1</v>
       </c>
-      <c r="AM20" s="21" t="s">
+      <c r="AN20" s="21" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:40">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -4002,42 +4035,43 @@
       </c>
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
-      <c r="X21" s="20" t="s">
+      <c r="X21" s="21"/>
+      <c r="Y21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
-      <c r="AC21" s="21" t="s">
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21" t="s">
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="AF21" s="21" t="s">
+      <c r="AG21" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AG21" s="21"/>
       <c r="AH21" s="21"/>
-      <c r="AI21" s="21">
-        <v>114</v>
-      </c>
+      <c r="AI21" s="21"/>
       <c r="AJ21" s="21">
         <v>114</v>
       </c>
       <c r="AK21" s="21">
+        <v>114</v>
+      </c>
+      <c r="AL21" s="21">
         <v>0</v>
       </c>
-      <c r="AL21" s="21">
+      <c r="AM21" s="21">
         <v>599980</v>
       </c>
-      <c r="AM21" s="21" t="s">
+      <c r="AN21" s="21" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:40">
       <c r="A22" t="s">
         <v>136</v>
       </c>
@@ -4099,48 +4133,49 @@
       <c r="W22" s="21"/>
       <c r="X22" s="21"/>
       <c r="Y22" s="21"/>
-      <c r="Z22" s="21" t="s">
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA22" s="21" t="s">
+      <c r="AB22" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB22" s="21" t="s">
+      <c r="AC22" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AC22" s="21" t="s">
+      <c r="AD22" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AD22" s="21" t="s">
+      <c r="AE22" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="AE22" s="21" t="s">
+      <c r="AF22" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="AF22" s="21" t="s">
+      <c r="AG22" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="AG22" s="21" t="s">
+      <c r="AH22" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="21">
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="21">
         <v>120.57</v>
       </c>
-      <c r="AJ22" s="21">
+      <c r="AK22" s="21">
         <v>36.67</v>
       </c>
-      <c r="AK22" s="21">
+      <c r="AL22" s="21">
         <v>83.9</v>
       </c>
-      <c r="AL22" s="21">
+      <c r="AM22" s="21">
         <v>1</v>
       </c>
-      <c r="AM22" s="21" t="s">
+      <c r="AN22" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:40">
       <c r="A23" t="s">
         <v>140</v>
       </c>
@@ -4202,48 +4237,49 @@
       <c r="W23" s="21"/>
       <c r="X23" s="21"/>
       <c r="Y23" s="21"/>
-      <c r="Z23" s="21" t="s">
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA23" s="21" t="s">
+      <c r="AB23" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB23" s="21" t="s">
+      <c r="AC23" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AC23" s="21" t="s">
+      <c r="AD23" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AD23" s="21" t="s">
+      <c r="AE23" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="AE23" s="21" t="s">
+      <c r="AF23" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="AF23" s="21" t="s">
+      <c r="AG23" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="AG23" s="21" t="s">
+      <c r="AH23" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="21">
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21">
         <v>120.57</v>
       </c>
-      <c r="AJ23" s="21">
+      <c r="AK23" s="21">
         <v>36.67</v>
       </c>
-      <c r="AK23" s="21">
+      <c r="AL23" s="21">
         <v>83.9</v>
       </c>
-      <c r="AL23" s="21">
+      <c r="AM23" s="21">
         <v>1</v>
       </c>
-      <c r="AM23" s="21" t="s">
+      <c r="AN23" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:40">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -4305,48 +4341,49 @@
       <c r="W24" s="21"/>
       <c r="X24" s="21"/>
       <c r="Y24" s="21"/>
-      <c r="Z24" s="21" t="s">
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA24" s="21" t="s">
+      <c r="AB24" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB24" s="21" t="s">
+      <c r="AC24" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AC24" s="21" t="s">
+      <c r="AD24" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD24" s="21" t="s">
+      <c r="AE24" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="AE24" s="21" t="s">
+      <c r="AF24" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="AF24" s="21" t="s">
+      <c r="AG24" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="AG24" s="21" t="s">
+      <c r="AH24" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="21">
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="21">
         <v>47.18</v>
       </c>
-      <c r="AJ24" s="21">
+      <c r="AK24" s="21">
         <v>31.47</v>
       </c>
-      <c r="AK24" s="21">
+      <c r="AL24" s="21">
         <v>15.71</v>
       </c>
-      <c r="AL24" s="21">
+      <c r="AM24" s="21">
         <v>1</v>
       </c>
-      <c r="AM24" s="21" t="s">
+      <c r="AN24" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:40">
       <c r="A25" t="s">
         <v>144</v>
       </c>
@@ -4408,44 +4445,45 @@
       <c r="W25" s="21"/>
       <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
-      <c r="Z25" s="21" t="s">
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA25" s="21" t="s">
+      <c r="AB25" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB25" s="21" t="s">
+      <c r="AC25" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AC25" s="21" t="s">
+      <c r="AD25" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD25" s="21" t="s">
+      <c r="AE25" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="AE25" s="21" t="s">
+      <c r="AF25" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="AF25" s="21" t="s">
+      <c r="AG25" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AG25" s="21" t="s">
+      <c r="AH25" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AH25" s="21"/>
-      <c r="AI25" s="21">
+      <c r="AI25" s="21"/>
+      <c r="AJ25" s="21">
         <v>64.7</v>
       </c>
-      <c r="AJ25" s="21">
+      <c r="AK25" s="21">
         <v>32.58</v>
       </c>
-      <c r="AK25" s="21">
+      <c r="AL25" s="21">
         <v>32.119999999999997</v>
       </c>
-      <c r="AL25" s="21">
+      <c r="AM25" s="21">
         <v>1</v>
       </c>
-      <c r="AM25" s="21" t="s">
+      <c r="AN25" s="21" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4556,10 +4594,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -4571,10 +4609,12 @@
     <col min="17" max="17" width="29.875" customWidth="1"/>
     <col min="21" max="21" width="27.25" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.375" customWidth="1"/>
-    <col min="31" max="31" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
+    <col min="32" max="32" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
@@ -4644,56 +4684,59 @@
       <c r="W1" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:40">
       <c r="A2" s="21" t="s">
         <v>51</v>
       </c>
@@ -4759,40 +4802,41 @@
       <c r="W2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="Y2" s="20"/>
       <c r="Z2" s="20"/>
       <c r="AA2" s="20"/>
       <c r="AB2" s="20"/>
-      <c r="AC2" s="20" t="s">
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="20"/>
       <c r="AE2" s="20"/>
       <c r="AF2" s="20"/>
       <c r="AG2" s="20"/>
-      <c r="AH2" s="20">
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20">
         <v>662</v>
-      </c>
-      <c r="AI2" s="20">
-        <v>372.161</v>
       </c>
       <c r="AJ2" s="20">
         <v>372.161</v>
       </c>
       <c r="AK2" s="20">
+        <v>372.161</v>
+      </c>
+      <c r="AL2" s="20">
         <v>0</v>
       </c>
-      <c r="AL2" s="20">
+      <c r="AM2" s="20">
         <v>40</v>
       </c>
-      <c r="AM2" s="20" t="s">
+      <c r="AN2" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:40">
       <c r="A3" s="21" t="s">
         <v>53</v>
       </c>
@@ -4858,40 +4902,41 @@
       <c r="W3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y3" s="20"/>
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
       <c r="AB3" s="20"/>
-      <c r="AC3" s="20" t="s">
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD3" s="20"/>
       <c r="AE3" s="20"/>
       <c r="AF3" s="20"/>
       <c r="AG3" s="20"/>
-      <c r="AH3" s="20">
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20">
         <v>690</v>
-      </c>
-      <c r="AI3" s="20">
-        <v>384</v>
       </c>
       <c r="AJ3" s="20">
         <v>384</v>
       </c>
       <c r="AK3" s="20">
+        <v>384</v>
+      </c>
+      <c r="AL3" s="20">
         <v>0</v>
       </c>
-      <c r="AL3" s="20">
+      <c r="AM3" s="20">
         <v>100</v>
       </c>
-      <c r="AM3" s="20" t="s">
+      <c r="AN3" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:40">
       <c r="A4" s="21" t="s">
         <v>59</v>
       </c>
@@ -4957,40 +5002,41 @@
       <c r="W4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="20" t="s">
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
       <c r="AB4" s="20"/>
-      <c r="AC4" s="20" t="s">
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="20"/>
       <c r="AE4" s="20"/>
       <c r="AF4" s="20"/>
       <c r="AG4" s="20"/>
-      <c r="AH4" s="20">
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20">
         <v>564</v>
       </c>
-      <c r="AI4" s="20">
+      <c r="AJ4" s="20">
         <v>416</v>
       </c>
-      <c r="AJ4" s="20">
+      <c r="AK4" s="20">
         <v>354</v>
       </c>
-      <c r="AK4" s="20">
+      <c r="AL4" s="20">
         <v>62</v>
       </c>
-      <c r="AL4" s="20">
+      <c r="AM4" s="20">
         <v>475</v>
       </c>
-      <c r="AM4" s="20" t="s">
+      <c r="AN4" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:40">
       <c r="A5" s="21" t="s">
         <v>62</v>
       </c>
@@ -5056,40 +5102,41 @@
       <c r="W5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X5" s="20" t="s">
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y5" s="20"/>
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
       <c r="AB5" s="20"/>
-      <c r="AC5" s="20" t="s">
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" s="23"/>
       <c r="AE5" s="23"/>
       <c r="AF5" s="23"/>
       <c r="AG5" s="23"/>
-      <c r="AH5" s="23">
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23">
         <v>387</v>
       </c>
-      <c r="AI5" s="20">
+      <c r="AJ5" s="20">
         <v>426</v>
       </c>
-      <c r="AJ5" s="20">
+      <c r="AK5" s="20">
         <v>384</v>
       </c>
-      <c r="AK5" s="20">
+      <c r="AL5" s="20">
         <v>42</v>
       </c>
-      <c r="AL5" s="20">
+      <c r="AM5" s="20">
         <v>576</v>
       </c>
-      <c r="AM5" s="20" t="s">
+      <c r="AN5" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:40">
       <c r="A6" s="21" t="s">
         <v>67</v>
       </c>
@@ -5155,40 +5202,41 @@
       <c r="W6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X6" s="20" t="s">
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="20" t="s">
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD6" s="20"/>
       <c r="AE6" s="20"/>
       <c r="AF6" s="20"/>
       <c r="AG6" s="20"/>
-      <c r="AH6" s="20" t="s">
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="AI6" s="20">
+      <c r="AJ6" s="20">
         <v>401</v>
       </c>
-      <c r="AJ6" s="20">
+      <c r="AK6" s="20">
         <v>532</v>
       </c>
-      <c r="AK6" s="20">
+      <c r="AL6" s="20">
         <v>49</v>
       </c>
-      <c r="AL6" s="20">
+      <c r="AM6" s="20">
         <v>200</v>
       </c>
-      <c r="AM6" s="20" t="s">
+      <c r="AN6" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:40">
       <c r="A7" s="21" t="s">
         <v>75</v>
       </c>
@@ -5250,40 +5298,41 @@
       </c>
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
-      <c r="X7" s="20" t="s">
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
-      <c r="AC7" s="20" t="s">
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD7" s="20"/>
       <c r="AE7" s="20"/>
       <c r="AF7" s="20"/>
       <c r="AG7" s="20"/>
-      <c r="AH7" s="20" t="s">
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="AI7" s="20">
+      <c r="AJ7" s="20">
         <v>514</v>
       </c>
-      <c r="AJ7" s="20">
+      <c r="AK7" s="20">
         <v>478</v>
       </c>
-      <c r="AK7" s="20">
+      <c r="AL7" s="20">
         <v>36</v>
       </c>
-      <c r="AL7" s="20">
+      <c r="AM7" s="20">
         <v>25</v>
       </c>
-      <c r="AM7" s="20" t="s">
+      <c r="AN7" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:40">
       <c r="A8" s="21" t="s">
         <v>81</v>
       </c>
@@ -5354,33 +5403,34 @@
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="20" t="s">
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD8" s="20"/>
       <c r="AE8" s="20"/>
       <c r="AF8" s="20"/>
       <c r="AG8" s="20"/>
-      <c r="AH8" s="20" t="s">
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20" t="s">
         <v>254</v>
-      </c>
-      <c r="AI8" s="20">
-        <v>563</v>
       </c>
       <c r="AJ8" s="20">
         <v>563</v>
       </c>
       <c r="AK8" s="20">
+        <v>563</v>
+      </c>
+      <c r="AL8" s="20">
         <v>0</v>
       </c>
-      <c r="AL8" s="20">
+      <c r="AM8" s="20">
         <v>25</v>
       </c>
-      <c r="AM8" s="20" t="s">
+      <c r="AN8" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:40">
       <c r="A9" s="21" t="s">
         <v>85</v>
       </c>
@@ -5446,40 +5496,41 @@
       <c r="W9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="X9" s="20" t="s">
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
-      <c r="AC9" s="20" t="s">
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD9" s="20"/>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
       <c r="AG9" s="20"/>
-      <c r="AH9" s="20" t="s">
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20" t="s">
         <v>256</v>
-      </c>
-      <c r="AI9" s="20">
-        <v>708</v>
       </c>
       <c r="AJ9" s="20">
         <v>708</v>
       </c>
       <c r="AK9" s="20">
+        <v>708</v>
+      </c>
+      <c r="AL9" s="20">
         <v>0</v>
       </c>
-      <c r="AL9" s="20">
+      <c r="AM9" s="20">
         <v>25</v>
       </c>
-      <c r="AM9" s="20" t="s">
+      <c r="AN9" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:40">
       <c r="A10" s="21" t="s">
         <v>90</v>
       </c>
@@ -5540,47 +5591,52 @@
       <c r="V10" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20" t="s">
+      <c r="W10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="X10" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="Z10" s="20" t="s">
+      <c r="AA10" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="AA10" s="20" t="s">
+      <c r="AB10" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="AB10" s="20" t="s">
+      <c r="AC10" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AD10" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AD10" s="20"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
       <c r="AG10" s="20"/>
-      <c r="AH10" s="20">
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20">
         <v>1175.32</v>
       </c>
-      <c r="AI10" s="20">
+      <c r="AJ10" s="20">
         <v>318</v>
       </c>
-      <c r="AJ10" s="20">
+      <c r="AK10" s="20">
         <v>265</v>
       </c>
-      <c r="AK10" s="20">
+      <c r="AL10" s="20">
         <v>53</v>
       </c>
-      <c r="AL10" s="20">
+      <c r="AM10" s="20">
         <v>25</v>
       </c>
-      <c r="AM10" s="20" t="s">
+      <c r="AN10" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:40">
       <c r="A11" s="21" t="s">
         <v>94</v>
       </c>
@@ -5638,48 +5694,55 @@
         <v>36</v>
       </c>
       <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21">
+      <c r="V11" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="W11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="X11" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21">
         <v>878</v>
       </c>
-      <c r="Z11" s="21" t="s">
+      <c r="AA11" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="AA11" s="21" t="s">
+      <c r="AB11" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="AB11" s="21" t="s">
+      <c r="AC11" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="AC11" s="21" t="s">
+      <c r="AD11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AD11" s="21"/>
       <c r="AE11" s="21"/>
       <c r="AF11" s="21"/>
       <c r="AG11" s="21"/>
-      <c r="AH11" s="21">
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21">
         <v>720</v>
       </c>
-      <c r="AI11" s="21">
+      <c r="AJ11" s="21">
         <v>565</v>
       </c>
-      <c r="AJ11" s="21">
+      <c r="AK11" s="21">
         <v>503</v>
       </c>
-      <c r="AK11" s="21">
+      <c r="AL11" s="21">
         <v>62</v>
       </c>
-      <c r="AL11" s="21">
+      <c r="AM11" s="21">
         <v>50</v>
       </c>
-      <c r="AM11" s="21" t="s">
+      <c r="AN11" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:40">
       <c r="A12" s="21" t="s">
         <v>98</v>
       </c>
@@ -5737,48 +5800,55 @@
         <v>36</v>
       </c>
       <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21" t="s">
+      <c r="V12" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="W12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="X12" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="Z12" s="21" t="s">
+      <c r="AA12" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA12" s="21" t="s">
+      <c r="AB12" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB12" s="21" t="s">
+      <c r="AC12" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="AC12" s="21" t="s">
+      <c r="AD12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AD12" s="21"/>
       <c r="AE12" s="21"/>
       <c r="AF12" s="21"/>
       <c r="AG12" s="21"/>
-      <c r="AH12" s="21">
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21">
         <v>41500</v>
       </c>
-      <c r="AI12" s="21">
+      <c r="AJ12" s="21">
         <v>1157.01</v>
       </c>
-      <c r="AJ12" s="21">
+      <c r="AK12" s="21">
         <v>659.77</v>
       </c>
-      <c r="AK12" s="21">
+      <c r="AL12" s="21">
         <v>497.24</v>
       </c>
-      <c r="AL12" s="21">
+      <c r="AM12" s="21">
         <v>5000</v>
       </c>
-      <c r="AM12" s="21" t="s">
+      <c r="AN12" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:40">
       <c r="A13" s="21" t="s">
         <v>104</v>
       </c>
@@ -5836,48 +5906,55 @@
         <v>36</v>
       </c>
       <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21" t="s">
+      <c r="V13" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="W13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="X13" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="Z13" s="21" t="s">
+      <c r="AA13" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA13" s="21" t="s">
+      <c r="AB13" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB13" s="21" t="s">
+      <c r="AC13" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="AC13" s="21" t="s">
+      <c r="AD13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AD13" s="21"/>
       <c r="AE13" s="21"/>
       <c r="AF13" s="21"/>
       <c r="AG13" s="21"/>
-      <c r="AH13" s="21">
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21">
         <v>41250</v>
       </c>
-      <c r="AI13" s="21">
+      <c r="AJ13" s="21">
         <v>1358.65</v>
       </c>
-      <c r="AJ13" s="21">
+      <c r="AK13" s="21">
         <v>712.06</v>
       </c>
-      <c r="AK13" s="21">
+      <c r="AL13" s="21">
         <v>646.59</v>
       </c>
-      <c r="AL13" s="21">
+      <c r="AM13" s="21">
         <v>20000</v>
       </c>
-      <c r="AM13" s="21" t="s">
+      <c r="AN13" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:40">
       <c r="A14" s="21" t="s">
         <v>106</v>
       </c>
@@ -5943,40 +6020,41 @@
       <c r="W14" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="X14" s="20" t="s">
+      <c r="X14" s="21"/>
+      <c r="Y14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
-      <c r="AC14" s="21" t="s">
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD14" s="21"/>
-      <c r="AE14" s="21">
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21">
         <v>70</v>
       </c>
-      <c r="AF14" s="21"/>
       <c r="AG14" s="21"/>
       <c r="AH14" s="21"/>
-      <c r="AI14" s="21">
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21">
         <v>64.7</v>
       </c>
-      <c r="AJ14" s="21">
+      <c r="AK14" s="21">
         <v>32.58</v>
       </c>
-      <c r="AK14" s="21">
+      <c r="AL14" s="21">
         <v>32.119999999999997</v>
       </c>
-      <c r="AL14" s="21">
+      <c r="AM14" s="21">
         <v>0</v>
       </c>
-      <c r="AM14" s="21" t="s">
+      <c r="AN14" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:40">
       <c r="A15" s="21" t="s">
         <v>112</v>
       </c>
@@ -6042,40 +6120,41 @@
       <c r="W15" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="X15" s="20" t="s">
+      <c r="X15" s="21"/>
+      <c r="Y15" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="21" t="s">
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD15" s="21"/>
-      <c r="AE15" s="21">
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21">
         <v>50</v>
       </c>
-      <c r="AF15" s="21"/>
       <c r="AG15" s="21"/>
       <c r="AH15" s="21"/>
-      <c r="AI15" s="21">
-        <v>17.87</v>
-      </c>
+      <c r="AI15" s="21"/>
       <c r="AJ15" s="21">
         <v>17.87</v>
       </c>
       <c r="AK15" s="21">
+        <v>17.87</v>
+      </c>
+      <c r="AL15" s="21">
         <v>0</v>
       </c>
-      <c r="AL15" s="21">
+      <c r="AM15" s="21">
         <v>1</v>
       </c>
-      <c r="AM15" s="21" t="s">
+      <c r="AN15" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:40">
       <c r="A16" s="21" t="s">
         <v>114</v>
       </c>
@@ -6135,40 +6214,45 @@
       <c r="U16" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
+      <c r="V16" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="W16" s="21" t="s">
+        <v>111</v>
+      </c>
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
       <c r="AA16" s="21"/>
       <c r="AB16" s="21"/>
-      <c r="AC16" s="21" t="s">
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21" t="s">
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="AF16" s="21"/>
       <c r="AG16" s="21"/>
       <c r="AH16" s="21"/>
-      <c r="AI16" s="21">
-        <v>102.12</v>
-      </c>
+      <c r="AI16" s="21"/>
       <c r="AJ16" s="21">
         <v>102.12</v>
       </c>
       <c r="AK16" s="21">
+        <v>102.12</v>
+      </c>
+      <c r="AL16" s="21">
         <v>0</v>
       </c>
-      <c r="AL16" s="21">
+      <c r="AM16" s="21">
         <v>1</v>
       </c>
-      <c r="AM16" s="21" t="s">
+      <c r="AN16" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:40">
       <c r="A17" s="21" t="s">
         <v>119</v>
       </c>
@@ -6230,42 +6314,43 @@
       </c>
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
-      <c r="X17" s="20" t="s">
+      <c r="X17" s="21"/>
+      <c r="Y17" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
-      <c r="AC17" s="21" t="s">
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21" t="s">
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="AF17" s="21" t="s">
+      <c r="AG17" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="AG17" s="21"/>
       <c r="AH17" s="21"/>
-      <c r="AI17" s="21">
-        <v>99.668000000000006</v>
-      </c>
+      <c r="AI17" s="21"/>
       <c r="AJ17" s="21">
         <v>99.668000000000006</v>
       </c>
       <c r="AK17" s="21">
+        <v>99.668000000000006</v>
+      </c>
+      <c r="AL17" s="21">
         <v>0</v>
       </c>
-      <c r="AL17" s="21">
+      <c r="AM17" s="21">
         <v>1</v>
       </c>
-      <c r="AM17" s="21" t="s">
+      <c r="AN17" s="21" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:40">
       <c r="A18" s="21" t="s">
         <v>121</v>
       </c>
@@ -6331,42 +6416,43 @@
       <c r="W18" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="X18" s="20" t="s">
+      <c r="X18" s="21"/>
+      <c r="Y18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="21" t="s">
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="21" t="s">
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="AF18" s="21" t="s">
+      <c r="AG18" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="AG18" s="21"/>
       <c r="AH18" s="21"/>
-      <c r="AI18" s="21">
-        <v>20407.406999999999</v>
-      </c>
+      <c r="AI18" s="21"/>
       <c r="AJ18" s="21">
         <v>20407.406999999999</v>
       </c>
       <c r="AK18" s="21">
+        <v>20407.406999999999</v>
+      </c>
+      <c r="AL18" s="21">
         <v>0</v>
       </c>
-      <c r="AL18" s="21">
+      <c r="AM18" s="21">
         <v>108</v>
       </c>
-      <c r="AM18" s="21" t="s">
+      <c r="AN18" s="21" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:40">
       <c r="A19" s="21" t="s">
         <v>125</v>
       </c>
@@ -6428,42 +6514,43 @@
       </c>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
-      <c r="X19" s="20" t="s">
+      <c r="X19" s="21"/>
+      <c r="Y19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
-      <c r="AC19" s="21" t="s">
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="21" t="s">
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="AF19" s="21" t="s">
+      <c r="AG19" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="AG19" s="21"/>
       <c r="AH19" s="21"/>
-      <c r="AI19" s="21">
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21">
         <v>89.9</v>
       </c>
-      <c r="AJ19" s="21">
+      <c r="AK19" s="21">
         <v>44.51</v>
       </c>
-      <c r="AK19" s="21">
+      <c r="AL19" s="21">
         <v>45.39</v>
       </c>
-      <c r="AL19" s="21">
+      <c r="AM19" s="21">
         <v>86521</v>
       </c>
-      <c r="AM19" s="21" t="s">
+      <c r="AN19" s="21" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:40">
       <c r="A20" s="21" t="s">
         <v>129</v>
       </c>
@@ -6534,33 +6621,34 @@
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
-      <c r="AC20" s="21" t="s">
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="21" t="s">
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="AF20" s="21"/>
       <c r="AG20" s="21"/>
       <c r="AH20" s="21"/>
-      <c r="AI20" s="21">
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21">
         <v>301.06</v>
       </c>
-      <c r="AJ20" s="21">
+      <c r="AK20" s="21">
         <v>218.97</v>
       </c>
-      <c r="AK20" s="21">
+      <c r="AL20" s="21">
         <v>82.09</v>
       </c>
-      <c r="AL20" s="21">
+      <c r="AM20" s="21">
         <v>1</v>
       </c>
-      <c r="AM20" s="21" t="s">
+      <c r="AN20" s="21" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:40">
       <c r="A21" s="21" t="s">
         <v>133</v>
       </c>
@@ -6622,42 +6710,43 @@
       </c>
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
-      <c r="X21" s="20" t="s">
+      <c r="X21" s="21"/>
+      <c r="Y21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
-      <c r="AC21" s="21" t="s">
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21" t="s">
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="AF21" s="21" t="s">
+      <c r="AG21" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AG21" s="21"/>
       <c r="AH21" s="21"/>
-      <c r="AI21" s="21">
-        <v>114</v>
-      </c>
+      <c r="AI21" s="21"/>
       <c r="AJ21" s="21">
         <v>114</v>
       </c>
       <c r="AK21" s="21">
+        <v>114</v>
+      </c>
+      <c r="AL21" s="21">
         <v>0</v>
       </c>
-      <c r="AL21" s="21">
+      <c r="AM21" s="21">
         <v>599980</v>
       </c>
-      <c r="AM21" s="21" t="s">
+      <c r="AN21" s="21" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:40">
       <c r="A22" s="21" t="s">
         <v>136</v>
       </c>
@@ -6715,52 +6804,59 @@
         <v>36</v>
       </c>
       <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
+      <c r="V22" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="W22" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="X22" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="Y22" s="21"/>
-      <c r="Z22" s="21" t="s">
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA22" s="21" t="s">
+      <c r="AB22" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB22" s="21" t="s">
+      <c r="AC22" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AC22" s="21" t="s">
+      <c r="AD22" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AD22" s="21" t="s">
+      <c r="AE22" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="AE22" s="21" t="s">
+      <c r="AF22" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="AF22" s="21" t="s">
+      <c r="AG22" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="AG22" s="21" t="s">
+      <c r="AH22" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="21">
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="21">
         <v>120.57</v>
       </c>
-      <c r="AJ22" s="21">
+      <c r="AK22" s="21">
         <v>36.67</v>
       </c>
-      <c r="AK22" s="21">
+      <c r="AL22" s="21">
         <v>83.9</v>
       </c>
-      <c r="AL22" s="21">
+      <c r="AM22" s="21">
         <v>1</v>
       </c>
-      <c r="AM22" s="21" t="s">
+      <c r="AN22" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:40">
       <c r="A23" s="21" t="s">
         <v>140</v>
       </c>
@@ -6818,52 +6914,59 @@
         <v>36</v>
       </c>
       <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
+      <c r="V23" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="W23" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="X23" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="Y23" s="21"/>
-      <c r="Z23" s="21" t="s">
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA23" s="21" t="s">
+      <c r="AB23" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB23" s="21" t="s">
+      <c r="AC23" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AC23" s="21" t="s">
+      <c r="AD23" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AD23" s="21" t="s">
+      <c r="AE23" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="AE23" s="21" t="s">
+      <c r="AF23" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="AF23" s="21" t="s">
+      <c r="AG23" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="AG23" s="21" t="s">
+      <c r="AH23" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="21">
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21">
         <v>120.57</v>
       </c>
-      <c r="AJ23" s="21">
+      <c r="AK23" s="21">
         <v>36.67</v>
       </c>
-      <c r="AK23" s="21">
+      <c r="AL23" s="21">
         <v>83.9</v>
       </c>
-      <c r="AL23" s="21">
+      <c r="AM23" s="21">
         <v>1</v>
       </c>
-      <c r="AM23" s="21" t="s">
+      <c r="AN23" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:40">
       <c r="A24" s="21" t="s">
         <v>142</v>
       </c>
@@ -6921,52 +7024,59 @@
         <v>36</v>
       </c>
       <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
+      <c r="V24" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="W24" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="X24" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="Y24" s="21"/>
-      <c r="Z24" s="21" t="s">
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA24" s="21" t="s">
+      <c r="AB24" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB24" s="21" t="s">
+      <c r="AC24" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AC24" s="21" t="s">
+      <c r="AD24" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD24" s="21" t="s">
+      <c r="AE24" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="AE24" s="21" t="s">
+      <c r="AF24" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="AF24" s="21" t="s">
+      <c r="AG24" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="AG24" s="21" t="s">
+      <c r="AH24" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="21">
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="21">
         <v>47.18</v>
       </c>
-      <c r="AJ24" s="21">
+      <c r="AK24" s="21">
         <v>31.47</v>
       </c>
-      <c r="AK24" s="21">
+      <c r="AL24" s="21">
         <v>15.71</v>
       </c>
-      <c r="AL24" s="21">
+      <c r="AM24" s="21">
         <v>1</v>
       </c>
-      <c r="AM24" s="21" t="s">
+      <c r="AN24" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:40">
       <c r="A25" s="21" t="s">
         <v>144</v>
       </c>
@@ -7024,48 +7134,55 @@
         <v>36</v>
       </c>
       <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
+      <c r="V25" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="W25" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="X25" s="20" t="s">
+        <v>250</v>
+      </c>
       <c r="Y25" s="21"/>
-      <c r="Z25" s="21" t="s">
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA25" s="21" t="s">
+      <c r="AB25" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AB25" s="21" t="s">
+      <c r="AC25" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="AC25" s="21" t="s">
+      <c r="AD25" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="AD25" s="21" t="s">
+      <c r="AE25" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="AE25" s="21" t="s">
+      <c r="AF25" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="AF25" s="21" t="s">
+      <c r="AG25" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AG25" s="21" t="s">
+      <c r="AH25" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AH25" s="21"/>
-      <c r="AI25" s="21">
+      <c r="AI25" s="21"/>
+      <c r="AJ25" s="21">
         <v>64.7</v>
       </c>
-      <c r="AJ25" s="21">
+      <c r="AK25" s="21">
         <v>32.58</v>
       </c>
-      <c r="AK25" s="21">
+      <c r="AL25" s="21">
         <v>32.119999999999997</v>
       </c>
-      <c r="AL25" s="21">
+      <c r="AM25" s="21">
         <v>1</v>
       </c>
-      <c r="AM25" s="21" t="s">
+      <c r="AN25" s="21" t="s">
         <v>278</v>
       </c>
     </row>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\東レ\toray\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFF6509-6859-4937-91F2-CA3E9FCCEBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EDF2E0-C1BB-490F-BDD4-9C18D0A907D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -4596,8 +4596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -7295,8 +7295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE97E5-5474-44D1-9C99-9FD3E0EAB35A}">
   <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7309,7 +7309,8 @@
     <col min="14" max="14" width="17.5" customWidth="1"/>
     <col min="18" max="18" width="34.125" customWidth="1"/>
     <col min="19" max="21" width="10.5"/>
-    <col min="22" max="22" width="19.75" customWidth="1"/>
+    <col min="22" max="22" width="24.125" customWidth="1"/>
+    <col min="23" max="23" width="9.25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.375" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
@@ -8124,9 +8125,7 @@
       <c r="AB9" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AC9" s="21">
-        <v>441.02499999999998</v>
-      </c>
+      <c r="AC9" s="21"/>
       <c r="AD9" s="21">
         <v>264.27999999999997</v>
       </c>
